--- a/2020年1-7月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-7月金源消耗表（财务运营共享版）.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.任务包\1.消耗表\2020.07\金源\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\多彩运营\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D634CA-76FB-48E2-984D-EB443BE158C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="792"/>
   </bookViews>
   <sheets>
     <sheet name="客户表" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户表!$A$1:$AN$428</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">媒体表!$A$1:$U$49</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,13 +35,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
     <author>董雪娇</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="1" shapeId="0" xr:uid="{E06B03A3-E679-4398-85DD-817C30950767}">
+    <comment ref="L23" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="L38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L45" authorId="1" shapeId="0" xr:uid="{C1B205E6-1DC5-4A4F-807C-F81C09BF743B}">
+    <comment ref="L45" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1435,7 +1434,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
@@ -2161,16 +2160,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
-    <cellStyle name="百分比 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="百分比 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="百分比 2 3" xfId="6"/>
+    <cellStyle name="百分比 3" xfId="4"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 2" xfId="7"/>
     <cellStyle name="好" xfId="3" builtinId="26"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="千位分隔 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="千位分隔 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="千位分隔 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="千位分隔 7" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="千位分隔 2" xfId="5"/>
+    <cellStyle name="千位分隔 2 2 2" xfId="8"/>
+    <cellStyle name="千位分隔 3" xfId="9"/>
+    <cellStyle name="千位分隔 7" xfId="10"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2400,7 +2399,9 @@
           <cell r="I2" t="str">
             <v/>
           </cell>
-          <cell r="J2"/>
+          <cell r="J2">
+            <v>0</v>
+          </cell>
           <cell r="K2" t="str">
             <v>预付款</v>
           </cell>
@@ -2478,7 +2479,9 @@
           <cell r="I3" t="str">
             <v/>
           </cell>
-          <cell r="J3"/>
+          <cell r="J3">
+            <v>0</v>
+          </cell>
           <cell r="K3" t="str">
             <v>预付款</v>
           </cell>
@@ -2556,7 +2559,9 @@
           <cell r="I4" t="str">
             <v/>
           </cell>
-          <cell r="J4"/>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
           <cell r="K4" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -2634,7 +2639,9 @@
           <cell r="I5" t="str">
             <v/>
           </cell>
-          <cell r="J5"/>
+          <cell r="J5">
+            <v>0</v>
+          </cell>
           <cell r="K5" t="str">
             <v>预存款,账期付款,预付款</v>
           </cell>
@@ -2712,7 +2719,9 @@
           <cell r="I6" t="str">
             <v/>
           </cell>
-          <cell r="J6"/>
+          <cell r="J6">
+            <v>0</v>
+          </cell>
           <cell r="K6" t="str">
             <v>预付款</v>
           </cell>
@@ -2790,7 +2799,9 @@
           <cell r="I7" t="str">
             <v/>
           </cell>
-          <cell r="J7"/>
+          <cell r="J7">
+            <v>0</v>
+          </cell>
           <cell r="K7" t="str">
             <v>账期付款</v>
           </cell>
@@ -2868,7 +2879,9 @@
           <cell r="I8" t="str">
             <v/>
           </cell>
-          <cell r="J8"/>
+          <cell r="J8">
+            <v>0</v>
+          </cell>
           <cell r="K8" t="str">
             <v>账期付款</v>
           </cell>
@@ -2946,7 +2959,9 @@
           <cell r="I9" t="str">
             <v/>
           </cell>
-          <cell r="J9"/>
+          <cell r="J9">
+            <v>0</v>
+          </cell>
           <cell r="K9" t="str">
             <v>账期付款</v>
           </cell>
@@ -3024,7 +3039,9 @@
           <cell r="I10" t="str">
             <v/>
           </cell>
-          <cell r="J10"/>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
           <cell r="K10" t="str">
             <v>预付款</v>
           </cell>
@@ -3102,7 +3119,9 @@
           <cell r="I11" t="str">
             <v>游戏主管</v>
           </cell>
-          <cell r="J11"/>
+          <cell r="J11">
+            <v>0</v>
+          </cell>
           <cell r="K11" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -3180,7 +3199,9 @@
           <cell r="I12" t="str">
             <v>媒介总监</v>
           </cell>
-          <cell r="J12"/>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
           <cell r="K12" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -3258,7 +3279,9 @@
           <cell r="I13" t="str">
             <v/>
           </cell>
-          <cell r="J13"/>
+          <cell r="J13">
+            <v>0</v>
+          </cell>
           <cell r="K13" t="str">
             <v>预付款</v>
           </cell>
@@ -3336,7 +3359,9 @@
           <cell r="I14" t="str">
             <v/>
           </cell>
-          <cell r="J14"/>
+          <cell r="J14">
+            <v>0</v>
+          </cell>
           <cell r="K14" t="str">
             <v>账期付款</v>
           </cell>
@@ -3414,7 +3439,9 @@
           <cell r="I15" t="str">
             <v/>
           </cell>
-          <cell r="J15"/>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
           <cell r="K15" t="str">
             <v>账期付款</v>
           </cell>
@@ -3492,7 +3519,9 @@
           <cell r="I16" t="str">
             <v/>
           </cell>
-          <cell r="J16"/>
+          <cell r="J16">
+            <v>0</v>
+          </cell>
           <cell r="K16" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -3570,7 +3599,9 @@
           <cell r="I17" t="str">
             <v/>
           </cell>
-          <cell r="J17"/>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
           <cell r="K17" t="str">
             <v>预存款</v>
           </cell>
@@ -3648,7 +3679,9 @@
           <cell r="I18" t="str">
             <v>渠道</v>
           </cell>
-          <cell r="J18"/>
+          <cell r="J18">
+            <v>0</v>
+          </cell>
           <cell r="K18" t="str">
             <v>预存款</v>
           </cell>
@@ -3726,7 +3759,9 @@
           <cell r="I19" t="str">
             <v/>
           </cell>
-          <cell r="J19"/>
+          <cell r="J19">
+            <v>0</v>
+          </cell>
           <cell r="K19" t="str">
             <v>预付款</v>
           </cell>
@@ -3804,7 +3839,9 @@
           <cell r="I20" t="str">
             <v/>
           </cell>
-          <cell r="J20"/>
+          <cell r="J20">
+            <v>0</v>
+          </cell>
           <cell r="K20" t="str">
             <v>预付款</v>
           </cell>
@@ -3882,7 +3919,9 @@
           <cell r="I21" t="str">
             <v/>
           </cell>
-          <cell r="J21"/>
+          <cell r="J21">
+            <v>0</v>
+          </cell>
           <cell r="K21" t="str">
             <v>预付款</v>
           </cell>
@@ -3960,7 +3999,9 @@
           <cell r="I22" t="str">
             <v>销售</v>
           </cell>
-          <cell r="J22"/>
+          <cell r="J22">
+            <v>0</v>
+          </cell>
           <cell r="K22" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -4038,7 +4079,9 @@
           <cell r="I23" t="str">
             <v/>
           </cell>
-          <cell r="J23"/>
+          <cell r="J23">
+            <v>0</v>
+          </cell>
           <cell r="K23" t="str">
             <v>预付款</v>
           </cell>
@@ -4116,7 +4159,9 @@
           <cell r="I24" t="str">
             <v/>
           </cell>
-          <cell r="J24"/>
+          <cell r="J24">
+            <v>0</v>
+          </cell>
           <cell r="K24" t="str">
             <v>账期付款</v>
           </cell>
@@ -4194,7 +4239,9 @@
           <cell r="I25" t="str">
             <v/>
           </cell>
-          <cell r="J25"/>
+          <cell r="J25">
+            <v>0</v>
+          </cell>
           <cell r="K25" t="str">
             <v>账期付款</v>
           </cell>
@@ -4272,7 +4319,9 @@
           <cell r="I26" t="str">
             <v/>
           </cell>
-          <cell r="J26"/>
+          <cell r="J26">
+            <v>0</v>
+          </cell>
           <cell r="K26" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -4350,7 +4399,9 @@
           <cell r="I27" t="str">
             <v/>
           </cell>
-          <cell r="J27"/>
+          <cell r="J27">
+            <v>0</v>
+          </cell>
           <cell r="K27" t="str">
             <v>预付款</v>
           </cell>
@@ -4428,7 +4479,9 @@
           <cell r="I28" t="str">
             <v/>
           </cell>
-          <cell r="J28"/>
+          <cell r="J28">
+            <v>0</v>
+          </cell>
           <cell r="K28" t="str">
             <v>账期付款</v>
           </cell>
@@ -4506,7 +4559,9 @@
           <cell r="I29" t="str">
             <v/>
           </cell>
-          <cell r="J29"/>
+          <cell r="J29">
+            <v>0</v>
+          </cell>
           <cell r="K29" t="str">
             <v>账期付款</v>
           </cell>
@@ -4584,7 +4639,9 @@
           <cell r="I30" t="str">
             <v/>
           </cell>
-          <cell r="J30"/>
+          <cell r="J30">
+            <v>0</v>
+          </cell>
           <cell r="K30" t="str">
             <v>账期付款</v>
           </cell>
@@ -4662,7 +4719,9 @@
           <cell r="I31" t="str">
             <v/>
           </cell>
-          <cell r="J31"/>
+          <cell r="J31">
+            <v>0</v>
+          </cell>
           <cell r="K31" t="str">
             <v>账期付款</v>
           </cell>
@@ -4740,7 +4799,9 @@
           <cell r="I32" t="str">
             <v/>
           </cell>
-          <cell r="J32"/>
+          <cell r="J32">
+            <v>0</v>
+          </cell>
           <cell r="K32" t="str">
             <v>账期付款</v>
           </cell>
@@ -4818,7 +4879,9 @@
           <cell r="I33" t="str">
             <v/>
           </cell>
-          <cell r="J33"/>
+          <cell r="J33">
+            <v>0</v>
+          </cell>
           <cell r="K33" t="str">
             <v>账期付款</v>
           </cell>
@@ -4896,7 +4959,9 @@
           <cell r="I34" t="str">
             <v/>
           </cell>
-          <cell r="J34"/>
+          <cell r="J34">
+            <v>0</v>
+          </cell>
           <cell r="K34" t="str">
             <v>账期付款</v>
           </cell>
@@ -4974,7 +5039,9 @@
           <cell r="I35" t="str">
             <v/>
           </cell>
-          <cell r="J35"/>
+          <cell r="J35">
+            <v>0</v>
+          </cell>
           <cell r="K35" t="str">
             <v>预付款</v>
           </cell>
@@ -5052,7 +5119,9 @@
           <cell r="I36" t="str">
             <v/>
           </cell>
-          <cell r="J36"/>
+          <cell r="J36">
+            <v>0</v>
+          </cell>
           <cell r="K36" t="str">
             <v>预存款</v>
           </cell>
@@ -5130,7 +5199,9 @@
           <cell r="I37" t="str">
             <v/>
           </cell>
-          <cell r="J37"/>
+          <cell r="J37">
+            <v>0</v>
+          </cell>
           <cell r="K37" t="str">
             <v>预付款</v>
           </cell>
@@ -5208,7 +5279,9 @@
           <cell r="I38" t="str">
             <v/>
           </cell>
-          <cell r="J38"/>
+          <cell r="J38">
+            <v>0</v>
+          </cell>
           <cell r="K38" t="str">
             <v>预付款</v>
           </cell>
@@ -5286,7 +5359,9 @@
           <cell r="I39" t="str">
             <v/>
           </cell>
-          <cell r="J39"/>
+          <cell r="J39">
+            <v>0</v>
+          </cell>
           <cell r="K39" t="str">
             <v>预付款</v>
           </cell>
@@ -5364,7 +5439,9 @@
           <cell r="I40" t="str">
             <v/>
           </cell>
-          <cell r="J40"/>
+          <cell r="J40">
+            <v>0</v>
+          </cell>
           <cell r="K40" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -5442,7 +5519,9 @@
           <cell r="I41" t="str">
             <v/>
           </cell>
-          <cell r="J41"/>
+          <cell r="J41">
+            <v>0</v>
+          </cell>
           <cell r="K41" t="str">
             <v>预付款</v>
           </cell>
@@ -5520,7 +5599,9 @@
           <cell r="I42" t="str">
             <v/>
           </cell>
-          <cell r="J42"/>
+          <cell r="J42">
+            <v>0</v>
+          </cell>
           <cell r="K42" t="str">
             <v>预付款</v>
           </cell>
@@ -5598,7 +5679,9 @@
           <cell r="I43" t="str">
             <v/>
           </cell>
-          <cell r="J43"/>
+          <cell r="J43">
+            <v>0</v>
+          </cell>
           <cell r="K43" t="str">
             <v>预付款</v>
           </cell>
@@ -5676,7 +5759,9 @@
           <cell r="I44" t="str">
             <v/>
           </cell>
-          <cell r="J44"/>
+          <cell r="J44">
+            <v>0</v>
+          </cell>
           <cell r="K44" t="str">
             <v>预付款</v>
           </cell>
@@ -5754,7 +5839,9 @@
           <cell r="I45" t="str">
             <v/>
           </cell>
-          <cell r="J45"/>
+          <cell r="J45">
+            <v>0</v>
+          </cell>
           <cell r="K45" t="str">
             <v>预付款</v>
           </cell>
@@ -5832,7 +5919,9 @@
           <cell r="I46" t="str">
             <v/>
           </cell>
-          <cell r="J46"/>
+          <cell r="J46">
+            <v>0</v>
+          </cell>
           <cell r="K46" t="str">
             <v>预付款</v>
           </cell>
@@ -5910,7 +5999,9 @@
           <cell r="I47" t="str">
             <v/>
           </cell>
-          <cell r="J47"/>
+          <cell r="J47">
+            <v>0</v>
+          </cell>
           <cell r="K47" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -5988,7 +6079,9 @@
           <cell r="I48" t="str">
             <v/>
           </cell>
-          <cell r="J48"/>
+          <cell r="J48">
+            <v>0</v>
+          </cell>
           <cell r="K48" t="str">
             <v>预付款</v>
           </cell>
@@ -6066,7 +6159,9 @@
           <cell r="I49" t="str">
             <v/>
           </cell>
-          <cell r="J49"/>
+          <cell r="J49">
+            <v>0</v>
+          </cell>
           <cell r="K49" t="str">
             <v>预付款</v>
           </cell>
@@ -6144,7 +6239,9 @@
           <cell r="I50" t="str">
             <v/>
           </cell>
-          <cell r="J50"/>
+          <cell r="J50">
+            <v>0</v>
+          </cell>
           <cell r="K50" t="str">
             <v>预付款</v>
           </cell>
@@ -6222,7 +6319,9 @@
           <cell r="I51" t="str">
             <v/>
           </cell>
-          <cell r="J51"/>
+          <cell r="J51">
+            <v>0</v>
+          </cell>
           <cell r="K51" t="str">
             <v>预付款</v>
           </cell>
@@ -6300,7 +6399,9 @@
           <cell r="I52" t="str">
             <v/>
           </cell>
-          <cell r="J52"/>
+          <cell r="J52">
+            <v>0</v>
+          </cell>
           <cell r="K52" t="str">
             <v>预付款</v>
           </cell>
@@ -6378,7 +6479,9 @@
           <cell r="I53" t="str">
             <v/>
           </cell>
-          <cell r="J53"/>
+          <cell r="J53">
+            <v>0</v>
+          </cell>
           <cell r="K53" t="str">
             <v>预付款</v>
           </cell>
@@ -6456,7 +6559,9 @@
           <cell r="I54" t="str">
             <v/>
           </cell>
-          <cell r="J54"/>
+          <cell r="J54">
+            <v>0</v>
+          </cell>
           <cell r="K54" t="str">
             <v>账期付款</v>
           </cell>
@@ -6534,7 +6639,9 @@
           <cell r="I55" t="str">
             <v/>
           </cell>
-          <cell r="J55"/>
+          <cell r="J55">
+            <v>0</v>
+          </cell>
           <cell r="K55" t="str">
             <v>账期付款</v>
           </cell>
@@ -6612,7 +6719,9 @@
           <cell r="I56" t="str">
             <v/>
           </cell>
-          <cell r="J56"/>
+          <cell r="J56">
+            <v>0</v>
+          </cell>
           <cell r="K56" t="str">
             <v>账期付款</v>
           </cell>
@@ -6690,7 +6799,9 @@
           <cell r="I57" t="str">
             <v/>
           </cell>
-          <cell r="J57"/>
+          <cell r="J57">
+            <v>0</v>
+          </cell>
           <cell r="K57" t="str">
             <v>预付款</v>
           </cell>
@@ -6768,7 +6879,9 @@
           <cell r="I58" t="str">
             <v/>
           </cell>
-          <cell r="J58"/>
+          <cell r="J58">
+            <v>0</v>
+          </cell>
           <cell r="K58" t="str">
             <v>账期付款</v>
           </cell>
@@ -6846,7 +6959,9 @@
           <cell r="I59" t="str">
             <v/>
           </cell>
-          <cell r="J59"/>
+          <cell r="J59">
+            <v>0</v>
+          </cell>
           <cell r="K59" t="str">
             <v>预付款</v>
           </cell>
@@ -6924,7 +7039,9 @@
           <cell r="I60" t="str">
             <v/>
           </cell>
-          <cell r="J60"/>
+          <cell r="J60">
+            <v>0</v>
+          </cell>
           <cell r="K60" t="str">
             <v>预付款</v>
           </cell>
@@ -7002,7 +7119,9 @@
           <cell r="I61" t="str">
             <v/>
           </cell>
-          <cell r="J61"/>
+          <cell r="J61">
+            <v>0</v>
+          </cell>
           <cell r="K61" t="str">
             <v>预付款</v>
           </cell>
@@ -7080,7 +7199,9 @@
           <cell r="I62" t="str">
             <v/>
           </cell>
-          <cell r="J62"/>
+          <cell r="J62">
+            <v>0</v>
+          </cell>
           <cell r="K62" t="str">
             <v>预付款</v>
           </cell>
@@ -7158,7 +7279,9 @@
           <cell r="I63" t="str">
             <v/>
           </cell>
-          <cell r="J63"/>
+          <cell r="J63">
+            <v>0</v>
+          </cell>
           <cell r="K63" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -7236,7 +7359,9 @@
           <cell r="I64" t="str">
             <v/>
           </cell>
-          <cell r="J64"/>
+          <cell r="J64">
+            <v>0</v>
+          </cell>
           <cell r="K64" t="str">
             <v>预付款</v>
           </cell>
@@ -7314,7 +7439,9 @@
           <cell r="I65" t="str">
             <v/>
           </cell>
-          <cell r="J65"/>
+          <cell r="J65">
+            <v>0</v>
+          </cell>
           <cell r="K65" t="str">
             <v>预付款</v>
           </cell>
@@ -7392,7 +7519,9 @@
           <cell r="I66" t="str">
             <v/>
           </cell>
-          <cell r="J66"/>
+          <cell r="J66">
+            <v>0</v>
+          </cell>
           <cell r="K66" t="str">
             <v>预付款</v>
           </cell>
@@ -7470,7 +7599,9 @@
           <cell r="I67" t="str">
             <v/>
           </cell>
-          <cell r="J67"/>
+          <cell r="J67">
+            <v>0</v>
+          </cell>
           <cell r="K67" t="str">
             <v>预付款</v>
           </cell>
@@ -7548,7 +7679,9 @@
           <cell r="I68" t="str">
             <v>商务经纪人</v>
           </cell>
-          <cell r="J68"/>
+          <cell r="J68">
+            <v>0</v>
+          </cell>
           <cell r="K68" t="str">
             <v>预付款</v>
           </cell>
@@ -7626,7 +7759,9 @@
           <cell r="I69" t="str">
             <v/>
           </cell>
-          <cell r="J69"/>
+          <cell r="J69">
+            <v>0</v>
+          </cell>
           <cell r="K69" t="str">
             <v>账期付款</v>
           </cell>
@@ -7704,7 +7839,9 @@
           <cell r="I70" t="str">
             <v/>
           </cell>
-          <cell r="J70"/>
+          <cell r="J70">
+            <v>0</v>
+          </cell>
           <cell r="K70" t="str">
             <v>账期付款</v>
           </cell>
@@ -7782,7 +7919,9 @@
           <cell r="I71" t="str">
             <v/>
           </cell>
-          <cell r="J71"/>
+          <cell r="J71">
+            <v>0</v>
+          </cell>
           <cell r="K71" t="str">
             <v>预付款</v>
           </cell>
@@ -7860,7 +7999,9 @@
           <cell r="I72" t="str">
             <v/>
           </cell>
-          <cell r="J72"/>
+          <cell r="J72">
+            <v>0</v>
+          </cell>
           <cell r="K72" t="str">
             <v>预付款</v>
           </cell>
@@ -7938,7 +8079,9 @@
           <cell r="I73" t="str">
             <v/>
           </cell>
-          <cell r="J73"/>
+          <cell r="J73">
+            <v>0</v>
+          </cell>
           <cell r="K73" t="str">
             <v>预付款</v>
           </cell>
@@ -8016,7 +8159,9 @@
           <cell r="I74" t="str">
             <v/>
           </cell>
-          <cell r="J74"/>
+          <cell r="J74">
+            <v>0</v>
+          </cell>
           <cell r="K74" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -8094,7 +8239,9 @@
           <cell r="I75" t="str">
             <v/>
           </cell>
-          <cell r="J75"/>
+          <cell r="J75">
+            <v>0</v>
+          </cell>
           <cell r="K75" t="str">
             <v>账期付款</v>
           </cell>
@@ -8172,7 +8319,9 @@
           <cell r="I76" t="str">
             <v/>
           </cell>
-          <cell r="J76"/>
+          <cell r="J76">
+            <v>0</v>
+          </cell>
           <cell r="K76" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -8250,7 +8399,9 @@
           <cell r="I77" t="str">
             <v/>
           </cell>
-          <cell r="J77"/>
+          <cell r="J77">
+            <v>0</v>
+          </cell>
           <cell r="K77" t="str">
             <v>账期付款</v>
           </cell>
@@ -8328,7 +8479,9 @@
           <cell r="I78" t="str">
             <v/>
           </cell>
-          <cell r="J78"/>
+          <cell r="J78">
+            <v>0</v>
+          </cell>
           <cell r="K78" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -8406,7 +8559,9 @@
           <cell r="I79" t="str">
             <v/>
           </cell>
-          <cell r="J79"/>
+          <cell r="J79">
+            <v>0</v>
+          </cell>
           <cell r="K79" t="str">
             <v>预付款</v>
           </cell>
@@ -8484,7 +8639,9 @@
           <cell r="I80" t="str">
             <v/>
           </cell>
-          <cell r="J80"/>
+          <cell r="J80">
+            <v>0</v>
+          </cell>
           <cell r="K80" t="str">
             <v>预付款</v>
           </cell>
@@ -8562,7 +8719,9 @@
           <cell r="I81" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J81"/>
+          <cell r="J81">
+            <v>0</v>
+          </cell>
           <cell r="K81" t="str">
             <v>账期付款</v>
           </cell>
@@ -8640,7 +8799,9 @@
           <cell r="I82" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J82"/>
+          <cell r="J82">
+            <v>0</v>
+          </cell>
           <cell r="K82" t="str">
             <v>账期付款</v>
           </cell>
@@ -8718,7 +8879,9 @@
           <cell r="I83" t="str">
             <v/>
           </cell>
-          <cell r="J83"/>
+          <cell r="J83">
+            <v>0</v>
+          </cell>
           <cell r="K83" t="str">
             <v>预付款</v>
           </cell>
@@ -8796,7 +8959,9 @@
           <cell r="I84" t="str">
             <v>效果渠道经理</v>
           </cell>
-          <cell r="J84"/>
+          <cell r="J84">
+            <v>0</v>
+          </cell>
           <cell r="K84" t="str">
             <v>预存款,预付款</v>
           </cell>
@@ -8874,7 +9039,9 @@
           <cell r="I85" t="str">
             <v/>
           </cell>
-          <cell r="J85"/>
+          <cell r="J85">
+            <v>0</v>
+          </cell>
           <cell r="K85" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -8952,7 +9119,9 @@
           <cell r="I86" t="str">
             <v/>
           </cell>
-          <cell r="J86"/>
+          <cell r="J86">
+            <v>0</v>
+          </cell>
           <cell r="K86" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -9030,7 +9199,9 @@
           <cell r="I87" t="str">
             <v/>
           </cell>
-          <cell r="J87"/>
+          <cell r="J87">
+            <v>0</v>
+          </cell>
           <cell r="K87" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -9108,7 +9279,9 @@
           <cell r="I88" t="str">
             <v/>
           </cell>
-          <cell r="J88"/>
+          <cell r="J88">
+            <v>0</v>
+          </cell>
           <cell r="K88" t="str">
             <v>预存款,预付款</v>
           </cell>
@@ -9186,7 +9359,9 @@
           <cell r="I89" t="str">
             <v/>
           </cell>
-          <cell r="J89"/>
+          <cell r="J89">
+            <v>0</v>
+          </cell>
           <cell r="K89" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -9264,7 +9439,9 @@
           <cell r="I90" t="str">
             <v/>
           </cell>
-          <cell r="J90"/>
+          <cell r="J90">
+            <v>0</v>
+          </cell>
           <cell r="K90" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -9342,7 +9519,9 @@
           <cell r="I91" t="str">
             <v/>
           </cell>
-          <cell r="J91"/>
+          <cell r="J91">
+            <v>0</v>
+          </cell>
           <cell r="K91" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -9420,7 +9599,9 @@
           <cell r="I92" t="str">
             <v/>
           </cell>
-          <cell r="J92"/>
+          <cell r="J92">
+            <v>0</v>
+          </cell>
           <cell r="K92" t="str">
             <v>预付款</v>
           </cell>
@@ -9498,7 +9679,9 @@
           <cell r="I93" t="str">
             <v/>
           </cell>
-          <cell r="J93"/>
+          <cell r="J93">
+            <v>0</v>
+          </cell>
           <cell r="K93" t="str">
             <v>账期付款</v>
           </cell>
@@ -9576,7 +9759,9 @@
           <cell r="I94" t="str">
             <v/>
           </cell>
-          <cell r="J94"/>
+          <cell r="J94">
+            <v>0</v>
+          </cell>
           <cell r="K94" t="str">
             <v>预存款</v>
           </cell>
@@ -9654,7 +9839,9 @@
           <cell r="I95" t="str">
             <v/>
           </cell>
-          <cell r="J95"/>
+          <cell r="J95">
+            <v>0</v>
+          </cell>
           <cell r="K95" t="str">
             <v>预付款</v>
           </cell>
@@ -9732,7 +9919,9 @@
           <cell r="I96" t="str">
             <v/>
           </cell>
-          <cell r="J96"/>
+          <cell r="J96">
+            <v>0</v>
+          </cell>
           <cell r="K96" t="str">
             <v>预付款</v>
           </cell>
@@ -9810,7 +9999,9 @@
           <cell r="I97" t="str">
             <v/>
           </cell>
-          <cell r="J97"/>
+          <cell r="J97">
+            <v>0</v>
+          </cell>
           <cell r="K97" t="str">
             <v>预存款</v>
           </cell>
@@ -9888,7 +10079,9 @@
           <cell r="I98" t="str">
             <v/>
           </cell>
-          <cell r="J98"/>
+          <cell r="J98">
+            <v>0</v>
+          </cell>
           <cell r="K98" t="str">
             <v>预存款</v>
           </cell>
@@ -9966,7 +10159,9 @@
           <cell r="I99" t="str">
             <v>商务合作经理</v>
           </cell>
-          <cell r="J99"/>
+          <cell r="J99">
+            <v>0</v>
+          </cell>
           <cell r="K99" t="str">
             <v>账期付款</v>
           </cell>
@@ -10044,7 +10239,9 @@
           <cell r="I100" t="str">
             <v>商务合作经理</v>
           </cell>
-          <cell r="J100"/>
+          <cell r="J100">
+            <v>0</v>
+          </cell>
           <cell r="K100" t="str">
             <v>账期付款</v>
           </cell>
@@ -10122,7 +10319,9 @@
           <cell r="I101" t="str">
             <v/>
           </cell>
-          <cell r="J101"/>
+          <cell r="J101">
+            <v>0</v>
+          </cell>
           <cell r="K101" t="str">
             <v>预付款</v>
           </cell>
@@ -10200,7 +10399,9 @@
           <cell r="I102" t="str">
             <v>商务</v>
           </cell>
-          <cell r="J102"/>
+          <cell r="J102">
+            <v>0</v>
+          </cell>
           <cell r="K102" t="str">
             <v>预存款</v>
           </cell>
@@ -10278,7 +10479,9 @@
           <cell r="I103" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J103"/>
+          <cell r="J103">
+            <v>0</v>
+          </cell>
           <cell r="K103" t="str">
             <v>预存款</v>
           </cell>
@@ -10356,7 +10559,9 @@
           <cell r="I104" t="str">
             <v>商务</v>
           </cell>
-          <cell r="J104"/>
+          <cell r="J104">
+            <v>0</v>
+          </cell>
           <cell r="K104" t="str">
             <v>预存款</v>
           </cell>
@@ -10434,7 +10639,9 @@
           <cell r="I105" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J105"/>
+          <cell r="J105">
+            <v>0</v>
+          </cell>
           <cell r="K105" t="str">
             <v>账期付款</v>
           </cell>
@@ -10512,7 +10719,9 @@
           <cell r="I106" t="str">
             <v>CEO</v>
           </cell>
-          <cell r="J106"/>
+          <cell r="J106">
+            <v>0</v>
+          </cell>
           <cell r="K106" t="str">
             <v>账期付款</v>
           </cell>
@@ -10590,7 +10799,9 @@
           <cell r="I107" t="str">
             <v>渠道总监</v>
           </cell>
-          <cell r="J107"/>
+          <cell r="J107">
+            <v>0</v>
+          </cell>
           <cell r="K107" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -10668,7 +10879,9 @@
           <cell r="I108" t="str">
             <v>渠道总监</v>
           </cell>
-          <cell r="J108"/>
+          <cell r="J108">
+            <v>0</v>
+          </cell>
           <cell r="K108" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -10746,7 +10959,9 @@
           <cell r="I109" t="str">
             <v/>
           </cell>
-          <cell r="J109"/>
+          <cell r="J109">
+            <v>0</v>
+          </cell>
           <cell r="K109" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -10824,7 +11039,9 @@
           <cell r="I110" t="str">
             <v>销售</v>
           </cell>
-          <cell r="J110"/>
+          <cell r="J110">
+            <v>0</v>
+          </cell>
           <cell r="K110" t="str">
             <v>账期付款</v>
           </cell>
@@ -10902,7 +11119,9 @@
           <cell r="I111" t="str">
             <v>商务</v>
           </cell>
-          <cell r="J111"/>
+          <cell r="J111">
+            <v>0</v>
+          </cell>
           <cell r="K111" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -10980,7 +11199,9 @@
           <cell r="I112" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J112"/>
+          <cell r="J112">
+            <v>0</v>
+          </cell>
           <cell r="K112" t="str">
             <v>账期付款</v>
           </cell>
@@ -11058,7 +11279,9 @@
           <cell r="I113" t="str">
             <v>全国客户总监</v>
           </cell>
-          <cell r="J113"/>
+          <cell r="J113">
+            <v>0</v>
+          </cell>
           <cell r="K113" t="str">
             <v>预付款</v>
           </cell>
@@ -11136,7 +11359,9 @@
           <cell r="I114" t="str">
             <v>渠道</v>
           </cell>
-          <cell r="J114"/>
+          <cell r="J114">
+            <v>0</v>
+          </cell>
           <cell r="K114" t="str">
             <v>预付款</v>
           </cell>
@@ -11214,7 +11439,9 @@
           <cell r="I115" t="str">
             <v/>
           </cell>
-          <cell r="J115"/>
+          <cell r="J115">
+            <v>0</v>
+          </cell>
           <cell r="K115" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -11292,7 +11519,9 @@
           <cell r="I116" t="str">
             <v/>
           </cell>
-          <cell r="J116"/>
+          <cell r="J116">
+            <v>0</v>
+          </cell>
           <cell r="K116" t="str">
             <v>预存款</v>
           </cell>
@@ -11370,7 +11599,9 @@
           <cell r="I117" t="str">
             <v/>
           </cell>
-          <cell r="J117"/>
+          <cell r="J117">
+            <v>0</v>
+          </cell>
           <cell r="K117" t="str">
             <v>预付款</v>
           </cell>
@@ -11448,7 +11679,9 @@
           <cell r="I118" t="str">
             <v/>
           </cell>
-          <cell r="J118"/>
+          <cell r="J118">
+            <v>0</v>
+          </cell>
           <cell r="K118" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -11526,7 +11759,9 @@
           <cell r="I119" t="str">
             <v/>
           </cell>
-          <cell r="J119"/>
+          <cell r="J119">
+            <v>0</v>
+          </cell>
           <cell r="K119" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -11604,7 +11839,9 @@
           <cell r="I120" t="str">
             <v/>
           </cell>
-          <cell r="J120"/>
+          <cell r="J120">
+            <v>0</v>
+          </cell>
           <cell r="K120" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -11682,7 +11919,9 @@
           <cell r="I121" t="str">
             <v/>
           </cell>
-          <cell r="J121"/>
+          <cell r="J121">
+            <v>0</v>
+          </cell>
           <cell r="K121" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -11760,7 +11999,9 @@
           <cell r="I122" t="str">
             <v/>
           </cell>
-          <cell r="J122"/>
+          <cell r="J122">
+            <v>0</v>
+          </cell>
           <cell r="K122" t="str">
             <v>预存款</v>
           </cell>
@@ -11838,7 +12079,9 @@
           <cell r="I123" t="str">
             <v/>
           </cell>
-          <cell r="J123"/>
+          <cell r="J123">
+            <v>0</v>
+          </cell>
           <cell r="K123" t="str">
             <v>预存款</v>
           </cell>
@@ -11916,7 +12159,9 @@
           <cell r="I124" t="str">
             <v/>
           </cell>
-          <cell r="J124"/>
+          <cell r="J124">
+            <v>0</v>
+          </cell>
           <cell r="K124" t="str">
             <v>预存款</v>
           </cell>
@@ -11994,7 +12239,9 @@
           <cell r="I125" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J125"/>
+          <cell r="J125">
+            <v>0</v>
+          </cell>
           <cell r="K125" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -12072,7 +12319,9 @@
           <cell r="I126" t="str">
             <v/>
           </cell>
-          <cell r="J126"/>
+          <cell r="J126">
+            <v>0</v>
+          </cell>
           <cell r="K126" t="str">
             <v>预存款</v>
           </cell>
@@ -12150,7 +12399,9 @@
           <cell r="I127" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J127"/>
+          <cell r="J127">
+            <v>0</v>
+          </cell>
           <cell r="K127" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -12228,7 +12479,9 @@
           <cell r="I128" t="str">
             <v/>
           </cell>
-          <cell r="J128"/>
+          <cell r="J128">
+            <v>0</v>
+          </cell>
           <cell r="K128" t="str">
             <v>预存款</v>
           </cell>
@@ -12306,7 +12559,9 @@
           <cell r="I129" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J129"/>
+          <cell r="J129">
+            <v>0</v>
+          </cell>
           <cell r="K129" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -12384,7 +12639,9 @@
           <cell r="I130" t="str">
             <v/>
           </cell>
-          <cell r="J130"/>
+          <cell r="J130">
+            <v>0</v>
+          </cell>
           <cell r="K130" t="str">
             <v>预存款</v>
           </cell>
@@ -12462,7 +12719,9 @@
           <cell r="I131" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J131"/>
+          <cell r="J131">
+            <v>0</v>
+          </cell>
           <cell r="K131" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -12540,7 +12799,9 @@
           <cell r="I132" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J132"/>
+          <cell r="J132">
+            <v>0</v>
+          </cell>
           <cell r="K132" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -12618,7 +12879,9 @@
           <cell r="I133" t="str">
             <v/>
           </cell>
-          <cell r="J133"/>
+          <cell r="J133">
+            <v>0</v>
+          </cell>
           <cell r="K133" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -12696,7 +12959,9 @@
           <cell r="I134" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J134"/>
+          <cell r="J134">
+            <v>0</v>
+          </cell>
           <cell r="K134" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -12774,7 +13039,9 @@
           <cell r="I135" t="str">
             <v/>
           </cell>
-          <cell r="J135"/>
+          <cell r="J135">
+            <v>0</v>
+          </cell>
           <cell r="K135" t="str">
             <v>预存款</v>
           </cell>
@@ -12852,7 +13119,9 @@
           <cell r="I136" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J136"/>
+          <cell r="J136">
+            <v>0</v>
+          </cell>
           <cell r="K136" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -12930,7 +13199,9 @@
           <cell r="I137" t="str">
             <v/>
           </cell>
-          <cell r="J137"/>
+          <cell r="J137">
+            <v>0</v>
+          </cell>
           <cell r="K137" t="str">
             <v>预存款</v>
           </cell>
@@ -13008,7 +13279,9 @@
           <cell r="I138" t="str">
             <v/>
           </cell>
-          <cell r="J138"/>
+          <cell r="J138">
+            <v>0</v>
+          </cell>
           <cell r="K138" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -13086,7 +13359,9 @@
           <cell r="I139" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J139"/>
+          <cell r="J139">
+            <v>0</v>
+          </cell>
           <cell r="K139" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -13164,7 +13439,9 @@
           <cell r="I140" t="str">
             <v/>
           </cell>
-          <cell r="J140"/>
+          <cell r="J140">
+            <v>0</v>
+          </cell>
           <cell r="K140" t="str">
             <v>预存款</v>
           </cell>
@@ -13242,7 +13519,9 @@
           <cell r="I141" t="str">
             <v/>
           </cell>
-          <cell r="J141"/>
+          <cell r="J141">
+            <v>0</v>
+          </cell>
           <cell r="K141" t="str">
             <v>预存款</v>
           </cell>
@@ -13320,7 +13599,9 @@
           <cell r="I142" t="str">
             <v/>
           </cell>
-          <cell r="J142"/>
+          <cell r="J142">
+            <v>0</v>
+          </cell>
           <cell r="K142" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -13398,7 +13679,9 @@
           <cell r="I143" t="str">
             <v/>
           </cell>
-          <cell r="J143"/>
+          <cell r="J143">
+            <v>0</v>
+          </cell>
           <cell r="K143" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -13476,7 +13759,9 @@
           <cell r="I144" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J144"/>
+          <cell r="J144">
+            <v>0</v>
+          </cell>
           <cell r="K144" t="str">
             <v>账期付款</v>
           </cell>
@@ -13554,7 +13839,9 @@
           <cell r="I145" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J145"/>
+          <cell r="J145">
+            <v>0</v>
+          </cell>
           <cell r="K145" t="str">
             <v>账期付款</v>
           </cell>
@@ -13632,7 +13919,9 @@
           <cell r="I146" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J146"/>
+          <cell r="J146">
+            <v>0</v>
+          </cell>
           <cell r="K146" t="str">
             <v>预付款</v>
           </cell>
@@ -13710,7 +13999,9 @@
           <cell r="I147" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J147"/>
+          <cell r="J147">
+            <v>0</v>
+          </cell>
           <cell r="K147" t="str">
             <v>预付款</v>
           </cell>
@@ -13788,7 +14079,9 @@
           <cell r="I148" t="str">
             <v/>
           </cell>
-          <cell r="J148"/>
+          <cell r="J148">
+            <v>0</v>
+          </cell>
           <cell r="K148" t="str">
             <v>预存款</v>
           </cell>
@@ -13866,7 +14159,9 @@
           <cell r="I149" t="str">
             <v/>
           </cell>
-          <cell r="J149"/>
+          <cell r="J149">
+            <v>0</v>
+          </cell>
           <cell r="K149" t="str">
             <v>预存款</v>
           </cell>
@@ -13944,7 +14239,9 @@
           <cell r="I150" t="str">
             <v/>
           </cell>
-          <cell r="J150"/>
+          <cell r="J150">
+            <v>0</v>
+          </cell>
           <cell r="K150" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -14022,7 +14319,9 @@
           <cell r="I151" t="str">
             <v/>
           </cell>
-          <cell r="J151"/>
+          <cell r="J151">
+            <v>0</v>
+          </cell>
           <cell r="K151" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -14100,7 +14399,9 @@
           <cell r="I152" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J152"/>
+          <cell r="J152">
+            <v>0</v>
+          </cell>
           <cell r="K152" t="str">
             <v>账期付款</v>
           </cell>
@@ -14178,7 +14479,9 @@
           <cell r="I153" t="str">
             <v>经理</v>
           </cell>
-          <cell r="J153"/>
+          <cell r="J153">
+            <v>0</v>
+          </cell>
           <cell r="K153" t="str">
             <v>账期付款</v>
           </cell>
@@ -14256,7 +14559,9 @@
           <cell r="I154" t="str">
             <v/>
           </cell>
-          <cell r="J154"/>
+          <cell r="J154">
+            <v>0</v>
+          </cell>
           <cell r="K154" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -14334,7 +14639,9 @@
           <cell r="I155" t="str">
             <v/>
           </cell>
-          <cell r="J155"/>
+          <cell r="J155">
+            <v>0</v>
+          </cell>
           <cell r="K155" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -14412,7 +14719,9 @@
           <cell r="I156" t="str">
             <v/>
           </cell>
-          <cell r="J156"/>
+          <cell r="J156">
+            <v>0</v>
+          </cell>
           <cell r="K156" t="str">
             <v>账期付款</v>
           </cell>
@@ -14490,7 +14799,9 @@
           <cell r="I157" t="str">
             <v/>
           </cell>
-          <cell r="J157"/>
+          <cell r="J157">
+            <v>0</v>
+          </cell>
           <cell r="K157" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -14568,7 +14879,9 @@
           <cell r="I158" t="str">
             <v/>
           </cell>
-          <cell r="J158"/>
+          <cell r="J158">
+            <v>0</v>
+          </cell>
           <cell r="K158" t="str">
             <v>账期付款,预付款,预存款</v>
           </cell>
@@ -14646,7 +14959,9 @@
           <cell r="I159" t="str">
             <v/>
           </cell>
-          <cell r="J159"/>
+          <cell r="J159">
+            <v>0</v>
+          </cell>
           <cell r="K159" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -14724,7 +15039,9 @@
           <cell r="I160" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J160"/>
+          <cell r="J160">
+            <v>0</v>
+          </cell>
           <cell r="K160" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -14802,7 +15119,9 @@
           <cell r="I161" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J161"/>
+          <cell r="J161">
+            <v>0</v>
+          </cell>
           <cell r="K161" t="str">
             <v>账期付款</v>
           </cell>
@@ -14880,7 +15199,9 @@
           <cell r="I162" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J162"/>
+          <cell r="J162">
+            <v>0</v>
+          </cell>
           <cell r="K162" t="str">
             <v>账期付款</v>
           </cell>
@@ -14958,7 +15279,9 @@
           <cell r="I163" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J163"/>
+          <cell r="J163">
+            <v>0</v>
+          </cell>
           <cell r="K163" t="str">
             <v>预付款</v>
           </cell>
@@ -15036,7 +15359,9 @@
           <cell r="I164" t="str">
             <v/>
           </cell>
-          <cell r="J164"/>
+          <cell r="J164">
+            <v>0</v>
+          </cell>
           <cell r="K164" t="str">
             <v>账期付款</v>
           </cell>
@@ -15114,7 +15439,9 @@
           <cell r="I165" t="str">
             <v/>
           </cell>
-          <cell r="J165"/>
+          <cell r="J165">
+            <v>0</v>
+          </cell>
           <cell r="K165" t="str">
             <v>预存款</v>
           </cell>
@@ -15192,7 +15519,9 @@
           <cell r="I166" t="str">
             <v/>
           </cell>
-          <cell r="J166"/>
+          <cell r="J166">
+            <v>0</v>
+          </cell>
           <cell r="K166" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -15270,7 +15599,9 @@
           <cell r="I167" t="str">
             <v/>
           </cell>
-          <cell r="J167"/>
+          <cell r="J167">
+            <v>0</v>
+          </cell>
           <cell r="K167" t="str">
             <v>预付款</v>
           </cell>
@@ -15348,7 +15679,9 @@
           <cell r="I168" t="str">
             <v/>
           </cell>
-          <cell r="J168"/>
+          <cell r="J168">
+            <v>0</v>
+          </cell>
           <cell r="K168" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -15426,7 +15759,9 @@
           <cell r="I169" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J169"/>
+          <cell r="J169">
+            <v>0</v>
+          </cell>
           <cell r="K169" t="str">
             <v>账期付款</v>
           </cell>
@@ -15504,7 +15839,9 @@
           <cell r="I170" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J170"/>
+          <cell r="J170">
+            <v>0</v>
+          </cell>
           <cell r="K170" t="str">
             <v>账期付款</v>
           </cell>
@@ -15582,7 +15919,9 @@
           <cell r="I171" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J171"/>
+          <cell r="J171">
+            <v>0</v>
+          </cell>
           <cell r="K171" t="str">
             <v>账期付款</v>
           </cell>
@@ -15660,7 +15999,9 @@
           <cell r="I172" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J172"/>
+          <cell r="J172">
+            <v>0</v>
+          </cell>
           <cell r="K172" t="str">
             <v>账期付款</v>
           </cell>
@@ -15738,7 +16079,9 @@
           <cell r="I173" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J173"/>
+          <cell r="J173">
+            <v>0</v>
+          </cell>
           <cell r="K173" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -15816,7 +16159,9 @@
           <cell r="I174" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J174"/>
+          <cell r="J174">
+            <v>0</v>
+          </cell>
           <cell r="K174" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -15894,7 +16239,9 @@
           <cell r="I175" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J175"/>
+          <cell r="J175">
+            <v>0</v>
+          </cell>
           <cell r="K175" t="str">
             <v>预付款</v>
           </cell>
@@ -15972,7 +16319,9 @@
           <cell r="I176" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J176"/>
+          <cell r="J176">
+            <v>0</v>
+          </cell>
           <cell r="K176" t="str">
             <v>预付款</v>
           </cell>
@@ -16050,7 +16399,9 @@
           <cell r="I177" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J177"/>
+          <cell r="J177">
+            <v>0</v>
+          </cell>
           <cell r="K177" t="str">
             <v>预付款</v>
           </cell>
@@ -16128,7 +16479,9 @@
           <cell r="I178" t="str">
             <v/>
           </cell>
-          <cell r="J178"/>
+          <cell r="J178">
+            <v>0</v>
+          </cell>
           <cell r="K178" t="str">
             <v>预付款</v>
           </cell>
@@ -16206,7 +16559,9 @@
           <cell r="I179" t="str">
             <v/>
           </cell>
-          <cell r="J179"/>
+          <cell r="J179">
+            <v>0</v>
+          </cell>
           <cell r="K179" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -16284,7 +16639,9 @@
           <cell r="I180" t="str">
             <v>项目经理</v>
           </cell>
-          <cell r="J180"/>
+          <cell r="J180">
+            <v>0</v>
+          </cell>
           <cell r="K180" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -16362,7 +16719,9 @@
           <cell r="I181" t="str">
             <v/>
           </cell>
-          <cell r="J181"/>
+          <cell r="J181">
+            <v>0</v>
+          </cell>
           <cell r="K181" t="str">
             <v>账期付款</v>
           </cell>
@@ -16440,7 +16799,9 @@
           <cell r="I182" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J182"/>
+          <cell r="J182">
+            <v>0</v>
+          </cell>
           <cell r="K182" t="str">
             <v>预付款</v>
           </cell>
@@ -16518,7 +16879,9 @@
           <cell r="I183" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J183"/>
+          <cell r="J183">
+            <v>0</v>
+          </cell>
           <cell r="K183" t="str">
             <v>预付款</v>
           </cell>
@@ -16596,7 +16959,9 @@
           <cell r="I184" t="str">
             <v/>
           </cell>
-          <cell r="J184"/>
+          <cell r="J184">
+            <v>0</v>
+          </cell>
           <cell r="K184" t="str">
             <v>账期付款</v>
           </cell>
@@ -16674,7 +17039,9 @@
           <cell r="I185" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J185"/>
+          <cell r="J185">
+            <v>0</v>
+          </cell>
           <cell r="K185" t="str">
             <v>预付款</v>
           </cell>
@@ -16752,7 +17119,9 @@
           <cell r="I186" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J186"/>
+          <cell r="J186">
+            <v>0</v>
+          </cell>
           <cell r="K186" t="str">
             <v>预付款</v>
           </cell>
@@ -16830,7 +17199,9 @@
           <cell r="I187" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J187"/>
+          <cell r="J187">
+            <v>0</v>
+          </cell>
           <cell r="K187" t="str">
             <v>预付款</v>
           </cell>
@@ -16908,7 +17279,9 @@
           <cell r="I188" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J188"/>
+          <cell r="J188">
+            <v>0</v>
+          </cell>
           <cell r="K188" t="str">
             <v>预付款</v>
           </cell>
@@ -16986,7 +17359,9 @@
           <cell r="I189" t="str">
             <v>客户经理</v>
           </cell>
-          <cell r="J189"/>
+          <cell r="J189">
+            <v>0</v>
+          </cell>
           <cell r="K189" t="str">
             <v>预付款</v>
           </cell>
@@ -17064,7 +17439,9 @@
           <cell r="I190" t="str">
             <v/>
           </cell>
-          <cell r="J190"/>
+          <cell r="J190">
+            <v>0</v>
+          </cell>
           <cell r="K190" t="str">
             <v>账期付款</v>
           </cell>
@@ -17142,7 +17519,9 @@
           <cell r="I191" t="str">
             <v/>
           </cell>
-          <cell r="J191"/>
+          <cell r="J191">
+            <v>0</v>
+          </cell>
           <cell r="K191" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -17220,7 +17599,9 @@
           <cell r="I192" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J192"/>
+          <cell r="J192">
+            <v>0</v>
+          </cell>
           <cell r="K192" t="str">
             <v>预付款</v>
           </cell>
@@ -17298,7 +17679,9 @@
           <cell r="I193" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J193"/>
+          <cell r="J193">
+            <v>0</v>
+          </cell>
           <cell r="K193" t="str">
             <v>预付款</v>
           </cell>
@@ -17376,7 +17759,9 @@
           <cell r="I194" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J194"/>
+          <cell r="J194">
+            <v>0</v>
+          </cell>
           <cell r="K194" t="str">
             <v>账期付款</v>
           </cell>
@@ -17454,7 +17839,9 @@
           <cell r="I195" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J195"/>
+          <cell r="J195">
+            <v>0</v>
+          </cell>
           <cell r="K195" t="str">
             <v>账期付款</v>
           </cell>
@@ -17532,7 +17919,9 @@
           <cell r="I196" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J196"/>
+          <cell r="J196">
+            <v>0</v>
+          </cell>
           <cell r="K196" t="str">
             <v>账期付款</v>
           </cell>
@@ -17610,7 +17999,9 @@
           <cell r="I197" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J197"/>
+          <cell r="J197">
+            <v>0</v>
+          </cell>
           <cell r="K197" t="str">
             <v>预付款</v>
           </cell>
@@ -17688,7 +18079,9 @@
           <cell r="I198" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J198"/>
+          <cell r="J198">
+            <v>0</v>
+          </cell>
           <cell r="K198" t="str">
             <v>预付款</v>
           </cell>
@@ -17766,7 +18159,9 @@
           <cell r="I199" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J199"/>
+          <cell r="J199">
+            <v>0</v>
+          </cell>
           <cell r="K199" t="str">
             <v>预付款</v>
           </cell>
@@ -17844,7 +18239,9 @@
           <cell r="I200" t="str">
             <v/>
           </cell>
-          <cell r="J200"/>
+          <cell r="J200">
+            <v>0</v>
+          </cell>
           <cell r="K200" t="str">
             <v>预付款</v>
           </cell>
@@ -17922,7 +18319,9 @@
           <cell r="I201" t="str">
             <v>高级媒介经理</v>
           </cell>
-          <cell r="J201"/>
+          <cell r="J201">
+            <v>0</v>
+          </cell>
           <cell r="K201" t="str">
             <v>预付款</v>
           </cell>
@@ -18000,7 +18399,9 @@
           <cell r="I202" t="str">
             <v/>
           </cell>
-          <cell r="J202"/>
+          <cell r="J202">
+            <v>0</v>
+          </cell>
           <cell r="K202" t="str">
             <v>预付款</v>
           </cell>
@@ -18078,7 +18479,9 @@
           <cell r="I203" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J203"/>
+          <cell r="J203">
+            <v>0</v>
+          </cell>
           <cell r="K203" t="str">
             <v>预付款</v>
           </cell>
@@ -18156,7 +18559,9 @@
           <cell r="I204" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J204"/>
+          <cell r="J204">
+            <v>0</v>
+          </cell>
           <cell r="K204" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -18234,7 +18639,9 @@
           <cell r="I205" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J205"/>
+          <cell r="J205">
+            <v>0</v>
+          </cell>
           <cell r="K205" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -18312,7 +18719,9 @@
           <cell r="I206" t="str">
             <v>销售经理</v>
           </cell>
-          <cell r="J206"/>
+          <cell r="J206">
+            <v>0</v>
+          </cell>
           <cell r="K206" t="str">
             <v>预付款</v>
           </cell>
@@ -18390,7 +18799,9 @@
           <cell r="I207" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J207"/>
+          <cell r="J207">
+            <v>0</v>
+          </cell>
           <cell r="K207" t="str">
             <v>预付款</v>
           </cell>
@@ -18468,7 +18879,9 @@
           <cell r="I208" t="str">
             <v/>
           </cell>
-          <cell r="J208"/>
+          <cell r="J208">
+            <v>0</v>
+          </cell>
           <cell r="K208" t="str">
             <v>账期付款</v>
           </cell>
@@ -18546,7 +18959,9 @@
           <cell r="I209" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J209"/>
+          <cell r="J209">
+            <v>0</v>
+          </cell>
           <cell r="K209" t="str">
             <v>账期付款</v>
           </cell>
@@ -18624,7 +19039,9 @@
           <cell r="I210" t="str">
             <v>渠道销售总监</v>
           </cell>
-          <cell r="J210"/>
+          <cell r="J210">
+            <v>0</v>
+          </cell>
           <cell r="K210" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -18702,7 +19119,9 @@
           <cell r="I211" t="str">
             <v>媒介总监</v>
           </cell>
-          <cell r="J211"/>
+          <cell r="J211">
+            <v>0</v>
+          </cell>
           <cell r="K211" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -18780,7 +19199,9 @@
           <cell r="I212" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J212"/>
+          <cell r="J212">
+            <v>0</v>
+          </cell>
           <cell r="K212" t="str">
             <v>预付款</v>
           </cell>
@@ -18858,7 +19279,9 @@
           <cell r="I213" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J213"/>
+          <cell r="J213">
+            <v>0</v>
+          </cell>
           <cell r="K213" t="str">
             <v>预付款</v>
           </cell>
@@ -18936,7 +19359,9 @@
           <cell r="I214" t="str">
             <v/>
           </cell>
-          <cell r="J214"/>
+          <cell r="J214">
+            <v>0</v>
+          </cell>
           <cell r="K214" t="str">
             <v>预付款</v>
           </cell>
@@ -19014,7 +19439,9 @@
           <cell r="I215" t="str">
             <v/>
           </cell>
-          <cell r="J215"/>
+          <cell r="J215">
+            <v>0</v>
+          </cell>
           <cell r="K215" t="str">
             <v>预付款</v>
           </cell>
@@ -19092,7 +19519,9 @@
           <cell r="I216" t="str">
             <v/>
           </cell>
-          <cell r="J216"/>
+          <cell r="J216">
+            <v>0</v>
+          </cell>
           <cell r="K216" t="str">
             <v>预存款</v>
           </cell>
@@ -19170,7 +19599,9 @@
           <cell r="I217" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J217"/>
+          <cell r="J217">
+            <v>0</v>
+          </cell>
           <cell r="K217" t="str">
             <v>预付款</v>
           </cell>
@@ -19248,7 +19679,9 @@
           <cell r="I218" t="str">
             <v/>
           </cell>
-          <cell r="J218"/>
+          <cell r="J218">
+            <v>0</v>
+          </cell>
           <cell r="K218" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -19326,7 +19759,9 @@
           <cell r="I219" t="str">
             <v/>
           </cell>
-          <cell r="J219"/>
+          <cell r="J219">
+            <v>0</v>
+          </cell>
           <cell r="K219" t="str">
             <v>预付款</v>
           </cell>
@@ -19404,7 +19839,9 @@
           <cell r="I220" t="str">
             <v/>
           </cell>
-          <cell r="J220"/>
+          <cell r="J220">
+            <v>0</v>
+          </cell>
           <cell r="K220" t="str">
             <v>账期付款</v>
           </cell>
@@ -19482,7 +19919,9 @@
           <cell r="I221" t="str">
             <v/>
           </cell>
-          <cell r="J221"/>
+          <cell r="J221">
+            <v>0</v>
+          </cell>
           <cell r="K221" t="str">
             <v>预付款</v>
           </cell>
@@ -19560,7 +19999,9 @@
           <cell r="I222" t="str">
             <v/>
           </cell>
-          <cell r="J222"/>
+          <cell r="J222">
+            <v>0</v>
+          </cell>
           <cell r="K222" t="str">
             <v>预付款</v>
           </cell>
@@ -19638,7 +20079,9 @@
           <cell r="I223" t="str">
             <v/>
           </cell>
-          <cell r="J223"/>
+          <cell r="J223">
+            <v>0</v>
+          </cell>
           <cell r="K223" t="str">
             <v>预存款</v>
           </cell>
@@ -19716,7 +20159,9 @@
           <cell r="I224" t="str">
             <v/>
           </cell>
-          <cell r="J224"/>
+          <cell r="J224">
+            <v>0</v>
+          </cell>
           <cell r="K224" t="str">
             <v>预存款</v>
           </cell>
@@ -19794,7 +20239,9 @@
           <cell r="I225" t="str">
             <v/>
           </cell>
-          <cell r="J225"/>
+          <cell r="J225">
+            <v>0</v>
+          </cell>
           <cell r="K225" t="str">
             <v>预存款</v>
           </cell>
@@ -19872,7 +20319,9 @@
           <cell r="I226" t="str">
             <v/>
           </cell>
-          <cell r="J226"/>
+          <cell r="J226">
+            <v>0</v>
+          </cell>
           <cell r="K226" t="str">
             <v>预存款</v>
           </cell>
@@ -19950,7 +20399,9 @@
           <cell r="I227" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J227"/>
+          <cell r="J227">
+            <v>0</v>
+          </cell>
           <cell r="K227" t="str">
             <v>预付款</v>
           </cell>
@@ -20028,7 +20479,9 @@
           <cell r="I228" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J228"/>
+          <cell r="J228">
+            <v>0</v>
+          </cell>
           <cell r="K228" t="str">
             <v>预存款</v>
           </cell>
@@ -20106,7 +20559,9 @@
           <cell r="I229" t="str">
             <v/>
           </cell>
-          <cell r="J229"/>
+          <cell r="J229">
+            <v>0</v>
+          </cell>
           <cell r="K229" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -20184,7 +20639,9 @@
           <cell r="I230" t="str">
             <v/>
           </cell>
-          <cell r="J230"/>
+          <cell r="J230">
+            <v>0</v>
+          </cell>
           <cell r="K230" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -20262,7 +20719,9 @@
           <cell r="I231" t="str">
             <v/>
           </cell>
-          <cell r="J231"/>
+          <cell r="J231">
+            <v>0</v>
+          </cell>
           <cell r="K231" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -20340,7 +20799,9 @@
           <cell r="I232" t="str">
             <v/>
           </cell>
-          <cell r="J232"/>
+          <cell r="J232">
+            <v>0</v>
+          </cell>
           <cell r="K232" t="str">
             <v>预付款</v>
           </cell>
@@ -20418,7 +20879,9 @@
           <cell r="I233" t="str">
             <v/>
           </cell>
-          <cell r="J233"/>
+          <cell r="J233">
+            <v>0</v>
+          </cell>
           <cell r="K233" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -20496,7 +20959,9 @@
           <cell r="I234" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J234"/>
+          <cell r="J234">
+            <v>0</v>
+          </cell>
           <cell r="K234" t="str">
             <v>预付款</v>
           </cell>
@@ -20574,7 +21039,9 @@
           <cell r="I235" t="str">
             <v>销售合伙人</v>
           </cell>
-          <cell r="J235"/>
+          <cell r="J235">
+            <v>0</v>
+          </cell>
           <cell r="K235" t="str">
             <v>预付款</v>
           </cell>
@@ -20652,7 +21119,9 @@
           <cell r="I236" t="str">
             <v>高级渠道经理</v>
           </cell>
-          <cell r="J236"/>
+          <cell r="J236">
+            <v>0</v>
+          </cell>
           <cell r="K236" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -20730,7 +21199,9 @@
           <cell r="I237" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J237"/>
+          <cell r="J237">
+            <v>0</v>
+          </cell>
           <cell r="K237" t="str">
             <v>预付款</v>
           </cell>
@@ -20808,7 +21279,9 @@
           <cell r="I238" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J238"/>
+          <cell r="J238">
+            <v>0</v>
+          </cell>
           <cell r="K238" t="str">
             <v>预付款</v>
           </cell>
@@ -20886,7 +21359,9 @@
           <cell r="I239" t="str">
             <v/>
           </cell>
-          <cell r="J239"/>
+          <cell r="J239">
+            <v>0</v>
+          </cell>
           <cell r="K239" t="str">
             <v>账期付款</v>
           </cell>
@@ -20964,7 +21439,9 @@
           <cell r="I240" t="str">
             <v>运营总监</v>
           </cell>
-          <cell r="J240"/>
+          <cell r="J240">
+            <v>0</v>
+          </cell>
           <cell r="K240" t="str">
             <v>预付款</v>
           </cell>
@@ -21042,7 +21519,9 @@
           <cell r="I241" t="str">
             <v/>
           </cell>
-          <cell r="J241"/>
+          <cell r="J241">
+            <v>0</v>
+          </cell>
           <cell r="K241" t="str">
             <v>预存款</v>
           </cell>
@@ -21120,7 +21599,9 @@
           <cell r="I242" t="str">
             <v/>
           </cell>
-          <cell r="J242"/>
+          <cell r="J242">
+            <v>0</v>
+          </cell>
           <cell r="K242" t="str">
             <v>预存款</v>
           </cell>
@@ -21198,7 +21679,9 @@
           <cell r="I243" t="str">
             <v/>
           </cell>
-          <cell r="J243"/>
+          <cell r="J243">
+            <v>0</v>
+          </cell>
           <cell r="K243" t="str">
             <v>预付款</v>
           </cell>
@@ -21276,7 +21759,9 @@
           <cell r="I244" t="str">
             <v/>
           </cell>
-          <cell r="J244"/>
+          <cell r="J244">
+            <v>0</v>
+          </cell>
           <cell r="K244" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -21354,7 +21839,9 @@
           <cell r="I245" t="str">
             <v/>
           </cell>
-          <cell r="J245"/>
+          <cell r="J245">
+            <v>0</v>
+          </cell>
           <cell r="K245" t="str">
             <v>预存款</v>
           </cell>
@@ -21432,7 +21919,9 @@
           <cell r="I246" t="str">
             <v/>
           </cell>
-          <cell r="J246"/>
+          <cell r="J246">
+            <v>0</v>
+          </cell>
           <cell r="K246" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -21510,7 +21999,9 @@
           <cell r="I247" t="str">
             <v/>
           </cell>
-          <cell r="J247"/>
+          <cell r="J247">
+            <v>0</v>
+          </cell>
           <cell r="K247" t="str">
             <v>账期付款</v>
           </cell>
@@ -21588,7 +22079,9 @@
           <cell r="I248" t="str">
             <v/>
           </cell>
-          <cell r="J248"/>
+          <cell r="J248">
+            <v>0</v>
+          </cell>
           <cell r="K248" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -21666,7 +22159,9 @@
           <cell r="I249" t="str">
             <v>媒介总监</v>
           </cell>
-          <cell r="J249"/>
+          <cell r="J249">
+            <v>0</v>
+          </cell>
           <cell r="K249" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -21744,7 +22239,9 @@
           <cell r="I250" t="str">
             <v/>
           </cell>
-          <cell r="J250"/>
+          <cell r="J250">
+            <v>0</v>
+          </cell>
           <cell r="K250" t="str">
             <v>账期付款</v>
           </cell>
@@ -21822,7 +22319,9 @@
           <cell r="I251" t="str">
             <v/>
           </cell>
-          <cell r="J251"/>
+          <cell r="J251">
+            <v>0</v>
+          </cell>
           <cell r="K251" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -21900,7 +22399,9 @@
           <cell r="I252" t="str">
             <v/>
           </cell>
-          <cell r="J252"/>
+          <cell r="J252">
+            <v>0</v>
+          </cell>
           <cell r="K252" t="str">
             <v>账期付款</v>
           </cell>
@@ -21978,7 +22479,9 @@
           <cell r="I253" t="str">
             <v/>
           </cell>
-          <cell r="J253"/>
+          <cell r="J253">
+            <v>0</v>
+          </cell>
           <cell r="K253" t="str">
             <v>预付款</v>
           </cell>
@@ -22056,7 +22559,9 @@
           <cell r="I254" t="str">
             <v/>
           </cell>
-          <cell r="J254"/>
+          <cell r="J254">
+            <v>0</v>
+          </cell>
           <cell r="K254" t="str">
             <v>账期付款</v>
           </cell>
@@ -22134,7 +22639,9 @@
           <cell r="I255" t="str">
             <v/>
           </cell>
-          <cell r="J255"/>
+          <cell r="J255">
+            <v>0</v>
+          </cell>
           <cell r="K255" t="str">
             <v>预付款</v>
           </cell>
@@ -22212,7 +22719,9 @@
           <cell r="I256" t="str">
             <v/>
           </cell>
-          <cell r="J256"/>
+          <cell r="J256">
+            <v>0</v>
+          </cell>
           <cell r="K256" t="str">
             <v>预付款</v>
           </cell>
@@ -22290,7 +22799,9 @@
           <cell r="I257" t="str">
             <v/>
           </cell>
-          <cell r="J257"/>
+          <cell r="J257">
+            <v>0</v>
+          </cell>
           <cell r="K257" t="str">
             <v>预付款</v>
           </cell>
@@ -22368,7 +22879,9 @@
           <cell r="I258" t="str">
             <v>市场部主管</v>
           </cell>
-          <cell r="J258"/>
+          <cell r="J258">
+            <v>0</v>
+          </cell>
           <cell r="K258" t="str">
             <v>预付款</v>
           </cell>
@@ -22446,7 +22959,9 @@
           <cell r="I259" t="str">
             <v/>
           </cell>
-          <cell r="J259"/>
+          <cell r="J259">
+            <v>0</v>
+          </cell>
           <cell r="K259" t="str">
             <v>预付款</v>
           </cell>
@@ -22524,7 +23039,9 @@
           <cell r="I260" t="str">
             <v/>
           </cell>
-          <cell r="J260"/>
+          <cell r="J260">
+            <v>0</v>
+          </cell>
           <cell r="K260" t="str">
             <v>账期付款</v>
           </cell>
@@ -22602,7 +23119,9 @@
           <cell r="I261" t="str">
             <v/>
           </cell>
-          <cell r="J261"/>
+          <cell r="J261">
+            <v>0</v>
+          </cell>
           <cell r="K261" t="str">
             <v>账期付款</v>
           </cell>
@@ -22680,7 +23199,9 @@
           <cell r="I262" t="str">
             <v/>
           </cell>
-          <cell r="J262"/>
+          <cell r="J262">
+            <v>0</v>
+          </cell>
           <cell r="K262" t="str">
             <v>账期付款</v>
           </cell>
@@ -22758,7 +23279,9 @@
           <cell r="I263" t="str">
             <v/>
           </cell>
-          <cell r="J263"/>
+          <cell r="J263">
+            <v>0</v>
+          </cell>
           <cell r="K263" t="str">
             <v>账期付款</v>
           </cell>
@@ -22836,7 +23359,9 @@
           <cell r="I264" t="str">
             <v/>
           </cell>
-          <cell r="J264"/>
+          <cell r="J264">
+            <v>0</v>
+          </cell>
           <cell r="K264" t="str">
             <v>账期付款</v>
           </cell>
@@ -22914,7 +23439,9 @@
           <cell r="I265" t="str">
             <v>媒介经理</v>
           </cell>
-          <cell r="J265"/>
+          <cell r="J265">
+            <v>0</v>
+          </cell>
           <cell r="K265" t="str">
             <v>预付款</v>
           </cell>
@@ -22992,7 +23519,9 @@
           <cell r="I266" t="str">
             <v/>
           </cell>
-          <cell r="J266"/>
+          <cell r="J266">
+            <v>0</v>
+          </cell>
           <cell r="K266" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -23070,7 +23599,9 @@
           <cell r="I267" t="str">
             <v/>
           </cell>
-          <cell r="J267"/>
+          <cell r="J267">
+            <v>0</v>
+          </cell>
           <cell r="K267" t="str">
             <v>账期付款</v>
           </cell>
@@ -23148,7 +23679,9 @@
           <cell r="I268" t="str">
             <v/>
           </cell>
-          <cell r="J268"/>
+          <cell r="J268">
+            <v>0</v>
+          </cell>
           <cell r="K268" t="str">
             <v>预付款</v>
           </cell>
@@ -23226,7 +23759,9 @@
           <cell r="I269" t="str">
             <v/>
           </cell>
-          <cell r="J269"/>
+          <cell r="J269">
+            <v>0</v>
+          </cell>
           <cell r="K269" t="str">
             <v>预付款</v>
           </cell>
@@ -23304,7 +23839,9 @@
           <cell r="I270" t="str">
             <v>商务媒介</v>
           </cell>
-          <cell r="J270"/>
+          <cell r="J270">
+            <v>0</v>
+          </cell>
           <cell r="K270" t="str">
             <v>预付款</v>
           </cell>
@@ -23382,7 +23919,9 @@
           <cell r="I271" t="str">
             <v>移动事业部|渠道副总监</v>
           </cell>
-          <cell r="J271"/>
+          <cell r="J271">
+            <v>0</v>
+          </cell>
           <cell r="K271" t="str">
             <v>预付款</v>
           </cell>
@@ -23460,7 +23999,9 @@
           <cell r="I272" t="str">
             <v>媒介主管</v>
           </cell>
-          <cell r="J272"/>
+          <cell r="J272">
+            <v>0</v>
+          </cell>
           <cell r="K272" t="str">
             <v>预存款</v>
           </cell>
@@ -23538,7 +24079,9 @@
           <cell r="I273" t="str">
             <v/>
           </cell>
-          <cell r="J273"/>
+          <cell r="J273">
+            <v>0</v>
+          </cell>
           <cell r="K273" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -23616,7 +24159,9 @@
           <cell r="I274" t="str">
             <v/>
           </cell>
-          <cell r="J274"/>
+          <cell r="J274">
+            <v>0</v>
+          </cell>
           <cell r="K274" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -23694,7 +24239,9 @@
           <cell r="I275" t="str">
             <v/>
           </cell>
-          <cell r="J275"/>
+          <cell r="J275">
+            <v>0</v>
+          </cell>
           <cell r="K275" t="str">
             <v>预付款</v>
           </cell>
@@ -23772,7 +24319,9 @@
           <cell r="I276" t="str">
             <v/>
           </cell>
-          <cell r="J276"/>
+          <cell r="J276">
+            <v>0</v>
+          </cell>
           <cell r="K276" t="str">
             <v>预付款</v>
           </cell>
@@ -23850,7 +24399,9 @@
           <cell r="I277" t="str">
             <v/>
           </cell>
-          <cell r="J277"/>
+          <cell r="J277">
+            <v>0</v>
+          </cell>
           <cell r="K277" t="str">
             <v>账期付款</v>
           </cell>
@@ -23928,7 +24479,9 @@
           <cell r="I278" t="str">
             <v/>
           </cell>
-          <cell r="J278"/>
+          <cell r="J278">
+            <v>0</v>
+          </cell>
           <cell r="K278" t="str">
             <v>账期付款</v>
           </cell>
@@ -24006,7 +24559,9 @@
           <cell r="I279" t="str">
             <v>全国渠道经理</v>
           </cell>
-          <cell r="J279"/>
+          <cell r="J279">
+            <v>0</v>
+          </cell>
           <cell r="K279" t="str">
             <v>预付款</v>
           </cell>
@@ -24084,7 +24639,9 @@
           <cell r="I280" t="str">
             <v/>
           </cell>
-          <cell r="J280"/>
+          <cell r="J280">
+            <v>0</v>
+          </cell>
           <cell r="K280" t="str">
             <v>账期付款</v>
           </cell>
@@ -24162,7 +24719,9 @@
           <cell r="I281" t="str">
             <v>媒介主管</v>
           </cell>
-          <cell r="J281"/>
+          <cell r="J281">
+            <v>0</v>
+          </cell>
           <cell r="K281" t="str">
             <v>预付款</v>
           </cell>
@@ -24240,7 +24799,9 @@
           <cell r="I282" t="str">
             <v/>
           </cell>
-          <cell r="J282"/>
+          <cell r="J282">
+            <v>0</v>
+          </cell>
           <cell r="K282" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -24318,7 +24879,9 @@
           <cell r="I283" t="str">
             <v/>
           </cell>
-          <cell r="J283"/>
+          <cell r="J283">
+            <v>0</v>
+          </cell>
           <cell r="K283" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -24396,7 +24959,9 @@
           <cell r="I284" t="str">
             <v>高级渠道经理</v>
           </cell>
-          <cell r="J284"/>
+          <cell r="J284">
+            <v>0</v>
+          </cell>
           <cell r="K284" t="str">
             <v>账期付款,预存款,预付款</v>
           </cell>
@@ -24474,7 +25039,9 @@
           <cell r="I285" t="str">
             <v/>
           </cell>
-          <cell r="J285"/>
+          <cell r="J285">
+            <v>0</v>
+          </cell>
           <cell r="K285" t="str">
             <v>预付款</v>
           </cell>
@@ -24552,7 +25119,9 @@
           <cell r="I286" t="str">
             <v/>
           </cell>
-          <cell r="J286"/>
+          <cell r="J286">
+            <v>0</v>
+          </cell>
           <cell r="K286" t="str">
             <v>预付款</v>
           </cell>
@@ -24630,7 +25199,9 @@
           <cell r="I287" t="str">
             <v/>
           </cell>
-          <cell r="J287"/>
+          <cell r="J287">
+            <v>0</v>
+          </cell>
           <cell r="K287" t="str">
             <v>预付款</v>
           </cell>
@@ -24708,7 +25279,9 @@
           <cell r="I288" t="str">
             <v/>
           </cell>
-          <cell r="J288"/>
+          <cell r="J288">
+            <v>0</v>
+          </cell>
           <cell r="K288" t="str">
             <v>预付款</v>
           </cell>
@@ -24786,7 +25359,9 @@
           <cell r="I289" t="str">
             <v/>
           </cell>
-          <cell r="J289"/>
+          <cell r="J289">
+            <v>0</v>
+          </cell>
           <cell r="K289" t="str">
             <v>账期付款</v>
           </cell>
@@ -24864,7 +25439,9 @@
           <cell r="I290" t="str">
             <v/>
           </cell>
-          <cell r="J290"/>
+          <cell r="J290">
+            <v>0</v>
+          </cell>
           <cell r="K290" t="str">
             <v>预付款</v>
           </cell>
@@ -24942,7 +25519,9 @@
           <cell r="I291" t="str">
             <v/>
           </cell>
-          <cell r="J291"/>
+          <cell r="J291">
+            <v>0</v>
+          </cell>
           <cell r="K291" t="str">
             <v>预存款</v>
           </cell>
@@ -25020,7 +25599,9 @@
           <cell r="I292" t="str">
             <v/>
           </cell>
-          <cell r="J292"/>
+          <cell r="J292">
+            <v>0</v>
+          </cell>
           <cell r="K292" t="str">
             <v>预付款</v>
           </cell>
@@ -25098,7 +25679,9 @@
           <cell r="I293" t="str">
             <v/>
           </cell>
-          <cell r="J293"/>
+          <cell r="J293">
+            <v>0</v>
+          </cell>
           <cell r="K293" t="str">
             <v>预付款</v>
           </cell>
@@ -25176,7 +25759,9 @@
           <cell r="I294" t="str">
             <v>运营总监</v>
           </cell>
-          <cell r="J294"/>
+          <cell r="J294">
+            <v>0</v>
+          </cell>
           <cell r="K294" t="str">
             <v>预付款</v>
           </cell>
@@ -25254,7 +25839,9 @@
           <cell r="I295" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J295"/>
+          <cell r="J295">
+            <v>0</v>
+          </cell>
           <cell r="K295" t="str">
             <v>预付款</v>
           </cell>
@@ -25332,7 +25919,9 @@
           <cell r="I296" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J296"/>
+          <cell r="J296">
+            <v>0</v>
+          </cell>
           <cell r="K296" t="str">
             <v>预付款</v>
           </cell>
@@ -25410,7 +25999,9 @@
           <cell r="I297" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J297"/>
+          <cell r="J297">
+            <v>0</v>
+          </cell>
           <cell r="K297" t="str">
             <v>预付款</v>
           </cell>
@@ -25488,7 +26079,9 @@
           <cell r="I298" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J298"/>
+          <cell r="J298">
+            <v>0</v>
+          </cell>
           <cell r="K298" t="str">
             <v>预付款</v>
           </cell>
@@ -25566,7 +26159,9 @@
           <cell r="I299" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J299"/>
+          <cell r="J299">
+            <v>0</v>
+          </cell>
           <cell r="K299" t="str">
             <v>预付款</v>
           </cell>
@@ -25644,7 +26239,9 @@
           <cell r="I300" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J300"/>
+          <cell r="J300">
+            <v>0</v>
+          </cell>
           <cell r="K300" t="str">
             <v>预付款</v>
           </cell>
@@ -25722,7 +26319,9 @@
           <cell r="I301" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J301"/>
+          <cell r="J301">
+            <v>0</v>
+          </cell>
           <cell r="K301" t="str">
             <v>预付款</v>
           </cell>
@@ -25800,7 +26399,9 @@
           <cell r="I302" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J302"/>
+          <cell r="J302">
+            <v>0</v>
+          </cell>
           <cell r="K302" t="str">
             <v>预付款</v>
           </cell>
@@ -25878,7 +26479,9 @@
           <cell r="I303" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J303"/>
+          <cell r="J303">
+            <v>0</v>
+          </cell>
           <cell r="K303" t="str">
             <v>预付款</v>
           </cell>
@@ -25956,7 +26559,9 @@
           <cell r="I304" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J304"/>
+          <cell r="J304">
+            <v>0</v>
+          </cell>
           <cell r="K304" t="str">
             <v>账期付款</v>
           </cell>
@@ -26034,7 +26639,9 @@
           <cell r="I305" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J305"/>
+          <cell r="J305">
+            <v>0</v>
+          </cell>
           <cell r="K305" t="str">
             <v>账期付款</v>
           </cell>
@@ -26112,7 +26719,9 @@
           <cell r="I306" t="str">
             <v/>
           </cell>
-          <cell r="J306"/>
+          <cell r="J306">
+            <v>0</v>
+          </cell>
           <cell r="K306" t="str">
             <v>预付款</v>
           </cell>
@@ -26190,7 +26799,9 @@
           <cell r="I307" t="str">
             <v/>
           </cell>
-          <cell r="J307"/>
+          <cell r="J307">
+            <v>0</v>
+          </cell>
           <cell r="K307" t="str">
             <v>预付款</v>
           </cell>
@@ -26268,7 +26879,9 @@
           <cell r="I308" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J308"/>
+          <cell r="J308">
+            <v>0</v>
+          </cell>
           <cell r="K308" t="str">
             <v>账期付款</v>
           </cell>
@@ -26346,7 +26959,9 @@
           <cell r="I309" t="str">
             <v>商务经理</v>
           </cell>
-          <cell r="J309"/>
+          <cell r="J309">
+            <v>0</v>
+          </cell>
           <cell r="K309" t="str">
             <v>预存款</v>
           </cell>
@@ -26424,7 +27039,9 @@
           <cell r="I310" t="str">
             <v>运营总监</v>
           </cell>
-          <cell r="J310"/>
+          <cell r="J310">
+            <v>0</v>
+          </cell>
           <cell r="K310" t="str">
             <v>预付款</v>
           </cell>
@@ -26502,7 +27119,9 @@
           <cell r="I311" t="str">
             <v>inside</v>
           </cell>
-          <cell r="J311"/>
+          <cell r="J311">
+            <v>0</v>
+          </cell>
           <cell r="K311" t="str">
             <v>账期付款</v>
           </cell>
@@ -26580,7 +27199,9 @@
           <cell r="I312" t="str">
             <v>市场部主管</v>
           </cell>
-          <cell r="J312"/>
+          <cell r="J312">
+            <v>0</v>
+          </cell>
           <cell r="K312" t="str">
             <v>预付款</v>
           </cell>
@@ -26925,59 +27546,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:AN428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="148" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="59" customWidth="1"/>
     <col min="4" max="4" width="7" style="59" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="59" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="59" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="59" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="59" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="59" customWidth="1"/>
     <col min="8" max="8" width="20" style="59" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="59" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" style="59" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="59" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="59" customWidth="1"/>
     <col min="11" max="11" width="11" style="148" customWidth="1"/>
-    <col min="12" max="12" width="25.88671875" style="59" customWidth="1"/>
+    <col min="12" max="12" width="25.875" style="59" customWidth="1"/>
     <col min="13" max="13" width="9" style="59" customWidth="1"/>
-    <col min="14" max="14" width="6.88671875" style="59" customWidth="1"/>
+    <col min="14" max="14" width="6.875" style="59" customWidth="1"/>
     <col min="15" max="17" width="9" style="59" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" style="59" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" style="59" customWidth="1"/>
-    <col min="20" max="20" width="14.5546875" style="59" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" style="59" customWidth="1"/>
-    <col min="22" max="22" width="16.5546875" style="59" customWidth="1"/>
+    <col min="18" max="18" width="6.875" style="59" customWidth="1"/>
+    <col min="19" max="19" width="13.5" style="59" customWidth="1"/>
+    <col min="20" max="20" width="14.5" style="59" customWidth="1"/>
+    <col min="21" max="21" width="12.375" style="59" customWidth="1"/>
+    <col min="22" max="22" width="16.5" style="59" customWidth="1"/>
     <col min="23" max="23" width="13" style="59" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" style="59" customWidth="1"/>
-    <col min="25" max="25" width="11.33203125" style="59" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" style="59" customWidth="1"/>
+    <col min="24" max="24" width="11.375" style="59" customWidth="1"/>
+    <col min="25" max="25" width="11.375" style="59" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.375" style="59" customWidth="1"/>
     <col min="27" max="28" width="13" style="59" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5" style="59" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13" style="59" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.33203125" style="59" customWidth="1"/>
-    <col min="32" max="32" width="8.109375" style="59" customWidth="1"/>
-    <col min="33" max="33" width="9.44140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.109375" style="59" customWidth="1"/>
-    <col min="35" max="35" width="14.44140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.44140625" style="59" customWidth="1"/>
-    <col min="37" max="37" width="14.44140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.44140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.375" style="59" customWidth="1"/>
+    <col min="32" max="32" width="8.125" style="59" customWidth="1"/>
+    <col min="33" max="33" width="9.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.125" style="59" customWidth="1"/>
+    <col min="35" max="35" width="14.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5" style="59" customWidth="1"/>
+    <col min="37" max="37" width="14.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.125" style="59" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.375" style="59" bestFit="1" customWidth="1"/>
     <col min="41" max="16384" width="9" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -27099,7 +27720,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A2" s="61" t="s">
         <v>374</v>
       </c>
@@ -27192,7 +27813,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A3" s="61" t="s">
         <v>374</v>
       </c>
@@ -27282,7 +27903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A4" s="61" t="s">
         <v>374</v>
       </c>
@@ -27377,7 +27998,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A5" s="61" t="s">
         <v>374</v>
       </c>
@@ -27468,7 +28089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A6" s="61" t="s">
         <v>374</v>
       </c>
@@ -27559,7 +28180,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A7" s="61" t="s">
         <v>374</v>
       </c>
@@ -27650,7 +28271,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A8" s="61" t="s">
         <v>374</v>
       </c>
@@ -27741,7 +28362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A9" s="61" t="s">
         <v>374</v>
       </c>
@@ -27836,7 +28457,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A10" s="61" t="s">
         <v>374</v>
       </c>
@@ -27925,7 +28546,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A11" s="61" t="s">
         <v>374</v>
       </c>
@@ -28016,7 +28637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A12" s="61" t="s">
         <v>374</v>
       </c>
@@ -28106,7 +28727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A13" s="61" t="s">
         <v>374</v>
       </c>
@@ -28197,7 +28818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A14" s="61" t="s">
         <v>374</v>
       </c>
@@ -28288,7 +28909,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A15" s="61" t="s">
         <v>374</v>
       </c>
@@ -28379,7 +29000,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A16" s="61" t="s">
         <v>374</v>
       </c>
@@ -28470,7 +29091,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="61" t="s">
         <v>374</v>
       </c>
@@ -28561,7 +29182,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="61" t="s">
         <v>374</v>
       </c>
@@ -28652,7 +29273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="61" t="s">
         <v>374</v>
       </c>
@@ -28697,7 +29318,7 @@
         <v>50</v>
       </c>
       <c r="P19" s="62">
-        <v>0.11</v>
+        <v>-0.15</v>
       </c>
       <c r="Q19" s="69"/>
       <c r="R19" s="60"/>
@@ -28740,10 +29361,10 @@
       <c r="AE19" s="62"/>
       <c r="AF19" s="60"/>
       <c r="AG19" s="62">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" s="61" t="s">
         <v>374</v>
       </c>
@@ -28834,7 +29455,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" s="61" t="s">
         <v>374</v>
       </c>
@@ -28925,7 +29546,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" s="61" t="s">
         <v>374</v>
       </c>
@@ -29016,7 +29637,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="61" t="s">
         <v>374</v>
       </c>
@@ -29107,7 +29728,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="61" t="s">
         <v>374</v>
       </c>
@@ -29198,7 +29819,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" s="61" t="s">
         <v>374</v>
       </c>
@@ -29289,7 +29910,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26" s="61" t="s">
         <v>374</v>
       </c>
@@ -29380,7 +30001,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" s="61" t="s">
         <v>374</v>
       </c>
@@ -29471,7 +30092,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28" s="61" t="s">
         <v>374</v>
       </c>
@@ -29562,7 +30183,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A29" s="61" t="s">
         <v>374</v>
       </c>
@@ -29653,7 +30274,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A30" s="61" t="s">
         <v>374</v>
       </c>
@@ -29744,7 +30365,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A31" s="61" t="s">
         <v>374</v>
       </c>
@@ -29835,7 +30456,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A32" s="61" t="s">
         <v>374</v>
       </c>
@@ -29926,7 +30547,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A33" s="61" t="s">
         <v>374</v>
       </c>
@@ -30017,7 +30638,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A34" s="61" t="s">
         <v>374</v>
       </c>
@@ -30108,7 +30729,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A35" s="61" t="s">
         <v>374</v>
       </c>
@@ -30199,7 +30820,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A36" s="61" t="s">
         <v>374</v>
       </c>
@@ -30290,7 +30911,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A37" s="61" t="s">
         <v>374</v>
       </c>
@@ -30381,7 +31002,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A38" s="61" t="s">
         <v>374</v>
       </c>
@@ -30472,7 +31093,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A39" s="61" t="s">
         <v>374</v>
       </c>
@@ -30563,7 +31184,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A40" s="61" t="s">
         <v>374</v>
       </c>
@@ -30654,7 +31275,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A41" s="61" t="s">
         <v>374</v>
       </c>
@@ -30745,7 +31366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A42" s="61" t="s">
         <v>374</v>
       </c>
@@ -30836,7 +31457,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A43" s="61" t="s">
         <v>374</v>
       </c>
@@ -30927,7 +31548,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A44" s="61" t="s">
         <v>374</v>
       </c>
@@ -31018,7 +31639,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A45" s="61" t="s">
         <v>374</v>
       </c>
@@ -31109,7 +31730,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A46" s="61" t="s">
         <v>374</v>
       </c>
@@ -31200,7 +31821,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A47" s="61" t="s">
         <v>374</v>
       </c>
@@ -31291,7 +31912,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A48" s="61" t="s">
         <v>374</v>
       </c>
@@ -31382,7 +32003,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A49" s="61" t="s">
         <v>374</v>
       </c>
@@ -31473,7 +32094,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A50" s="61" t="s">
         <v>374</v>
       </c>
@@ -31564,7 +32185,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A51" s="61" t="s">
         <v>374</v>
       </c>
@@ -31655,7 +32276,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A52" s="61" t="s">
         <v>374</v>
       </c>
@@ -31746,7 +32367,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A53" s="61" t="s">
         <v>374</v>
       </c>
@@ -31837,7 +32458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A54" s="61" t="s">
         <v>374</v>
       </c>
@@ -31928,7 +32549,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A55" s="61" t="s">
         <v>374</v>
       </c>
@@ -32019,7 +32640,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A56" s="61" t="s">
         <v>374</v>
       </c>
@@ -32110,7 +32731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A57" s="61" t="s">
         <v>374</v>
       </c>
@@ -32204,7 +32825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A58" s="61" t="s">
         <v>374</v>
       </c>
@@ -32296,7 +32917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A59" s="61" t="s">
         <v>374</v>
       </c>
@@ -32387,7 +33008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A60" s="61" t="s">
         <v>374</v>
       </c>
@@ -32481,7 +33102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A61" s="61" t="s">
         <v>374</v>
       </c>
@@ -32572,7 +33193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A62" s="61" t="s">
         <v>374</v>
       </c>
@@ -32663,7 +33284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A63" s="61" t="s">
         <v>374</v>
       </c>
@@ -32754,7 +33375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" s="61" t="s">
         <v>374</v>
       </c>
@@ -32839,7 +33460,7 @@
       </c>
       <c r="AG64" s="74"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" s="61" t="s">
         <v>374</v>
       </c>
@@ -32926,7 +33547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" s="61" t="s">
         <v>374</v>
       </c>
@@ -33013,7 +33634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A67" s="61" t="s">
         <v>374</v>
       </c>
@@ -33102,7 +33723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A68" s="61" t="s">
         <v>374</v>
       </c>
@@ -33191,7 +33812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A69" s="61" t="s">
         <v>374</v>
       </c>
@@ -33280,7 +33901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A70" s="61" t="s">
         <v>374</v>
       </c>
@@ -33369,7 +33990,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A71" s="61" t="s">
         <v>375</v>
       </c>
@@ -33462,7 +34083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A72" s="61" t="s">
         <v>375</v>
       </c>
@@ -33552,7 +34173,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A73" s="61" t="s">
         <v>375</v>
       </c>
@@ -33645,7 +34266,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A74" s="61" t="s">
         <v>375</v>
       </c>
@@ -33740,7 +34361,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A75" s="61" t="s">
         <v>375</v>
       </c>
@@ -33831,7 +34452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A76" s="61" t="s">
         <v>375</v>
       </c>
@@ -33922,7 +34543,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A77" s="61" t="s">
         <v>375</v>
       </c>
@@ -34013,7 +34634,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A78" s="61" t="s">
         <v>375</v>
       </c>
@@ -34104,7 +34725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A79" s="61" t="s">
         <v>375</v>
       </c>
@@ -34195,7 +34816,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A80" s="61" t="s">
         <v>375</v>
       </c>
@@ -34286,7 +34907,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A81" s="61" t="s">
         <v>375</v>
       </c>
@@ -34377,7 +34998,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A82" s="61" t="s">
         <v>375</v>
       </c>
@@ -34470,7 +35091,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A83" s="61" t="s">
         <v>375</v>
       </c>
@@ -34561,7 +35182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A84" s="61" t="s">
         <v>375</v>
       </c>
@@ -34605,8 +35226,8 @@
       <c r="O84" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="P84" s="71">
-        <v>0.11</v>
+      <c r="P84" s="62">
+        <v>-0.15</v>
       </c>
       <c r="Q84" s="90"/>
       <c r="R84" s="89"/>
@@ -34648,11 +35269,11 @@
       <c r="AD84" s="89"/>
       <c r="AE84" s="89"/>
       <c r="AF84" s="89"/>
-      <c r="AG84" s="71">
-        <v>0.22</v>
+      <c r="AG84" s="62">
+        <v>0.26</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A85" s="61" t="s">
         <v>375</v>
       </c>
@@ -34743,7 +35364,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A86" s="61" t="s">
         <v>375</v>
       </c>
@@ -34834,7 +35455,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A87" s="61" t="s">
         <v>375</v>
       </c>
@@ -34925,7 +35546,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A88" s="61" t="s">
         <v>375</v>
       </c>
@@ -35016,7 +35637,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A89" s="61" t="s">
         <v>375</v>
       </c>
@@ -35107,7 +35728,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A90" s="61" t="s">
         <v>375</v>
       </c>
@@ -35198,7 +35819,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A91" s="61" t="s">
         <v>375</v>
       </c>
@@ -35289,7 +35910,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A92" s="61" t="s">
         <v>375</v>
       </c>
@@ -35380,7 +36001,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A93" s="61" t="s">
         <v>375</v>
       </c>
@@ -35471,7 +36092,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A94" s="61" t="s">
         <v>375</v>
       </c>
@@ -35562,7 +36183,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A95" s="61" t="s">
         <v>375</v>
       </c>
@@ -35653,7 +36274,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A96" s="61" t="s">
         <v>375</v>
       </c>
@@ -35744,7 +36365,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A97" s="61" t="s">
         <v>375</v>
       </c>
@@ -35835,7 +36456,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A98" s="61" t="s">
         <v>375</v>
       </c>
@@ -35926,7 +36547,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A99" s="61" t="s">
         <v>375</v>
       </c>
@@ -36017,7 +36638,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A100" s="61" t="s">
         <v>375</v>
       </c>
@@ -36108,7 +36729,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A101" s="61" t="s">
         <v>375</v>
       </c>
@@ -36199,7 +36820,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A102" s="61" t="s">
         <v>375</v>
       </c>
@@ -36290,7 +36911,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A103" s="61" t="s">
         <v>375</v>
       </c>
@@ -36381,7 +37002,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A104" s="61" t="s">
         <v>375</v>
       </c>
@@ -36472,7 +37093,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A105" s="61" t="s">
         <v>375</v>
       </c>
@@ -36563,7 +37184,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A106" s="61" t="s">
         <v>375</v>
       </c>
@@ -36654,7 +37275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A107" s="61" t="s">
         <v>375</v>
       </c>
@@ -36745,7 +37366,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A108" s="61" t="s">
         <v>375</v>
       </c>
@@ -36836,7 +37457,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A109" s="61" t="s">
         <v>375</v>
       </c>
@@ -36927,7 +37548,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A110" s="61" t="s">
         <v>375</v>
       </c>
@@ -37018,7 +37639,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A111" s="61" t="s">
         <v>375</v>
       </c>
@@ -37109,7 +37730,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A112" s="61" t="s">
         <v>375</v>
       </c>
@@ -37200,7 +37821,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A113" s="61" t="s">
         <v>375</v>
       </c>
@@ -37291,7 +37912,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A114" s="61" t="s">
         <v>375</v>
       </c>
@@ -37382,7 +38003,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A115" s="61" t="s">
         <v>375</v>
       </c>
@@ -37473,7 +38094,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A116" s="61" t="s">
         <v>375</v>
       </c>
@@ -37564,7 +38185,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A117" s="61" t="s">
         <v>375</v>
       </c>
@@ -37655,7 +38276,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A118" s="61" t="s">
         <v>375</v>
       </c>
@@ -37746,7 +38367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A119" s="61" t="s">
         <v>375</v>
       </c>
@@ -37837,7 +38458,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A120" s="61" t="s">
         <v>375</v>
       </c>
@@ -37928,7 +38549,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A121" s="61" t="s">
         <v>375</v>
       </c>
@@ -38019,7 +38640,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A122" s="61" t="s">
         <v>375</v>
       </c>
@@ -38115,7 +38736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A123" s="61" t="s">
         <v>375</v>
       </c>
@@ -38208,7 +38829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A124" s="61" t="s">
         <v>375</v>
       </c>
@@ -38301,7 +38922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A125" s="61" t="s">
         <v>375</v>
       </c>
@@ -38392,7 +39013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A126" s="61" t="s">
         <v>375</v>
       </c>
@@ -38485,7 +39106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A127" s="61" t="s">
         <v>375</v>
       </c>
@@ -38578,7 +39199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A128" s="61" t="s">
         <v>375</v>
       </c>
@@ -38671,7 +39292,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A129" s="94" t="s">
         <v>376</v>
       </c>
@@ -38764,7 +39385,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A130" s="94" t="s">
         <v>376</v>
       </c>
@@ -38861,7 +39482,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A131" s="94" t="s">
         <v>376</v>
       </c>
@@ -38954,7 +39575,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A132" s="94" t="s">
         <v>376</v>
       </c>
@@ -39044,7 +39665,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A133" s="94" t="s">
         <v>376</v>
       </c>
@@ -39135,7 +39756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A134" s="94" t="s">
         <v>376</v>
       </c>
@@ -39226,7 +39847,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A135" s="94" t="s">
         <v>376</v>
       </c>
@@ -39317,7 +39938,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A136" s="94" t="s">
         <v>376</v>
       </c>
@@ -39408,7 +40029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A137" s="94" t="s">
         <v>376</v>
       </c>
@@ -39499,7 +40120,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A138" s="94" t="s">
         <v>376</v>
       </c>
@@ -39590,7 +40211,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A139" s="94" t="s">
         <v>376</v>
       </c>
@@ -39681,7 +40302,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A140" s="94" t="s">
         <v>376</v>
       </c>
@@ -39772,7 +40393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A141" s="94" t="s">
         <v>376</v>
       </c>
@@ -39816,8 +40437,8 @@
       <c r="O141" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="P141" s="71">
-        <v>0.11</v>
+      <c r="P141" s="62">
+        <v>-0.15</v>
       </c>
       <c r="Q141" s="91"/>
       <c r="R141" s="91"/>
@@ -39859,11 +40480,11 @@
       <c r="AD141" s="67"/>
       <c r="AE141" s="91"/>
       <c r="AF141" s="91"/>
-      <c r="AG141" s="71">
-        <v>0.22</v>
+      <c r="AG141" s="62">
+        <v>0.26</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A142" s="94" t="s">
         <v>376</v>
       </c>
@@ -39954,7 +40575,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A143" s="94" t="s">
         <v>376</v>
       </c>
@@ -40045,7 +40666,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A144" s="94" t="s">
         <v>376</v>
       </c>
@@ -40136,7 +40757,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A145" s="94" t="s">
         <v>376</v>
       </c>
@@ -40227,7 +40848,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A146" s="94" t="s">
         <v>376</v>
       </c>
@@ -40318,7 +40939,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A147" s="94" t="s">
         <v>376</v>
       </c>
@@ -40409,7 +41030,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A148" s="94" t="s">
         <v>376</v>
       </c>
@@ -40500,7 +41121,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A149" s="94" t="s">
         <v>376</v>
       </c>
@@ -40591,7 +41212,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A150" s="94" t="s">
         <v>376</v>
       </c>
@@ -40682,7 +41303,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A151" s="94" t="s">
         <v>376</v>
       </c>
@@ -40773,7 +41394,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A152" s="94" t="s">
         <v>376</v>
       </c>
@@ -40864,7 +41485,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A153" s="94" t="s">
         <v>376</v>
       </c>
@@ -40955,7 +41576,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A154" s="94" t="s">
         <v>376</v>
       </c>
@@ -41046,7 +41667,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A155" s="94" t="s">
         <v>376</v>
       </c>
@@ -41137,7 +41758,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A156" s="94" t="s">
         <v>376</v>
       </c>
@@ -41228,7 +41849,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A157" s="94" t="s">
         <v>376</v>
       </c>
@@ -41319,7 +41940,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A158" s="94" t="s">
         <v>376</v>
       </c>
@@ -41410,7 +42031,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A159" s="94" t="s">
         <v>376</v>
       </c>
@@ -41501,7 +42122,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A160" s="94" t="s">
         <v>376</v>
       </c>
@@ -41592,7 +42213,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A161" s="94" t="s">
         <v>376</v>
       </c>
@@ -41683,7 +42304,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A162" s="94" t="s">
         <v>376</v>
       </c>
@@ -41774,7 +42395,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A163" s="94" t="s">
         <v>376</v>
       </c>
@@ -41865,7 +42486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A164" s="94" t="s">
         <v>376</v>
       </c>
@@ -41956,7 +42577,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A165" s="94" t="s">
         <v>376</v>
       </c>
@@ -42047,7 +42668,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A166" s="94" t="s">
         <v>376</v>
       </c>
@@ -42138,7 +42759,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A167" s="94" t="s">
         <v>376</v>
       </c>
@@ -42229,7 +42850,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A168" s="94" t="s">
         <v>376</v>
       </c>
@@ -42320,7 +42941,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A169" s="94" t="s">
         <v>376</v>
       </c>
@@ -42411,7 +43032,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A170" s="94" t="s">
         <v>376</v>
       </c>
@@ -42502,7 +43123,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A171" s="94" t="s">
         <v>376</v>
       </c>
@@ -42593,7 +43214,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A172" s="94" t="s">
         <v>376</v>
       </c>
@@ -42684,7 +43305,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A173" s="94" t="s">
         <v>376</v>
       </c>
@@ -42775,7 +43396,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A174" s="94" t="s">
         <v>376</v>
       </c>
@@ -42866,7 +43487,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A175" s="94" t="s">
         <v>376</v>
       </c>
@@ -42957,7 +43578,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A176" s="94" t="s">
         <v>376</v>
       </c>
@@ -43048,7 +43669,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="177" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A177" s="94" t="s">
         <v>376</v>
       </c>
@@ -43140,7 +43761,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A178" s="94" t="s">
         <v>376</v>
       </c>
@@ -43233,7 +43854,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A179" s="94" t="s">
         <v>376</v>
       </c>
@@ -43326,7 +43947,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A180" s="94" t="s">
         <v>376</v>
       </c>
@@ -43424,7 +44045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A181" s="149" t="s">
         <v>377</v>
       </c>
@@ -43534,7 +44155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A182" s="149" t="s">
         <v>377</v>
       </c>
@@ -43648,7 +44269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A183" s="149" t="s">
         <v>377</v>
       </c>
@@ -43758,7 +44379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A184" s="149" t="s">
         <v>377</v>
       </c>
@@ -43868,7 +44489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A185" s="149" t="s">
         <v>377</v>
       </c>
@@ -43978,7 +44599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A186" s="149" t="s">
         <v>377</v>
       </c>
@@ -44088,7 +44709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A187" s="149" t="s">
         <v>377</v>
       </c>
@@ -44198,7 +44819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A188" s="149" t="s">
         <v>377</v>
       </c>
@@ -44308,7 +44929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A189" s="149" t="s">
         <v>377</v>
       </c>
@@ -44418,7 +45039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A190" s="149" t="s">
         <v>377</v>
       </c>
@@ -44528,7 +45149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A191" s="149" t="s">
         <v>377</v>
       </c>
@@ -44638,7 +45259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A192" s="149" t="s">
         <v>377</v>
       </c>
@@ -44748,7 +45369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A193" s="149" t="s">
         <v>377</v>
       </c>
@@ -44858,7 +45479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A194" s="149" t="s">
         <v>377</v>
       </c>
@@ -44968,7 +45589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A195" s="149" t="s">
         <v>377</v>
       </c>
@@ -45078,7 +45699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A196" s="149" t="s">
         <v>377</v>
       </c>
@@ -45188,7 +45809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A197" s="149" t="s">
         <v>377</v>
       </c>
@@ -45298,7 +45919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A198" s="149" t="s">
         <v>377</v>
       </c>
@@ -45408,7 +46029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A199" s="149" t="s">
         <v>377</v>
       </c>
@@ -45518,7 +46139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A200" s="149" t="s">
         <v>377</v>
       </c>
@@ -45628,7 +46249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A201" s="149" t="s">
         <v>377</v>
       </c>
@@ -45738,7 +46359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A202" s="149" t="s">
         <v>377</v>
       </c>
@@ -45848,7 +46469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A203" s="149" t="s">
         <v>377</v>
       </c>
@@ -45958,7 +46579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A204" s="149" t="s">
         <v>377</v>
       </c>
@@ -46068,7 +46689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A205" s="149" t="s">
         <v>377</v>
       </c>
@@ -46178,7 +46799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A206" s="149" t="s">
         <v>377</v>
       </c>
@@ -46288,7 +46909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A207" s="149" t="s">
         <v>377</v>
       </c>
@@ -46398,7 +47019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A208" s="149" t="s">
         <v>377</v>
       </c>
@@ -46508,7 +47129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A209" s="149" t="s">
         <v>377</v>
       </c>
@@ -46618,7 +47239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A210" s="149" t="s">
         <v>377</v>
       </c>
@@ -46728,7 +47349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A211" s="149" t="s">
         <v>377</v>
       </c>
@@ -46838,7 +47459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A212" s="149" t="s">
         <v>377</v>
       </c>
@@ -46948,7 +47569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A213" s="149" t="s">
         <v>377</v>
       </c>
@@ -47058,7 +47679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A214" s="149" t="s">
         <v>377</v>
       </c>
@@ -47168,7 +47789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A215" s="149" t="s">
         <v>377</v>
       </c>
@@ -47278,7 +47899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A216" s="149" t="s">
         <v>377</v>
       </c>
@@ -47388,7 +48009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A217" s="149" t="s">
         <v>377</v>
       </c>
@@ -47498,7 +48119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A218" s="149" t="s">
         <v>377</v>
       </c>
@@ -47608,7 +48229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A219" s="149" t="s">
         <v>377</v>
       </c>
@@ -47724,7 +48345,7 @@
         <v>6.9121338909098995E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A220" s="149" t="s">
         <v>377</v>
       </c>
@@ -47768,8 +48389,8 @@
       <c r="O220" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="P220" s="111">
-        <v>0.11</v>
+      <c r="P220" s="62">
+        <v>-0.15</v>
       </c>
       <c r="Q220" s="112"/>
       <c r="R220" s="110"/>
@@ -47813,8 +48434,8 @@
       <c r="AD220" s="110"/>
       <c r="AE220" s="110"/>
       <c r="AF220" s="110"/>
-      <c r="AG220" s="111">
-        <v>0.22</v>
+      <c r="AG220" s="62">
+        <v>0.26</v>
       </c>
       <c r="AH220" s="14">
         <f t="shared" si="44"/>
@@ -47834,7 +48455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A221" s="149" t="s">
         <v>377</v>
       </c>
@@ -47944,7 +48565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A222" s="149" t="s">
         <v>377</v>
       </c>
@@ -48047,7 +48668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A223" s="149" t="s">
         <v>377</v>
       </c>
@@ -48161,7 +48782,7 @@
         <v>-187767.14516129033</v>
       </c>
     </row>
-    <row r="224" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A224" s="149" t="s">
         <v>377</v>
       </c>
@@ -48274,7 +48895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A225" s="149" t="s">
         <v>377</v>
       </c>
@@ -48399,7 +49020,7 @@
         <v>7.4469172931276262</v>
       </c>
     </row>
-    <row r="226" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A226" s="149" t="s">
         <v>377</v>
       </c>
@@ -48520,7 +49141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A227" s="149" t="s">
         <v>377</v>
       </c>
@@ -48638,7 +49259,7 @@
         <v>68.772846715641208</v>
       </c>
     </row>
-    <row r="228" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A228" s="149" t="s">
         <v>377</v>
       </c>
@@ -48748,7 +49369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A229" s="149" t="s">
         <v>377</v>
       </c>
@@ -48858,7 +49479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A230" s="149" t="s">
         <v>377</v>
       </c>
@@ -48972,7 +49593,7 @@
         <v>-15.862394366197179</v>
       </c>
     </row>
-    <row r="231" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A231" s="149" t="s">
         <v>377</v>
       </c>
@@ -49086,7 +49707,7 @@
         <v>-0.1397183098591549</v>
       </c>
     </row>
-    <row r="232" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A232" s="149" t="s">
         <v>377</v>
       </c>
@@ -49185,7 +49806,7 @@
       <c r="AL232" s="116"/>
       <c r="AM232" s="116"/>
     </row>
-    <row r="233" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A233" s="149" t="s">
         <v>377</v>
       </c>
@@ -49287,7 +49908,7 @@
       <c r="AL233" s="116"/>
       <c r="AM233" s="116"/>
     </row>
-    <row r="234" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A234" s="149" t="s">
         <v>377</v>
       </c>
@@ -49385,7 +50006,7 @@
       <c r="AL234" s="116"/>
       <c r="AM234" s="116"/>
     </row>
-    <row r="235" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A235" s="149" t="s">
         <v>377</v>
       </c>
@@ -49480,7 +50101,7 @@
       <c r="AL235" s="116"/>
       <c r="AM235" s="116"/>
     </row>
-    <row r="236" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A236" s="149" t="s">
         <v>377</v>
       </c>
@@ -49578,7 +50199,7 @@
       <c r="AL236" s="123"/>
       <c r="AM236" s="123"/>
     </row>
-    <row r="237" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A237" s="149" t="s">
         <v>377</v>
       </c>
@@ -49677,7 +50298,7 @@
       <c r="AL237" s="116"/>
       <c r="AM237" s="116"/>
     </row>
-    <row r="238" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A238" s="127" t="s">
         <v>309</v>
       </c>
@@ -49796,7 +50417,7 @@
         <v>-1393439.1774193547</v>
       </c>
     </row>
-    <row r="239" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A239" s="127" t="s">
         <v>309</v>
       </c>
@@ -49913,7 +50534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A240" s="127" t="s">
         <v>309</v>
       </c>
@@ -50033,7 +50654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A241" s="127" t="s">
         <v>309</v>
       </c>
@@ -50144,7 +50765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A242" s="127" t="s">
         <v>309</v>
       </c>
@@ -50255,7 +50876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A243" s="127" t="s">
         <v>309</v>
       </c>
@@ -50366,7 +50987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A244" s="127" t="s">
         <v>309</v>
       </c>
@@ -50477,7 +51098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A245" s="127" t="s">
         <v>309</v>
       </c>
@@ -50588,7 +51209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A246" s="127" t="s">
         <v>309</v>
       </c>
@@ -50699,7 +51320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A247" s="127" t="s">
         <v>309</v>
       </c>
@@ -50810,7 +51431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A248" s="127" t="s">
         <v>309</v>
       </c>
@@ -50921,7 +51542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A249" s="127" t="s">
         <v>309</v>
       </c>
@@ -51032,7 +51653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A250" s="127" t="s">
         <v>309</v>
       </c>
@@ -51143,7 +51764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A251" s="127" t="s">
         <v>309</v>
       </c>
@@ -51254,7 +51875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A252" s="127" t="s">
         <v>309</v>
       </c>
@@ -51365,7 +51986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A253" s="127" t="s">
         <v>309</v>
       </c>
@@ -51476,7 +52097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A254" s="127" t="s">
         <v>309</v>
       </c>
@@ -51587,7 +52208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A255" s="127" t="s">
         <v>309</v>
       </c>
@@ -51698,7 +52319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A256" s="127" t="s">
         <v>309</v>
       </c>
@@ -51809,7 +52430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A257" s="127" t="s">
         <v>309</v>
       </c>
@@ -51920,7 +52541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A258" s="127" t="s">
         <v>309</v>
       </c>
@@ -52031,7 +52652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A259" s="127" t="s">
         <v>309</v>
       </c>
@@ -52142,7 +52763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A260" s="127" t="s">
         <v>309</v>
       </c>
@@ -52253,7 +52874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A261" s="127" t="s">
         <v>309</v>
       </c>
@@ -52364,7 +52985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A262" s="127" t="s">
         <v>309</v>
       </c>
@@ -52479,7 +53100,7 @@
         <v>0.15837499999906868</v>
       </c>
     </row>
-    <row r="263" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A263" s="127" t="s">
         <v>309</v>
       </c>
@@ -52590,7 +53211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A264" s="127" t="s">
         <v>309</v>
       </c>
@@ -52701,7 +53322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A265" s="127" t="s">
         <v>309</v>
       </c>
@@ -52812,7 +53433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A266" s="127" t="s">
         <v>309</v>
       </c>
@@ -52923,7 +53544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A267" s="127" t="s">
         <v>309</v>
       </c>
@@ -53034,7 +53655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A268" s="127" t="s">
         <v>309</v>
       </c>
@@ -53145,7 +53766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A269" s="127" t="s">
         <v>309</v>
       </c>
@@ -53256,7 +53877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A270" s="127" t="s">
         <v>309</v>
       </c>
@@ -53367,7 +53988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A271" s="127" t="s">
         <v>309</v>
       </c>
@@ -53478,7 +54099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A272" s="127" t="s">
         <v>309</v>
       </c>
@@ -53589,7 +54210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A273" s="127" t="s">
         <v>309</v>
       </c>
@@ -53700,7 +54321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A274" s="127" t="s">
         <v>309</v>
       </c>
@@ -53811,7 +54432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A275" s="127" t="s">
         <v>309</v>
       </c>
@@ -53922,7 +54543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A276" s="127" t="s">
         <v>309</v>
       </c>
@@ -54033,7 +54654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A277" s="127" t="s">
         <v>309</v>
       </c>
@@ -54144,7 +54765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A278" s="127" t="s">
         <v>309</v>
       </c>
@@ -54255,7 +54876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A279" s="127" t="s">
         <v>309</v>
       </c>
@@ -54370,7 +54991,7 @@
         <v>-1.4058577407013217E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A280" s="127" t="s">
         <v>309</v>
       </c>
@@ -54414,8 +55035,8 @@
       <c r="O280" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="P280" s="133">
-        <v>0.11</v>
+      <c r="P280" s="62">
+        <v>-0.15</v>
       </c>
       <c r="Q280" s="118"/>
       <c r="R280" s="118"/>
@@ -54457,8 +55078,8 @@
       <c r="AD280" s="118"/>
       <c r="AE280" s="118"/>
       <c r="AF280" s="118"/>
-      <c r="AG280" s="128">
-        <v>0.22</v>
+      <c r="AG280" s="62">
+        <v>0.26</v>
       </c>
       <c r="AH280" s="116">
         <f t="shared" si="62"/>
@@ -54481,7 +55102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A281" s="127" t="s">
         <v>309</v>
       </c>
@@ -54592,7 +55213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A282" s="127" t="s">
         <v>309</v>
       </c>
@@ -54709,7 +55330,7 @@
         <v>0.27879699248296674</v>
       </c>
     </row>
-    <row r="283" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A283" s="127" t="s">
         <v>309</v>
       </c>
@@ -54820,7 +55441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A284" s="127" t="s">
         <v>309</v>
       </c>
@@ -54931,7 +55552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A285" s="127" t="s">
         <v>309</v>
       </c>
@@ -55046,7 +55667,7 @@
         <v>-8.8584507042253513</v>
       </c>
     </row>
-    <row r="286" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A286" s="127" t="s">
         <v>309</v>
       </c>
@@ -55157,7 +55778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A287" s="127" t="s">
         <v>309</v>
       </c>
@@ -55274,7 +55895,7 @@
         <v>45.029999999999994</v>
       </c>
     </row>
-    <row r="288" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A288" s="127" t="s">
         <v>309</v>
       </c>
@@ -55380,7 +56001,7 @@
       <c r="AL288" s="118"/>
       <c r="AM288" s="118"/>
     </row>
-    <row r="289" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A289" s="127" t="s">
         <v>309</v>
       </c>
@@ -55484,7 +56105,7 @@
       <c r="AL289" s="118"/>
       <c r="AM289" s="118"/>
     </row>
-    <row r="290" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A290" s="127" t="s">
         <v>309</v>
       </c>
@@ -55587,7 +56208,7 @@
       <c r="AL290" s="118"/>
       <c r="AM290" s="118"/>
     </row>
-    <row r="291" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A291" s="127" t="s">
         <v>309</v>
       </c>
@@ -55695,7 +56316,7 @@
       <c r="AL291" s="136"/>
       <c r="AM291" s="136"/>
     </row>
-    <row r="292" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A292" s="127" t="s">
         <v>309</v>
       </c>
@@ -55795,7 +56416,7 @@
       <c r="AL292" s="118"/>
       <c r="AM292" s="118"/>
     </row>
-    <row r="293" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A293" s="127" t="s">
         <v>309</v>
       </c>
@@ -55906,7 +56527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A294" s="127" t="s">
         <v>309</v>
       </c>
@@ -56017,7 +56638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A295" s="127" t="s">
         <v>309</v>
       </c>
@@ -56128,7 +56749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A296" s="127" t="s">
         <v>309</v>
       </c>
@@ -56239,7 +56860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A297" s="127" t="s">
         <v>309</v>
       </c>
@@ -56350,7 +56971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A298" s="127" t="s">
         <v>332</v>
       </c>
@@ -56468,7 +57089,7 @@
         <v>-1844.7506067961167</v>
       </c>
     </row>
-    <row r="299" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A299" s="127" t="s">
         <v>332</v>
       </c>
@@ -56586,7 +57207,7 @@
         <v>-5161.2870409455445</v>
       </c>
     </row>
-    <row r="300" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A300" s="127" t="s">
         <v>332</v>
       </c>
@@ -56707,7 +57328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A301" s="127" t="s">
         <v>332</v>
       </c>
@@ -56823,7 +57444,7 @@
         <v>-3015.3909677419324</v>
       </c>
     </row>
-    <row r="302" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A302" s="127" t="s">
         <v>332</v>
       </c>
@@ -56938,7 +57559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A303" s="127" t="s">
         <v>332</v>
       </c>
@@ -57050,7 +57671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A304" s="127" t="s">
         <v>332</v>
       </c>
@@ -57166,7 +57787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A305" s="127" t="s">
         <v>332</v>
       </c>
@@ -57278,7 +57899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A306" s="127" t="s">
         <v>332</v>
       </c>
@@ -57390,7 +58011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A307" s="127" t="s">
         <v>332</v>
       </c>
@@ -57502,7 +58123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A308" s="127" t="s">
         <v>332</v>
       </c>
@@ -57618,7 +58239,7 @@
         <v>1.1340000000054715</v>
       </c>
     </row>
-    <row r="309" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A309" s="127" t="s">
         <v>332</v>
       </c>
@@ -57730,7 +58351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A310" s="127" t="s">
         <v>332</v>
       </c>
@@ -57842,7 +58463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A311" s="127" t="s">
         <v>332</v>
       </c>
@@ -57954,7 +58575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A312" s="127" t="s">
         <v>332</v>
       </c>
@@ -58066,7 +58687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A313" s="127" t="s">
         <v>332</v>
       </c>
@@ -58178,7 +58799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A314" s="127" t="s">
         <v>332</v>
       </c>
@@ -58290,7 +58911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A315" s="127" t="s">
         <v>332</v>
       </c>
@@ -58402,7 +59023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A316" s="127" t="s">
         <v>332</v>
       </c>
@@ -58514,7 +59135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A317" s="127" t="s">
         <v>332</v>
       </c>
@@ -58626,7 +59247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A318" s="127" t="s">
         <v>332</v>
       </c>
@@ -58738,7 +59359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A319" s="127" t="s">
         <v>332</v>
       </c>
@@ -58850,7 +59471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A320" s="127" t="s">
         <v>332</v>
       </c>
@@ -58962,7 +59583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A321" s="127" t="s">
         <v>332</v>
       </c>
@@ -59074,7 +59695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A322" s="127" t="s">
         <v>332</v>
       </c>
@@ -59186,7 +59807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A323" s="127" t="s">
         <v>332</v>
       </c>
@@ -59298,7 +59919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A324" s="127" t="s">
         <v>332</v>
       </c>
@@ -59410,7 +60031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A325" s="127" t="s">
         <v>332</v>
       </c>
@@ -59522,7 +60143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A326" s="127" t="s">
         <v>332</v>
       </c>
@@ -59634,7 +60255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A327" s="127" t="s">
         <v>332</v>
       </c>
@@ -59746,7 +60367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A328" s="127" t="s">
         <v>332</v>
       </c>
@@ -59858,7 +60479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A329" s="127" t="s">
         <v>332</v>
       </c>
@@ -59970,7 +60591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A330" s="127" t="s">
         <v>332</v>
       </c>
@@ -60082,7 +60703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A331" s="127" t="s">
         <v>332</v>
       </c>
@@ -60194,7 +60815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A332" s="127" t="s">
         <v>332</v>
       </c>
@@ -60306,7 +60927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A333" s="127" t="s">
         <v>332</v>
       </c>
@@ -60418,7 +61039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A334" s="127" t="s">
         <v>332</v>
       </c>
@@ -60530,7 +61151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A335" s="127" t="s">
         <v>332</v>
       </c>
@@ -60642,7 +61263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A336" s="127" t="s">
         <v>332</v>
       </c>
@@ -60754,7 +61375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A337" s="127" t="s">
         <v>332</v>
       </c>
@@ -60866,7 +61487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A338" s="127" t="s">
         <v>332</v>
       </c>
@@ -60978,7 +61599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A339" s="127" t="s">
         <v>332</v>
       </c>
@@ -61090,7 +61711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A340" s="127" t="s">
         <v>332</v>
       </c>
@@ -61206,7 +61827,7 @@
         <v>2.2426778241424472E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A341" s="127" t="s">
         <v>332</v>
       </c>
@@ -61250,8 +61871,8 @@
       <c r="O341" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="P341" s="128">
-        <v>0.11</v>
+      <c r="P341" s="62">
+        <v>-0.15</v>
       </c>
       <c r="R341" s="118"/>
       <c r="S341" s="116">
@@ -61292,8 +61913,8 @@
       <c r="AD341" s="116"/>
       <c r="AE341" s="118"/>
       <c r="AF341" s="118"/>
-      <c r="AG341" s="128">
-        <v>0.22</v>
+      <c r="AG341" s="62">
+        <v>0.26</v>
       </c>
       <c r="AH341" s="116">
         <f t="shared" si="89"/>
@@ -61318,7 +61939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A342" s="127" t="s">
         <v>332</v>
       </c>
@@ -61430,7 +62051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A343" s="127" t="s">
         <v>332</v>
       </c>
@@ -61546,7 +62167,7 @@
         <v>5285.372932336295</v>
       </c>
     </row>
-    <row r="344" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A344" s="127" t="s">
         <v>332</v>
       </c>
@@ -61658,7 +62279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A345" s="127" t="s">
         <v>332</v>
       </c>
@@ -61770,7 +62391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A346" s="127" t="s">
         <v>332</v>
       </c>
@@ -61886,7 +62507,7 @@
         <v>-8.3792957746478862</v>
       </c>
     </row>
-    <row r="347" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A347" s="127" t="s">
         <v>332</v>
       </c>
@@ -61998,7 +62619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A348" s="127" t="s">
         <v>332</v>
       </c>
@@ -62110,7 +62731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A349" s="127" t="s">
         <v>332</v>
       </c>
@@ -62222,7 +62843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A350" s="127" t="s">
         <v>332</v>
       </c>
@@ -62334,7 +62955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A351" s="127" t="s">
         <v>332</v>
       </c>
@@ -62446,7 +63067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A352" s="127" t="s">
         <v>332</v>
       </c>
@@ -62558,7 +63179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A353" s="127" t="s">
         <v>332</v>
       </c>
@@ -62660,7 +63281,7 @@
       <c r="AL353" s="125"/>
       <c r="AM353" s="125"/>
     </row>
-    <row r="354" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A354" s="127" t="s">
         <v>332</v>
       </c>
@@ -62764,7 +63385,7 @@
       <c r="AL354" s="116"/>
       <c r="AM354" s="116"/>
     </row>
-    <row r="355" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A355" s="127" t="s">
         <v>332</v>
       </c>
@@ -62868,7 +63489,7 @@
       <c r="AL355" s="116"/>
       <c r="AM355" s="116"/>
     </row>
-    <row r="356" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A356" s="127" t="s">
         <v>332</v>
       </c>
@@ -62970,7 +63591,7 @@
       <c r="AL356" s="118"/>
       <c r="AM356" s="118"/>
     </row>
-    <row r="357" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A357" s="127" t="s">
         <v>332</v>
       </c>
@@ -63078,7 +63699,7 @@
       <c r="AL357" s="118"/>
       <c r="AM357" s="118"/>
     </row>
-    <row r="358" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A358" s="127" t="s">
         <v>332</v>
       </c>
@@ -63180,7 +63801,7 @@
       <c r="AL358" s="125"/>
       <c r="AM358" s="125"/>
     </row>
-    <row r="359" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A359" s="127" t="s">
         <v>332</v>
       </c>
@@ -63268,7 +63889,7 @@
       <c r="AL359" s="118"/>
       <c r="AM359" s="118"/>
     </row>
-    <row r="360" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A360" s="127" t="s">
         <v>332</v>
       </c>
@@ -63354,7 +63975,7 @@
       <c r="AL360" s="118"/>
       <c r="AM360" s="118"/>
     </row>
-    <row r="361" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A361" s="127" t="s">
         <v>332</v>
       </c>
@@ -63440,7 +64061,7 @@
       <c r="AL361" s="118"/>
       <c r="AM361" s="118"/>
     </row>
-    <row r="362" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A362" s="127" t="s">
         <v>332</v>
       </c>
@@ -63526,7 +64147,7 @@
       <c r="AL362" s="118"/>
       <c r="AM362" s="118"/>
     </row>
-    <row r="363" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A363" s="127" t="s">
         <v>332</v>
       </c>
@@ -63612,7 +64233,7 @@
       <c r="AL363" s="118"/>
       <c r="AM363" s="118"/>
     </row>
-    <row r="364" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A364" s="127" t="s">
         <v>332</v>
       </c>
@@ -63720,7 +64341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A365" s="142" t="s">
         <v>369</v>
       </c>
@@ -63839,7 +64460,7 @@
         <v>1839.9866504857782</v>
       </c>
     </row>
-    <row r="366" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A366" s="142" t="s">
         <v>369</v>
       </c>
@@ -63958,7 +64579,7 @@
         <v>216.70015477703419</v>
       </c>
     </row>
-    <row r="367" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A367" s="142" t="s">
         <v>369</v>
       </c>
@@ -64077,7 +64698,7 @@
         <v>21638.24398480371</v>
       </c>
     </row>
-    <row r="368" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A368" s="142" t="s">
         <v>369</v>
       </c>
@@ -64196,7 +64817,7 @@
         <v>161041.03813141963</v>
       </c>
     </row>
-    <row r="369" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A369" s="142" t="s">
         <v>369</v>
       </c>
@@ -64315,7 +64936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A370" s="142" t="s">
         <v>369</v>
       </c>
@@ -64433,7 +65054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A371" s="142" t="s">
         <v>369</v>
       </c>
@@ -64547,7 +65168,7 @@
       </c>
       <c r="AN371" s="89"/>
     </row>
-    <row r="372" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A372" s="142" t="s">
         <v>369</v>
       </c>
@@ -64664,7 +65285,7 @@
         <v>-75041.33009708731</v>
       </c>
     </row>
-    <row r="373" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A373" s="142" t="s">
         <v>369</v>
       </c>
@@ -64778,7 +65399,7 @@
       </c>
       <c r="AN373" s="89"/>
     </row>
-    <row r="374" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A374" s="142" t="s">
         <v>369</v>
       </c>
@@ -64892,7 +65513,7 @@
       </c>
       <c r="AN374" s="89"/>
     </row>
-    <row r="375" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A375" s="142" t="s">
         <v>369</v>
       </c>
@@ -65009,7 +65630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A376" s="142" t="s">
         <v>369</v>
       </c>
@@ -65123,7 +65744,7 @@
       </c>
       <c r="AN376" s="89"/>
     </row>
-    <row r="377" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A377" s="142" t="s">
         <v>369</v>
       </c>
@@ -65237,7 +65858,7 @@
       </c>
       <c r="AN377" s="89"/>
     </row>
-    <row r="378" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A378" s="142" t="s">
         <v>369</v>
       </c>
@@ -65351,7 +65972,7 @@
       </c>
       <c r="AN378" s="89"/>
     </row>
-    <row r="379" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A379" s="142" t="s">
         <v>369</v>
       </c>
@@ -65468,7 +66089,7 @@
         <v>0.4382500000001528</v>
       </c>
     </row>
-    <row r="380" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A380" s="142" t="s">
         <v>369</v>
       </c>
@@ -65585,7 +66206,7 @@
         <v>2.2727272727269821E-3</v>
       </c>
     </row>
-    <row r="381" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A381" s="142" t="s">
         <v>369</v>
       </c>
@@ -65699,7 +66320,7 @@
       </c>
       <c r="AN381" s="89"/>
     </row>
-    <row r="382" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A382" s="142" t="s">
         <v>369</v>
       </c>
@@ -65813,7 +66434,7 @@
       </c>
       <c r="AN382" s="89"/>
     </row>
-    <row r="383" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A383" s="142" t="s">
         <v>369</v>
       </c>
@@ -65927,7 +66548,7 @@
       </c>
       <c r="AN383" s="89"/>
     </row>
-    <row r="384" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A384" s="142" t="s">
         <v>369</v>
       </c>
@@ -66041,7 +66662,7 @@
       </c>
       <c r="AN384" s="89"/>
     </row>
-    <row r="385" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A385" s="142" t="s">
         <v>369</v>
       </c>
@@ -66155,7 +66776,7 @@
       </c>
       <c r="AN385" s="89"/>
     </row>
-    <row r="386" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A386" s="142" t="s">
         <v>369</v>
       </c>
@@ -66269,7 +66890,7 @@
       </c>
       <c r="AN386" s="89"/>
     </row>
-    <row r="387" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A387" s="142" t="s">
         <v>369</v>
       </c>
@@ -66383,7 +67004,7 @@
       </c>
       <c r="AN387" s="89"/>
     </row>
-    <row r="388" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A388" s="142" t="s">
         <v>369</v>
       </c>
@@ -66497,7 +67118,7 @@
       </c>
       <c r="AN388" s="89"/>
     </row>
-    <row r="389" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A389" s="142" t="s">
         <v>369</v>
       </c>
@@ -66611,7 +67232,7 @@
       </c>
       <c r="AN389" s="89"/>
     </row>
-    <row r="390" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A390" s="142" t="s">
         <v>369</v>
       </c>
@@ -66725,7 +67346,7 @@
       </c>
       <c r="AN390" s="89"/>
     </row>
-    <row r="391" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A391" s="142" t="s">
         <v>369</v>
       </c>
@@ -66839,7 +67460,7 @@
       </c>
       <c r="AN391" s="89"/>
     </row>
-    <row r="392" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A392" s="142" t="s">
         <v>369</v>
       </c>
@@ -66953,7 +67574,7 @@
       </c>
       <c r="AN392" s="89"/>
     </row>
-    <row r="393" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A393" s="142" t="s">
         <v>369</v>
       </c>
@@ -67067,7 +67688,7 @@
       </c>
       <c r="AN393" s="89"/>
     </row>
-    <row r="394" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A394" s="142" t="s">
         <v>369</v>
       </c>
@@ -67181,7 +67802,7 @@
       </c>
       <c r="AN394" s="89"/>
     </row>
-    <row r="395" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A395" s="142" t="s">
         <v>369</v>
       </c>
@@ -67295,7 +67916,7 @@
       </c>
       <c r="AN395" s="89"/>
     </row>
-    <row r="396" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A396" s="142" t="s">
         <v>369</v>
       </c>
@@ -67409,7 +68030,7 @@
       </c>
       <c r="AN396" s="89"/>
     </row>
-    <row r="397" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A397" s="142" t="s">
         <v>369</v>
       </c>
@@ -67523,7 +68144,7 @@
       </c>
       <c r="AN397" s="89"/>
     </row>
-    <row r="398" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A398" s="142" t="s">
         <v>369</v>
       </c>
@@ -67637,7 +68258,7 @@
       </c>
       <c r="AN398" s="89"/>
     </row>
-    <row r="399" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A399" s="142" t="s">
         <v>369</v>
       </c>
@@ -67751,7 +68372,7 @@
       </c>
       <c r="AN399" s="89"/>
     </row>
-    <row r="400" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A400" s="142" t="s">
         <v>369</v>
       </c>
@@ -67865,7 +68486,7 @@
       </c>
       <c r="AN400" s="89"/>
     </row>
-    <row r="401" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A401" s="142" t="s">
         <v>369</v>
       </c>
@@ -67979,7 +68600,7 @@
       </c>
       <c r="AN401" s="89"/>
     </row>
-    <row r="402" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A402" s="142" t="s">
         <v>369</v>
       </c>
@@ -68093,7 +68714,7 @@
       </c>
       <c r="AN402" s="89"/>
     </row>
-    <row r="403" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A403" s="142" t="s">
         <v>369</v>
       </c>
@@ -68207,7 +68828,7 @@
       </c>
       <c r="AN403" s="89"/>
     </row>
-    <row r="404" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A404" s="142" t="s">
         <v>369</v>
       </c>
@@ -68321,7 +68942,7 @@
       </c>
       <c r="AN404" s="89"/>
     </row>
-    <row r="405" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A405" s="142" t="s">
         <v>369</v>
       </c>
@@ -68435,7 +69056,7 @@
       </c>
       <c r="AN405" s="89"/>
     </row>
-    <row r="406" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A406" s="142" t="s">
         <v>369</v>
       </c>
@@ -68549,7 +69170,7 @@
       </c>
       <c r="AN406" s="89"/>
     </row>
-    <row r="407" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A407" s="142" t="s">
         <v>369</v>
       </c>
@@ -68663,7 +69284,7 @@
       </c>
       <c r="AN407" s="89"/>
     </row>
-    <row r="408" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A408" s="142" t="s">
         <v>369</v>
       </c>
@@ -68777,7 +69398,7 @@
       </c>
       <c r="AN408" s="89"/>
     </row>
-    <row r="409" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A409" s="142" t="s">
         <v>369</v>
       </c>
@@ -68891,7 +69512,7 @@
       </c>
       <c r="AN409" s="89"/>
     </row>
-    <row r="410" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A410" s="142" t="s">
         <v>369</v>
       </c>
@@ -69005,7 +69626,7 @@
       </c>
       <c r="AN410" s="89"/>
     </row>
-    <row r="411" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A411" s="142" t="s">
         <v>369</v>
       </c>
@@ -69122,7 +69743,7 @@
         <v>11715.499414225944</v>
       </c>
     </row>
-    <row r="412" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A412" s="142" t="s">
         <v>369</v>
       </c>
@@ -69166,8 +69787,8 @@
       <c r="O412" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="P412" s="17">
-        <v>0.11</v>
+      <c r="P412" s="62">
+        <v>-0.15</v>
       </c>
       <c r="Q412" s="93"/>
       <c r="R412" s="132"/>
@@ -69209,8 +69830,8 @@
       <c r="AD412" s="16"/>
       <c r="AE412" s="132"/>
       <c r="AF412" s="132"/>
-      <c r="AG412" s="17">
-        <v>0.22</v>
+      <c r="AG412" s="62">
+        <v>0.26</v>
       </c>
       <c r="AH412" s="15">
         <f t="shared" si="111"/>
@@ -69236,7 +69857,7 @@
       </c>
       <c r="AN412" s="89"/>
     </row>
-    <row r="413" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A413" s="142" t="s">
         <v>369</v>
       </c>
@@ -69350,7 +69971,7 @@
       </c>
       <c r="AN413" s="89"/>
     </row>
-    <row r="414" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A414" s="142" t="s">
         <v>369</v>
       </c>
@@ -69467,7 +70088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A415" s="142" t="s">
         <v>369</v>
       </c>
@@ -69581,7 +70202,7 @@
       </c>
       <c r="AN415" s="89"/>
     </row>
-    <row r="416" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A416" s="142" t="s">
         <v>369</v>
       </c>
@@ -69698,7 +70319,7 @@
         <v>-13.0525352112676</v>
       </c>
     </row>
-    <row r="417" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A417" s="142" t="s">
         <v>369</v>
       </c>
@@ -69812,7 +70433,7 @@
       </c>
       <c r="AN417" s="89"/>
     </row>
-    <row r="418" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A418" s="142" t="s">
         <v>369</v>
       </c>
@@ -69926,7 +70547,7 @@
       </c>
       <c r="AN418" s="89"/>
     </row>
-    <row r="419" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A419" s="142" t="s">
         <v>369</v>
       </c>
@@ -70040,7 +70661,7 @@
       </c>
       <c r="AN419" s="89"/>
     </row>
-    <row r="420" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A420" s="142" t="s">
         <v>369</v>
       </c>
@@ -70154,7 +70775,7 @@
       </c>
       <c r="AN420" s="89"/>
     </row>
-    <row r="421" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A421" s="142" t="s">
         <v>369</v>
       </c>
@@ -70268,7 +70889,7 @@
       </c>
       <c r="AN421" s="89"/>
     </row>
-    <row r="422" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A422" s="142" t="s">
         <v>369</v>
       </c>
@@ -70382,7 +71003,7 @@
       </c>
       <c r="AN422" s="89"/>
     </row>
-    <row r="423" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A423" s="142" t="s">
         <v>369</v>
       </c>
@@ -70494,7 +71115,7 @@
       </c>
       <c r="AN423" s="89"/>
     </row>
-    <row r="424" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A424" s="142" t="s">
         <v>369</v>
       </c>
@@ -70611,7 +71232,7 @@
         <v>3.9775886524822699</v>
       </c>
     </row>
-    <row r="425" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A425" s="142" t="s">
         <v>369</v>
       </c>
@@ -70707,7 +71328,7 @@
       <c r="AM425" s="118"/>
       <c r="AN425" s="89"/>
     </row>
-    <row r="426" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A426" s="142" t="s">
         <v>369</v>
       </c>
@@ -70805,7 +71426,7 @@
       <c r="AM426" s="118"/>
       <c r="AN426" s="89"/>
     </row>
-    <row r="427" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A427" s="142" t="s">
         <v>369</v>
       </c>
@@ -70901,7 +71522,7 @@
       <c r="AM427" s="118"/>
       <c r="AN427" s="89"/>
     </row>
-    <row r="428" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A428" s="142" t="s">
         <v>369</v>
       </c>
@@ -71001,6 +71622,7 @@
       <c r="AN428" s="89"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN428"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="R126">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
@@ -71041,7 +71663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
@@ -71053,31 +71675,31 @@
       <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.375" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="10" customWidth="1"/>
     <col min="14" max="14" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="15.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.375" style="10" customWidth="1"/>
     <col min="21" max="21" width="8" style="10" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
@@ -71142,7 +71764,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>35</v>
       </c>
@@ -71207,7 +71829,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="35" t="s">
         <v>35</v>
       </c>
@@ -71270,7 +71892,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="35" t="s">
         <v>35</v>
       </c>
@@ -71333,7 +71955,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>35</v>
       </c>
@@ -71398,7 +72020,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
         <v>158</v>
       </c>
@@ -71463,7 +72085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
         <v>161</v>
       </c>
@@ -71528,7 +72150,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="35" t="s">
         <v>164</v>
       </c>
@@ -71593,7 +72215,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="35" t="s">
         <v>168</v>
       </c>
@@ -71658,7 +72280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="35" t="s">
         <v>168</v>
       </c>
@@ -71723,7 +72345,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="35" t="s">
         <v>177</v>
       </c>
@@ -71780,7 +72402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="35" t="s">
         <v>181</v>
       </c>
@@ -71839,7 +72461,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="35" t="s">
         <v>188</v>
       </c>
@@ -71898,7 +72520,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="35" t="s">
         <v>193</v>
       </c>
@@ -71957,7 +72579,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
         <v>35</v>
       </c>
@@ -72024,7 +72646,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
         <v>35</v>
       </c>
@@ -72087,7 +72709,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
         <v>161</v>
       </c>
@@ -72152,7 +72774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
         <v>35</v>
       </c>
@@ -72217,7 +72839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="35" t="s">
         <v>168</v>
       </c>
@@ -72282,7 +72904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="35" t="s">
         <v>168</v>
       </c>
@@ -72347,7 +72969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="22" t="s">
         <v>193</v>
       </c>
@@ -72410,7 +73032,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="22" t="s">
         <v>252</v>
       </c>
@@ -72475,7 +73097,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="22" t="s">
         <v>208</v>
       </c>
@@ -72544,7 +73166,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="s">
         <v>211</v>
       </c>
@@ -72609,7 +73231,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
         <v>262</v>
       </c>
@@ -72666,7 +73288,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="s">
         <v>252</v>
       </c>
@@ -72730,7 +73352,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
         <v>275</v>
       </c>
@@ -72794,7 +73416,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
         <v>252</v>
       </c>
@@ -72861,7 +73483,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
         <v>279</v>
       </c>
@@ -72926,7 +73548,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
         <v>281</v>
       </c>
@@ -72983,7 +73605,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
         <v>214</v>
       </c>
@@ -73048,7 +73670,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
         <v>214</v>
       </c>
@@ -73113,7 +73735,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
         <v>312</v>
       </c>
@@ -73173,7 +73795,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
         <v>214</v>
       </c>
@@ -73240,7 +73862,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35" s="22" t="s">
         <v>246</v>
       </c>
@@ -73305,7 +73927,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36" s="22" t="s">
         <v>214</v>
       </c>
@@ -73367,7 +73989,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37" s="22" t="s">
         <v>214</v>
       </c>
@@ -73427,7 +74049,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>214</v>
       </c>
@@ -73494,7 +74116,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39" s="22" t="s">
         <v>214</v>
       </c>
@@ -73560,7 +74182,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40" s="22" t="s">
         <v>246</v>
       </c>
@@ -73625,7 +74247,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41" s="22" t="s">
         <v>350</v>
       </c>
@@ -73690,7 +74312,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42" s="22" t="s">
         <v>352</v>
       </c>
@@ -73755,7 +74377,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43" s="22" t="s">
         <v>357</v>
       </c>
@@ -73822,7 +74444,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44" s="22" t="s">
         <v>357</v>
       </c>
@@ -73889,7 +74511,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
         <v>214</v>
       </c>
@@ -73956,7 +74578,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
         <v>214</v>
       </c>
@@ -74021,7 +74643,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>214</v>
       </c>
@@ -74086,7 +74708,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
         <v>214</v>
       </c>
@@ -74151,7 +74773,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
         <v>352</v>
       </c>
@@ -74216,25 +74838,25 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="H56" s="12"/>
     </row>
   </sheetData>

--- a/2020年1-7月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-7月金源消耗表（财务运营共享版）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\多彩运营\-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1380,10 +1380,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>简称2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>百度</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1428,6 +1424,10 @@
   </si>
   <si>
     <t>入账金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>简称2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -27547,14 +27547,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:AN428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F431" sqref="F431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27564,13 +27564,13 @@
     <col min="4" max="4" width="7" style="59" customWidth="1"/>
     <col min="5" max="5" width="17.125" style="59" customWidth="1"/>
     <col min="6" max="6" width="22.375" style="59" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="59" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="59" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="59" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="59" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="59" customWidth="1"/>
-    <col min="11" max="11" width="11" style="148" customWidth="1"/>
-    <col min="12" max="12" width="25.875" style="59" customWidth="1"/>
-    <col min="13" max="13" width="9" style="59" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="59" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="59" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="148" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="18.625" style="59" customWidth="1"/>
+    <col min="13" max="13" width="6" style="59" customWidth="1"/>
     <col min="14" max="14" width="6.875" style="59" customWidth="1"/>
     <col min="15" max="17" width="9" style="59" customWidth="1"/>
     <col min="18" max="18" width="6.875" style="59" customWidth="1"/>
@@ -27624,7 +27624,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -27675,7 +27675,7 @@
         <v>269</v>
       </c>
       <c r="Z1" s="150" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AA1" s="7" t="s">
         <v>21</v>
@@ -27720,9 +27720,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>28</v>
@@ -27746,7 +27746,7 @@
         <v>34</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J2" s="60" t="s">
         <v>35</v>
@@ -27813,9 +27813,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>38</v>
@@ -27839,7 +27839,7 @@
         <v>34</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J3" s="60" t="s">
         <v>35</v>
@@ -27903,9 +27903,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>266</v>
@@ -27929,7 +27929,7 @@
         <v>34</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J4" s="60" t="s">
         <v>35</v>
@@ -27998,9 +27998,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>28</v>
@@ -28024,7 +28024,7 @@
         <v>34</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J5" s="60" t="s">
         <v>35</v>
@@ -28091,7 +28091,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A6" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>28</v>
@@ -28115,7 +28115,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J6" s="60" t="s">
         <v>35</v>
@@ -28139,7 +28139,7 @@
       <c r="Q6" s="69"/>
       <c r="R6" s="60"/>
       <c r="S6" s="15">
-        <v>106089.31</v>
+        <v>106086.55000000028</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64">
@@ -28147,7 +28147,7 @@
       </c>
       <c r="V6" s="64">
         <f t="shared" si="0"/>
-        <v>15901.839999999997</v>
+        <v>15899.080000000278</v>
       </c>
       <c r="W6" s="66">
         <f t="shared" si="5"/>
@@ -28180,9 +28180,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>28</v>
@@ -28206,7 +28206,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J7" s="60" t="s">
         <v>35</v>
@@ -28230,7 +28230,7 @@
       <c r="Q7" s="69"/>
       <c r="R7" s="60"/>
       <c r="S7" s="15">
-        <v>9737.5499999999192</v>
+        <v>9745.5200000000041</v>
       </c>
       <c r="T7" s="64"/>
       <c r="U7" s="65">
@@ -28238,7 +28238,7 @@
       </c>
       <c r="V7" s="64">
         <f t="shared" si="0"/>
-        <v>2375.2099999999191</v>
+        <v>2383.1800000000039</v>
       </c>
       <c r="W7" s="66">
         <f t="shared" si="5"/>
@@ -28271,9 +28271,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>38</v>
@@ -28297,7 +28297,7 @@
         <v>34</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J8" s="60" t="s">
         <v>35</v>
@@ -28362,9 +28362,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>38</v>
@@ -28388,7 +28388,7 @@
         <v>34</v>
       </c>
       <c r="I9" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J9" s="60" t="s">
         <v>35</v>
@@ -28457,9 +28457,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B10" s="60" t="s">
         <v>38</v>
@@ -28483,7 +28483,7 @@
         <v>34</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J10" s="60" t="s">
         <v>35</v>
@@ -28546,9 +28546,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B11" s="60" t="s">
         <v>38</v>
@@ -28572,7 +28572,7 @@
         <v>34</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J11" s="60" t="s">
         <v>35</v>
@@ -28637,9 +28637,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B12" s="60" t="s">
         <v>38</v>
@@ -28663,7 +28663,7 @@
         <v>34</v>
       </c>
       <c r="I12" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J12" s="60" t="s">
         <v>35</v>
@@ -28727,9 +28727,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B13" s="60" t="s">
         <v>38</v>
@@ -28753,7 +28753,7 @@
         <v>34</v>
       </c>
       <c r="I13" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J13" s="60" t="s">
         <v>35</v>
@@ -28818,9 +28818,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B14" s="60" t="s">
         <v>28</v>
@@ -28844,7 +28844,7 @@
         <v>34</v>
       </c>
       <c r="I14" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J14" s="60" t="s">
         <v>35</v>
@@ -28909,9 +28909,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B15" s="60" t="s">
         <v>28</v>
@@ -28935,7 +28935,7 @@
         <v>34</v>
       </c>
       <c r="I15" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J15" s="60" t="s">
         <v>35</v>
@@ -29000,9 +29000,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B16" s="60" t="s">
         <v>38</v>
@@ -29026,7 +29026,7 @@
         <v>34</v>
       </c>
       <c r="I16" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J16" s="60" t="s">
         <v>35</v>
@@ -29091,9 +29091,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B17" s="60" t="s">
         <v>28</v>
@@ -29117,7 +29117,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J17" s="60" t="s">
         <v>35</v>
@@ -29182,9 +29182,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B18" s="60" t="s">
         <v>28</v>
@@ -29208,7 +29208,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J18" s="60" t="s">
         <v>35</v>
@@ -29273,9 +29273,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B19" s="60" t="s">
         <v>38</v>
@@ -29299,7 +29299,7 @@
         <v>34</v>
       </c>
       <c r="I19" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J19" s="60" t="s">
         <v>35</v>
@@ -29364,9 +29364,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B20" s="60" t="s">
         <v>28</v>
@@ -29390,7 +29390,7 @@
         <v>34</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J20" s="60" t="s">
         <v>35</v>
@@ -29455,9 +29455,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B21" s="60" t="s">
         <v>38</v>
@@ -29481,7 +29481,7 @@
         <v>34</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J21" s="60" t="s">
         <v>35</v>
@@ -29546,9 +29546,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B22" s="60" t="s">
         <v>28</v>
@@ -29572,7 +29572,7 @@
         <v>34</v>
       </c>
       <c r="I22" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J22" s="60" t="s">
         <v>35</v>
@@ -29637,9 +29637,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B23" s="60" t="s">
         <v>28</v>
@@ -29663,7 +29663,7 @@
         <v>34</v>
       </c>
       <c r="I23" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J23" s="60" t="s">
         <v>35</v>
@@ -29728,9 +29728,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B24" s="60" t="s">
         <v>28</v>
@@ -29754,7 +29754,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J24" s="60" t="s">
         <v>35</v>
@@ -29819,9 +29819,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B25" s="60" t="s">
         <v>28</v>
@@ -29845,7 +29845,7 @@
         <v>34</v>
       </c>
       <c r="I25" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J25" s="60" t="s">
         <v>35</v>
@@ -29910,9 +29910,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B26" s="60" t="s">
         <v>28</v>
@@ -29936,7 +29936,7 @@
         <v>34</v>
       </c>
       <c r="I26" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J26" s="60" t="s">
         <v>35</v>
@@ -30001,9 +30001,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B27" s="60" t="s">
         <v>28</v>
@@ -30027,7 +30027,7 @@
         <v>34</v>
       </c>
       <c r="I27" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J27" s="60" t="s">
         <v>35</v>
@@ -30092,9 +30092,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B28" s="60" t="s">
         <v>28</v>
@@ -30118,7 +30118,7 @@
         <v>34</v>
       </c>
       <c r="I28" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J28" s="60" t="s">
         <v>35</v>
@@ -30183,9 +30183,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B29" s="60" t="s">
         <v>28</v>
@@ -30209,7 +30209,7 @@
         <v>34</v>
       </c>
       <c r="I29" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J29" s="60" t="s">
         <v>35</v>
@@ -30274,9 +30274,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B30" s="60" t="s">
         <v>28</v>
@@ -30300,7 +30300,7 @@
         <v>34</v>
       </c>
       <c r="I30" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J30" s="60" t="s">
         <v>35</v>
@@ -30365,9 +30365,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B31" s="60" t="s">
         <v>28</v>
@@ -30391,7 +30391,7 @@
         <v>34</v>
       </c>
       <c r="I31" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J31" s="60" t="s">
         <v>35</v>
@@ -30456,9 +30456,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B32" s="60" t="s">
         <v>28</v>
@@ -30482,7 +30482,7 @@
         <v>34</v>
       </c>
       <c r="I32" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J32" s="60" t="s">
         <v>35</v>
@@ -30547,9 +30547,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B33" s="60" t="s">
         <v>28</v>
@@ -30573,7 +30573,7 @@
         <v>34</v>
       </c>
       <c r="I33" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J33" s="60" t="s">
         <v>35</v>
@@ -30638,9 +30638,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B34" s="60" t="s">
         <v>28</v>
@@ -30664,7 +30664,7 @@
         <v>34</v>
       </c>
       <c r="I34" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J34" s="60" t="s">
         <v>35</v>
@@ -30729,9 +30729,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B35" s="60" t="s">
         <v>28</v>
@@ -30755,7 +30755,7 @@
         <v>34</v>
       </c>
       <c r="I35" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J35" s="60" t="s">
         <v>35</v>
@@ -30820,9 +30820,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B36" s="60" t="s">
         <v>28</v>
@@ -30846,7 +30846,7 @@
         <v>34</v>
       </c>
       <c r="I36" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J36" s="60" t="s">
         <v>35</v>
@@ -30911,9 +30911,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B37" s="60" t="s">
         <v>28</v>
@@ -30937,7 +30937,7 @@
         <v>34</v>
       </c>
       <c r="I37" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J37" s="60" t="s">
         <v>35</v>
@@ -31002,9 +31002,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B38" s="60" t="s">
         <v>28</v>
@@ -31028,7 +31028,7 @@
         <v>34</v>
       </c>
       <c r="I38" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J38" s="60" t="s">
         <v>35</v>
@@ -31093,9 +31093,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B39" s="60" t="s">
         <v>28</v>
@@ -31119,7 +31119,7 @@
         <v>34</v>
       </c>
       <c r="I39" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J39" s="60" t="s">
         <v>35</v>
@@ -31184,9 +31184,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B40" s="60" t="s">
         <v>28</v>
@@ -31210,7 +31210,7 @@
         <v>34</v>
       </c>
       <c r="I40" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J40" s="60" t="s">
         <v>35</v>
@@ -31275,9 +31275,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B41" s="60" t="s">
         <v>28</v>
@@ -31301,7 +31301,7 @@
         <v>34</v>
       </c>
       <c r="I41" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J41" s="60" t="s">
         <v>35</v>
@@ -31366,9 +31366,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B42" s="60" t="s">
         <v>28</v>
@@ -31392,7 +31392,7 @@
         <v>34</v>
       </c>
       <c r="I42" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J42" s="60" t="s">
         <v>35</v>
@@ -31457,9 +31457,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B43" s="60" t="s">
         <v>28</v>
@@ -31483,7 +31483,7 @@
         <v>34</v>
       </c>
       <c r="I43" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J43" s="60" t="s">
         <v>35</v>
@@ -31548,9 +31548,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B44" s="60" t="s">
         <v>28</v>
@@ -31574,7 +31574,7 @@
         <v>34</v>
       </c>
       <c r="I44" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J44" s="60" t="s">
         <v>35</v>
@@ -31639,9 +31639,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B45" s="60" t="s">
         <v>28</v>
@@ -31665,7 +31665,7 @@
         <v>34</v>
       </c>
       <c r="I45" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J45" s="60" t="s">
         <v>35</v>
@@ -31730,9 +31730,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B46" s="60" t="s">
         <v>28</v>
@@ -31756,7 +31756,7 @@
         <v>34</v>
       </c>
       <c r="I46" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J46" s="60" t="s">
         <v>35</v>
@@ -31821,9 +31821,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B47" s="60" t="s">
         <v>28</v>
@@ -31847,7 +31847,7 @@
         <v>34</v>
       </c>
       <c r="I47" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J47" s="60" t="s">
         <v>35</v>
@@ -31912,9 +31912,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B48" s="60" t="s">
         <v>28</v>
@@ -31938,7 +31938,7 @@
         <v>34</v>
       </c>
       <c r="I48" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J48" s="60" t="s">
         <v>35</v>
@@ -32003,9 +32003,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B49" s="60" t="s">
         <v>28</v>
@@ -32029,7 +32029,7 @@
         <v>34</v>
       </c>
       <c r="I49" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J49" s="60" t="s">
         <v>35</v>
@@ -32094,9 +32094,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B50" s="60" t="s">
         <v>28</v>
@@ -32120,7 +32120,7 @@
         <v>34</v>
       </c>
       <c r="I50" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J50" s="60" t="s">
         <v>35</v>
@@ -32185,9 +32185,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B51" s="60" t="s">
         <v>28</v>
@@ -32211,7 +32211,7 @@
         <v>34</v>
       </c>
       <c r="I51" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J51" s="60" t="s">
         <v>35</v>
@@ -32276,9 +32276,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B52" s="60" t="s">
         <v>38</v>
@@ -32302,7 +32302,7 @@
         <v>34</v>
       </c>
       <c r="I52" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J52" s="60" t="s">
         <v>35</v>
@@ -32367,9 +32367,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B53" s="60" t="s">
         <v>28</v>
@@ -32393,7 +32393,7 @@
         <v>34</v>
       </c>
       <c r="I53" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J53" s="60" t="s">
         <v>35</v>
@@ -32458,9 +32458,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B54" s="60" t="s">
         <v>38</v>
@@ -32484,7 +32484,7 @@
         <v>34</v>
       </c>
       <c r="I54" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J54" s="60" t="s">
         <v>35</v>
@@ -32549,9 +32549,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B55" s="60" t="s">
         <v>28</v>
@@ -32575,7 +32575,7 @@
         <v>34</v>
       </c>
       <c r="I55" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J55" s="60" t="s">
         <v>35</v>
@@ -32640,9 +32640,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B56" s="60" t="s">
         <v>28</v>
@@ -32666,7 +32666,7 @@
         <v>34</v>
       </c>
       <c r="I56" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J56" s="60" t="s">
         <v>158</v>
@@ -32731,9 +32731,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B57" s="60" t="s">
         <v>38</v>
@@ -32757,7 +32757,7 @@
         <v>34</v>
       </c>
       <c r="I57" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J57" s="60" t="s">
         <v>35</v>
@@ -32825,9 +32825,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B58" s="60" t="s">
         <v>38</v>
@@ -32851,7 +32851,7 @@
         <v>160</v>
       </c>
       <c r="I58" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J58" s="60" t="s">
         <v>161</v>
@@ -32917,9 +32917,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B59" s="60" t="s">
         <v>38</v>
@@ -32943,7 +32943,7 @@
         <v>160</v>
       </c>
       <c r="I59" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J59" s="60" t="s">
         <v>161</v>
@@ -33008,9 +33008,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B60" s="60" t="s">
         <v>38</v>
@@ -33034,7 +33034,7 @@
         <v>163</v>
       </c>
       <c r="I60" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J60" s="60" t="s">
         <v>164</v>
@@ -33102,9 +33102,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B61" s="60" t="s">
         <v>38</v>
@@ -33128,7 +33128,7 @@
         <v>167</v>
       </c>
       <c r="I61" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J61" s="60" t="s">
         <v>168</v>
@@ -33193,9 +33193,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B62" s="60" t="s">
         <v>38</v>
@@ -33219,7 +33219,7 @@
         <v>167</v>
       </c>
       <c r="I62" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J62" s="60" t="s">
         <v>168</v>
@@ -33284,9 +33284,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B63" s="60" t="s">
         <v>38</v>
@@ -33310,7 +33310,7 @@
         <v>167</v>
       </c>
       <c r="I63" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J63" s="60" t="s">
         <v>168</v>
@@ -33375,9 +33375,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B64" s="74" t="s">
         <v>38</v>
@@ -33401,7 +33401,7 @@
         <v>176</v>
       </c>
       <c r="I64" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J64" s="60" t="s">
         <v>177</v>
@@ -33460,9 +33460,9 @@
       </c>
       <c r="AG64" s="74"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B65" s="74" t="s">
         <v>38</v>
@@ -33486,7 +33486,7 @@
         <v>176</v>
       </c>
       <c r="I65" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J65" s="60" t="s">
         <v>177</v>
@@ -33547,9 +33547,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B66" s="74" t="s">
         <v>38</v>
@@ -33573,7 +33573,7 @@
         <v>180</v>
       </c>
       <c r="I66" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J66" s="60" t="s">
         <v>181</v>
@@ -33634,9 +33634,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B67" s="84" t="s">
         <v>184</v>
@@ -33660,7 +33660,7 @@
         <v>187</v>
       </c>
       <c r="I67" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J67" s="60" t="s">
         <v>188</v>
@@ -33723,9 +33723,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B68" s="84" t="s">
         <v>184</v>
@@ -33749,7 +33749,7 @@
         <v>187</v>
       </c>
       <c r="I68" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J68" s="60" t="s">
         <v>188</v>
@@ -33812,9 +33812,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B69" s="84" t="s">
         <v>184</v>
@@ -33838,7 +33838,7 @@
         <v>187</v>
       </c>
       <c r="I69" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J69" s="60" t="s">
         <v>188</v>
@@ -33901,9 +33901,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B70" s="84" t="s">
         <v>38</v>
@@ -33927,7 +33927,7 @@
         <v>192</v>
       </c>
       <c r="I70" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J70" s="60" t="s">
         <v>193</v>
@@ -33990,9 +33990,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B71" s="89" t="s">
         <v>38</v>
@@ -34016,7 +34016,7 @@
         <v>34</v>
       </c>
       <c r="I71" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J71" s="89" t="s">
         <v>35</v>
@@ -34083,9 +34083,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B72" s="89" t="s">
         <v>38</v>
@@ -34109,7 +34109,7 @@
         <v>34</v>
       </c>
       <c r="I72" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J72" s="89" t="s">
         <v>35</v>
@@ -34173,9 +34173,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B73" s="89" t="s">
         <v>38</v>
@@ -34199,7 +34199,7 @@
         <v>34</v>
       </c>
       <c r="I73" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J73" s="89" t="s">
         <v>35</v>
@@ -34266,9 +34266,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B74" s="60" t="s">
         <v>38</v>
@@ -34292,7 +34292,7 @@
         <v>34</v>
       </c>
       <c r="I74" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J74" s="89" t="s">
         <v>35</v>
@@ -34361,9 +34361,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B75" s="60" t="s">
         <v>28</v>
@@ -34387,7 +34387,7 @@
         <v>34</v>
       </c>
       <c r="I75" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J75" s="89" t="s">
         <v>35</v>
@@ -34454,7 +34454,7 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A76" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B76" s="60" t="s">
         <v>28</v>
@@ -34478,7 +34478,7 @@
         <v>34</v>
       </c>
       <c r="I76" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J76" s="89" t="s">
         <v>35</v>
@@ -34502,7 +34502,7 @@
       <c r="Q76" s="90"/>
       <c r="R76" s="89"/>
       <c r="S76" s="64">
-        <v>15901.84</v>
+        <v>15899.080000000278</v>
       </c>
       <c r="T76" s="64"/>
       <c r="U76" s="64">
@@ -34510,7 +34510,7 @@
       </c>
       <c r="V76" s="64">
         <f t="shared" si="17"/>
-        <v>15901.84</v>
+        <v>15899.080000000278</v>
       </c>
       <c r="W76" s="66">
         <f t="shared" si="19"/>
@@ -34543,9 +34543,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B77" s="60" t="s">
         <v>28</v>
@@ -34569,7 +34569,7 @@
         <v>34</v>
       </c>
       <c r="I77" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J77" s="89" t="s">
         <v>35</v>
@@ -34593,7 +34593,7 @@
       <c r="Q77" s="90"/>
       <c r="R77" s="89"/>
       <c r="S77" s="64">
-        <v>2375.20999999992</v>
+        <v>2383.1800000000039</v>
       </c>
       <c r="T77" s="64"/>
       <c r="U77" s="64">
@@ -34601,7 +34601,7 @@
       </c>
       <c r="V77" s="64">
         <f t="shared" si="17"/>
-        <v>2375.20999999992</v>
+        <v>2383.1800000000039</v>
       </c>
       <c r="W77" s="66">
         <f t="shared" si="19"/>
@@ -34634,9 +34634,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B78" s="60" t="s">
         <v>38</v>
@@ -34660,7 +34660,7 @@
         <v>34</v>
       </c>
       <c r="I78" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J78" s="89" t="s">
         <v>35</v>
@@ -34725,9 +34725,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B79" s="60" t="s">
         <v>28</v>
@@ -34751,7 +34751,7 @@
         <v>34</v>
       </c>
       <c r="I79" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J79" s="89" t="s">
         <v>35</v>
@@ -34816,9 +34816,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B80" s="60" t="s">
         <v>28</v>
@@ -34842,7 +34842,7 @@
         <v>34</v>
       </c>
       <c r="I80" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J80" s="89" t="s">
         <v>35</v>
@@ -34907,9 +34907,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B81" s="60" t="s">
         <v>38</v>
@@ -34933,7 +34933,7 @@
         <v>34</v>
       </c>
       <c r="I81" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J81" s="89" t="s">
         <v>35</v>
@@ -34998,9 +34998,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B82" s="60" t="s">
         <v>28</v>
@@ -35024,7 +35024,7 @@
         <v>34</v>
       </c>
       <c r="I82" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J82" s="89" t="s">
         <v>35</v>
@@ -35091,9 +35091,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B83" s="60" t="s">
         <v>28</v>
@@ -35117,7 +35117,7 @@
         <v>34</v>
       </c>
       <c r="I83" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J83" s="89" t="s">
         <v>35</v>
@@ -35182,9 +35182,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B84" s="60" t="s">
         <v>38</v>
@@ -35208,7 +35208,7 @@
         <v>34</v>
       </c>
       <c r="I84" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J84" s="89" t="s">
         <v>35</v>
@@ -35273,9 +35273,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B85" s="60" t="s">
         <v>28</v>
@@ -35299,7 +35299,7 @@
         <v>34</v>
       </c>
       <c r="I85" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J85" s="89" t="s">
         <v>35</v>
@@ -35364,9 +35364,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B86" s="60" t="s">
         <v>38</v>
@@ -35390,7 +35390,7 @@
         <v>34</v>
       </c>
       <c r="I86" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J86" s="89" t="s">
         <v>35</v>
@@ -35455,9 +35455,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B87" s="60" t="s">
         <v>28</v>
@@ -35481,7 +35481,7 @@
         <v>34</v>
       </c>
       <c r="I87" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J87" s="89" t="s">
         <v>35</v>
@@ -35546,9 +35546,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B88" s="60" t="s">
         <v>28</v>
@@ -35572,7 +35572,7 @@
         <v>34</v>
       </c>
       <c r="I88" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J88" s="89" t="s">
         <v>35</v>
@@ -35637,9 +35637,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B89" s="60" t="s">
         <v>28</v>
@@ -35663,7 +35663,7 @@
         <v>34</v>
       </c>
       <c r="I89" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J89" s="89" t="s">
         <v>35</v>
@@ -35728,9 +35728,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B90" s="60" t="s">
         <v>28</v>
@@ -35754,7 +35754,7 @@
         <v>34</v>
       </c>
       <c r="I90" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J90" s="89" t="s">
         <v>35</v>
@@ -35819,9 +35819,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B91" s="60" t="s">
         <v>28</v>
@@ -35845,7 +35845,7 @@
         <v>34</v>
       </c>
       <c r="I91" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J91" s="89" t="s">
         <v>35</v>
@@ -35910,9 +35910,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B92" s="60" t="s">
         <v>28</v>
@@ -35936,7 +35936,7 @@
         <v>34</v>
       </c>
       <c r="I92" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J92" s="89" t="s">
         <v>35</v>
@@ -36001,9 +36001,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B93" s="60" t="s">
         <v>28</v>
@@ -36027,7 +36027,7 @@
         <v>34</v>
       </c>
       <c r="I93" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J93" s="89" t="s">
         <v>35</v>
@@ -36092,9 +36092,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B94" s="60" t="s">
         <v>28</v>
@@ -36118,7 +36118,7 @@
         <v>34</v>
       </c>
       <c r="I94" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J94" s="89" t="s">
         <v>35</v>
@@ -36183,9 +36183,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B95" s="60" t="s">
         <v>28</v>
@@ -36209,7 +36209,7 @@
         <v>34</v>
       </c>
       <c r="I95" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J95" s="89" t="s">
         <v>35</v>
@@ -36274,9 +36274,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B96" s="60" t="s">
         <v>28</v>
@@ -36300,7 +36300,7 @@
         <v>34</v>
       </c>
       <c r="I96" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J96" s="89" t="s">
         <v>35</v>
@@ -36365,9 +36365,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B97" s="60" t="s">
         <v>28</v>
@@ -36391,7 +36391,7 @@
         <v>34</v>
       </c>
       <c r="I97" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J97" s="89" t="s">
         <v>35</v>
@@ -36456,9 +36456,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B98" s="60" t="s">
         <v>28</v>
@@ -36482,7 +36482,7 @@
         <v>34</v>
       </c>
       <c r="I98" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J98" s="89" t="s">
         <v>35</v>
@@ -36547,9 +36547,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B99" s="60" t="s">
         <v>28</v>
@@ -36573,7 +36573,7 @@
         <v>34</v>
       </c>
       <c r="I99" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J99" s="89" t="s">
         <v>35</v>
@@ -36638,9 +36638,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B100" s="60" t="s">
         <v>28</v>
@@ -36664,7 +36664,7 @@
         <v>34</v>
       </c>
       <c r="I100" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J100" s="89" t="s">
         <v>35</v>
@@ -36729,9 +36729,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B101" s="60" t="s">
         <v>28</v>
@@ -36755,7 +36755,7 @@
         <v>34</v>
       </c>
       <c r="I101" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J101" s="89" t="s">
         <v>35</v>
@@ -36820,9 +36820,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B102" s="60" t="s">
         <v>28</v>
@@ -36846,7 +36846,7 @@
         <v>34</v>
       </c>
       <c r="I102" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J102" s="89" t="s">
         <v>35</v>
@@ -36911,9 +36911,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B103" s="60" t="s">
         <v>28</v>
@@ -36937,7 +36937,7 @@
         <v>34</v>
       </c>
       <c r="I103" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J103" s="89" t="s">
         <v>35</v>
@@ -37002,9 +37002,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B104" s="60" t="s">
         <v>28</v>
@@ -37028,7 +37028,7 @@
         <v>34</v>
       </c>
       <c r="I104" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J104" s="89" t="s">
         <v>35</v>
@@ -37093,9 +37093,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B105" s="60" t="s">
         <v>28</v>
@@ -37119,7 +37119,7 @@
         <v>34</v>
       </c>
       <c r="I105" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J105" s="89" t="s">
         <v>35</v>
@@ -37184,9 +37184,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B106" s="60" t="s">
         <v>28</v>
@@ -37210,7 +37210,7 @@
         <v>34</v>
       </c>
       <c r="I106" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J106" s="89" t="s">
         <v>35</v>
@@ -37275,9 +37275,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B107" s="60" t="s">
         <v>28</v>
@@ -37301,7 +37301,7 @@
         <v>34</v>
       </c>
       <c r="I107" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J107" s="89" t="s">
         <v>35</v>
@@ -37366,9 +37366,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B108" s="60" t="s">
         <v>28</v>
@@ -37392,7 +37392,7 @@
         <v>34</v>
       </c>
       <c r="I108" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J108" s="89" t="s">
         <v>35</v>
@@ -37457,9 +37457,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B109" s="60" t="s">
         <v>28</v>
@@ -37483,7 +37483,7 @@
         <v>34</v>
       </c>
       <c r="I109" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J109" s="89" t="s">
         <v>35</v>
@@ -37548,9 +37548,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B110" s="60" t="s">
         <v>28</v>
@@ -37574,7 +37574,7 @@
         <v>34</v>
       </c>
       <c r="I110" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J110" s="89" t="s">
         <v>35</v>
@@ -37639,9 +37639,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B111" s="60" t="s">
         <v>28</v>
@@ -37665,7 +37665,7 @@
         <v>34</v>
       </c>
       <c r="I111" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J111" s="89" t="s">
         <v>35</v>
@@ -37730,9 +37730,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B112" s="60" t="s">
         <v>28</v>
@@ -37756,7 +37756,7 @@
         <v>34</v>
       </c>
       <c r="I112" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J112" s="89" t="s">
         <v>35</v>
@@ -37821,9 +37821,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B113" s="60" t="s">
         <v>28</v>
@@ -37847,7 +37847,7 @@
         <v>34</v>
       </c>
       <c r="I113" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J113" s="89" t="s">
         <v>35</v>
@@ -37912,9 +37912,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B114" s="60" t="s">
         <v>28</v>
@@ -37938,7 +37938,7 @@
         <v>34</v>
       </c>
       <c r="I114" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J114" s="89" t="s">
         <v>35</v>
@@ -38003,9 +38003,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B115" s="60" t="s">
         <v>28</v>
@@ -38029,7 +38029,7 @@
         <v>34</v>
       </c>
       <c r="I115" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J115" s="89" t="s">
         <v>35</v>
@@ -38094,9 +38094,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B116" s="60" t="s">
         <v>28</v>
@@ -38120,7 +38120,7 @@
         <v>34</v>
       </c>
       <c r="I116" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J116" s="89" t="s">
         <v>35</v>
@@ -38185,9 +38185,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B117" s="60" t="s">
         <v>38</v>
@@ -38211,7 +38211,7 @@
         <v>34</v>
       </c>
       <c r="I117" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J117" s="89" t="s">
         <v>35</v>
@@ -38276,9 +38276,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B118" s="60" t="s">
         <v>28</v>
@@ -38302,7 +38302,7 @@
         <v>34</v>
       </c>
       <c r="I118" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J118" s="89" t="s">
         <v>35</v>
@@ -38367,9 +38367,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B119" s="60" t="s">
         <v>38</v>
@@ -38393,7 +38393,7 @@
         <v>34</v>
       </c>
       <c r="I119" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J119" s="89" t="s">
         <v>35</v>
@@ -38458,9 +38458,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B120" s="60" t="s">
         <v>28</v>
@@ -38484,7 +38484,7 @@
         <v>34</v>
       </c>
       <c r="I120" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J120" s="89" t="s">
         <v>35</v>
@@ -38549,9 +38549,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B121" s="60" t="s">
         <v>38</v>
@@ -38575,7 +38575,7 @@
         <v>34</v>
       </c>
       <c r="I121" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J121" s="89" t="s">
         <v>35</v>
@@ -38640,9 +38640,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B122" s="91" t="s">
         <v>38</v>
@@ -38666,7 +38666,7 @@
         <v>34</v>
       </c>
       <c r="I122" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J122" s="89" t="s">
         <v>35</v>
@@ -38736,9 +38736,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B123" s="91" t="s">
         <v>38</v>
@@ -38762,7 +38762,7 @@
         <v>160</v>
       </c>
       <c r="I123" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J123" s="89" t="s">
         <v>161</v>
@@ -38829,9 +38829,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B124" s="91" t="s">
         <v>38</v>
@@ -38855,7 +38855,7 @@
         <v>160</v>
       </c>
       <c r="I124" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J124" s="89" t="s">
         <v>161</v>
@@ -38922,9 +38922,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B125" s="68" t="s">
         <v>38</v>
@@ -38948,7 +38948,7 @@
         <v>163</v>
       </c>
       <c r="I125" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J125" s="89" t="s">
         <v>164</v>
@@ -39013,9 +39013,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B126" s="95" t="s">
         <v>38</v>
@@ -39039,7 +39039,7 @@
         <v>167</v>
       </c>
       <c r="I126" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J126" s="89" t="s">
         <v>168</v>
@@ -39106,9 +39106,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B127" s="95" t="s">
         <v>38</v>
@@ -39132,7 +39132,7 @@
         <v>167</v>
       </c>
       <c r="I127" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J127" s="89" t="s">
         <v>168</v>
@@ -39199,9 +39199,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B128" s="97" t="s">
         <v>38</v>
@@ -39225,7 +39225,7 @@
         <v>192</v>
       </c>
       <c r="I128" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J128" s="89" t="s">
         <v>193</v>
@@ -39292,9 +39292,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B129" s="91" t="s">
         <v>38</v>
@@ -39318,7 +39318,7 @@
         <v>34</v>
       </c>
       <c r="I129" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J129" s="91" t="s">
         <v>208</v>
@@ -39385,9 +39385,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B130" s="91" t="s">
         <v>38</v>
@@ -39411,7 +39411,7 @@
         <v>34</v>
       </c>
       <c r="I130" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J130" s="91" t="s">
         <v>208</v>
@@ -39482,9 +39482,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B131" s="91" t="s">
         <v>38</v>
@@ -39508,7 +39508,7 @@
         <v>34</v>
       </c>
       <c r="I131" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J131" s="91" t="s">
         <v>208</v>
@@ -39575,9 +39575,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B132" s="91" t="s">
         <v>38</v>
@@ -39601,7 +39601,7 @@
         <v>34</v>
       </c>
       <c r="I132" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J132" s="91" t="s">
         <v>208</v>
@@ -39665,9 +39665,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B133" s="91" t="s">
         <v>28</v>
@@ -39691,7 +39691,7 @@
         <v>34</v>
       </c>
       <c r="I133" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J133" s="91" t="s">
         <v>208</v>
@@ -39758,7 +39758,7 @@
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A134" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B134" s="91" t="s">
         <v>28</v>
@@ -39782,7 +39782,7 @@
         <v>34</v>
       </c>
       <c r="I134" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J134" s="91" t="s">
         <v>208</v>
@@ -39806,7 +39806,7 @@
       <c r="Q134" s="91"/>
       <c r="R134" s="91"/>
       <c r="S134" s="64">
-        <v>15901.84</v>
+        <v>15899.080000000278</v>
       </c>
       <c r="T134" s="67"/>
       <c r="U134" s="67">
@@ -39814,7 +39814,7 @@
       </c>
       <c r="V134" s="67">
         <f t="shared" si="27"/>
-        <v>15901.84</v>
+        <v>15899.080000000278</v>
       </c>
       <c r="W134" s="66">
         <f t="shared" si="31"/>
@@ -39847,9 +39847,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B135" s="91" t="s">
         <v>28</v>
@@ -39873,7 +39873,7 @@
         <v>34</v>
       </c>
       <c r="I135" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J135" s="91" t="s">
         <v>208</v>
@@ -39897,7 +39897,7 @@
       <c r="Q135" s="91"/>
       <c r="R135" s="91"/>
       <c r="S135" s="64">
-        <v>2375.20999999992</v>
+        <v>2383.1800000000039</v>
       </c>
       <c r="T135" s="67"/>
       <c r="U135" s="67">
@@ -39905,7 +39905,7 @@
       </c>
       <c r="V135" s="67">
         <f t="shared" si="27"/>
-        <v>2375.20999999992</v>
+        <v>2383.1800000000039</v>
       </c>
       <c r="W135" s="66">
         <f t="shared" si="31"/>
@@ -39938,9 +39938,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B136" s="91" t="s">
         <v>38</v>
@@ -39964,7 +39964,7 @@
         <v>34</v>
       </c>
       <c r="I136" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J136" s="91" t="s">
         <v>208</v>
@@ -40029,9 +40029,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B137" s="91" t="s">
         <v>28</v>
@@ -40055,7 +40055,7 @@
         <v>34</v>
       </c>
       <c r="I137" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J137" s="91" t="s">
         <v>208</v>
@@ -40120,9 +40120,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B138" s="91" t="s">
         <v>28</v>
@@ -40146,7 +40146,7 @@
         <v>34</v>
       </c>
       <c r="I138" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J138" s="91" t="s">
         <v>208</v>
@@ -40211,9 +40211,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B139" s="91" t="s">
         <v>38</v>
@@ -40237,7 +40237,7 @@
         <v>34</v>
       </c>
       <c r="I139" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J139" s="91" t="s">
         <v>208</v>
@@ -40302,9 +40302,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B140" s="91" t="s">
         <v>28</v>
@@ -40328,7 +40328,7 @@
         <v>34</v>
       </c>
       <c r="I140" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J140" s="91" t="s">
         <v>208</v>
@@ -40393,9 +40393,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B141" s="91" t="s">
         <v>38</v>
@@ -40419,7 +40419,7 @@
         <v>34</v>
       </c>
       <c r="I141" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J141" s="91" t="s">
         <v>208</v>
@@ -40484,9 +40484,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B142" s="91" t="s">
         <v>28</v>
@@ -40510,7 +40510,7 @@
         <v>34</v>
       </c>
       <c r="I142" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J142" s="91" t="s">
         <v>208</v>
@@ -40575,9 +40575,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B143" s="91" t="s">
         <v>38</v>
@@ -40601,7 +40601,7 @@
         <v>34</v>
       </c>
       <c r="I143" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J143" s="91" t="s">
         <v>208</v>
@@ -40666,9 +40666,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B144" s="91" t="s">
         <v>28</v>
@@ -40692,7 +40692,7 @@
         <v>34</v>
       </c>
       <c r="I144" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J144" s="91" t="s">
         <v>208</v>
@@ -40757,9 +40757,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B145" s="91" t="s">
         <v>28</v>
@@ -40783,7 +40783,7 @@
         <v>34</v>
       </c>
       <c r="I145" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J145" s="91" t="s">
         <v>208</v>
@@ -40848,9 +40848,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B146" s="91" t="s">
         <v>28</v>
@@ -40874,7 +40874,7 @@
         <v>34</v>
       </c>
       <c r="I146" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J146" s="91" t="s">
         <v>208</v>
@@ -40939,9 +40939,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B147" s="91" t="s">
         <v>28</v>
@@ -40965,7 +40965,7 @@
         <v>34</v>
       </c>
       <c r="I147" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J147" s="91" t="s">
         <v>208</v>
@@ -41030,9 +41030,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B148" s="91" t="s">
         <v>28</v>
@@ -41056,7 +41056,7 @@
         <v>34</v>
       </c>
       <c r="I148" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J148" s="91" t="s">
         <v>208</v>
@@ -41121,9 +41121,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B149" s="91" t="s">
         <v>28</v>
@@ -41147,7 +41147,7 @@
         <v>34</v>
       </c>
       <c r="I149" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J149" s="91" t="s">
         <v>208</v>
@@ -41212,9 +41212,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B150" s="91" t="s">
         <v>28</v>
@@ -41238,7 +41238,7 @@
         <v>34</v>
       </c>
       <c r="I150" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J150" s="91" t="s">
         <v>208</v>
@@ -41303,9 +41303,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B151" s="91" t="s">
         <v>28</v>
@@ -41329,7 +41329,7 @@
         <v>34</v>
       </c>
       <c r="I151" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J151" s="91" t="s">
         <v>208</v>
@@ -41394,9 +41394,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B152" s="91" t="s">
         <v>28</v>
@@ -41420,7 +41420,7 @@
         <v>34</v>
       </c>
       <c r="I152" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J152" s="91" t="s">
         <v>208</v>
@@ -41485,9 +41485,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B153" s="91" t="s">
         <v>28</v>
@@ -41511,7 +41511,7 @@
         <v>34</v>
       </c>
       <c r="I153" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J153" s="91" t="s">
         <v>208</v>
@@ -41576,9 +41576,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B154" s="91" t="s">
         <v>28</v>
@@ -41602,7 +41602,7 @@
         <v>34</v>
       </c>
       <c r="I154" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J154" s="91" t="s">
         <v>208</v>
@@ -41667,9 +41667,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B155" s="91" t="s">
         <v>28</v>
@@ -41693,7 +41693,7 @@
         <v>34</v>
       </c>
       <c r="I155" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J155" s="91" t="s">
         <v>208</v>
@@ -41758,9 +41758,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B156" s="91" t="s">
         <v>28</v>
@@ -41784,7 +41784,7 @@
         <v>34</v>
       </c>
       <c r="I156" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J156" s="91" t="s">
         <v>208</v>
@@ -41849,9 +41849,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B157" s="91" t="s">
         <v>28</v>
@@ -41875,7 +41875,7 @@
         <v>34</v>
       </c>
       <c r="I157" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J157" s="91" t="s">
         <v>208</v>
@@ -41940,9 +41940,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B158" s="91" t="s">
         <v>28</v>
@@ -41966,7 +41966,7 @@
         <v>34</v>
       </c>
       <c r="I158" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J158" s="91" t="s">
         <v>208</v>
@@ -42031,9 +42031,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B159" s="91" t="s">
         <v>28</v>
@@ -42057,7 +42057,7 @@
         <v>34</v>
       </c>
       <c r="I159" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J159" s="91" t="s">
         <v>208</v>
@@ -42122,9 +42122,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B160" s="91" t="s">
         <v>28</v>
@@ -42148,7 +42148,7 @@
         <v>34</v>
       </c>
       <c r="I160" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J160" s="91" t="s">
         <v>208</v>
@@ -42213,9 +42213,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B161" s="91" t="s">
         <v>28</v>
@@ -42239,7 +42239,7 @@
         <v>34</v>
       </c>
       <c r="I161" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J161" s="91" t="s">
         <v>208</v>
@@ -42304,9 +42304,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B162" s="91" t="s">
         <v>28</v>
@@ -42330,7 +42330,7 @@
         <v>34</v>
       </c>
       <c r="I162" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J162" s="91" t="s">
         <v>208</v>
@@ -42395,9 +42395,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B163" s="91" t="s">
         <v>28</v>
@@ -42421,7 +42421,7 @@
         <v>34</v>
       </c>
       <c r="I163" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J163" s="91" t="s">
         <v>208</v>
@@ -42486,9 +42486,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B164" s="91" t="s">
         <v>28</v>
@@ -42512,7 +42512,7 @@
         <v>34</v>
       </c>
       <c r="I164" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J164" s="91" t="s">
         <v>208</v>
@@ -42577,9 +42577,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B165" s="91" t="s">
         <v>28</v>
@@ -42603,7 +42603,7 @@
         <v>34</v>
       </c>
       <c r="I165" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J165" s="91" t="s">
         <v>208</v>
@@ -42668,9 +42668,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B166" s="91" t="s">
         <v>28</v>
@@ -42694,7 +42694,7 @@
         <v>34</v>
       </c>
       <c r="I166" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J166" s="91" t="s">
         <v>208</v>
@@ -42759,9 +42759,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B167" s="91" t="s">
         <v>28</v>
@@ -42785,7 +42785,7 @@
         <v>34</v>
       </c>
       <c r="I167" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J167" s="91" t="s">
         <v>208</v>
@@ -42850,9 +42850,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B168" s="91" t="s">
         <v>28</v>
@@ -42876,7 +42876,7 @@
         <v>34</v>
       </c>
       <c r="I168" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J168" s="91" t="s">
         <v>208</v>
@@ -42941,9 +42941,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B169" s="91" t="s">
         <v>28</v>
@@ -42967,7 +42967,7 @@
         <v>34</v>
       </c>
       <c r="I169" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J169" s="91" t="s">
         <v>208</v>
@@ -43032,9 +43032,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B170" s="91" t="s">
         <v>28</v>
@@ -43058,7 +43058,7 @@
         <v>34</v>
       </c>
       <c r="I170" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J170" s="91" t="s">
         <v>208</v>
@@ -43123,9 +43123,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B171" s="91" t="s">
         <v>28</v>
@@ -43149,7 +43149,7 @@
         <v>34</v>
       </c>
       <c r="I171" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J171" s="91" t="s">
         <v>208</v>
@@ -43214,9 +43214,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B172" s="91" t="s">
         <v>28</v>
@@ -43240,7 +43240,7 @@
         <v>34</v>
       </c>
       <c r="I172" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J172" s="91" t="s">
         <v>208</v>
@@ -43305,9 +43305,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B173" s="91" t="s">
         <v>28</v>
@@ -43331,7 +43331,7 @@
         <v>34</v>
       </c>
       <c r="I173" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J173" s="91" t="s">
         <v>208</v>
@@ -43396,9 +43396,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B174" s="91" t="s">
         <v>38</v>
@@ -43422,7 +43422,7 @@
         <v>34</v>
       </c>
       <c r="I174" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J174" s="91" t="s">
         <v>208</v>
@@ -43487,9 +43487,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B175" s="91" t="s">
         <v>38</v>
@@ -43513,7 +43513,7 @@
         <v>34</v>
       </c>
       <c r="I175" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J175" s="91" t="s">
         <v>208</v>
@@ -43578,9 +43578,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B176" s="91" t="s">
         <v>28</v>
@@ -43604,7 +43604,7 @@
         <v>34</v>
       </c>
       <c r="I176" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J176" s="91" t="s">
         <v>208</v>
@@ -43669,9 +43669,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="177" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B177" s="91" t="s">
         <v>38</v>
@@ -43695,7 +43695,7 @@
         <v>34</v>
       </c>
       <c r="I177" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J177" s="91" t="s">
         <v>208</v>
@@ -43761,9 +43761,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B178" s="91" t="s">
         <v>38</v>
@@ -43787,7 +43787,7 @@
         <v>160</v>
       </c>
       <c r="I178" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J178" s="91" t="s">
         <v>246</v>
@@ -43854,9 +43854,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B179" s="91" t="s">
         <v>38</v>
@@ -43880,7 +43880,7 @@
         <v>160</v>
       </c>
       <c r="I179" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J179" s="91" t="s">
         <v>246</v>
@@ -43947,9 +43947,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" s="94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B180" s="105" t="s">
         <v>38</v>
@@ -43973,7 +43973,7 @@
         <v>249</v>
       </c>
       <c r="I180" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J180" s="91" t="s">
         <v>250</v>
@@ -44045,9 +44045,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B181" s="110" t="s">
         <v>28</v>
@@ -44071,7 +44071,7 @@
         <v>34</v>
       </c>
       <c r="I181" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J181" s="110" t="s">
         <v>276</v>
@@ -44155,9 +44155,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B182" s="110" t="s">
         <v>28</v>
@@ -44181,7 +44181,7 @@
         <v>34</v>
       </c>
       <c r="I182" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J182" s="110" t="s">
         <v>276</v>
@@ -44269,9 +44269,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B183" s="110" t="s">
         <v>28</v>
@@ -44295,7 +44295,7 @@
         <v>34</v>
       </c>
       <c r="I183" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J183" s="110" t="s">
         <v>276</v>
@@ -44379,9 +44379,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B184" s="110" t="s">
         <v>28</v>
@@ -44405,7 +44405,7 @@
         <v>34</v>
       </c>
       <c r="I184" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J184" s="110" t="s">
         <v>276</v>
@@ -44489,9 +44489,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B185" s="110" t="s">
         <v>28</v>
@@ -44515,7 +44515,7 @@
         <v>34</v>
       </c>
       <c r="I185" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J185" s="110" t="s">
         <v>276</v>
@@ -44599,9 +44599,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B186" s="110" t="s">
         <v>28</v>
@@ -44625,7 +44625,7 @@
         <v>34</v>
       </c>
       <c r="I186" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J186" s="110" t="s">
         <v>276</v>
@@ -44711,7 +44711,7 @@
     </row>
     <row r="187" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A187" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B187" s="110" t="s">
         <v>28</v>
@@ -44735,7 +44735,7 @@
         <v>34</v>
       </c>
       <c r="I187" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J187" s="110" t="s">
         <v>276</v>
@@ -44759,7 +44759,7 @@
       <c r="Q187" s="112"/>
       <c r="R187" s="110"/>
       <c r="S187" s="64">
-        <v>15901.84</v>
+        <v>15899.080000000278</v>
       </c>
       <c r="T187" s="14">
         <v>0</v>
@@ -44769,7 +44769,7 @@
       </c>
       <c r="V187" s="14">
         <f t="shared" si="37"/>
-        <v>15901.84</v>
+        <v>15899.080000000278</v>
       </c>
       <c r="W187" s="14">
         <f t="shared" si="38"/>
@@ -44819,9 +44819,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B188" s="110" t="s">
         <v>28</v>
@@ -44845,7 +44845,7 @@
         <v>34</v>
       </c>
       <c r="I188" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J188" s="110" t="s">
         <v>276</v>
@@ -44869,7 +44869,7 @@
       <c r="Q188" s="112"/>
       <c r="R188" s="110"/>
       <c r="S188" s="64">
-        <v>2375.20999999992</v>
+        <v>2383.1800000000039</v>
       </c>
       <c r="T188" s="14">
         <v>0</v>
@@ -44879,7 +44879,7 @@
       </c>
       <c r="V188" s="14">
         <f t="shared" si="37"/>
-        <v>2375.20999999992</v>
+        <v>2383.1800000000039</v>
       </c>
       <c r="W188" s="14">
         <f t="shared" si="38"/>
@@ -44929,9 +44929,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B189" s="110" t="s">
         <v>28</v>
@@ -44955,7 +44955,7 @@
         <v>34</v>
       </c>
       <c r="I189" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J189" s="110" t="s">
         <v>276</v>
@@ -45039,9 +45039,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B190" s="110" t="s">
         <v>28</v>
@@ -45065,7 +45065,7 @@
         <v>34</v>
       </c>
       <c r="I190" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J190" s="110" t="s">
         <v>276</v>
@@ -45149,9 +45149,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B191" s="110" t="s">
         <v>28</v>
@@ -45175,7 +45175,7 @@
         <v>34</v>
       </c>
       <c r="I191" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J191" s="110" t="s">
         <v>276</v>
@@ -45259,9 +45259,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B192" s="110" t="s">
         <v>28</v>
@@ -45285,7 +45285,7 @@
         <v>34</v>
       </c>
       <c r="I192" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J192" s="110" t="s">
         <v>276</v>
@@ -45369,9 +45369,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B193" s="110" t="s">
         <v>28</v>
@@ -45395,7 +45395,7 @@
         <v>34</v>
       </c>
       <c r="I193" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J193" s="110" t="s">
         <v>276</v>
@@ -45479,9 +45479,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B194" s="110" t="s">
         <v>28</v>
@@ -45505,7 +45505,7 @@
         <v>34</v>
       </c>
       <c r="I194" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J194" s="110" t="s">
         <v>276</v>
@@ -45589,9 +45589,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B195" s="110" t="s">
         <v>28</v>
@@ -45615,7 +45615,7 @@
         <v>34</v>
       </c>
       <c r="I195" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J195" s="110" t="s">
         <v>276</v>
@@ -45699,9 +45699,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B196" s="110" t="s">
         <v>28</v>
@@ -45725,7 +45725,7 @@
         <v>34</v>
       </c>
       <c r="I196" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J196" s="110" t="s">
         <v>276</v>
@@ -45809,9 +45809,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B197" s="110" t="s">
         <v>28</v>
@@ -45835,7 +45835,7 @@
         <v>34</v>
       </c>
       <c r="I197" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J197" s="110" t="s">
         <v>276</v>
@@ -45919,9 +45919,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B198" s="110" t="s">
         <v>28</v>
@@ -45945,7 +45945,7 @@
         <v>34</v>
       </c>
       <c r="I198" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J198" s="110" t="s">
         <v>276</v>
@@ -46029,9 +46029,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B199" s="110" t="s">
         <v>28</v>
@@ -46055,7 +46055,7 @@
         <v>34</v>
       </c>
       <c r="I199" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J199" s="110" t="s">
         <v>276</v>
@@ -46139,9 +46139,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B200" s="110" t="s">
         <v>28</v>
@@ -46165,7 +46165,7 @@
         <v>34</v>
       </c>
       <c r="I200" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J200" s="110" t="s">
         <v>276</v>
@@ -46249,9 +46249,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B201" s="110" t="s">
         <v>28</v>
@@ -46275,7 +46275,7 @@
         <v>34</v>
       </c>
       <c r="I201" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J201" s="110" t="s">
         <v>276</v>
@@ -46359,9 +46359,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B202" s="110" t="s">
         <v>28</v>
@@ -46385,7 +46385,7 @@
         <v>34</v>
       </c>
       <c r="I202" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J202" s="110" t="s">
         <v>276</v>
@@ -46469,9 +46469,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B203" s="110" t="s">
         <v>28</v>
@@ -46495,7 +46495,7 @@
         <v>34</v>
       </c>
       <c r="I203" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J203" s="110" t="s">
         <v>276</v>
@@ -46579,9 +46579,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B204" s="110" t="s">
         <v>28</v>
@@ -46605,7 +46605,7 @@
         <v>34</v>
       </c>
       <c r="I204" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J204" s="110" t="s">
         <v>276</v>
@@ -46689,9 +46689,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B205" s="110" t="s">
         <v>28</v>
@@ -46715,7 +46715,7 @@
         <v>34</v>
       </c>
       <c r="I205" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J205" s="110" t="s">
         <v>276</v>
@@ -46799,9 +46799,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B206" s="110" t="s">
         <v>28</v>
@@ -46825,7 +46825,7 @@
         <v>34</v>
       </c>
       <c r="I206" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J206" s="110" t="s">
         <v>276</v>
@@ -46909,9 +46909,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B207" s="110" t="s">
         <v>28</v>
@@ -46935,7 +46935,7 @@
         <v>34</v>
       </c>
       <c r="I207" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J207" s="110" t="s">
         <v>276</v>
@@ -47019,9 +47019,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B208" s="110" t="s">
         <v>28</v>
@@ -47045,7 +47045,7 @@
         <v>34</v>
       </c>
       <c r="I208" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J208" s="110" t="s">
         <v>276</v>
@@ -47129,9 +47129,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B209" s="110" t="s">
         <v>28</v>
@@ -47155,7 +47155,7 @@
         <v>34</v>
       </c>
       <c r="I209" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J209" s="110" t="s">
         <v>276</v>
@@ -47239,9 +47239,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B210" s="110" t="s">
         <v>28</v>
@@ -47265,7 +47265,7 @@
         <v>34</v>
       </c>
       <c r="I210" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J210" s="110" t="s">
         <v>276</v>
@@ -47349,9 +47349,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B211" s="110" t="s">
         <v>28</v>
@@ -47375,7 +47375,7 @@
         <v>34</v>
       </c>
       <c r="I211" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J211" s="110" t="s">
         <v>276</v>
@@ -47459,9 +47459,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B212" s="110" t="s">
         <v>28</v>
@@ -47485,7 +47485,7 @@
         <v>34</v>
       </c>
       <c r="I212" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J212" s="110" t="s">
         <v>276</v>
@@ -47569,9 +47569,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B213" s="110" t="s">
         <v>28</v>
@@ -47595,7 +47595,7 @@
         <v>34</v>
       </c>
       <c r="I213" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J213" s="110" t="s">
         <v>276</v>
@@ -47679,9 +47679,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B214" s="110" t="s">
         <v>28</v>
@@ -47705,7 +47705,7 @@
         <v>34</v>
       </c>
       <c r="I214" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J214" s="110" t="s">
         <v>276</v>
@@ -47789,9 +47789,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B215" s="110" t="s">
         <v>28</v>
@@ -47815,7 +47815,7 @@
         <v>34</v>
       </c>
       <c r="I215" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J215" s="110" t="s">
         <v>276</v>
@@ -47899,9 +47899,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B216" s="110" t="s">
         <v>28</v>
@@ -47925,7 +47925,7 @@
         <v>34</v>
       </c>
       <c r="I216" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J216" s="110" t="s">
         <v>276</v>
@@ -48009,9 +48009,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B217" s="110" t="s">
         <v>28</v>
@@ -48035,7 +48035,7 @@
         <v>34</v>
       </c>
       <c r="I217" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J217" s="110" t="s">
         <v>276</v>
@@ -48119,9 +48119,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B218" s="110" t="s">
         <v>28</v>
@@ -48145,7 +48145,7 @@
         <v>34</v>
       </c>
       <c r="I218" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J218" s="110" t="s">
         <v>276</v>
@@ -48229,9 +48229,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B219" s="110" t="s">
         <v>38</v>
@@ -48255,7 +48255,7 @@
         <v>34</v>
       </c>
       <c r="I219" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J219" s="110" t="s">
         <v>276</v>
@@ -48345,9 +48345,9 @@
         <v>6.9121338909098995E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B220" s="110" t="s">
         <v>38</v>
@@ -48371,7 +48371,7 @@
         <v>34</v>
       </c>
       <c r="I220" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J220" s="110" t="s">
         <v>276</v>
@@ -48455,9 +48455,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B221" s="110" t="s">
         <v>38</v>
@@ -48481,7 +48481,7 @@
         <v>34</v>
       </c>
       <c r="I221" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J221" s="110" t="s">
         <v>276</v>
@@ -48565,9 +48565,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B222" s="110" t="s">
         <v>38</v>
@@ -48591,7 +48591,7 @@
         <v>34</v>
       </c>
       <c r="I222" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J222" s="110" t="s">
         <v>276</v>
@@ -48668,9 +48668,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B223" s="110" t="s">
         <v>38</v>
@@ -48694,7 +48694,7 @@
         <v>34</v>
       </c>
       <c r="I223" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J223" s="110" t="s">
         <v>276</v>
@@ -48782,9 +48782,9 @@
         <v>-187767.14516129033</v>
       </c>
     </row>
-    <row r="224" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B224" s="110" t="s">
         <v>38</v>
@@ -48808,7 +48808,7 @@
         <v>34</v>
       </c>
       <c r="I224" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J224" s="110" t="s">
         <v>276</v>
@@ -48895,9 +48895,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B225" s="110" t="s">
         <v>38</v>
@@ -48921,7 +48921,7 @@
         <v>34</v>
       </c>
       <c r="I225" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J225" s="110" t="s">
         <v>276</v>
@@ -49020,9 +49020,9 @@
         <v>7.4469172931276262</v>
       </c>
     </row>
-    <row r="226" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B226" s="110" t="s">
         <v>38</v>
@@ -49046,7 +49046,7 @@
         <v>34</v>
       </c>
       <c r="I226" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J226" s="110" t="s">
         <v>276</v>
@@ -49141,9 +49141,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B227" s="110" t="s">
         <v>38</v>
@@ -49167,7 +49167,7 @@
         <v>34</v>
       </c>
       <c r="I227" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J227" s="110" t="s">
         <v>276</v>
@@ -49259,9 +49259,9 @@
         <v>68.772846715641208</v>
       </c>
     </row>
-    <row r="228" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B228" s="110" t="s">
         <v>38</v>
@@ -49285,7 +49285,7 @@
         <v>34</v>
       </c>
       <c r="I228" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J228" s="110" t="s">
         <v>276</v>
@@ -49369,9 +49369,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B229" s="110" t="s">
         <v>38</v>
@@ -49395,7 +49395,7 @@
         <v>34</v>
       </c>
       <c r="I229" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J229" s="110" t="s">
         <v>276</v>
@@ -49479,9 +49479,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B230" s="110" t="s">
         <v>38</v>
@@ -49505,7 +49505,7 @@
         <v>34</v>
       </c>
       <c r="I230" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J230" s="110" t="s">
         <v>276</v>
@@ -49593,9 +49593,9 @@
         <v>-15.862394366197179</v>
       </c>
     </row>
-    <row r="231" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B231" s="110" t="s">
         <v>38</v>
@@ -49619,7 +49619,7 @@
         <v>34</v>
       </c>
       <c r="I231" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J231" s="110" t="s">
         <v>276</v>
@@ -49707,9 +49707,9 @@
         <v>-0.1397183098591549</v>
       </c>
     </row>
-    <row r="232" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B232" s="110" t="s">
         <v>38</v>
@@ -49733,7 +49733,7 @@
         <v>160</v>
       </c>
       <c r="I232" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J232" s="110" t="s">
         <v>291</v>
@@ -49806,9 +49806,9 @@
       <c r="AL232" s="116"/>
       <c r="AM232" s="116"/>
     </row>
-    <row r="233" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B233" s="110" t="s">
         <v>38</v>
@@ -49832,7 +49832,7 @@
         <v>34</v>
       </c>
       <c r="I233" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J233" s="110" t="s">
         <v>276</v>
@@ -49908,9 +49908,9 @@
       <c r="AL233" s="116"/>
       <c r="AM233" s="116"/>
     </row>
-    <row r="234" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B234" s="110" t="s">
         <v>38</v>
@@ -49934,7 +49934,7 @@
         <v>160</v>
       </c>
       <c r="I234" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J234" s="110" t="s">
         <v>291</v>
@@ -50006,9 +50006,9 @@
       <c r="AL234" s="116"/>
       <c r="AM234" s="116"/>
     </row>
-    <row r="235" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B235" s="91" t="s">
         <v>38</v>
@@ -50032,7 +50032,7 @@
         <v>160</v>
       </c>
       <c r="I235" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J235" s="91" t="s">
         <v>291</v>
@@ -50101,9 +50101,9 @@
       <c r="AL235" s="116"/>
       <c r="AM235" s="116"/>
     </row>
-    <row r="236" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B236" s="120" t="s">
         <v>38</v>
@@ -50127,7 +50127,7 @@
         <v>294</v>
       </c>
       <c r="I236" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J236" s="120" t="s">
         <v>295</v>
@@ -50199,9 +50199,9 @@
       <c r="AL236" s="123"/>
       <c r="AM236" s="123"/>
     </row>
-    <row r="237" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B237" s="110" t="s">
         <v>38</v>
@@ -50225,7 +50225,7 @@
         <v>34</v>
       </c>
       <c r="I237" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J237" s="110" t="s">
         <v>276</v>
@@ -50298,7 +50298,7 @@
       <c r="AL237" s="116"/>
       <c r="AM237" s="116"/>
     </row>
-    <row r="238" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="127" t="s">
         <v>309</v>
       </c>
@@ -50324,7 +50324,7 @@
         <v>34</v>
       </c>
       <c r="I238" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J238" s="118" t="s">
         <v>214</v>
@@ -50417,7 +50417,7 @@
         <v>-1393439.1774193547</v>
       </c>
     </row>
-    <row r="239" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="127" t="s">
         <v>309</v>
       </c>
@@ -50443,7 +50443,7 @@
         <v>34</v>
       </c>
       <c r="I239" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J239" s="118" t="s">
         <v>214</v>
@@ -50534,7 +50534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="127" t="s">
         <v>309</v>
       </c>
@@ -50560,7 +50560,7 @@
         <v>34</v>
       </c>
       <c r="I240" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J240" s="118" t="s">
         <v>214</v>
@@ -50654,7 +50654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="127" t="s">
         <v>309</v>
       </c>
@@ -50680,7 +50680,7 @@
         <v>34</v>
       </c>
       <c r="I241" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J241" s="118" t="s">
         <v>214</v>
@@ -50765,7 +50765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="127" t="s">
         <v>309</v>
       </c>
@@ -50791,7 +50791,7 @@
         <v>34</v>
       </c>
       <c r="I242" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J242" s="118" t="s">
         <v>214</v>
@@ -50876,7 +50876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="127" t="s">
         <v>309</v>
       </c>
@@ -50902,7 +50902,7 @@
         <v>34</v>
       </c>
       <c r="I243" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J243" s="118" t="s">
         <v>214</v>
@@ -50987,7 +50987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="127" t="s">
         <v>309</v>
       </c>
@@ -51013,7 +51013,7 @@
         <v>34</v>
       </c>
       <c r="I244" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J244" s="118" t="s">
         <v>214</v>
@@ -51098,7 +51098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="127" t="s">
         <v>309</v>
       </c>
@@ -51124,7 +51124,7 @@
         <v>34</v>
       </c>
       <c r="I245" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J245" s="118" t="s">
         <v>214</v>
@@ -51209,7 +51209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="127" t="s">
         <v>309</v>
       </c>
@@ -51235,7 +51235,7 @@
         <v>34</v>
       </c>
       <c r="I246" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J246" s="118" t="s">
         <v>214</v>
@@ -51346,7 +51346,7 @@
         <v>34</v>
       </c>
       <c r="I247" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J247" s="118" t="s">
         <v>214</v>
@@ -51370,7 +51370,7 @@
       <c r="Q247" s="118"/>
       <c r="R247" s="118"/>
       <c r="S247" s="64">
-        <v>15901.84</v>
+        <v>15899.080000000278</v>
       </c>
       <c r="T247" s="118"/>
       <c r="U247" s="116">
@@ -51378,7 +51378,7 @@
       </c>
       <c r="V247" s="116">
         <f t="shared" si="53"/>
-        <v>15901.84</v>
+        <v>15899.080000000278</v>
       </c>
       <c r="W247" s="116">
         <f t="shared" si="59"/>
@@ -51431,7 +51431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="127" t="s">
         <v>309</v>
       </c>
@@ -51457,7 +51457,7 @@
         <v>34</v>
       </c>
       <c r="I248" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J248" s="118" t="s">
         <v>214</v>
@@ -51481,7 +51481,7 @@
       <c r="Q248" s="118"/>
       <c r="R248" s="118"/>
       <c r="S248" s="64">
-        <v>2375.20999999992</v>
+        <v>2383.1800000000039</v>
       </c>
       <c r="T248" s="118"/>
       <c r="U248" s="116">
@@ -51489,7 +51489,7 @@
       </c>
       <c r="V248" s="116">
         <f t="shared" si="53"/>
-        <v>2375.20999999992</v>
+        <v>2383.1800000000039</v>
       </c>
       <c r="W248" s="116">
         <f t="shared" si="59"/>
@@ -51542,7 +51542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="127" t="s">
         <v>309</v>
       </c>
@@ -51568,7 +51568,7 @@
         <v>34</v>
       </c>
       <c r="I249" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J249" s="118" t="s">
         <v>214</v>
@@ -51653,7 +51653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="127" t="s">
         <v>309</v>
       </c>
@@ -51679,7 +51679,7 @@
         <v>34</v>
       </c>
       <c r="I250" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J250" s="118" t="s">
         <v>214</v>
@@ -51764,7 +51764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="127" t="s">
         <v>309</v>
       </c>
@@ -51790,7 +51790,7 @@
         <v>34</v>
       </c>
       <c r="I251" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J251" s="118" t="s">
         <v>214</v>
@@ -51875,7 +51875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="127" t="s">
         <v>309</v>
       </c>
@@ -51901,7 +51901,7 @@
         <v>34</v>
       </c>
       <c r="I252" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J252" s="118" t="s">
         <v>214</v>
@@ -51986,7 +51986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="127" t="s">
         <v>309</v>
       </c>
@@ -52012,7 +52012,7 @@
         <v>34</v>
       </c>
       <c r="I253" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J253" s="118" t="s">
         <v>214</v>
@@ -52097,7 +52097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="127" t="s">
         <v>309</v>
       </c>
@@ -52123,7 +52123,7 @@
         <v>34</v>
       </c>
       <c r="I254" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J254" s="118" t="s">
         <v>214</v>
@@ -52208,7 +52208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="127" t="s">
         <v>309</v>
       </c>
@@ -52234,7 +52234,7 @@
         <v>34</v>
       </c>
       <c r="I255" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J255" s="118" t="s">
         <v>214</v>
@@ -52319,7 +52319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="127" t="s">
         <v>309</v>
       </c>
@@ -52345,7 +52345,7 @@
         <v>34</v>
       </c>
       <c r="I256" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J256" s="118" t="s">
         <v>214</v>
@@ -52430,7 +52430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="127" t="s">
         <v>309</v>
       </c>
@@ -52456,7 +52456,7 @@
         <v>34</v>
       </c>
       <c r="I257" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J257" s="118" t="s">
         <v>214</v>
@@ -52541,7 +52541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="127" t="s">
         <v>309</v>
       </c>
@@ -52567,7 +52567,7 @@
         <v>34</v>
       </c>
       <c r="I258" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J258" s="118" t="s">
         <v>214</v>
@@ -52652,7 +52652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="127" t="s">
         <v>309</v>
       </c>
@@ -52678,7 +52678,7 @@
         <v>34</v>
       </c>
       <c r="I259" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J259" s="118" t="s">
         <v>214</v>
@@ -52763,7 +52763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="127" t="s">
         <v>309</v>
       </c>
@@ -52789,7 +52789,7 @@
         <v>34</v>
       </c>
       <c r="I260" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J260" s="118" t="s">
         <v>214</v>
@@ -52874,7 +52874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="127" t="s">
         <v>309</v>
       </c>
@@ -52900,7 +52900,7 @@
         <v>34</v>
       </c>
       <c r="I261" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J261" s="118" t="s">
         <v>214</v>
@@ -52985,7 +52985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="127" t="s">
         <v>309</v>
       </c>
@@ -53011,7 +53011,7 @@
         <v>34</v>
       </c>
       <c r="I262" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J262" s="118" t="s">
         <v>214</v>
@@ -53100,7 +53100,7 @@
         <v>0.15837499999906868</v>
       </c>
     </row>
-    <row r="263" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="127" t="s">
         <v>309</v>
       </c>
@@ -53126,7 +53126,7 @@
         <v>34</v>
       </c>
       <c r="I263" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J263" s="118" t="s">
         <v>214</v>
@@ -53211,7 +53211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="127" t="s">
         <v>309</v>
       </c>
@@ -53237,7 +53237,7 @@
         <v>34</v>
       </c>
       <c r="I264" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J264" s="118" t="s">
         <v>214</v>
@@ -53322,7 +53322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="127" t="s">
         <v>309</v>
       </c>
@@ -53348,7 +53348,7 @@
         <v>34</v>
       </c>
       <c r="I265" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J265" s="118" t="s">
         <v>214</v>
@@ -53433,7 +53433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="127" t="s">
         <v>309</v>
       </c>
@@ -53459,7 +53459,7 @@
         <v>34</v>
       </c>
       <c r="I266" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J266" s="118" t="s">
         <v>214</v>
@@ -53544,7 +53544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="127" t="s">
         <v>309</v>
       </c>
@@ -53570,7 +53570,7 @@
         <v>34</v>
       </c>
       <c r="I267" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J267" s="118" t="s">
         <v>214</v>
@@ -53655,7 +53655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="127" t="s">
         <v>309</v>
       </c>
@@ -53681,7 +53681,7 @@
         <v>34</v>
       </c>
       <c r="I268" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J268" s="118" t="s">
         <v>214</v>
@@ -53766,7 +53766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="127" t="s">
         <v>309</v>
       </c>
@@ -53792,7 +53792,7 @@
         <v>34</v>
       </c>
       <c r="I269" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J269" s="118" t="s">
         <v>214</v>
@@ -53877,7 +53877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="127" t="s">
         <v>309</v>
       </c>
@@ -53903,7 +53903,7 @@
         <v>34</v>
       </c>
       <c r="I270" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J270" s="118" t="s">
         <v>214</v>
@@ -53988,7 +53988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="127" t="s">
         <v>309</v>
       </c>
@@ -54014,7 +54014,7 @@
         <v>34</v>
       </c>
       <c r="I271" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J271" s="118" t="s">
         <v>214</v>
@@ -54099,7 +54099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="127" t="s">
         <v>309</v>
       </c>
@@ -54125,7 +54125,7 @@
         <v>34</v>
       </c>
       <c r="I272" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J272" s="118" t="s">
         <v>214</v>
@@ -54210,7 +54210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="127" t="s">
         <v>309</v>
       </c>
@@ -54236,7 +54236,7 @@
         <v>34</v>
       </c>
       <c r="I273" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J273" s="118" t="s">
         <v>214</v>
@@ -54321,7 +54321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="127" t="s">
         <v>309</v>
       </c>
@@ -54347,7 +54347,7 @@
         <v>34</v>
       </c>
       <c r="I274" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J274" s="118" t="s">
         <v>214</v>
@@ -54432,7 +54432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="127" t="s">
         <v>309</v>
       </c>
@@ -54458,7 +54458,7 @@
         <v>34</v>
       </c>
       <c r="I275" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J275" s="118" t="s">
         <v>214</v>
@@ -54543,7 +54543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="127" t="s">
         <v>309</v>
       </c>
@@ -54569,7 +54569,7 @@
         <v>34</v>
       </c>
       <c r="I276" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J276" s="118" t="s">
         <v>214</v>
@@ -54654,7 +54654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="127" t="s">
         <v>309</v>
       </c>
@@ -54680,7 +54680,7 @@
         <v>34</v>
       </c>
       <c r="I277" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J277" s="118" t="s">
         <v>214</v>
@@ -54765,7 +54765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="127" t="s">
         <v>309</v>
       </c>
@@ -54791,7 +54791,7 @@
         <v>34</v>
       </c>
       <c r="I278" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J278" s="118" t="s">
         <v>214</v>
@@ -54876,7 +54876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="127" t="s">
         <v>309</v>
       </c>
@@ -54902,7 +54902,7 @@
         <v>34</v>
       </c>
       <c r="I279" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J279" s="118" t="s">
         <v>214</v>
@@ -54991,7 +54991,7 @@
         <v>-1.4058577407013217E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="127" t="s">
         <v>309</v>
       </c>
@@ -55017,7 +55017,7 @@
         <v>34</v>
       </c>
       <c r="I280" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J280" s="118" t="s">
         <v>214</v>
@@ -55102,7 +55102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="127" t="s">
         <v>309</v>
       </c>
@@ -55128,7 +55128,7 @@
         <v>34</v>
       </c>
       <c r="I281" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J281" s="118" t="s">
         <v>214</v>
@@ -55213,7 +55213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="127" t="s">
         <v>309</v>
       </c>
@@ -55239,7 +55239,7 @@
         <v>34</v>
       </c>
       <c r="I282" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J282" s="118" t="s">
         <v>214</v>
@@ -55330,7 +55330,7 @@
         <v>0.27879699248296674</v>
       </c>
     </row>
-    <row r="283" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="127" t="s">
         <v>309</v>
       </c>
@@ -55356,7 +55356,7 @@
         <v>34</v>
       </c>
       <c r="I283" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J283" s="118" t="s">
         <v>214</v>
@@ -55441,7 +55441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="127" t="s">
         <v>309</v>
       </c>
@@ -55467,7 +55467,7 @@
         <v>34</v>
       </c>
       <c r="I284" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J284" s="118" t="s">
         <v>214</v>
@@ -55552,7 +55552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="127" t="s">
         <v>309</v>
       </c>
@@ -55578,7 +55578,7 @@
         <v>34</v>
       </c>
       <c r="I285" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J285" s="118" t="s">
         <v>214</v>
@@ -55667,7 +55667,7 @@
         <v>-8.8584507042253513</v>
       </c>
     </row>
-    <row r="286" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="127" t="s">
         <v>309</v>
       </c>
@@ -55693,7 +55693,7 @@
         <v>34</v>
       </c>
       <c r="I286" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J286" s="118" t="s">
         <v>214</v>
@@ -55778,7 +55778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="127" t="s">
         <v>309</v>
       </c>
@@ -55804,7 +55804,7 @@
         <v>34</v>
       </c>
       <c r="I287" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J287" s="118" t="s">
         <v>214</v>
@@ -55895,7 +55895,7 @@
         <v>45.029999999999994</v>
       </c>
     </row>
-    <row r="288" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="127" t="s">
         <v>309</v>
       </c>
@@ -55921,7 +55921,7 @@
         <v>34</v>
       </c>
       <c r="I288" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J288" s="118" t="s">
         <v>214</v>
@@ -56001,7 +56001,7 @@
       <c r="AL288" s="118"/>
       <c r="AM288" s="118"/>
     </row>
-    <row r="289" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="127" t="s">
         <v>309</v>
       </c>
@@ -56027,7 +56027,7 @@
         <v>160</v>
       </c>
       <c r="I289" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J289" s="118" t="s">
         <v>246</v>
@@ -56105,7 +56105,7 @@
       <c r="AL289" s="118"/>
       <c r="AM289" s="118"/>
     </row>
-    <row r="290" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="127" t="s">
         <v>309</v>
       </c>
@@ -56131,7 +56131,7 @@
         <v>34</v>
       </c>
       <c r="I290" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J290" s="118" t="s">
         <v>214</v>
@@ -56208,7 +56208,7 @@
       <c r="AL290" s="118"/>
       <c r="AM290" s="118"/>
     </row>
-    <row r="291" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="127" t="s">
         <v>309</v>
       </c>
@@ -56234,7 +56234,7 @@
         <v>167</v>
       </c>
       <c r="I291" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J291" s="136" t="s">
         <v>312</v>
@@ -56316,7 +56316,7 @@
       <c r="AL291" s="136"/>
       <c r="AM291" s="136"/>
     </row>
-    <row r="292" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="127" t="s">
         <v>309</v>
       </c>
@@ -56342,7 +56342,7 @@
         <v>34</v>
       </c>
       <c r="I292" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J292" s="118" t="s">
         <v>214</v>
@@ -56416,7 +56416,7 @@
       <c r="AL292" s="118"/>
       <c r="AM292" s="118"/>
     </row>
-    <row r="293" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="127" t="s">
         <v>309</v>
       </c>
@@ -56442,7 +56442,7 @@
         <v>34</v>
       </c>
       <c r="I293" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J293" s="118" t="s">
         <v>214</v>
@@ -56527,7 +56527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="127" t="s">
         <v>309</v>
       </c>
@@ -56553,7 +56553,7 @@
         <v>34</v>
       </c>
       <c r="I294" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J294" s="118" t="s">
         <v>214</v>
@@ -56638,7 +56638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="127" t="s">
         <v>309</v>
       </c>
@@ -56664,7 +56664,7 @@
         <v>34</v>
       </c>
       <c r="I295" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J295" s="118" t="s">
         <v>214</v>
@@ -56749,7 +56749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="127" t="s">
         <v>309</v>
       </c>
@@ -56775,7 +56775,7 @@
         <v>34</v>
       </c>
       <c r="I296" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J296" s="118" t="s">
         <v>214</v>
@@ -56860,7 +56860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="127" t="s">
         <v>309</v>
       </c>
@@ -56886,7 +56886,7 @@
         <v>34</v>
       </c>
       <c r="I297" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J297" s="118" t="s">
         <v>214</v>
@@ -56971,7 +56971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="127" t="s">
         <v>332</v>
       </c>
@@ -56997,7 +56997,7 @@
         <v>34</v>
       </c>
       <c r="I298" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J298" s="118" t="s">
         <v>353</v>
@@ -57089,7 +57089,7 @@
         <v>-1844.7506067961167</v>
       </c>
     </row>
-    <row r="299" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="127" t="s">
         <v>332</v>
       </c>
@@ -57115,7 +57115,7 @@
         <v>34</v>
       </c>
       <c r="I299" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J299" s="118" t="s">
         <v>353</v>
@@ -57207,7 +57207,7 @@
         <v>-5161.2870409455445</v>
       </c>
     </row>
-    <row r="300" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="127" t="s">
         <v>332</v>
       </c>
@@ -57233,7 +57233,7 @@
         <v>34</v>
       </c>
       <c r="I300" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J300" s="118" t="s">
         <v>353</v>
@@ -57328,7 +57328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="127" t="s">
         <v>332</v>
       </c>
@@ -57354,7 +57354,7 @@
         <v>34</v>
       </c>
       <c r="I301" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J301" s="118" t="s">
         <v>353</v>
@@ -57444,7 +57444,7 @@
         <v>-3015.3909677419324</v>
       </c>
     </row>
-    <row r="302" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="127" t="s">
         <v>332</v>
       </c>
@@ -57470,7 +57470,7 @@
         <v>34</v>
       </c>
       <c r="I302" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J302" s="118" t="s">
         <v>353</v>
@@ -57559,7 +57559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="127" t="s">
         <v>332</v>
       </c>
@@ -57585,7 +57585,7 @@
         <v>34</v>
       </c>
       <c r="I303" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J303" s="118" t="s">
         <v>353</v>
@@ -57671,7 +57671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="127" t="s">
         <v>332</v>
       </c>
@@ -57697,7 +57697,7 @@
         <v>34</v>
       </c>
       <c r="I304" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J304" s="118" t="s">
         <v>353</v>
@@ -57787,7 +57787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="127" t="s">
         <v>332</v>
       </c>
@@ -57813,7 +57813,7 @@
         <v>34</v>
       </c>
       <c r="I305" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J305" s="118" t="s">
         <v>353</v>
@@ -57899,7 +57899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="127" t="s">
         <v>332</v>
       </c>
@@ -57925,7 +57925,7 @@
         <v>34</v>
       </c>
       <c r="I306" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J306" s="118" t="s">
         <v>353</v>
@@ -58011,7 +58011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="127" t="s">
         <v>332</v>
       </c>
@@ -58037,7 +58037,7 @@
         <v>34</v>
       </c>
       <c r="I307" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J307" s="118" t="s">
         <v>353</v>
@@ -58123,7 +58123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="127" t="s">
         <v>332</v>
       </c>
@@ -58149,7 +58149,7 @@
         <v>34</v>
       </c>
       <c r="I308" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J308" s="118" t="s">
         <v>353</v>
@@ -58265,7 +58265,7 @@
         <v>34</v>
       </c>
       <c r="I309" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J309" s="118" t="s">
         <v>353</v>
@@ -58287,8 +58287,8 @@
         <v>0.03</v>
       </c>
       <c r="R309" s="118"/>
-      <c r="S309" s="116">
-        <v>15901.84</v>
+      <c r="S309" s="64">
+        <v>15899.080000000278</v>
       </c>
       <c r="T309" s="116"/>
       <c r="U309" s="116">
@@ -58296,7 +58296,7 @@
       </c>
       <c r="V309" s="116">
         <f t="shared" si="85"/>
-        <v>15901.84</v>
+        <v>15899.080000000278</v>
       </c>
       <c r="W309" s="116">
         <f t="shared" si="93"/>
@@ -58351,7 +58351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="127" t="s">
         <v>332</v>
       </c>
@@ -58377,7 +58377,7 @@
         <v>34</v>
       </c>
       <c r="I310" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J310" s="118" t="s">
         <v>353</v>
@@ -58399,8 +58399,8 @@
         <v>0.03</v>
       </c>
       <c r="R310" s="118"/>
-      <c r="S310" s="116">
-        <v>2375.20999999992</v>
+      <c r="S310" s="64">
+        <v>2383.1800000000039</v>
       </c>
       <c r="T310" s="116"/>
       <c r="U310" s="116">
@@ -58408,7 +58408,7 @@
       </c>
       <c r="V310" s="116">
         <f t="shared" si="85"/>
-        <v>2375.20999999992</v>
+        <v>2383.1800000000039</v>
       </c>
       <c r="W310" s="116">
         <f t="shared" si="93"/>
@@ -58463,7 +58463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="127" t="s">
         <v>332</v>
       </c>
@@ -58489,7 +58489,7 @@
         <v>34</v>
       </c>
       <c r="I311" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J311" s="118" t="s">
         <v>353</v>
@@ -58575,7 +58575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="127" t="s">
         <v>332</v>
       </c>
@@ -58601,7 +58601,7 @@
         <v>34</v>
       </c>
       <c r="I312" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J312" s="118" t="s">
         <v>353</v>
@@ -58687,7 +58687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="127" t="s">
         <v>332</v>
       </c>
@@ -58713,7 +58713,7 @@
         <v>34</v>
       </c>
       <c r="I313" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J313" s="118" t="s">
         <v>353</v>
@@ -58799,7 +58799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="127" t="s">
         <v>332</v>
       </c>
@@ -58825,7 +58825,7 @@
         <v>34</v>
       </c>
       <c r="I314" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J314" s="118" t="s">
         <v>353</v>
@@ -58911,7 +58911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="127" t="s">
         <v>332</v>
       </c>
@@ -58937,7 +58937,7 @@
         <v>34</v>
       </c>
       <c r="I315" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J315" s="118" t="s">
         <v>353</v>
@@ -59023,7 +59023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="127" t="s">
         <v>332</v>
       </c>
@@ -59049,7 +59049,7 @@
         <v>34</v>
       </c>
       <c r="I316" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J316" s="118" t="s">
         <v>353</v>
@@ -59135,7 +59135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="127" t="s">
         <v>332</v>
       </c>
@@ -59161,7 +59161,7 @@
         <v>34</v>
       </c>
       <c r="I317" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J317" s="118" t="s">
         <v>353</v>
@@ -59247,7 +59247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="127" t="s">
         <v>332</v>
       </c>
@@ -59273,7 +59273,7 @@
         <v>34</v>
       </c>
       <c r="I318" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J318" s="118" t="s">
         <v>353</v>
@@ -59359,7 +59359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="127" t="s">
         <v>332</v>
       </c>
@@ -59385,7 +59385,7 @@
         <v>34</v>
       </c>
       <c r="I319" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J319" s="118" t="s">
         <v>353</v>
@@ -59471,7 +59471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="127" t="s">
         <v>332</v>
       </c>
@@ -59497,7 +59497,7 @@
         <v>34</v>
       </c>
       <c r="I320" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J320" s="118" t="s">
         <v>353</v>
@@ -59583,7 +59583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="127" t="s">
         <v>332</v>
       </c>
@@ -59609,7 +59609,7 @@
         <v>34</v>
       </c>
       <c r="I321" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J321" s="118" t="s">
         <v>353</v>
@@ -59695,7 +59695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="127" t="s">
         <v>332</v>
       </c>
@@ -59721,7 +59721,7 @@
         <v>34</v>
       </c>
       <c r="I322" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J322" s="118" t="s">
         <v>353</v>
@@ -59807,7 +59807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="127" t="s">
         <v>332</v>
       </c>
@@ -59833,7 +59833,7 @@
         <v>34</v>
       </c>
       <c r="I323" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J323" s="118" t="s">
         <v>353</v>
@@ -59919,7 +59919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="127" t="s">
         <v>332</v>
       </c>
@@ -59945,7 +59945,7 @@
         <v>34</v>
       </c>
       <c r="I324" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J324" s="118" t="s">
         <v>353</v>
@@ -60031,7 +60031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="127" t="s">
         <v>332</v>
       </c>
@@ -60057,7 +60057,7 @@
         <v>34</v>
       </c>
       <c r="I325" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J325" s="118" t="s">
         <v>353</v>
@@ -60143,7 +60143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="127" t="s">
         <v>332</v>
       </c>
@@ -60169,7 +60169,7 @@
         <v>34</v>
       </c>
       <c r="I326" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J326" s="118" t="s">
         <v>353</v>
@@ -60255,7 +60255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="127" t="s">
         <v>332</v>
       </c>
@@ -60281,7 +60281,7 @@
         <v>34</v>
       </c>
       <c r="I327" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J327" s="118" t="s">
         <v>353</v>
@@ -60367,7 +60367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="127" t="s">
         <v>332</v>
       </c>
@@ -60393,7 +60393,7 @@
         <v>34</v>
       </c>
       <c r="I328" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J328" s="118" t="s">
         <v>353</v>
@@ -60479,7 +60479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="127" t="s">
         <v>332</v>
       </c>
@@ -60505,7 +60505,7 @@
         <v>34</v>
       </c>
       <c r="I329" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J329" s="118" t="s">
         <v>353</v>
@@ -60591,7 +60591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="127" t="s">
         <v>332</v>
       </c>
@@ -60617,7 +60617,7 @@
         <v>34</v>
       </c>
       <c r="I330" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J330" s="118" t="s">
         <v>353</v>
@@ -60703,7 +60703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="127" t="s">
         <v>332</v>
       </c>
@@ -60729,7 +60729,7 @@
         <v>34</v>
       </c>
       <c r="I331" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J331" s="118" t="s">
         <v>353</v>
@@ -60815,7 +60815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="127" t="s">
         <v>332</v>
       </c>
@@ -60841,7 +60841,7 @@
         <v>34</v>
       </c>
       <c r="I332" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J332" s="118" t="s">
         <v>353</v>
@@ -60927,7 +60927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="127" t="s">
         <v>332</v>
       </c>
@@ -60953,7 +60953,7 @@
         <v>34</v>
       </c>
       <c r="I333" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J333" s="118" t="s">
         <v>353</v>
@@ -61039,7 +61039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="127" t="s">
         <v>332</v>
       </c>
@@ -61065,7 +61065,7 @@
         <v>34</v>
       </c>
       <c r="I334" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J334" s="118" t="s">
         <v>353</v>
@@ -61151,7 +61151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="127" t="s">
         <v>332</v>
       </c>
@@ -61177,7 +61177,7 @@
         <v>34</v>
       </c>
       <c r="I335" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J335" s="118" t="s">
         <v>353</v>
@@ -61263,7 +61263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="127" t="s">
         <v>332</v>
       </c>
@@ -61289,7 +61289,7 @@
         <v>34</v>
       </c>
       <c r="I336" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J336" s="118" t="s">
         <v>353</v>
@@ -61375,7 +61375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="127" t="s">
         <v>332</v>
       </c>
@@ -61401,7 +61401,7 @@
         <v>34</v>
       </c>
       <c r="I337" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J337" s="118" t="s">
         <v>353</v>
@@ -61487,7 +61487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="127" t="s">
         <v>332</v>
       </c>
@@ -61513,7 +61513,7 @@
         <v>34</v>
       </c>
       <c r="I338" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J338" s="118" t="s">
         <v>353</v>
@@ -61599,7 +61599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="127" t="s">
         <v>332</v>
       </c>
@@ -61625,7 +61625,7 @@
         <v>34</v>
       </c>
       <c r="I339" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J339" s="118" t="s">
         <v>353</v>
@@ -61711,7 +61711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="127" t="s">
         <v>332</v>
       </c>
@@ -61737,7 +61737,7 @@
         <v>34</v>
       </c>
       <c r="I340" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J340" s="118" t="s">
         <v>353</v>
@@ -61827,7 +61827,7 @@
         <v>2.2426778241424472E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="127" t="s">
         <v>332</v>
       </c>
@@ -61853,7 +61853,7 @@
         <v>34</v>
       </c>
       <c r="I341" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J341" s="118" t="s">
         <v>353</v>
@@ -61939,7 +61939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="127" t="s">
         <v>332</v>
       </c>
@@ -61965,7 +61965,7 @@
         <v>34</v>
       </c>
       <c r="I342" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J342" s="118" t="s">
         <v>353</v>
@@ -62051,7 +62051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="127" t="s">
         <v>332</v>
       </c>
@@ -62077,7 +62077,7 @@
         <v>34</v>
       </c>
       <c r="I343" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J343" s="118" t="s">
         <v>353</v>
@@ -62167,7 +62167,7 @@
         <v>5285.372932336295</v>
       </c>
     </row>
-    <row r="344" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="127" t="s">
         <v>332</v>
       </c>
@@ -62193,7 +62193,7 @@
         <v>34</v>
       </c>
       <c r="I344" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J344" s="118" t="s">
         <v>353</v>
@@ -62279,7 +62279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="127" t="s">
         <v>332</v>
       </c>
@@ -62305,7 +62305,7 @@
         <v>34</v>
       </c>
       <c r="I345" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J345" s="118" t="s">
         <v>353</v>
@@ -62391,7 +62391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="127" t="s">
         <v>332</v>
       </c>
@@ -62417,7 +62417,7 @@
         <v>34</v>
       </c>
       <c r="I346" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J346" s="118" t="s">
         <v>353</v>
@@ -62507,7 +62507,7 @@
         <v>-8.3792957746478862</v>
       </c>
     </row>
-    <row r="347" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="127" t="s">
         <v>332</v>
       </c>
@@ -62533,7 +62533,7 @@
         <v>34</v>
       </c>
       <c r="I347" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J347" s="118" t="s">
         <v>353</v>
@@ -62619,7 +62619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="127" t="s">
         <v>332</v>
       </c>
@@ -62645,7 +62645,7 @@
         <v>34</v>
       </c>
       <c r="I348" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J348" s="118" t="s">
         <v>353</v>
@@ -62731,7 +62731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="127" t="s">
         <v>332</v>
       </c>
@@ -62757,7 +62757,7 @@
         <v>34</v>
       </c>
       <c r="I349" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J349" s="118" t="s">
         <v>353</v>
@@ -62843,7 +62843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="127" t="s">
         <v>332</v>
       </c>
@@ -62869,7 +62869,7 @@
         <v>34</v>
       </c>
       <c r="I350" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J350" s="118" t="s">
         <v>353</v>
@@ -62955,7 +62955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="127" t="s">
         <v>332</v>
       </c>
@@ -62981,7 +62981,7 @@
         <v>34</v>
       </c>
       <c r="I351" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J351" s="118" t="s">
         <v>353</v>
@@ -63067,7 +63067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="127" t="s">
         <v>332</v>
       </c>
@@ -63093,7 +63093,7 @@
         <v>34</v>
       </c>
       <c r="I352" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J352" s="118" t="s">
         <v>353</v>
@@ -63179,7 +63179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="127" t="s">
         <v>332</v>
       </c>
@@ -63205,7 +63205,7 @@
         <v>167</v>
       </c>
       <c r="I353" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J353" s="118" t="s">
         <v>360</v>
@@ -63281,7 +63281,7 @@
       <c r="AL353" s="125"/>
       <c r="AM353" s="125"/>
     </row>
-    <row r="354" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="127" t="s">
         <v>332</v>
       </c>
@@ -63307,7 +63307,7 @@
         <v>160</v>
       </c>
       <c r="I354" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J354" s="118" t="s">
         <v>354</v>
@@ -63385,7 +63385,7 @@
       <c r="AL354" s="116"/>
       <c r="AM354" s="116"/>
     </row>
-    <row r="355" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="127" t="s">
         <v>332</v>
       </c>
@@ -63411,7 +63411,7 @@
         <v>340</v>
       </c>
       <c r="I355" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J355" s="118" t="s">
         <v>164</v>
@@ -63489,7 +63489,7 @@
       <c r="AL355" s="116"/>
       <c r="AM355" s="116"/>
     </row>
-    <row r="356" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="127" t="s">
         <v>332</v>
       </c>
@@ -63515,7 +63515,7 @@
         <v>34</v>
       </c>
       <c r="I356" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J356" s="118" t="s">
         <v>353</v>
@@ -63591,7 +63591,7 @@
       <c r="AL356" s="118"/>
       <c r="AM356" s="118"/>
     </row>
-    <row r="357" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="127" t="s">
         <v>332</v>
       </c>
@@ -63617,7 +63617,7 @@
         <v>34</v>
       </c>
       <c r="I357" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J357" s="118" t="s">
         <v>353</v>
@@ -63699,7 +63699,7 @@
       <c r="AL357" s="118"/>
       <c r="AM357" s="118"/>
     </row>
-    <row r="358" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="127" t="s">
         <v>332</v>
       </c>
@@ -63725,7 +63725,7 @@
         <v>34</v>
       </c>
       <c r="I358" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J358" s="118" t="s">
         <v>353</v>
@@ -63801,7 +63801,7 @@
       <c r="AL358" s="125"/>
       <c r="AM358" s="125"/>
     </row>
-    <row r="359" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="127" t="s">
         <v>332</v>
       </c>
@@ -63827,7 +63827,7 @@
         <v>34</v>
       </c>
       <c r="I359" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J359" s="118" t="s">
         <v>353</v>
@@ -63889,7 +63889,7 @@
       <c r="AL359" s="118"/>
       <c r="AM359" s="118"/>
     </row>
-    <row r="360" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="127" t="s">
         <v>332</v>
       </c>
@@ -63915,7 +63915,7 @@
         <v>34</v>
       </c>
       <c r="I360" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J360" s="118" t="s">
         <v>353</v>
@@ -63975,7 +63975,7 @@
       <c r="AL360" s="118"/>
       <c r="AM360" s="118"/>
     </row>
-    <row r="361" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="127" t="s">
         <v>332</v>
       </c>
@@ -64001,7 +64001,7 @@
         <v>192</v>
       </c>
       <c r="I361" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J361" s="118" t="s">
         <v>356</v>
@@ -64061,7 +64061,7 @@
       <c r="AL361" s="118"/>
       <c r="AM361" s="118"/>
     </row>
-    <row r="362" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="127" t="s">
         <v>332</v>
       </c>
@@ -64087,7 +64087,7 @@
         <v>347</v>
       </c>
       <c r="I362" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J362" s="118" t="s">
         <v>356</v>
@@ -64147,7 +64147,7 @@
       <c r="AL362" s="118"/>
       <c r="AM362" s="118"/>
     </row>
-    <row r="363" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="127" t="s">
         <v>332</v>
       </c>
@@ -64173,7 +64173,7 @@
         <v>355</v>
       </c>
       <c r="I363" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J363" s="118" t="s">
         <v>356</v>
@@ -64233,7 +64233,7 @@
       <c r="AL363" s="118"/>
       <c r="AM363" s="118"/>
     </row>
-    <row r="364" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="127" t="s">
         <v>332</v>
       </c>
@@ -64259,7 +64259,7 @@
         <v>34</v>
       </c>
       <c r="I364" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J364" s="118" t="s">
         <v>353</v>
@@ -64341,9 +64341,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B365" s="93" t="s">
         <v>28</v>
@@ -64460,9 +64460,9 @@
         <v>1839.9866504857782</v>
       </c>
     </row>
-    <row r="366" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B366" s="93" t="s">
         <v>28</v>
@@ -64579,9 +64579,9 @@
         <v>216.70015477703419</v>
       </c>
     </row>
-    <row r="367" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B367" s="93" t="s">
         <v>28</v>
@@ -64628,7 +64628,7 @@
       </c>
       <c r="Q367" s="93"/>
       <c r="R367" s="132" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S367" s="14">
         <v>0</v>
@@ -64698,9 +64698,9 @@
         <v>21638.24398480371</v>
       </c>
     </row>
-    <row r="368" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B368" s="93" t="s">
         <v>28</v>
@@ -64817,9 +64817,9 @@
         <v>161041.03813141963</v>
       </c>
     </row>
-    <row r="369" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B369" s="93" t="s">
         <v>38</v>
@@ -64936,9 +64936,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="93" t="s">
         <v>38</v>
@@ -65054,9 +65054,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B371" s="132" t="s">
         <v>28</v>
@@ -65168,9 +65168,9 @@
       </c>
       <c r="AN371" s="89"/>
     </row>
-    <row r="372" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B372" s="132" t="s">
         <v>28</v>
@@ -65285,9 +65285,9 @@
         <v>-75041.33009708731</v>
       </c>
     </row>
-    <row r="373" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B373" s="132" t="s">
         <v>38</v>
@@ -65399,9 +65399,9 @@
       </c>
       <c r="AN373" s="89"/>
     </row>
-    <row r="374" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B374" s="132" t="s">
         <v>28</v>
@@ -65513,9 +65513,9 @@
       </c>
       <c r="AN374" s="89"/>
     </row>
-    <row r="375" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B375" s="132" t="s">
         <v>28</v>
@@ -65630,9 +65630,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B376" s="132" t="s">
         <v>28</v>
@@ -65744,9 +65744,9 @@
       </c>
       <c r="AN376" s="89"/>
     </row>
-    <row r="377" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B377" s="132" t="s">
         <v>28</v>
@@ -65858,9 +65858,9 @@
       </c>
       <c r="AN377" s="89"/>
     </row>
-    <row r="378" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B378" s="132" t="s">
         <v>28</v>
@@ -65972,9 +65972,9 @@
       </c>
       <c r="AN378" s="89"/>
     </row>
-    <row r="379" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B379" s="132" t="s">
         <v>28</v>
@@ -66091,7 +66091,7 @@
     </row>
     <row r="380" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A380" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B380" s="132" t="s">
         <v>28</v>
@@ -66138,8 +66138,8 @@
       </c>
       <c r="Q380" s="93"/>
       <c r="R380" s="132"/>
-      <c r="S380" s="14">
-        <v>15901.84</v>
+      <c r="S380" s="64">
+        <v>15899.080000000278</v>
       </c>
       <c r="T380" s="14"/>
       <c r="U380" s="15">
@@ -66147,7 +66147,7 @@
       </c>
       <c r="V380" s="15">
         <f t="shared" si="106"/>
-        <v>15891.59</v>
+        <v>15888.830000000278</v>
       </c>
       <c r="W380" s="15">
         <f t="shared" si="109"/>
@@ -66206,9 +66206,9 @@
         <v>2.2727272727269821E-3</v>
       </c>
     </row>
-    <row r="381" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B381" s="132" t="s">
         <v>28</v>
@@ -66255,8 +66255,8 @@
       </c>
       <c r="Q381" s="93"/>
       <c r="R381" s="132"/>
-      <c r="S381" s="14">
-        <v>2375.20999999992</v>
+      <c r="S381" s="64">
+        <v>2383.1800000000039</v>
       </c>
       <c r="T381" s="14"/>
       <c r="U381" s="15">
@@ -66264,7 +66264,7 @@
       </c>
       <c r="V381" s="15">
         <f t="shared" si="106"/>
-        <v>2375.20999999992</v>
+        <v>2383.1800000000039</v>
       </c>
       <c r="W381" s="15">
         <f t="shared" si="109"/>
@@ -66320,9 +66320,9 @@
       </c>
       <c r="AN381" s="89"/>
     </row>
-    <row r="382" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B382" s="132" t="s">
         <v>28</v>
@@ -66434,9 +66434,9 @@
       </c>
       <c r="AN382" s="89"/>
     </row>
-    <row r="383" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B383" s="132" t="s">
         <v>28</v>
@@ -66548,9 +66548,9 @@
       </c>
       <c r="AN383" s="89"/>
     </row>
-    <row r="384" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B384" s="132" t="s">
         <v>28</v>
@@ -66662,9 +66662,9 @@
       </c>
       <c r="AN384" s="89"/>
     </row>
-    <row r="385" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B385" s="132" t="s">
         <v>28</v>
@@ -66776,9 +66776,9 @@
       </c>
       <c r="AN385" s="89"/>
     </row>
-    <row r="386" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B386" s="132" t="s">
         <v>28</v>
@@ -66890,9 +66890,9 @@
       </c>
       <c r="AN386" s="89"/>
     </row>
-    <row r="387" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B387" s="132" t="s">
         <v>28</v>
@@ -67004,9 +67004,9 @@
       </c>
       <c r="AN387" s="89"/>
     </row>
-    <row r="388" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B388" s="132" t="s">
         <v>28</v>
@@ -67118,9 +67118,9 @@
       </c>
       <c r="AN388" s="89"/>
     </row>
-    <row r="389" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B389" s="132" t="s">
         <v>28</v>
@@ -67232,9 +67232,9 @@
       </c>
       <c r="AN389" s="89"/>
     </row>
-    <row r="390" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B390" s="132" t="s">
         <v>28</v>
@@ -67346,9 +67346,9 @@
       </c>
       <c r="AN390" s="89"/>
     </row>
-    <row r="391" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B391" s="132" t="s">
         <v>28</v>
@@ -67460,9 +67460,9 @@
       </c>
       <c r="AN391" s="89"/>
     </row>
-    <row r="392" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B392" s="132" t="s">
         <v>28</v>
@@ -67574,9 +67574,9 @@
       </c>
       <c r="AN392" s="89"/>
     </row>
-    <row r="393" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B393" s="132" t="s">
         <v>28</v>
@@ -67688,9 +67688,9 @@
       </c>
       <c r="AN393" s="89"/>
     </row>
-    <row r="394" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B394" s="132" t="s">
         <v>28</v>
@@ -67802,9 +67802,9 @@
       </c>
       <c r="AN394" s="89"/>
     </row>
-    <row r="395" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B395" s="132" t="s">
         <v>28</v>
@@ -67916,9 +67916,9 @@
       </c>
       <c r="AN395" s="89"/>
     </row>
-    <row r="396" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B396" s="132" t="s">
         <v>28</v>
@@ -68030,9 +68030,9 @@
       </c>
       <c r="AN396" s="89"/>
     </row>
-    <row r="397" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B397" s="132" t="s">
         <v>28</v>
@@ -68144,9 +68144,9 @@
       </c>
       <c r="AN397" s="89"/>
     </row>
-    <row r="398" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B398" s="132" t="s">
         <v>28</v>
@@ -68258,9 +68258,9 @@
       </c>
       <c r="AN398" s="89"/>
     </row>
-    <row r="399" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B399" s="132" t="s">
         <v>28</v>
@@ -68372,9 +68372,9 @@
       </c>
       <c r="AN399" s="89"/>
     </row>
-    <row r="400" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B400" s="132" t="s">
         <v>28</v>
@@ -68486,9 +68486,9 @@
       </c>
       <c r="AN400" s="89"/>
     </row>
-    <row r="401" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B401" s="132" t="s">
         <v>28</v>
@@ -68600,9 +68600,9 @@
       </c>
       <c r="AN401" s="89"/>
     </row>
-    <row r="402" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B402" s="132" t="s">
         <v>28</v>
@@ -68714,9 +68714,9 @@
       </c>
       <c r="AN402" s="89"/>
     </row>
-    <row r="403" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B403" s="132" t="s">
         <v>28</v>
@@ -68828,9 +68828,9 @@
       </c>
       <c r="AN403" s="89"/>
     </row>
-    <row r="404" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B404" s="132" t="s">
         <v>28</v>
@@ -68942,9 +68942,9 @@
       </c>
       <c r="AN404" s="89"/>
     </row>
-    <row r="405" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B405" s="132" t="s">
         <v>28</v>
@@ -69056,9 +69056,9 @@
       </c>
       <c r="AN405" s="89"/>
     </row>
-    <row r="406" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B406" s="132" t="s">
         <v>28</v>
@@ -69170,9 +69170,9 @@
       </c>
       <c r="AN406" s="89"/>
     </row>
-    <row r="407" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B407" s="132" t="s">
         <v>28</v>
@@ -69284,9 +69284,9 @@
       </c>
       <c r="AN407" s="89"/>
     </row>
-    <row r="408" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B408" s="132" t="s">
         <v>28</v>
@@ -69398,9 +69398,9 @@
       </c>
       <c r="AN408" s="89"/>
     </row>
-    <row r="409" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B409" s="132" t="s">
         <v>28</v>
@@ -69512,9 +69512,9 @@
       </c>
       <c r="AN409" s="89"/>
     </row>
-    <row r="410" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B410" s="132" t="s">
         <v>28</v>
@@ -69626,9 +69626,9 @@
       </c>
       <c r="AN410" s="89"/>
     </row>
-    <row r="411" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B411" s="132" t="s">
         <v>38</v>
@@ -69743,9 +69743,9 @@
         <v>11715.499414225944</v>
       </c>
     </row>
-    <row r="412" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B412" s="132" t="s">
         <v>38</v>
@@ -69857,9 +69857,9 @@
       </c>
       <c r="AN412" s="89"/>
     </row>
-    <row r="413" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B413" s="132" t="s">
         <v>38</v>
@@ -69971,9 +69971,9 @@
       </c>
       <c r="AN413" s="89"/>
     </row>
-    <row r="414" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B414" s="132" t="s">
         <v>38</v>
@@ -70088,9 +70088,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B415" s="132" t="s">
         <v>38</v>
@@ -70202,9 +70202,9 @@
       </c>
       <c r="AN415" s="89"/>
     </row>
-    <row r="416" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B416" s="132" t="s">
         <v>38</v>
@@ -70319,9 +70319,9 @@
         <v>-13.0525352112676</v>
       </c>
     </row>
-    <row r="417" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B417" s="132" t="s">
         <v>38</v>
@@ -70433,9 +70433,9 @@
       </c>
       <c r="AN417" s="89"/>
     </row>
-    <row r="418" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B418" s="132" t="s">
         <v>28</v>
@@ -70547,9 +70547,9 @@
       </c>
       <c r="AN418" s="89"/>
     </row>
-    <row r="419" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B419" s="132" t="s">
         <v>28</v>
@@ -70661,9 +70661,9 @@
       </c>
       <c r="AN419" s="89"/>
     </row>
-    <row r="420" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B420" s="132" t="s">
         <v>28</v>
@@ -70775,9 +70775,9 @@
       </c>
       <c r="AN420" s="89"/>
     </row>
-    <row r="421" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B421" s="132" t="s">
         <v>28</v>
@@ -70889,9 +70889,9 @@
       </c>
       <c r="AN421" s="89"/>
     </row>
-    <row r="422" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B422" s="132" t="s">
         <v>28</v>
@@ -71003,9 +71003,9 @@
       </c>
       <c r="AN422" s="89"/>
     </row>
-    <row r="423" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B423" s="132" t="s">
         <v>28</v>
@@ -71115,9 +71115,9 @@
       </c>
       <c r="AN423" s="89"/>
     </row>
-    <row r="424" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B424" s="132" t="s">
         <v>38</v>
@@ -71232,9 +71232,9 @@
         <v>3.9775886524822699</v>
       </c>
     </row>
-    <row r="425" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B425" s="118" t="s">
         <v>28</v>
@@ -71328,9 +71328,9 @@
       <c r="AM425" s="118"/>
       <c r="AN425" s="89"/>
     </row>
-    <row r="426" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B426" s="118" t="s">
         <v>38</v>
@@ -71426,9 +71426,9 @@
       <c r="AM426" s="118"/>
       <c r="AN426" s="89"/>
     </row>
-    <row r="427" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B427" s="118" t="s">
         <v>38</v>
@@ -71522,9 +71522,9 @@
       <c r="AM427" s="118"/>
       <c r="AN427" s="89"/>
     </row>
-    <row r="428" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B428" s="132" t="s">
         <v>28</v>
@@ -71551,7 +71551,7 @@
         <v>221</v>
       </c>
       <c r="J428" s="132" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K428" s="132" t="s">
         <v>241</v>
@@ -71564,7 +71564,7 @@
         <v>169</v>
       </c>
       <c r="O428" s="132" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P428" s="114">
         <v>0.99</v>
@@ -71622,7 +71622,18 @@
       <c r="AN428" s="89"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN428"/>
+  <autoFilter ref="A1:AN428">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="北京多彩-广州虎牙信息科技有限公司"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="CPC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="R126">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
@@ -73302,7 +73313,7 @@
         <v>209</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>43</v>
@@ -73366,7 +73377,7 @@
         <v>209</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>83</v>
@@ -73430,7 +73441,7 @@
         <v>209</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>277</v>
@@ -73497,7 +73508,7 @@
         <v>212</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>217</v>
@@ -73562,7 +73573,7 @@
         <v>213</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>217</v>
@@ -74525,7 +74536,7 @@
         <v>209</v>
       </c>
       <c r="E45" s="54" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F45" s="21" t="s">
         <v>43</v>
@@ -74592,7 +74603,7 @@
         <v>209</v>
       </c>
       <c r="E46" s="54" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>83</v>
@@ -74657,7 +74668,7 @@
         <v>311</v>
       </c>
       <c r="E47" s="54" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>277</v>
@@ -74722,7 +74733,7 @@
         <v>311</v>
       </c>
       <c r="E48" s="54" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F48" s="21" t="s">
         <v>169</v>
@@ -74787,7 +74798,7 @@
         <v>167</v>
       </c>
       <c r="E49" s="54" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>169</v>

--- a/2020年1-7月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-7月金源消耗表（财务运营共享版）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\多彩运营\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6524" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6594" uniqueCount="388">
   <si>
     <t>周期</t>
   </si>
@@ -1430,6 +1430,34 @@
     <t>简称2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>2020年2月</t>
+  </si>
+  <si>
+    <t>2020年3月</t>
+  </si>
+  <si>
+    <t>2020年4月</t>
+  </si>
+  <si>
+    <t>2020年5月</t>
+  </si>
+  <si>
+    <t>2020年6月</t>
+  </si>
+  <si>
+    <t>2020年7月</t>
+  </si>
+  <si>
+    <t>叶丹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海派友网络科技有限公司</t>
+  </si>
+  <si>
+    <t>杭州奇葩信息技术有限公司</t>
+  </si>
 </sst>
 </file>
 
@@ -27547,14 +27575,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:AN428"/>
+  <dimension ref="A1:AN435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F431" sqref="F431"/>
+      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI436" sqref="AI436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27720,7 +27748,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A2" s="61" t="s">
         <v>373</v>
       </c>
@@ -27813,7 +27841,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A3" s="61" t="s">
         <v>373</v>
       </c>
@@ -27903,7 +27931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A4" s="61" t="s">
         <v>373</v>
       </c>
@@ -27998,7 +28026,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A5" s="61" t="s">
         <v>373</v>
       </c>
@@ -28180,7 +28208,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A7" s="61" t="s">
         <v>373</v>
       </c>
@@ -28271,7 +28299,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A8" s="61" t="s">
         <v>373</v>
       </c>
@@ -28362,7 +28390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A9" s="61" t="s">
         <v>373</v>
       </c>
@@ -28457,7 +28485,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A10" s="61" t="s">
         <v>373</v>
       </c>
@@ -28546,7 +28574,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A11" s="61" t="s">
         <v>373</v>
       </c>
@@ -28637,7 +28665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A12" s="61" t="s">
         <v>373</v>
       </c>
@@ -28727,7 +28755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A13" s="61" t="s">
         <v>373</v>
       </c>
@@ -28818,7 +28846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A14" s="61" t="s">
         <v>373</v>
       </c>
@@ -28909,7 +28937,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A15" s="61" t="s">
         <v>373</v>
       </c>
@@ -29000,7 +29028,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="16" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A16" s="61" t="s">
         <v>373</v>
       </c>
@@ -29091,7 +29119,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="61" t="s">
         <v>373</v>
       </c>
@@ -29182,7 +29210,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="61" t="s">
         <v>373</v>
       </c>
@@ -29273,7 +29301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="61" t="s">
         <v>373</v>
       </c>
@@ -29364,7 +29392,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="20" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" s="61" t="s">
         <v>373</v>
       </c>
@@ -29455,7 +29483,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="21" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" s="61" t="s">
         <v>373</v>
       </c>
@@ -29546,7 +29574,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" s="61" t="s">
         <v>373</v>
       </c>
@@ -29637,7 +29665,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="23" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="61" t="s">
         <v>373</v>
       </c>
@@ -29728,7 +29756,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="61" t="s">
         <v>373</v>
       </c>
@@ -29819,7 +29847,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" s="61" t="s">
         <v>373</v>
       </c>
@@ -29910,7 +29938,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="26" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26" s="61" t="s">
         <v>373</v>
       </c>
@@ -30001,7 +30029,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" s="61" t="s">
         <v>373</v>
       </c>
@@ -30092,7 +30120,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="28" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28" s="61" t="s">
         <v>373</v>
       </c>
@@ -30183,7 +30211,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A29" s="61" t="s">
         <v>373</v>
       </c>
@@ -30274,7 +30302,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A30" s="61" t="s">
         <v>373</v>
       </c>
@@ -30365,7 +30393,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A31" s="61" t="s">
         <v>373</v>
       </c>
@@ -30456,7 +30484,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A32" s="61" t="s">
         <v>373</v>
       </c>
@@ -30547,7 +30575,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A33" s="61" t="s">
         <v>373</v>
       </c>
@@ -30638,7 +30666,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="34" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A34" s="61" t="s">
         <v>373</v>
       </c>
@@ -30729,7 +30757,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="35" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A35" s="61" t="s">
         <v>373</v>
       </c>
@@ -30820,7 +30848,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="36" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A36" s="61" t="s">
         <v>373</v>
       </c>
@@ -30911,7 +30939,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="37" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A37" s="61" t="s">
         <v>373</v>
       </c>
@@ -31002,7 +31030,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="38" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A38" s="61" t="s">
         <v>373</v>
       </c>
@@ -31093,7 +31121,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="39" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A39" s="61" t="s">
         <v>373</v>
       </c>
@@ -31184,7 +31212,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="40" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A40" s="61" t="s">
         <v>373</v>
       </c>
@@ -31275,7 +31303,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="41" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A41" s="61" t="s">
         <v>373</v>
       </c>
@@ -31366,7 +31394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A42" s="61" t="s">
         <v>373</v>
       </c>
@@ -31457,7 +31485,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="43" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A43" s="61" t="s">
         <v>373</v>
       </c>
@@ -31548,7 +31576,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A44" s="61" t="s">
         <v>373</v>
       </c>
@@ -31639,7 +31667,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="45" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A45" s="61" t="s">
         <v>373</v>
       </c>
@@ -31730,7 +31758,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A46" s="61" t="s">
         <v>373</v>
       </c>
@@ -31821,7 +31849,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="47" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A47" s="61" t="s">
         <v>373</v>
       </c>
@@ -31912,7 +31940,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="48" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A48" s="61" t="s">
         <v>373</v>
       </c>
@@ -32003,7 +32031,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="49" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A49" s="61" t="s">
         <v>373</v>
       </c>
@@ -32094,7 +32122,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A50" s="61" t="s">
         <v>373</v>
       </c>
@@ -32185,7 +32213,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="51" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A51" s="61" t="s">
         <v>373</v>
       </c>
@@ -32276,7 +32304,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="52" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A52" s="61" t="s">
         <v>373</v>
       </c>
@@ -32367,7 +32395,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="53" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A53" s="61" t="s">
         <v>373</v>
       </c>
@@ -32458,7 +32486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A54" s="61" t="s">
         <v>373</v>
       </c>
@@ -32549,7 +32577,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="55" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A55" s="61" t="s">
         <v>373</v>
       </c>
@@ -32640,7 +32668,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="56" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A56" s="61" t="s">
         <v>373</v>
       </c>
@@ -32731,7 +32759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A57" s="61" t="s">
         <v>373</v>
       </c>
@@ -32825,7 +32853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A58" s="61" t="s">
         <v>373</v>
       </c>
@@ -32917,7 +32945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A59" s="61" t="s">
         <v>373</v>
       </c>
@@ -33008,7 +33036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A60" s="61" t="s">
         <v>373</v>
       </c>
@@ -33102,7 +33130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A61" s="61" t="s">
         <v>373</v>
       </c>
@@ -33193,7 +33221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A62" s="61" t="s">
         <v>373</v>
       </c>
@@ -33284,7 +33312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A63" s="61" t="s">
         <v>373</v>
       </c>
@@ -33375,7 +33403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" s="61" t="s">
         <v>373</v>
       </c>
@@ -33460,7 +33488,7 @@
       </c>
       <c r="AG64" s="74"/>
     </row>
-    <row r="65" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" s="61" t="s">
         <v>373</v>
       </c>
@@ -33547,7 +33575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" s="61" t="s">
         <v>373</v>
       </c>
@@ -33634,7 +33662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A67" s="61" t="s">
         <v>373</v>
       </c>
@@ -33723,7 +33751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A68" s="61" t="s">
         <v>373</v>
       </c>
@@ -33812,7 +33840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A69" s="61" t="s">
         <v>373</v>
       </c>
@@ -33901,7 +33929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A70" s="61" t="s">
         <v>373</v>
       </c>
@@ -33990,7 +34018,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A71" s="61" t="s">
         <v>374</v>
       </c>
@@ -34083,7 +34111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A72" s="61" t="s">
         <v>374</v>
       </c>
@@ -34173,7 +34201,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="73" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A73" s="61" t="s">
         <v>374</v>
       </c>
@@ -34266,7 +34294,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="74" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A74" s="61" t="s">
         <v>374</v>
       </c>
@@ -34361,7 +34389,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="75" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A75" s="61" t="s">
         <v>374</v>
       </c>
@@ -34543,7 +34571,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A77" s="61" t="s">
         <v>374</v>
       </c>
@@ -34634,7 +34662,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A78" s="61" t="s">
         <v>374</v>
       </c>
@@ -34725,7 +34753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A79" s="61" t="s">
         <v>374</v>
       </c>
@@ -34816,7 +34844,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="80" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A80" s="61" t="s">
         <v>374</v>
       </c>
@@ -34907,7 +34935,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A81" s="61" t="s">
         <v>374</v>
       </c>
@@ -34998,7 +35026,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A82" s="61" t="s">
         <v>374</v>
       </c>
@@ -35091,7 +35119,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="83" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A83" s="61" t="s">
         <v>374</v>
       </c>
@@ -35182,7 +35210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A84" s="61" t="s">
         <v>374</v>
       </c>
@@ -35273,7 +35301,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="85" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A85" s="61" t="s">
         <v>374</v>
       </c>
@@ -35364,7 +35392,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="86" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A86" s="61" t="s">
         <v>374</v>
       </c>
@@ -35455,7 +35483,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A87" s="61" t="s">
         <v>374</v>
       </c>
@@ -35546,7 +35574,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="88" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A88" s="61" t="s">
         <v>374</v>
       </c>
@@ -35637,7 +35665,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="89" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A89" s="61" t="s">
         <v>374</v>
       </c>
@@ -35728,7 +35756,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="90" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A90" s="61" t="s">
         <v>374</v>
       </c>
@@ -35819,7 +35847,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="91" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A91" s="61" t="s">
         <v>374</v>
       </c>
@@ -35910,7 +35938,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A92" s="61" t="s">
         <v>374</v>
       </c>
@@ -36001,7 +36029,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="93" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A93" s="61" t="s">
         <v>374</v>
       </c>
@@ -36092,7 +36120,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A94" s="61" t="s">
         <v>374</v>
       </c>
@@ -36183,7 +36211,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A95" s="61" t="s">
         <v>374</v>
       </c>
@@ -36274,7 +36302,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="96" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A96" s="61" t="s">
         <v>374</v>
       </c>
@@ -36365,7 +36393,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="97" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A97" s="61" t="s">
         <v>374</v>
       </c>
@@ -36456,7 +36484,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A98" s="61" t="s">
         <v>374</v>
       </c>
@@ -36547,7 +36575,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="99" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A99" s="61" t="s">
         <v>374</v>
       </c>
@@ -36638,7 +36666,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="100" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A100" s="61" t="s">
         <v>374</v>
       </c>
@@ -36729,7 +36757,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="101" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A101" s="61" t="s">
         <v>374</v>
       </c>
@@ -36820,7 +36848,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="102" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A102" s="61" t="s">
         <v>374</v>
       </c>
@@ -36911,7 +36939,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="103" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A103" s="61" t="s">
         <v>374</v>
       </c>
@@ -37002,7 +37030,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="104" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A104" s="61" t="s">
         <v>374</v>
       </c>
@@ -37093,7 +37121,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="105" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A105" s="61" t="s">
         <v>374</v>
       </c>
@@ -37184,7 +37212,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="106" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A106" s="61" t="s">
         <v>374</v>
       </c>
@@ -37275,7 +37303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A107" s="61" t="s">
         <v>374</v>
       </c>
@@ -37366,7 +37394,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="108" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A108" s="61" t="s">
         <v>374</v>
       </c>
@@ -37457,7 +37485,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="109" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A109" s="61" t="s">
         <v>374</v>
       </c>
@@ -37548,7 +37576,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="110" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A110" s="61" t="s">
         <v>374</v>
       </c>
@@ -37639,7 +37667,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A111" s="61" t="s">
         <v>374</v>
       </c>
@@ -37730,7 +37758,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="112" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A112" s="61" t="s">
         <v>374</v>
       </c>
@@ -37821,7 +37849,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="113" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A113" s="61" t="s">
         <v>374</v>
       </c>
@@ -37912,7 +37940,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="114" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A114" s="61" t="s">
         <v>374</v>
       </c>
@@ -38003,7 +38031,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="115" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A115" s="61" t="s">
         <v>374</v>
       </c>
@@ -38094,7 +38122,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="116" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A116" s="61" t="s">
         <v>374</v>
       </c>
@@ -38185,7 +38213,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="117" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A117" s="61" t="s">
         <v>374</v>
       </c>
@@ -38276,7 +38304,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="118" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A118" s="61" t="s">
         <v>374</v>
       </c>
@@ -38367,7 +38395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A119" s="61" t="s">
         <v>374</v>
       </c>
@@ -38458,7 +38486,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="120" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A120" s="61" t="s">
         <v>374</v>
       </c>
@@ -38549,7 +38577,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="121" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A121" s="61" t="s">
         <v>374</v>
       </c>
@@ -38640,7 +38668,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="122" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A122" s="61" t="s">
         <v>374</v>
       </c>
@@ -38736,7 +38764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A123" s="61" t="s">
         <v>374</v>
       </c>
@@ -38829,7 +38857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A124" s="61" t="s">
         <v>374</v>
       </c>
@@ -38922,7 +38950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A125" s="61" t="s">
         <v>374</v>
       </c>
@@ -39013,7 +39041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A126" s="61" t="s">
         <v>374</v>
       </c>
@@ -39106,7 +39134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A127" s="61" t="s">
         <v>374</v>
       </c>
@@ -39199,7 +39227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A128" s="61" t="s">
         <v>374</v>
       </c>
@@ -39292,7 +39320,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A129" s="94" t="s">
         <v>375</v>
       </c>
@@ -39385,7 +39413,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A130" s="94" t="s">
         <v>375</v>
       </c>
@@ -39482,7 +39510,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A131" s="94" t="s">
         <v>375</v>
       </c>
@@ -39575,7 +39603,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A132" s="94" t="s">
         <v>375</v>
       </c>
@@ -39665,7 +39693,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="133" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A133" s="94" t="s">
         <v>375</v>
       </c>
@@ -39847,7 +39875,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A135" s="94" t="s">
         <v>375</v>
       </c>
@@ -39938,7 +39966,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A136" s="94" t="s">
         <v>375</v>
       </c>
@@ -40029,7 +40057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A137" s="94" t="s">
         <v>375</v>
       </c>
@@ -40120,7 +40148,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="138" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A138" s="94" t="s">
         <v>375</v>
       </c>
@@ -40211,7 +40239,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="139" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A139" s="94" t="s">
         <v>375</v>
       </c>
@@ -40302,7 +40330,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="140" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A140" s="94" t="s">
         <v>375</v>
       </c>
@@ -40393,7 +40421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A141" s="94" t="s">
         <v>375</v>
       </c>
@@ -40484,7 +40512,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="142" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A142" s="94" t="s">
         <v>375</v>
       </c>
@@ -40575,7 +40603,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="143" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A143" s="94" t="s">
         <v>375</v>
       </c>
@@ -40666,7 +40694,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A144" s="94" t="s">
         <v>375</v>
       </c>
@@ -40757,7 +40785,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="145" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A145" s="94" t="s">
         <v>375</v>
       </c>
@@ -40848,7 +40876,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="146" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A146" s="94" t="s">
         <v>375</v>
       </c>
@@ -40939,7 +40967,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="147" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A147" s="94" t="s">
         <v>375</v>
       </c>
@@ -41030,7 +41058,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="148" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A148" s="94" t="s">
         <v>375</v>
       </c>
@@ -41121,7 +41149,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A149" s="94" t="s">
         <v>375</v>
       </c>
@@ -41212,7 +41240,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="150" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A150" s="94" t="s">
         <v>375</v>
       </c>
@@ -41303,7 +41331,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A151" s="94" t="s">
         <v>375</v>
       </c>
@@ -41394,7 +41422,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A152" s="94" t="s">
         <v>375</v>
       </c>
@@ -41485,7 +41513,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="153" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A153" s="94" t="s">
         <v>375</v>
       </c>
@@ -41576,7 +41604,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="154" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A154" s="94" t="s">
         <v>375</v>
       </c>
@@ -41667,7 +41695,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="155" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A155" s="94" t="s">
         <v>375</v>
       </c>
@@ -41758,7 +41786,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="156" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A156" s="94" t="s">
         <v>375</v>
       </c>
@@ -41849,7 +41877,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="157" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A157" s="94" t="s">
         <v>375</v>
       </c>
@@ -41940,7 +41968,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="158" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A158" s="94" t="s">
         <v>375</v>
       </c>
@@ -42031,7 +42059,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="159" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A159" s="94" t="s">
         <v>375</v>
       </c>
@@ -42122,7 +42150,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="160" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A160" s="94" t="s">
         <v>375</v>
       </c>
@@ -42213,7 +42241,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="161" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A161" s="94" t="s">
         <v>375</v>
       </c>
@@ -42304,7 +42332,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="162" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A162" s="94" t="s">
         <v>375</v>
       </c>
@@ -42395,7 +42423,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="163" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A163" s="94" t="s">
         <v>375</v>
       </c>
@@ -42486,7 +42514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A164" s="94" t="s">
         <v>375</v>
       </c>
@@ -42577,7 +42605,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="165" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A165" s="94" t="s">
         <v>375</v>
       </c>
@@ -42668,7 +42696,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="166" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A166" s="94" t="s">
         <v>375</v>
       </c>
@@ -42759,7 +42787,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="167" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A167" s="94" t="s">
         <v>375</v>
       </c>
@@ -42850,7 +42878,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A168" s="94" t="s">
         <v>375</v>
       </c>
@@ -42941,7 +42969,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="169" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A169" s="94" t="s">
         <v>375</v>
       </c>
@@ -43032,7 +43060,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="170" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A170" s="94" t="s">
         <v>375</v>
       </c>
@@ -43123,7 +43151,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="171" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A171" s="94" t="s">
         <v>375</v>
       </c>
@@ -43214,7 +43242,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="172" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A172" s="94" t="s">
         <v>375</v>
       </c>
@@ -43305,7 +43333,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="173" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A173" s="94" t="s">
         <v>375</v>
       </c>
@@ -43396,7 +43424,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="174" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A174" s="94" t="s">
         <v>375</v>
       </c>
@@ -43487,7 +43515,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="175" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A175" s="94" t="s">
         <v>375</v>
       </c>
@@ -43578,7 +43606,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="176" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A176" s="94" t="s">
         <v>375</v>
       </c>
@@ -43669,7 +43697,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="177" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A177" s="94" t="s">
         <v>375</v>
       </c>
@@ -43761,7 +43789,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="178" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A178" s="94" t="s">
         <v>375</v>
       </c>
@@ -43854,7 +43882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A179" s="94" t="s">
         <v>375</v>
       </c>
@@ -43947,7 +43975,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A180" s="94" t="s">
         <v>375</v>
       </c>
@@ -44045,7 +44073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A181" s="149" t="s">
         <v>376</v>
       </c>
@@ -44155,7 +44183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A182" s="149" t="s">
         <v>376</v>
       </c>
@@ -44269,7 +44297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A183" s="149" t="s">
         <v>376</v>
       </c>
@@ -44379,7 +44407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A184" s="149" t="s">
         <v>376</v>
       </c>
@@ -44489,7 +44517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A185" s="149" t="s">
         <v>376</v>
       </c>
@@ -44599,7 +44627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A186" s="149" t="s">
         <v>376</v>
       </c>
@@ -44819,7 +44847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A188" s="149" t="s">
         <v>376</v>
       </c>
@@ -44929,7 +44957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A189" s="149" t="s">
         <v>376</v>
       </c>
@@ -45039,7 +45067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A190" s="149" t="s">
         <v>376</v>
       </c>
@@ -45149,7 +45177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A191" s="149" t="s">
         <v>376</v>
       </c>
@@ -45259,7 +45287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A192" s="149" t="s">
         <v>376</v>
       </c>
@@ -45369,7 +45397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A193" s="149" t="s">
         <v>376</v>
       </c>
@@ -45479,7 +45507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A194" s="149" t="s">
         <v>376</v>
       </c>
@@ -45589,7 +45617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A195" s="149" t="s">
         <v>376</v>
       </c>
@@ -45699,7 +45727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A196" s="149" t="s">
         <v>376</v>
       </c>
@@ -45809,7 +45837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A197" s="149" t="s">
         <v>376</v>
       </c>
@@ -45919,7 +45947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A198" s="149" t="s">
         <v>376</v>
       </c>
@@ -46029,7 +46057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A199" s="149" t="s">
         <v>376</v>
       </c>
@@ -46139,7 +46167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A200" s="149" t="s">
         <v>376</v>
       </c>
@@ -46249,7 +46277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A201" s="149" t="s">
         <v>376</v>
       </c>
@@ -46359,7 +46387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A202" s="149" t="s">
         <v>376</v>
       </c>
@@ -46469,7 +46497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A203" s="149" t="s">
         <v>376</v>
       </c>
@@ -46579,7 +46607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A204" s="149" t="s">
         <v>376</v>
       </c>
@@ -46689,7 +46717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A205" s="149" t="s">
         <v>376</v>
       </c>
@@ -46799,7 +46827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A206" s="149" t="s">
         <v>376</v>
       </c>
@@ -46909,7 +46937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A207" s="149" t="s">
         <v>376</v>
       </c>
@@ -47019,7 +47047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A208" s="149" t="s">
         <v>376</v>
       </c>
@@ -47129,7 +47157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A209" s="149" t="s">
         <v>376</v>
       </c>
@@ -47239,7 +47267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A210" s="149" t="s">
         <v>376</v>
       </c>
@@ -47349,7 +47377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A211" s="149" t="s">
         <v>376</v>
       </c>
@@ -47459,7 +47487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A212" s="149" t="s">
         <v>376</v>
       </c>
@@ -47569,7 +47597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A213" s="149" t="s">
         <v>376</v>
       </c>
@@ -47679,7 +47707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A214" s="149" t="s">
         <v>376</v>
       </c>
@@ -47789,7 +47817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A215" s="149" t="s">
         <v>376</v>
       </c>
@@ -47899,7 +47927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A216" s="149" t="s">
         <v>376</v>
       </c>
@@ -48009,7 +48037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A217" s="149" t="s">
         <v>376</v>
       </c>
@@ -48119,7 +48147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A218" s="149" t="s">
         <v>376</v>
       </c>
@@ -48229,7 +48257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A219" s="149" t="s">
         <v>376</v>
       </c>
@@ -48345,7 +48373,7 @@
         <v>6.9121338909098995E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A220" s="149" t="s">
         <v>376</v>
       </c>
@@ -48455,7 +48483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A221" s="149" t="s">
         <v>376</v>
       </c>
@@ -48565,7 +48593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A222" s="149" t="s">
         <v>376</v>
       </c>
@@ -48668,7 +48696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A223" s="149" t="s">
         <v>376</v>
       </c>
@@ -48782,7 +48810,7 @@
         <v>-187767.14516129033</v>
       </c>
     </row>
-    <row r="224" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A224" s="149" t="s">
         <v>376</v>
       </c>
@@ -48895,7 +48923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A225" s="149" t="s">
         <v>376</v>
       </c>
@@ -49020,7 +49048,7 @@
         <v>7.4469172931276262</v>
       </c>
     </row>
-    <row r="226" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A226" s="149" t="s">
         <v>376</v>
       </c>
@@ -49141,7 +49169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A227" s="149" t="s">
         <v>376</v>
       </c>
@@ -49259,7 +49287,7 @@
         <v>68.772846715641208</v>
       </c>
     </row>
-    <row r="228" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A228" s="149" t="s">
         <v>376</v>
       </c>
@@ -49369,7 +49397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A229" s="149" t="s">
         <v>376</v>
       </c>
@@ -49479,7 +49507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A230" s="149" t="s">
         <v>376</v>
       </c>
@@ -49593,7 +49621,7 @@
         <v>-15.862394366197179</v>
       </c>
     </row>
-    <row r="231" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A231" s="149" t="s">
         <v>376</v>
       </c>
@@ -49707,7 +49735,7 @@
         <v>-0.1397183098591549</v>
       </c>
     </row>
-    <row r="232" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A232" s="149" t="s">
         <v>376</v>
       </c>
@@ -49806,7 +49834,7 @@
       <c r="AL232" s="116"/>
       <c r="AM232" s="116"/>
     </row>
-    <row r="233" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A233" s="149" t="s">
         <v>376</v>
       </c>
@@ -49908,7 +49936,7 @@
       <c r="AL233" s="116"/>
       <c r="AM233" s="116"/>
     </row>
-    <row r="234" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A234" s="149" t="s">
         <v>376</v>
       </c>
@@ -50006,7 +50034,7 @@
       <c r="AL234" s="116"/>
       <c r="AM234" s="116"/>
     </row>
-    <row r="235" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A235" s="149" t="s">
         <v>376</v>
       </c>
@@ -50101,7 +50129,7 @@
       <c r="AL235" s="116"/>
       <c r="AM235" s="116"/>
     </row>
-    <row r="236" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A236" s="149" t="s">
         <v>376</v>
       </c>
@@ -50199,7 +50227,7 @@
       <c r="AL236" s="123"/>
       <c r="AM236" s="123"/>
     </row>
-    <row r="237" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A237" s="149" t="s">
         <v>376</v>
       </c>
@@ -50298,7 +50326,7 @@
       <c r="AL237" s="116"/>
       <c r="AM237" s="116"/>
     </row>
-    <row r="238" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A238" s="127" t="s">
         <v>309</v>
       </c>
@@ -50417,7 +50445,7 @@
         <v>-1393439.1774193547</v>
       </c>
     </row>
-    <row r="239" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A239" s="127" t="s">
         <v>309</v>
       </c>
@@ -50534,7 +50562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A240" s="127" t="s">
         <v>309</v>
       </c>
@@ -50654,7 +50682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A241" s="127" t="s">
         <v>309</v>
       </c>
@@ -50765,7 +50793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A242" s="127" t="s">
         <v>309</v>
       </c>
@@ -50876,7 +50904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A243" s="127" t="s">
         <v>309</v>
       </c>
@@ -50987,7 +51015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A244" s="127" t="s">
         <v>309</v>
       </c>
@@ -51098,7 +51126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A245" s="127" t="s">
         <v>309</v>
       </c>
@@ -51209,7 +51237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A246" s="127" t="s">
         <v>309</v>
       </c>
@@ -51431,7 +51459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A248" s="127" t="s">
         <v>309</v>
       </c>
@@ -51542,7 +51570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A249" s="127" t="s">
         <v>309</v>
       </c>
@@ -51653,7 +51681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A250" s="127" t="s">
         <v>309</v>
       </c>
@@ -51764,7 +51792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A251" s="127" t="s">
         <v>309</v>
       </c>
@@ -51875,7 +51903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A252" s="127" t="s">
         <v>309</v>
       </c>
@@ -51986,7 +52014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A253" s="127" t="s">
         <v>309</v>
       </c>
@@ -52097,7 +52125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A254" s="127" t="s">
         <v>309</v>
       </c>
@@ -52208,7 +52236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A255" s="127" t="s">
         <v>309</v>
       </c>
@@ -52319,7 +52347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A256" s="127" t="s">
         <v>309</v>
       </c>
@@ -52430,7 +52458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A257" s="127" t="s">
         <v>309</v>
       </c>
@@ -52541,7 +52569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A258" s="127" t="s">
         <v>309</v>
       </c>
@@ -52652,7 +52680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A259" s="127" t="s">
         <v>309</v>
       </c>
@@ -52763,7 +52791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A260" s="127" t="s">
         <v>309</v>
       </c>
@@ -52874,7 +52902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A261" s="127" t="s">
         <v>309</v>
       </c>
@@ -52985,7 +53013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A262" s="127" t="s">
         <v>309</v>
       </c>
@@ -53100,7 +53128,7 @@
         <v>0.15837499999906868</v>
       </c>
     </row>
-    <row r="263" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A263" s="127" t="s">
         <v>309</v>
       </c>
@@ -53211,7 +53239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A264" s="127" t="s">
         <v>309</v>
       </c>
@@ -53322,7 +53350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A265" s="127" t="s">
         <v>309</v>
       </c>
@@ -53433,7 +53461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A266" s="127" t="s">
         <v>309</v>
       </c>
@@ -53544,7 +53572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A267" s="127" t="s">
         <v>309</v>
       </c>
@@ -53655,7 +53683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A268" s="127" t="s">
         <v>309</v>
       </c>
@@ -53766,7 +53794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A269" s="127" t="s">
         <v>309</v>
       </c>
@@ -53877,7 +53905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A270" s="127" t="s">
         <v>309</v>
       </c>
@@ -53988,7 +54016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A271" s="127" t="s">
         <v>309</v>
       </c>
@@ -54099,7 +54127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A272" s="127" t="s">
         <v>309</v>
       </c>
@@ -54210,7 +54238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A273" s="127" t="s">
         <v>309</v>
       </c>
@@ -54321,7 +54349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A274" s="127" t="s">
         <v>309</v>
       </c>
@@ -54432,7 +54460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A275" s="127" t="s">
         <v>309</v>
       </c>
@@ -54543,7 +54571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A276" s="127" t="s">
         <v>309</v>
       </c>
@@ -54654,7 +54682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A277" s="127" t="s">
         <v>309</v>
       </c>
@@ -54765,7 +54793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A278" s="127" t="s">
         <v>309</v>
       </c>
@@ -54876,7 +54904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A279" s="127" t="s">
         <v>309</v>
       </c>
@@ -54991,7 +55019,7 @@
         <v>-1.4058577407013217E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A280" s="127" t="s">
         <v>309</v>
       </c>
@@ -55102,7 +55130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A281" s="127" t="s">
         <v>309</v>
       </c>
@@ -55213,7 +55241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A282" s="127" t="s">
         <v>309</v>
       </c>
@@ -55330,7 +55358,7 @@
         <v>0.27879699248296674</v>
       </c>
     </row>
-    <row r="283" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A283" s="127" t="s">
         <v>309</v>
       </c>
@@ -55441,7 +55469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A284" s="127" t="s">
         <v>309</v>
       </c>
@@ -55552,7 +55580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A285" s="127" t="s">
         <v>309</v>
       </c>
@@ -55667,7 +55695,7 @@
         <v>-8.8584507042253513</v>
       </c>
     </row>
-    <row r="286" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A286" s="127" t="s">
         <v>309</v>
       </c>
@@ -55778,7 +55806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A287" s="127" t="s">
         <v>309</v>
       </c>
@@ -55895,7 +55923,7 @@
         <v>45.029999999999994</v>
       </c>
     </row>
-    <row r="288" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A288" s="127" t="s">
         <v>309</v>
       </c>
@@ -56001,7 +56029,7 @@
       <c r="AL288" s="118"/>
       <c r="AM288" s="118"/>
     </row>
-    <row r="289" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A289" s="127" t="s">
         <v>309</v>
       </c>
@@ -56105,7 +56133,7 @@
       <c r="AL289" s="118"/>
       <c r="AM289" s="118"/>
     </row>
-    <row r="290" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A290" s="127" t="s">
         <v>309</v>
       </c>
@@ -56208,7 +56236,7 @@
       <c r="AL290" s="118"/>
       <c r="AM290" s="118"/>
     </row>
-    <row r="291" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A291" s="127" t="s">
         <v>309</v>
       </c>
@@ -56316,7 +56344,7 @@
       <c r="AL291" s="136"/>
       <c r="AM291" s="136"/>
     </row>
-    <row r="292" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A292" s="127" t="s">
         <v>309</v>
       </c>
@@ -56416,7 +56444,7 @@
       <c r="AL292" s="118"/>
       <c r="AM292" s="118"/>
     </row>
-    <row r="293" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A293" s="127" t="s">
         <v>309</v>
       </c>
@@ -56527,7 +56555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A294" s="127" t="s">
         <v>309</v>
       </c>
@@ -56638,7 +56666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A295" s="127" t="s">
         <v>309</v>
       </c>
@@ -56749,7 +56777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A296" s="127" t="s">
         <v>309</v>
       </c>
@@ -56860,7 +56888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A297" s="127" t="s">
         <v>309</v>
       </c>
@@ -56971,7 +56999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A298" s="127" t="s">
         <v>332</v>
       </c>
@@ -57089,7 +57117,7 @@
         <v>-1844.7506067961167</v>
       </c>
     </row>
-    <row r="299" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A299" s="127" t="s">
         <v>332</v>
       </c>
@@ -57207,7 +57235,7 @@
         <v>-5161.2870409455445</v>
       </c>
     </row>
-    <row r="300" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A300" s="127" t="s">
         <v>332</v>
       </c>
@@ -57328,7 +57356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A301" s="127" t="s">
         <v>332</v>
       </c>
@@ -57444,7 +57472,7 @@
         <v>-3015.3909677419324</v>
       </c>
     </row>
-    <row r="302" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A302" s="127" t="s">
         <v>332</v>
       </c>
@@ -57559,7 +57587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A303" s="127" t="s">
         <v>332</v>
       </c>
@@ -57671,7 +57699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A304" s="127" t="s">
         <v>332</v>
       </c>
@@ -57787,7 +57815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A305" s="127" t="s">
         <v>332</v>
       </c>
@@ -57899,7 +57927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A306" s="127" t="s">
         <v>332</v>
       </c>
@@ -58011,7 +58039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A307" s="127" t="s">
         <v>332</v>
       </c>
@@ -58123,7 +58151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A308" s="127" t="s">
         <v>332</v>
       </c>
@@ -58351,7 +58379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A310" s="127" t="s">
         <v>332</v>
       </c>
@@ -58463,7 +58491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A311" s="127" t="s">
         <v>332</v>
       </c>
@@ -58575,7 +58603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A312" s="127" t="s">
         <v>332</v>
       </c>
@@ -58687,7 +58715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A313" s="127" t="s">
         <v>332</v>
       </c>
@@ -58799,7 +58827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A314" s="127" t="s">
         <v>332</v>
       </c>
@@ -58911,7 +58939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A315" s="127" t="s">
         <v>332</v>
       </c>
@@ -59023,7 +59051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A316" s="127" t="s">
         <v>332</v>
       </c>
@@ -59135,7 +59163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A317" s="127" t="s">
         <v>332</v>
       </c>
@@ -59247,7 +59275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A318" s="127" t="s">
         <v>332</v>
       </c>
@@ -59359,7 +59387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A319" s="127" t="s">
         <v>332</v>
       </c>
@@ -59471,7 +59499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A320" s="127" t="s">
         <v>332</v>
       </c>
@@ -59583,7 +59611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A321" s="127" t="s">
         <v>332</v>
       </c>
@@ -59695,7 +59723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A322" s="127" t="s">
         <v>332</v>
       </c>
@@ -59807,7 +59835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A323" s="127" t="s">
         <v>332</v>
       </c>
@@ -59919,7 +59947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A324" s="127" t="s">
         <v>332</v>
       </c>
@@ -60031,7 +60059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A325" s="127" t="s">
         <v>332</v>
       </c>
@@ -60143,7 +60171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A326" s="127" t="s">
         <v>332</v>
       </c>
@@ -60255,7 +60283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A327" s="127" t="s">
         <v>332</v>
       </c>
@@ -60367,7 +60395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A328" s="127" t="s">
         <v>332</v>
       </c>
@@ -60479,7 +60507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A329" s="127" t="s">
         <v>332</v>
       </c>
@@ -60591,7 +60619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A330" s="127" t="s">
         <v>332</v>
       </c>
@@ -60703,7 +60731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A331" s="127" t="s">
         <v>332</v>
       </c>
@@ -60815,7 +60843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A332" s="127" t="s">
         <v>332</v>
       </c>
@@ -60927,7 +60955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A333" s="127" t="s">
         <v>332</v>
       </c>
@@ -61039,7 +61067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A334" s="127" t="s">
         <v>332</v>
       </c>
@@ -61151,7 +61179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A335" s="127" t="s">
         <v>332</v>
       </c>
@@ -61263,7 +61291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A336" s="127" t="s">
         <v>332</v>
       </c>
@@ -61375,7 +61403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A337" s="127" t="s">
         <v>332</v>
       </c>
@@ -61487,7 +61515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A338" s="127" t="s">
         <v>332</v>
       </c>
@@ -61599,7 +61627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A339" s="127" t="s">
         <v>332</v>
       </c>
@@ -61711,7 +61739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A340" s="127" t="s">
         <v>332</v>
       </c>
@@ -61827,7 +61855,7 @@
         <v>2.2426778241424472E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A341" s="127" t="s">
         <v>332</v>
       </c>
@@ -61939,7 +61967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A342" s="127" t="s">
         <v>332</v>
       </c>
@@ -62051,7 +62079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A343" s="127" t="s">
         <v>332</v>
       </c>
@@ -62167,7 +62195,7 @@
         <v>5285.372932336295</v>
       </c>
     </row>
-    <row r="344" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A344" s="127" t="s">
         <v>332</v>
       </c>
@@ -62279,7 +62307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A345" s="127" t="s">
         <v>332</v>
       </c>
@@ -62391,7 +62419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A346" s="127" t="s">
         <v>332</v>
       </c>
@@ -62507,7 +62535,7 @@
         <v>-8.3792957746478862</v>
       </c>
     </row>
-    <row r="347" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A347" s="127" t="s">
         <v>332</v>
       </c>
@@ -62619,7 +62647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A348" s="127" t="s">
         <v>332</v>
       </c>
@@ -62731,7 +62759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A349" s="127" t="s">
         <v>332</v>
       </c>
@@ -62843,7 +62871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A350" s="127" t="s">
         <v>332</v>
       </c>
@@ -62955,7 +62983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A351" s="127" t="s">
         <v>332</v>
       </c>
@@ -63067,7 +63095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A352" s="127" t="s">
         <v>332</v>
       </c>
@@ -63179,7 +63207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A353" s="127" t="s">
         <v>332</v>
       </c>
@@ -63281,7 +63309,7 @@
       <c r="AL353" s="125"/>
       <c r="AM353" s="125"/>
     </row>
-    <row r="354" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A354" s="127" t="s">
         <v>332</v>
       </c>
@@ -63385,7 +63413,7 @@
       <c r="AL354" s="116"/>
       <c r="AM354" s="116"/>
     </row>
-    <row r="355" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A355" s="127" t="s">
         <v>332</v>
       </c>
@@ -63489,7 +63517,7 @@
       <c r="AL355" s="116"/>
       <c r="AM355" s="116"/>
     </row>
-    <row r="356" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A356" s="127" t="s">
         <v>332</v>
       </c>
@@ -63591,7 +63619,7 @@
       <c r="AL356" s="118"/>
       <c r="AM356" s="118"/>
     </row>
-    <row r="357" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A357" s="127" t="s">
         <v>332</v>
       </c>
@@ -63699,7 +63727,7 @@
       <c r="AL357" s="118"/>
       <c r="AM357" s="118"/>
     </row>
-    <row r="358" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A358" s="127" t="s">
         <v>332</v>
       </c>
@@ -63801,7 +63829,7 @@
       <c r="AL358" s="125"/>
       <c r="AM358" s="125"/>
     </row>
-    <row r="359" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A359" s="127" t="s">
         <v>332</v>
       </c>
@@ -63889,7 +63917,7 @@
       <c r="AL359" s="118"/>
       <c r="AM359" s="118"/>
     </row>
-    <row r="360" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A360" s="127" t="s">
         <v>332</v>
       </c>
@@ -63975,7 +64003,7 @@
       <c r="AL360" s="118"/>
       <c r="AM360" s="118"/>
     </row>
-    <row r="361" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A361" s="127" t="s">
         <v>332</v>
       </c>
@@ -64061,7 +64089,7 @@
       <c r="AL361" s="118"/>
       <c r="AM361" s="118"/>
     </row>
-    <row r="362" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A362" s="127" t="s">
         <v>332</v>
       </c>
@@ -64147,7 +64175,7 @@
       <c r="AL362" s="118"/>
       <c r="AM362" s="118"/>
     </row>
-    <row r="363" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A363" s="127" t="s">
         <v>332</v>
       </c>
@@ -64233,7 +64261,7 @@
       <c r="AL363" s="118"/>
       <c r="AM363" s="118"/>
     </row>
-    <row r="364" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A364" s="127" t="s">
         <v>332</v>
       </c>
@@ -64341,7 +64369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A365" s="142" t="s">
         <v>368</v>
       </c>
@@ -64460,7 +64488,7 @@
         <v>1839.9866504857782</v>
       </c>
     </row>
-    <row r="366" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A366" s="142" t="s">
         <v>368</v>
       </c>
@@ -64579,7 +64607,7 @@
         <v>216.70015477703419</v>
       </c>
     </row>
-    <row r="367" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A367" s="142" t="s">
         <v>368</v>
       </c>
@@ -64698,7 +64726,7 @@
         <v>21638.24398480371</v>
       </c>
     </row>
-    <row r="368" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A368" s="142" t="s">
         <v>368</v>
       </c>
@@ -64817,7 +64845,7 @@
         <v>161041.03813141963</v>
       </c>
     </row>
-    <row r="369" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A369" s="142" t="s">
         <v>368</v>
       </c>
@@ -64936,7 +64964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A370" s="142" t="s">
         <v>368</v>
       </c>
@@ -65054,7 +65082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A371" s="142" t="s">
         <v>368</v>
       </c>
@@ -65168,7 +65196,7 @@
       </c>
       <c r="AN371" s="89"/>
     </row>
-    <row r="372" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A372" s="142" t="s">
         <v>368</v>
       </c>
@@ -65285,7 +65313,7 @@
         <v>-75041.33009708731</v>
       </c>
     </row>
-    <row r="373" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A373" s="142" t="s">
         <v>368</v>
       </c>
@@ -65399,7 +65427,7 @@
       </c>
       <c r="AN373" s="89"/>
     </row>
-    <row r="374" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A374" s="142" t="s">
         <v>368</v>
       </c>
@@ -65513,7 +65541,7 @@
       </c>
       <c r="AN374" s="89"/>
     </row>
-    <row r="375" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A375" s="142" t="s">
         <v>368</v>
       </c>
@@ -65630,7 +65658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A376" s="142" t="s">
         <v>368</v>
       </c>
@@ -65744,7 +65772,7 @@
       </c>
       <c r="AN376" s="89"/>
     </row>
-    <row r="377" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A377" s="142" t="s">
         <v>368</v>
       </c>
@@ -65858,7 +65886,7 @@
       </c>
       <c r="AN377" s="89"/>
     </row>
-    <row r="378" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A378" s="142" t="s">
         <v>368</v>
       </c>
@@ -65972,7 +66000,7 @@
       </c>
       <c r="AN378" s="89"/>
     </row>
-    <row r="379" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A379" s="142" t="s">
         <v>368</v>
       </c>
@@ -66206,7 +66234,7 @@
         <v>2.2727272727269821E-3</v>
       </c>
     </row>
-    <row r="381" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A381" s="142" t="s">
         <v>368</v>
       </c>
@@ -66320,7 +66348,7 @@
       </c>
       <c r="AN381" s="89"/>
     </row>
-    <row r="382" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A382" s="142" t="s">
         <v>368</v>
       </c>
@@ -66434,7 +66462,7 @@
       </c>
       <c r="AN382" s="89"/>
     </row>
-    <row r="383" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A383" s="142" t="s">
         <v>368</v>
       </c>
@@ -66548,7 +66576,7 @@
       </c>
       <c r="AN383" s="89"/>
     </row>
-    <row r="384" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A384" s="142" t="s">
         <v>368</v>
       </c>
@@ -66662,7 +66690,7 @@
       </c>
       <c r="AN384" s="89"/>
     </row>
-    <row r="385" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A385" s="142" t="s">
         <v>368</v>
       </c>
@@ -66776,7 +66804,7 @@
       </c>
       <c r="AN385" s="89"/>
     </row>
-    <row r="386" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A386" s="142" t="s">
         <v>368</v>
       </c>
@@ -66890,7 +66918,7 @@
       </c>
       <c r="AN386" s="89"/>
     </row>
-    <row r="387" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A387" s="142" t="s">
         <v>368</v>
       </c>
@@ -67004,7 +67032,7 @@
       </c>
       <c r="AN387" s="89"/>
     </row>
-    <row r="388" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A388" s="142" t="s">
         <v>368</v>
       </c>
@@ -67118,7 +67146,7 @@
       </c>
       <c r="AN388" s="89"/>
     </row>
-    <row r="389" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A389" s="142" t="s">
         <v>368</v>
       </c>
@@ -67232,7 +67260,7 @@
       </c>
       <c r="AN389" s="89"/>
     </row>
-    <row r="390" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A390" s="142" t="s">
         <v>368</v>
       </c>
@@ -67346,7 +67374,7 @@
       </c>
       <c r="AN390" s="89"/>
     </row>
-    <row r="391" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A391" s="142" t="s">
         <v>368</v>
       </c>
@@ -67460,7 +67488,7 @@
       </c>
       <c r="AN391" s="89"/>
     </row>
-    <row r="392" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A392" s="142" t="s">
         <v>368</v>
       </c>
@@ -67574,7 +67602,7 @@
       </c>
       <c r="AN392" s="89"/>
     </row>
-    <row r="393" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A393" s="142" t="s">
         <v>368</v>
       </c>
@@ -67688,7 +67716,7 @@
       </c>
       <c r="AN393" s="89"/>
     </row>
-    <row r="394" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A394" s="142" t="s">
         <v>368</v>
       </c>
@@ -67802,7 +67830,7 @@
       </c>
       <c r="AN394" s="89"/>
     </row>
-    <row r="395" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A395" s="142" t="s">
         <v>368</v>
       </c>
@@ -67916,7 +67944,7 @@
       </c>
       <c r="AN395" s="89"/>
     </row>
-    <row r="396" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A396" s="142" t="s">
         <v>368</v>
       </c>
@@ -68030,7 +68058,7 @@
       </c>
       <c r="AN396" s="89"/>
     </row>
-    <row r="397" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A397" s="142" t="s">
         <v>368</v>
       </c>
@@ -68144,7 +68172,7 @@
       </c>
       <c r="AN397" s="89"/>
     </row>
-    <row r="398" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A398" s="142" t="s">
         <v>368</v>
       </c>
@@ -68258,7 +68286,7 @@
       </c>
       <c r="AN398" s="89"/>
     </row>
-    <row r="399" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A399" s="142" t="s">
         <v>368</v>
       </c>
@@ -68372,7 +68400,7 @@
       </c>
       <c r="AN399" s="89"/>
     </row>
-    <row r="400" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A400" s="142" t="s">
         <v>368</v>
       </c>
@@ -68486,7 +68514,7 @@
       </c>
       <c r="AN400" s="89"/>
     </row>
-    <row r="401" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A401" s="142" t="s">
         <v>368</v>
       </c>
@@ -68600,7 +68628,7 @@
       </c>
       <c r="AN401" s="89"/>
     </row>
-    <row r="402" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A402" s="142" t="s">
         <v>368</v>
       </c>
@@ -68714,7 +68742,7 @@
       </c>
       <c r="AN402" s="89"/>
     </row>
-    <row r="403" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A403" s="142" t="s">
         <v>368</v>
       </c>
@@ -68828,7 +68856,7 @@
       </c>
       <c r="AN403" s="89"/>
     </row>
-    <row r="404" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A404" s="142" t="s">
         <v>368</v>
       </c>
@@ -68942,7 +68970,7 @@
       </c>
       <c r="AN404" s="89"/>
     </row>
-    <row r="405" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A405" s="142" t="s">
         <v>368</v>
       </c>
@@ -69056,7 +69084,7 @@
       </c>
       <c r="AN405" s="89"/>
     </row>
-    <row r="406" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A406" s="142" t="s">
         <v>368</v>
       </c>
@@ -69170,7 +69198,7 @@
       </c>
       <c r="AN406" s="89"/>
     </row>
-    <row r="407" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A407" s="142" t="s">
         <v>368</v>
       </c>
@@ -69284,7 +69312,7 @@
       </c>
       <c r="AN407" s="89"/>
     </row>
-    <row r="408" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A408" s="142" t="s">
         <v>368</v>
       </c>
@@ -69398,7 +69426,7 @@
       </c>
       <c r="AN408" s="89"/>
     </row>
-    <row r="409" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A409" s="142" t="s">
         <v>368</v>
       </c>
@@ -69512,7 +69540,7 @@
       </c>
       <c r="AN409" s="89"/>
     </row>
-    <row r="410" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A410" s="142" t="s">
         <v>368</v>
       </c>
@@ -69626,7 +69654,7 @@
       </c>
       <c r="AN410" s="89"/>
     </row>
-    <row r="411" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A411" s="142" t="s">
         <v>368</v>
       </c>
@@ -69743,7 +69771,7 @@
         <v>11715.499414225944</v>
       </c>
     </row>
-    <row r="412" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A412" s="142" t="s">
         <v>368</v>
       </c>
@@ -69857,7 +69885,7 @@
       </c>
       <c r="AN412" s="89"/>
     </row>
-    <row r="413" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A413" s="142" t="s">
         <v>368</v>
       </c>
@@ -69971,7 +69999,7 @@
       </c>
       <c r="AN413" s="89"/>
     </row>
-    <row r="414" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A414" s="142" t="s">
         <v>368</v>
       </c>
@@ -70088,7 +70116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A415" s="142" t="s">
         <v>368</v>
       </c>
@@ -70202,7 +70230,7 @@
       </c>
       <c r="AN415" s="89"/>
     </row>
-    <row r="416" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A416" s="142" t="s">
         <v>368</v>
       </c>
@@ -70319,7 +70347,7 @@
         <v>-13.0525352112676</v>
       </c>
     </row>
-    <row r="417" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A417" s="142" t="s">
         <v>368</v>
       </c>
@@ -70433,7 +70461,7 @@
       </c>
       <c r="AN417" s="89"/>
     </row>
-    <row r="418" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A418" s="142" t="s">
         <v>368</v>
       </c>
@@ -70547,7 +70575,7 @@
       </c>
       <c r="AN418" s="89"/>
     </row>
-    <row r="419" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A419" s="142" t="s">
         <v>368</v>
       </c>
@@ -70661,7 +70689,7 @@
       </c>
       <c r="AN419" s="89"/>
     </row>
-    <row r="420" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A420" s="142" t="s">
         <v>368</v>
       </c>
@@ -70775,7 +70803,7 @@
       </c>
       <c r="AN420" s="89"/>
     </row>
-    <row r="421" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A421" s="142" t="s">
         <v>368</v>
       </c>
@@ -70889,7 +70917,7 @@
       </c>
       <c r="AN421" s="89"/>
     </row>
-    <row r="422" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A422" s="142" t="s">
         <v>368</v>
       </c>
@@ -71003,7 +71031,7 @@
       </c>
       <c r="AN422" s="89"/>
     </row>
-    <row r="423" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A423" s="142" t="s">
         <v>368</v>
       </c>
@@ -71115,7 +71143,7 @@
       </c>
       <c r="AN423" s="89"/>
     </row>
-    <row r="424" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A424" s="142" t="s">
         <v>368</v>
       </c>
@@ -71232,7 +71260,7 @@
         <v>3.9775886524822699</v>
       </c>
     </row>
-    <row r="425" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A425" s="142" t="s">
         <v>368</v>
       </c>
@@ -71328,7 +71356,7 @@
       <c r="AM425" s="118"/>
       <c r="AN425" s="89"/>
     </row>
-    <row r="426" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A426" s="142" t="s">
         <v>368</v>
       </c>
@@ -71426,7 +71454,7 @@
       <c r="AM426" s="118"/>
       <c r="AN426" s="89"/>
     </row>
-    <row r="427" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A427" s="142" t="s">
         <v>368</v>
       </c>
@@ -71522,7 +71550,7 @@
       <c r="AM427" s="118"/>
       <c r="AN427" s="89"/>
     </row>
-    <row r="428" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A428" s="142" t="s">
         <v>368</v>
       </c>
@@ -71621,19 +71649,372 @@
       <c r="AM428" s="132"/>
       <c r="AN428" s="89"/>
     </row>
+    <row r="429" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A429" s="142" t="s">
+        <v>373</v>
+      </c>
+      <c r="B429" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C429" s="132" t="s">
+        <v>315</v>
+      </c>
+      <c r="D429" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E429" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="F429" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="H429" s="132" t="s">
+        <v>34</v>
+      </c>
+      <c r="L429" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="N429" s="132" t="s">
+        <v>220</v>
+      </c>
+      <c r="O429" s="132" t="s">
+        <v>37</v>
+      </c>
+      <c r="P429" s="17">
+        <v>0</v>
+      </c>
+      <c r="S429" s="14">
+        <v>6227.55</v>
+      </c>
+      <c r="V429" s="14">
+        <v>0</v>
+      </c>
+      <c r="W429" s="15">
+        <f t="shared" ref="W429:W435" si="126">IF(O429="返现",U429,U429*(1+AG429)/(1+P429+AG429))</f>
+        <v>0</v>
+      </c>
+      <c r="AB429" s="143">
+        <f t="shared" ref="AB429:AB435" si="127">U429</f>
+        <v>0</v>
+      </c>
+      <c r="AG429" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A430" s="142" t="s">
+        <v>379</v>
+      </c>
+      <c r="B430" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C430" s="132" t="s">
+        <v>315</v>
+      </c>
+      <c r="D430" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E430" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="F430" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="H430" s="132" t="s">
+        <v>34</v>
+      </c>
+      <c r="L430" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="N430" s="132" t="s">
+        <v>220</v>
+      </c>
+      <c r="O430" s="132" t="s">
+        <v>37</v>
+      </c>
+      <c r="P430" s="17">
+        <v>0</v>
+      </c>
+      <c r="S430" s="14">
+        <v>6227.55</v>
+      </c>
+      <c r="V430" s="14">
+        <v>0</v>
+      </c>
+      <c r="W430" s="15">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AB430" s="143">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="AG430" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A431" s="142" t="s">
+        <v>380</v>
+      </c>
+      <c r="B431" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C431" s="132" t="s">
+        <v>315</v>
+      </c>
+      <c r="D431" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E431" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="F431" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="H431" s="132" t="s">
+        <v>34</v>
+      </c>
+      <c r="L431" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="N431" s="132" t="s">
+        <v>220</v>
+      </c>
+      <c r="O431" s="132" t="s">
+        <v>37</v>
+      </c>
+      <c r="P431" s="17">
+        <v>0</v>
+      </c>
+      <c r="S431" s="14">
+        <v>6227.55</v>
+      </c>
+      <c r="V431" s="14">
+        <v>0</v>
+      </c>
+      <c r="W431" s="15">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AB431" s="143">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="AG431" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A432" s="142" t="s">
+        <v>381</v>
+      </c>
+      <c r="B432" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C432" s="132" t="s">
+        <v>315</v>
+      </c>
+      <c r="D432" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E432" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="F432" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="H432" s="132" t="s">
+        <v>34</v>
+      </c>
+      <c r="L432" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="N432" s="132" t="s">
+        <v>220</v>
+      </c>
+      <c r="O432" s="132" t="s">
+        <v>37</v>
+      </c>
+      <c r="P432" s="17">
+        <v>0</v>
+      </c>
+      <c r="S432" s="14">
+        <v>6227.55</v>
+      </c>
+      <c r="V432" s="14">
+        <v>0</v>
+      </c>
+      <c r="W432" s="15">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AB432" s="143">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="AG432" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A433" s="142" t="s">
+        <v>382</v>
+      </c>
+      <c r="B433" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C433" s="132" t="s">
+        <v>315</v>
+      </c>
+      <c r="D433" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E433" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="F433" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="H433" s="132" t="s">
+        <v>34</v>
+      </c>
+      <c r="L433" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="N433" s="132" t="s">
+        <v>220</v>
+      </c>
+      <c r="O433" s="132" t="s">
+        <v>37</v>
+      </c>
+      <c r="P433" s="17">
+        <v>0</v>
+      </c>
+      <c r="S433" s="14">
+        <v>6227.55</v>
+      </c>
+      <c r="V433" s="14">
+        <v>0</v>
+      </c>
+      <c r="W433" s="15">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AB433" s="143">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="AG433" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A434" s="142" t="s">
+        <v>383</v>
+      </c>
+      <c r="B434" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C434" s="132" t="s">
+        <v>315</v>
+      </c>
+      <c r="D434" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E434" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="F434" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="H434" s="132" t="s">
+        <v>34</v>
+      </c>
+      <c r="L434" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="N434" s="132" t="s">
+        <v>220</v>
+      </c>
+      <c r="O434" s="132" t="s">
+        <v>37</v>
+      </c>
+      <c r="P434" s="17">
+        <v>0</v>
+      </c>
+      <c r="S434" s="14">
+        <v>6227.55</v>
+      </c>
+      <c r="V434" s="14">
+        <v>0</v>
+      </c>
+      <c r="W434" s="15">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AB434" s="143">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="AG434" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A435" s="142" t="s">
+        <v>384</v>
+      </c>
+      <c r="B435" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C435" s="132" t="s">
+        <v>315</v>
+      </c>
+      <c r="D435" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E435" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="F435" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="H435" s="132" t="s">
+        <v>34</v>
+      </c>
+      <c r="L435" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="N435" s="132" t="s">
+        <v>220</v>
+      </c>
+      <c r="O435" s="132" t="s">
+        <v>37</v>
+      </c>
+      <c r="P435" s="17">
+        <v>0</v>
+      </c>
+      <c r="S435" s="14">
+        <v>6227.55</v>
+      </c>
+      <c r="V435" s="14">
+        <v>0</v>
+      </c>
+      <c r="W435" s="15">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AB435" s="143">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="AG435" s="13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN428">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="北京多彩-广州虎牙信息科技有限公司"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="CPC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AN428"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="R126">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>

--- a/2020年1-7月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-7月金源消耗表（财务运营共享版）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\多彩运营\-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="792"/>
+    <workbookView xWindow="19100" yWindow="-110" windowWidth="19430" windowHeight="10430" tabRatio="792" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="客户表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户表!$A$1:$AN$428</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户表!$A$1:$AN$435</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">媒体表!$A$1:$U$49</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -27575,58 +27575,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:AN435"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI436" sqref="AI436"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="148" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="59" customWidth="1"/>
     <col min="4" max="4" width="7" style="59" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="59" customWidth="1"/>
-    <col min="6" max="6" width="22.375" style="59" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="59" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" style="59" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" style="59" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" style="59" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="59" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="59" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="59" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.36328125" style="59" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" style="59" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="148" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="18.625" style="59" customWidth="1"/>
+    <col min="12" max="12" width="18.6328125" style="59" customWidth="1"/>
     <col min="13" max="13" width="6" style="59" customWidth="1"/>
-    <col min="14" max="14" width="6.875" style="59" customWidth="1"/>
+    <col min="14" max="14" width="6.90625" style="59" customWidth="1"/>
     <col min="15" max="17" width="9" style="59" customWidth="1"/>
-    <col min="18" max="18" width="6.875" style="59" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="59" customWidth="1"/>
-    <col min="20" max="20" width="14.5" style="59" customWidth="1"/>
-    <col min="21" max="21" width="12.375" style="59" customWidth="1"/>
-    <col min="22" max="22" width="16.5" style="59" customWidth="1"/>
+    <col min="18" max="18" width="6.90625" style="59" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="59" customWidth="1"/>
+    <col min="20" max="20" width="14.453125" style="59" customWidth="1"/>
+    <col min="21" max="21" width="12.36328125" style="59" customWidth="1"/>
+    <col min="22" max="22" width="16.453125" style="59" customWidth="1"/>
     <col min="23" max="23" width="13" style="59" customWidth="1"/>
-    <col min="24" max="24" width="11.375" style="59" customWidth="1"/>
-    <col min="25" max="25" width="11.375" style="59" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.375" style="59" customWidth="1"/>
+    <col min="24" max="24" width="11.36328125" style="59" customWidth="1"/>
+    <col min="25" max="25" width="11.36328125" style="59" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.36328125" style="59" customWidth="1"/>
     <col min="27" max="28" width="13" style="59" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.453125" style="59" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13" style="59" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.375" style="59" customWidth="1"/>
-    <col min="32" max="32" width="8.125" style="59" customWidth="1"/>
-    <col min="33" max="33" width="9.5" style="59" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.125" style="59" customWidth="1"/>
-    <col min="35" max="35" width="14.5" style="59" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5" style="59" customWidth="1"/>
-    <col min="37" max="37" width="14.5" style="59" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.125" style="59" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.5" style="59" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.375" style="59" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.36328125" style="59" customWidth="1"/>
+    <col min="32" max="32" width="8.08984375" style="59" customWidth="1"/>
+    <col min="33" max="33" width="9.453125" style="59" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.08984375" style="59" customWidth="1"/>
+    <col min="35" max="35" width="14.453125" style="59" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" style="59" customWidth="1"/>
+    <col min="37" max="37" width="14.453125" style="59" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.08984375" style="59" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.453125" style="59" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.36328125" style="59" bestFit="1" customWidth="1"/>
     <col min="41" max="16384" width="9" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -27748,7 +27748,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>373</v>
       </c>
@@ -27841,7 +27841,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>373</v>
       </c>
@@ -27931,7 +27931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>373</v>
       </c>
@@ -28026,7 +28026,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>373</v>
       </c>
@@ -28117,7 +28117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>373</v>
       </c>
@@ -28208,7 +28208,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>373</v>
       </c>
@@ -28299,7 +28299,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>373</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>373</v>
       </c>
@@ -28485,7 +28485,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>373</v>
       </c>
@@ -28574,7 +28574,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>373</v>
       </c>
@@ -28665,7 +28665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>373</v>
       </c>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>373</v>
       </c>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>373</v>
       </c>
@@ -28937,7 +28937,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>373</v>
       </c>
@@ -29028,7 +29028,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61" t="s">
         <v>373</v>
       </c>
@@ -29119,7 +29119,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>373</v>
       </c>
@@ -29210,7 +29210,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>373</v>
       </c>
@@ -29301,7 +29301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>373</v>
       </c>
@@ -29392,7 +29392,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>373</v>
       </c>
@@ -29483,7 +29483,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>373</v>
       </c>
@@ -29574,7 +29574,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>373</v>
       </c>
@@ -29665,7 +29665,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>373</v>
       </c>
@@ -29756,7 +29756,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
         <v>373</v>
       </c>
@@ -29847,7 +29847,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>373</v>
       </c>
@@ -29938,7 +29938,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
         <v>373</v>
       </c>
@@ -30029,7 +30029,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
         <v>373</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>373</v>
       </c>
@@ -30211,7 +30211,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>373</v>
       </c>
@@ -30302,7 +30302,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
         <v>373</v>
       </c>
@@ -30393,7 +30393,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>373</v>
       </c>
@@ -30484,7 +30484,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>373</v>
       </c>
@@ -30575,7 +30575,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>373</v>
       </c>
@@ -30666,7 +30666,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>373</v>
       </c>
@@ -30757,7 +30757,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>373</v>
       </c>
@@ -30848,7 +30848,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>373</v>
       </c>
@@ -30939,7 +30939,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
         <v>373</v>
       </c>
@@ -31030,7 +31030,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>373</v>
       </c>
@@ -31121,7 +31121,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>373</v>
       </c>
@@ -31212,7 +31212,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>373</v>
       </c>
@@ -31303,7 +31303,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
         <v>373</v>
       </c>
@@ -31394,7 +31394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
         <v>373</v>
       </c>
@@ -31485,7 +31485,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
         <v>373</v>
       </c>
@@ -31576,7 +31576,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
         <v>373</v>
       </c>
@@ -31667,7 +31667,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>373</v>
       </c>
@@ -31758,7 +31758,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>373</v>
       </c>
@@ -31849,7 +31849,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
         <v>373</v>
       </c>
@@ -31940,7 +31940,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
         <v>373</v>
       </c>
@@ -32031,7 +32031,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>373</v>
       </c>
@@ -32122,7 +32122,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
         <v>373</v>
       </c>
@@ -32213,7 +32213,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
         <v>373</v>
       </c>
@@ -32304,7 +32304,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="s">
         <v>373</v>
       </c>
@@ -32395,7 +32395,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
         <v>373</v>
       </c>
@@ -32486,7 +32486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
         <v>373</v>
       </c>
@@ -32577,7 +32577,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
         <v>373</v>
       </c>
@@ -32668,7 +32668,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="61" t="s">
         <v>373</v>
       </c>
@@ -32759,7 +32759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="61" t="s">
         <v>373</v>
       </c>
@@ -32853,7 +32853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="61" t="s">
         <v>373</v>
       </c>
@@ -32945,7 +32945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="61" t="s">
         <v>373</v>
       </c>
@@ -33036,7 +33036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="61" t="s">
         <v>373</v>
       </c>
@@ -33130,7 +33130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="61" t="s">
         <v>373</v>
       </c>
@@ -33221,7 +33221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
         <v>373</v>
       </c>
@@ -33312,7 +33312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="s">
         <v>373</v>
       </c>
@@ -33403,7 +33403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="61" t="s">
         <v>373</v>
       </c>
@@ -33488,7 +33488,7 @@
       </c>
       <c r="AG64" s="74"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="61" t="s">
         <v>373</v>
       </c>
@@ -33575,7 +33575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="61" t="s">
         <v>373</v>
       </c>
@@ -33662,7 +33662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="61" t="s">
         <v>373</v>
       </c>
@@ -33751,7 +33751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
         <v>373</v>
       </c>
@@ -33840,7 +33840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="s">
         <v>373</v>
       </c>
@@ -33929,7 +33929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="s">
         <v>373</v>
       </c>
@@ -34018,7 +34018,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
         <v>374</v>
       </c>
@@ -34111,7 +34111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="61" t="s">
         <v>374</v>
       </c>
@@ -34201,7 +34201,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="61" t="s">
         <v>374</v>
       </c>
@@ -34294,7 +34294,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="61" t="s">
         <v>374</v>
       </c>
@@ -34389,7 +34389,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="61" t="s">
         <v>374</v>
       </c>
@@ -34480,7 +34480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="61" t="s">
         <v>374</v>
       </c>
@@ -34571,7 +34571,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
         <v>374</v>
       </c>
@@ -34662,7 +34662,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="61" t="s">
         <v>374</v>
       </c>
@@ -34753,7 +34753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="61" t="s">
         <v>374</v>
       </c>
@@ -34844,7 +34844,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="61" t="s">
         <v>374</v>
       </c>
@@ -34935,7 +34935,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="61" t="s">
         <v>374</v>
       </c>
@@ -35026,7 +35026,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="61" t="s">
         <v>374</v>
       </c>
@@ -35119,7 +35119,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="61" t="s">
         <v>374</v>
       </c>
@@ -35210,7 +35210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="61" t="s">
         <v>374</v>
       </c>
@@ -35301,7 +35301,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="61" t="s">
         <v>374</v>
       </c>
@@ -35392,7 +35392,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="61" t="s">
         <v>374</v>
       </c>
@@ -35483,7 +35483,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="61" t="s">
         <v>374</v>
       </c>
@@ -35574,7 +35574,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="61" t="s">
         <v>374</v>
       </c>
@@ -35665,7 +35665,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="61" t="s">
         <v>374</v>
       </c>
@@ -35756,7 +35756,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="61" t="s">
         <v>374</v>
       </c>
@@ -35847,7 +35847,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="61" t="s">
         <v>374</v>
       </c>
@@ -35938,7 +35938,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="61" t="s">
         <v>374</v>
       </c>
@@ -36029,7 +36029,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="61" t="s">
         <v>374</v>
       </c>
@@ -36120,7 +36120,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="61" t="s">
         <v>374</v>
       </c>
@@ -36211,7 +36211,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
         <v>374</v>
       </c>
@@ -36302,7 +36302,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="61" t="s">
         <v>374</v>
       </c>
@@ -36393,7 +36393,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
         <v>374</v>
       </c>
@@ -36484,7 +36484,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="s">
         <v>374</v>
       </c>
@@ -36575,7 +36575,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="61" t="s">
         <v>374</v>
       </c>
@@ -36666,7 +36666,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="61" t="s">
         <v>374</v>
       </c>
@@ -36757,7 +36757,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="61" t="s">
         <v>374</v>
       </c>
@@ -36848,7 +36848,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="61" t="s">
         <v>374</v>
       </c>
@@ -36939,7 +36939,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
         <v>374</v>
       </c>
@@ -37030,7 +37030,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
         <v>374</v>
       </c>
@@ -37121,7 +37121,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="61" t="s">
         <v>374</v>
       </c>
@@ -37212,7 +37212,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
         <v>374</v>
       </c>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="61" t="s">
         <v>374</v>
       </c>
@@ -37394,7 +37394,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="61" t="s">
         <v>374</v>
       </c>
@@ -37485,7 +37485,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="61" t="s">
         <v>374</v>
       </c>
@@ -37576,7 +37576,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="61" t="s">
         <v>374</v>
       </c>
@@ -37667,7 +37667,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="61" t="s">
         <v>374</v>
       </c>
@@ -37758,7 +37758,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="61" t="s">
         <v>374</v>
       </c>
@@ -37849,7 +37849,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="61" t="s">
         <v>374</v>
       </c>
@@ -37940,7 +37940,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="61" t="s">
         <v>374</v>
       </c>
@@ -38031,7 +38031,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="61" t="s">
         <v>374</v>
       </c>
@@ -38122,7 +38122,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="61" t="s">
         <v>374</v>
       </c>
@@ -38213,7 +38213,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="61" t="s">
         <v>374</v>
       </c>
@@ -38304,7 +38304,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="61" t="s">
         <v>374</v>
       </c>
@@ -38395,7 +38395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="61" t="s">
         <v>374</v>
       </c>
@@ -38486,7 +38486,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="61" t="s">
         <v>374</v>
       </c>
@@ -38577,7 +38577,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="61" t="s">
         <v>374</v>
       </c>
@@ -38668,7 +38668,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="61" t="s">
         <v>374</v>
       </c>
@@ -38764,7 +38764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="61" t="s">
         <v>374</v>
       </c>
@@ -38857,7 +38857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="61" t="s">
         <v>374</v>
       </c>
@@ -38950,7 +38950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="61" t="s">
         <v>374</v>
       </c>
@@ -39041,7 +39041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="61" t="s">
         <v>374</v>
       </c>
@@ -39134,7 +39134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="61" t="s">
         <v>374</v>
       </c>
@@ -39227,7 +39227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="61" t="s">
         <v>374</v>
       </c>
@@ -39320,7 +39320,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="94" t="s">
         <v>375</v>
       </c>
@@ -39413,7 +39413,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="94" t="s">
         <v>375</v>
       </c>
@@ -39510,7 +39510,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="94" t="s">
         <v>375</v>
       </c>
@@ -39603,7 +39603,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="94" t="s">
         <v>375</v>
       </c>
@@ -39693,7 +39693,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="94" t="s">
         <v>375</v>
       </c>
@@ -39784,7 +39784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="94" t="s">
         <v>375</v>
       </c>
@@ -39875,7 +39875,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="94" t="s">
         <v>375</v>
       </c>
@@ -39966,7 +39966,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="94" t="s">
         <v>375</v>
       </c>
@@ -40057,7 +40057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="94" t="s">
         <v>375</v>
       </c>
@@ -40148,7 +40148,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="94" t="s">
         <v>375</v>
       </c>
@@ -40239,7 +40239,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="94" t="s">
         <v>375</v>
       </c>
@@ -40330,7 +40330,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="94" t="s">
         <v>375</v>
       </c>
@@ -40421,7 +40421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="94" t="s">
         <v>375</v>
       </c>
@@ -40512,7 +40512,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="94" t="s">
         <v>375</v>
       </c>
@@ -40603,7 +40603,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="94" t="s">
         <v>375</v>
       </c>
@@ -40694,7 +40694,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="94" t="s">
         <v>375</v>
       </c>
@@ -40785,7 +40785,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="94" t="s">
         <v>375</v>
       </c>
@@ -40876,7 +40876,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="94" t="s">
         <v>375</v>
       </c>
@@ -40967,7 +40967,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="94" t="s">
         <v>375</v>
       </c>
@@ -41058,7 +41058,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="94" t="s">
         <v>375</v>
       </c>
@@ -41149,7 +41149,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="94" t="s">
         <v>375</v>
       </c>
@@ -41240,7 +41240,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="94" t="s">
         <v>375</v>
       </c>
@@ -41331,7 +41331,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="94" t="s">
         <v>375</v>
       </c>
@@ -41422,7 +41422,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="94" t="s">
         <v>375</v>
       </c>
@@ -41513,7 +41513,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="94" t="s">
         <v>375</v>
       </c>
@@ -41604,7 +41604,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="94" t="s">
         <v>375</v>
       </c>
@@ -41695,7 +41695,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="94" t="s">
         <v>375</v>
       </c>
@@ -41786,7 +41786,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="94" t="s">
         <v>375</v>
       </c>
@@ -41877,7 +41877,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="94" t="s">
         <v>375</v>
       </c>
@@ -41968,7 +41968,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="94" t="s">
         <v>375</v>
       </c>
@@ -42059,7 +42059,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="94" t="s">
         <v>375</v>
       </c>
@@ -42150,7 +42150,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="94" t="s">
         <v>375</v>
       </c>
@@ -42241,7 +42241,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="94" t="s">
         <v>375</v>
       </c>
@@ -42332,7 +42332,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="94" t="s">
         <v>375</v>
       </c>
@@ -42423,7 +42423,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="94" t="s">
         <v>375</v>
       </c>
@@ -42514,7 +42514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="94" t="s">
         <v>375</v>
       </c>
@@ -42605,7 +42605,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="94" t="s">
         <v>375</v>
       </c>
@@ -42696,7 +42696,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="94" t="s">
         <v>375</v>
       </c>
@@ -42787,7 +42787,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="94" t="s">
         <v>375</v>
       </c>
@@ -42878,7 +42878,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="94" t="s">
         <v>375</v>
       </c>
@@ -42969,7 +42969,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="94" t="s">
         <v>375</v>
       </c>
@@ -43060,7 +43060,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="94" t="s">
         <v>375</v>
       </c>
@@ -43151,7 +43151,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="94" t="s">
         <v>375</v>
       </c>
@@ -43242,7 +43242,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="94" t="s">
         <v>375</v>
       </c>
@@ -43333,7 +43333,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="94" t="s">
         <v>375</v>
       </c>
@@ -43424,7 +43424,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="94" t="s">
         <v>375</v>
       </c>
@@ -43515,7 +43515,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="94" t="s">
         <v>375</v>
       </c>
@@ -43606,7 +43606,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="94" t="s">
         <v>375</v>
       </c>
@@ -43697,7 +43697,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="177" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="94" t="s">
         <v>375</v>
       </c>
@@ -43789,7 +43789,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="94" t="s">
         <v>375</v>
       </c>
@@ -43882,7 +43882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="94" t="s">
         <v>375</v>
       </c>
@@ -43975,7 +43975,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="94" t="s">
         <v>375</v>
       </c>
@@ -44073,7 +44073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="149" t="s">
         <v>376</v>
       </c>
@@ -44183,7 +44183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="149" t="s">
         <v>376</v>
       </c>
@@ -44297,7 +44297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="149" t="s">
         <v>376</v>
       </c>
@@ -44407,7 +44407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="149" t="s">
         <v>376</v>
       </c>
@@ -44517,7 +44517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="149" t="s">
         <v>376</v>
       </c>
@@ -44627,7 +44627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="149" t="s">
         <v>376</v>
       </c>
@@ -44737,7 +44737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="149" t="s">
         <v>376</v>
       </c>
@@ -44847,7 +44847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="149" t="s">
         <v>376</v>
       </c>
@@ -44957,7 +44957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="149" t="s">
         <v>376</v>
       </c>
@@ -45067,7 +45067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="149" t="s">
         <v>376</v>
       </c>
@@ -45177,7 +45177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="149" t="s">
         <v>376</v>
       </c>
@@ -45287,7 +45287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="149" t="s">
         <v>376</v>
       </c>
@@ -45397,7 +45397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="149" t="s">
         <v>376</v>
       </c>
@@ -45507,7 +45507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="149" t="s">
         <v>376</v>
       </c>
@@ -45617,7 +45617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="149" t="s">
         <v>376</v>
       </c>
@@ -45727,7 +45727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="149" t="s">
         <v>376</v>
       </c>
@@ -45837,7 +45837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="149" t="s">
         <v>376</v>
       </c>
@@ -45947,7 +45947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="149" t="s">
         <v>376</v>
       </c>
@@ -46057,7 +46057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="149" t="s">
         <v>376</v>
       </c>
@@ -46167,7 +46167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="149" t="s">
         <v>376</v>
       </c>
@@ -46277,7 +46277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="149" t="s">
         <v>376</v>
       </c>
@@ -46387,7 +46387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="149" t="s">
         <v>376</v>
       </c>
@@ -46497,7 +46497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="149" t="s">
         <v>376</v>
       </c>
@@ -46607,7 +46607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="149" t="s">
         <v>376</v>
       </c>
@@ -46717,7 +46717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="149" t="s">
         <v>376</v>
       </c>
@@ -46827,7 +46827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="149" t="s">
         <v>376</v>
       </c>
@@ -46937,7 +46937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="149" t="s">
         <v>376</v>
       </c>
@@ -47047,7 +47047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="149" t="s">
         <v>376</v>
       </c>
@@ -47157,7 +47157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="149" t="s">
         <v>376</v>
       </c>
@@ -47267,7 +47267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="149" t="s">
         <v>376</v>
       </c>
@@ -47377,7 +47377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="149" t="s">
         <v>376</v>
       </c>
@@ -47487,7 +47487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="149" t="s">
         <v>376</v>
       </c>
@@ -47597,7 +47597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="149" t="s">
         <v>376</v>
       </c>
@@ -47707,7 +47707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="149" t="s">
         <v>376</v>
       </c>
@@ -47817,7 +47817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="149" t="s">
         <v>376</v>
       </c>
@@ -47927,7 +47927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="149" t="s">
         <v>376</v>
       </c>
@@ -48037,7 +48037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="149" t="s">
         <v>376</v>
       </c>
@@ -48147,7 +48147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="149" t="s">
         <v>376</v>
       </c>
@@ -48257,7 +48257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="149" t="s">
         <v>376</v>
       </c>
@@ -48373,7 +48373,7 @@
         <v>6.9121338909098995E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="149" t="s">
         <v>376</v>
       </c>
@@ -48483,7 +48483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="149" t="s">
         <v>376</v>
       </c>
@@ -48593,7 +48593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="149" t="s">
         <v>376</v>
       </c>
@@ -48696,7 +48696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="149" t="s">
         <v>376</v>
       </c>
@@ -48770,7 +48770,7 @@
       </c>
       <c r="Z223" s="66">
         <f t="shared" si="47"/>
-        <v>12232.854838709667</v>
+        <v>200000</v>
       </c>
       <c r="AA223" s="113">
         <f t="shared" ref="AA223:AA236" si="48">U223-W223</f>
@@ -48802,15 +48802,15 @@
       </c>
       <c r="AL223" s="14"/>
       <c r="AM223" s="14">
-        <f>IF(O223="折扣",AK223*P223,AK223/(1+P223+AG223))</f>
-        <v>12232.854838709678</v>
+        <f>W223</f>
+        <v>200000</v>
       </c>
       <c r="AN223" s="115">
         <f>AM223-W223</f>
-        <v>-187767.14516129033</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="149" t="s">
         <v>376</v>
       </c>
@@ -48923,7 +48923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="149" t="s">
         <v>376</v>
       </c>
@@ -49048,7 +49048,7 @@
         <v>7.4469172931276262</v>
       </c>
     </row>
-    <row r="226" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="149" t="s">
         <v>376</v>
       </c>
@@ -49169,7 +49169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="149" t="s">
         <v>376</v>
       </c>
@@ -49287,7 +49287,7 @@
         <v>68.772846715641208</v>
       </c>
     </row>
-    <row r="228" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="149" t="s">
         <v>376</v>
       </c>
@@ -49397,7 +49397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="149" t="s">
         <v>376</v>
       </c>
@@ -49507,7 +49507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="149" t="s">
         <v>376</v>
       </c>
@@ -49621,7 +49621,7 @@
         <v>-15.862394366197179</v>
       </c>
     </row>
-    <row r="231" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="149" t="s">
         <v>376</v>
       </c>
@@ -49735,7 +49735,7 @@
         <v>-0.1397183098591549</v>
       </c>
     </row>
-    <row r="232" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="149" t="s">
         <v>376</v>
       </c>
@@ -49834,7 +49834,7 @@
       <c r="AL232" s="116"/>
       <c r="AM232" s="116"/>
     </row>
-    <row r="233" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="149" t="s">
         <v>376</v>
       </c>
@@ -49936,7 +49936,7 @@
       <c r="AL233" s="116"/>
       <c r="AM233" s="116"/>
     </row>
-    <row r="234" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="149" t="s">
         <v>376</v>
       </c>
@@ -50034,7 +50034,7 @@
       <c r="AL234" s="116"/>
       <c r="AM234" s="116"/>
     </row>
-    <row r="235" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="149" t="s">
         <v>376</v>
       </c>
@@ -50129,7 +50129,7 @@
       <c r="AL235" s="116"/>
       <c r="AM235" s="116"/>
     </row>
-    <row r="236" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="149" t="s">
         <v>376</v>
       </c>
@@ -50227,7 +50227,7 @@
       <c r="AL236" s="123"/>
       <c r="AM236" s="123"/>
     </row>
-    <row r="237" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="149" t="s">
         <v>376</v>
       </c>
@@ -50326,7 +50326,7 @@
       <c r="AL237" s="116"/>
       <c r="AM237" s="116"/>
     </row>
-    <row r="238" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="127" t="s">
         <v>309</v>
       </c>
@@ -50400,7 +50400,7 @@
       </c>
       <c r="Z238" s="66">
         <f t="shared" si="47"/>
-        <v>215078.82258064533</v>
+        <v>1608518</v>
       </c>
       <c r="AA238" s="116">
         <f>IF(O238="返现",W238*P238,U238-W238)</f>
@@ -50437,15 +50437,15 @@
         <v>96000</v>
       </c>
       <c r="AM238" s="131">
-        <f t="shared" ref="AM238:AM287" si="56">IF(O238="折扣",AK238*P238,IF(O238="返现",AK238/(1+AG238),AK238/(1+P238+AG238)))</f>
-        <v>215078.82258064524</v>
+        <f>W238</f>
+        <v>1608518</v>
       </c>
       <c r="AN238" s="115">
-        <f t="shared" ref="AN238:AN240" si="57">AM238-W238</f>
-        <v>-1393439.1774193547</v>
+        <f t="shared" ref="AN238:AN240" si="56">AM238-W238</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="127" t="s">
         <v>309</v>
       </c>
@@ -50522,7 +50522,7 @@
         <v>949457.32</v>
       </c>
       <c r="AA239" s="116">
-        <f t="shared" ref="AA239:AA291" si="58">IF(O239="返现",W239*P239,U239-W239)</f>
+        <f t="shared" ref="AA239:AA291" si="57">IF(O239="返现",W239*P239,U239-W239)</f>
         <v>-804480.22</v>
       </c>
       <c r="AB239" s="116">
@@ -50558,11 +50558,11 @@
         <v>949457.32</v>
       </c>
       <c r="AN239" s="115">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="127" t="s">
         <v>309</v>
       </c>
@@ -50641,7 +50641,7 @@
         <v>3073167.6</v>
       </c>
       <c r="AA240" s="116">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>-828738.83680000016</v>
       </c>
       <c r="AB240" s="116">
@@ -50678,11 +50678,11 @@
         <v>2917214.7168000001</v>
       </c>
       <c r="AN240" s="115">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="127" t="s">
         <v>309</v>
       </c>
@@ -50743,7 +50743,7 @@
         <v>2956.69</v>
       </c>
       <c r="W241" s="116">
-        <f t="shared" ref="W241:W287" si="59">IF(O241="折扣",U241*P241,IF(O241="返现",U241,U241*(1+AG241)/(1+P241+AG241)))</f>
+        <f t="shared" ref="W241:W287" si="58">IF(O241="折扣",U241*P241,IF(O241="返现",U241,U241*(1+AG241)/(1+P241+AG241)))</f>
         <v>0</v>
       </c>
       <c r="X241" s="116"/>
@@ -50752,15 +50752,15 @@
         <v>0</v>
       </c>
       <c r="Z241" s="66">
-        <f t="shared" ref="Z241:Z278" si="60">W241+X241</f>
+        <f t="shared" ref="Z241:Z278" si="59">W241+X241</f>
         <v>0</v>
       </c>
       <c r="AA241" s="116">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AB241" s="116">
-        <f t="shared" ref="AB241:AB287" si="61">U241</f>
+        <f t="shared" ref="AB241:AB287" si="60">U241</f>
         <v>0</v>
       </c>
       <c r="AC241" s="128">
@@ -50773,7 +50773,7 @@
         <v>0.42</v>
       </c>
       <c r="AH241" s="116">
-        <f t="shared" ref="AH241:AH287" si="62">AK241/(1+AG241)</f>
+        <f t="shared" ref="AH241:AH287" si="61">AK241/(1+AG241)</f>
         <v>0</v>
       </c>
       <c r="AI241" s="116"/>
@@ -50789,11 +50789,11 @@
         <v>0</v>
       </c>
       <c r="AM241" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="AM238:AM287" si="62">IF(O241="折扣",AK241*P241,IF(O241="返现",AK241/(1+AG241),AK241/(1+P241+AG241)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="127" t="s">
         <v>309</v>
       </c>
@@ -50854,7 +50854,7 @@
         <v>70023.360000000001</v>
       </c>
       <c r="W242" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X242" s="116"/>
@@ -50863,15 +50863,15 @@
         <v>0</v>
       </c>
       <c r="Z242" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA242" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB242" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA242" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB242" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC242" s="128">
@@ -50884,7 +50884,7 @@
         <v>0</v>
       </c>
       <c r="AH242" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI242" s="116"/>
@@ -50900,11 +50900,11 @@
         <v>0</v>
       </c>
       <c r="AM242" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="127" t="s">
         <v>309</v>
       </c>
@@ -50965,7 +50965,7 @@
         <v>7741.65</v>
       </c>
       <c r="W243" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X243" s="116"/>
@@ -50974,15 +50974,15 @@
         <v>0</v>
       </c>
       <c r="Z243" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA243" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB243" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA243" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB243" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC243" s="128">
@@ -50995,7 +50995,7 @@
         <v>0.42</v>
       </c>
       <c r="AH243" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI243" s="116"/>
@@ -51011,11 +51011,11 @@
         <v>0</v>
       </c>
       <c r="AM243" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="127" t="s">
         <v>309</v>
       </c>
@@ -51076,7 +51076,7 @@
         <v>7.0399999999990497</v>
       </c>
       <c r="W244" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X244" s="116"/>
@@ -51085,15 +51085,15 @@
         <v>0</v>
       </c>
       <c r="Z244" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA244" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB244" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA244" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB244" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC244" s="128">
@@ -51106,7 +51106,7 @@
         <v>0</v>
       </c>
       <c r="AH244" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI244" s="116"/>
@@ -51122,11 +51122,11 @@
         <v>0</v>
       </c>
       <c r="AM244" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="127" t="s">
         <v>309</v>
       </c>
@@ -51187,7 +51187,7 @@
         <v>106099.63</v>
       </c>
       <c r="W245" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X245" s="116"/>
@@ -51196,15 +51196,15 @@
         <v>0</v>
       </c>
       <c r="Z245" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA245" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB245" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA245" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB245" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC245" s="128">
@@ -51217,7 +51217,7 @@
         <v>0.42</v>
       </c>
       <c r="AH245" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI245" s="116"/>
@@ -51233,11 +51233,11 @@
         <v>0</v>
       </c>
       <c r="AM245" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="127" t="s">
         <v>309</v>
       </c>
@@ -51298,7 +51298,7 @@
         <v>131941.95000000001</v>
       </c>
       <c r="W246" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X246" s="116"/>
@@ -51307,15 +51307,15 @@
         <v>0</v>
       </c>
       <c r="Z246" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA246" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB246" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA246" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB246" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC246" s="128">
@@ -51328,7 +51328,7 @@
         <v>0.42</v>
       </c>
       <c r="AH246" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI246" s="116"/>
@@ -51344,11 +51344,11 @@
         <v>0</v>
       </c>
       <c r="AM246" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="127" t="s">
         <v>309</v>
       </c>
@@ -51409,7 +51409,7 @@
         <v>15899.080000000278</v>
       </c>
       <c r="W247" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X247" s="116"/>
@@ -51418,15 +51418,15 @@
         <v>0</v>
       </c>
       <c r="Z247" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA247" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB247" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA247" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB247" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC247" s="128">
@@ -51439,7 +51439,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH247" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI247" s="116"/>
@@ -51455,11 +51455,11 @@
         <v>0</v>
       </c>
       <c r="AM247" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="127" t="s">
         <v>309</v>
       </c>
@@ -51520,7 +51520,7 @@
         <v>2383.1800000000039</v>
       </c>
       <c r="W248" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X248" s="116"/>
@@ -51529,15 +51529,15 @@
         <v>0</v>
       </c>
       <c r="Z248" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA248" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB248" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA248" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB248" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC248" s="128">
@@ -51550,7 +51550,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH248" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI248" s="116"/>
@@ -51566,11 +51566,11 @@
         <v>0</v>
       </c>
       <c r="AM248" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="127" t="s">
         <v>309</v>
       </c>
@@ -51631,7 +51631,7 @@
         <v>1766.24</v>
       </c>
       <c r="W249" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X249" s="116"/>
@@ -51640,15 +51640,15 @@
         <v>0</v>
       </c>
       <c r="Z249" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA249" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB249" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA249" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB249" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC249" s="128">
@@ -51661,7 +51661,7 @@
         <v>0.42</v>
       </c>
       <c r="AH249" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI249" s="116"/>
@@ -51677,11 +51677,11 @@
         <v>0</v>
       </c>
       <c r="AM249" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="127" t="s">
         <v>309</v>
       </c>
@@ -51742,7 +51742,7 @@
         <v>8102.9149295775096</v>
       </c>
       <c r="W250" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X250" s="116"/>
@@ -51751,15 +51751,15 @@
         <v>0</v>
       </c>
       <c r="Z250" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA250" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB250" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA250" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB250" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC250" s="128">
@@ -51772,7 +51772,7 @@
         <v>0.42</v>
       </c>
       <c r="AH250" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI250" s="116"/>
@@ -51788,11 +51788,11 @@
         <v>0</v>
       </c>
       <c r="AM250" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="127" t="s">
         <v>309</v>
       </c>
@@ -51853,7 +51853,7 @@
         <v>2063.5353521120301</v>
       </c>
       <c r="W251" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X251" s="116"/>
@@ -51862,15 +51862,15 @@
         <v>0</v>
       </c>
       <c r="Z251" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA251" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB251" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA251" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB251" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC251" s="128">
@@ -51883,7 +51883,7 @@
         <v>0.42</v>
       </c>
       <c r="AH251" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI251" s="116"/>
@@ -51899,11 +51899,11 @@
         <v>0</v>
       </c>
       <c r="AM251" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="127" t="s">
         <v>309</v>
       </c>
@@ -51964,7 +51964,7 @@
         <v>655.37999999978604</v>
       </c>
       <c r="W252" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X252" s="116"/>
@@ -51973,15 +51973,15 @@
         <v>0</v>
       </c>
       <c r="Z252" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA252" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB252" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA252" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB252" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC252" s="128">
@@ -51994,7 +51994,7 @@
         <v>0.42</v>
       </c>
       <c r="AH252" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI252" s="116"/>
@@ -52010,11 +52010,11 @@
         <v>0</v>
       </c>
       <c r="AM252" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="127" t="s">
         <v>309</v>
       </c>
@@ -52075,7 +52075,7 @@
         <v>354.84000000002561</v>
       </c>
       <c r="W253" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X253" s="116"/>
@@ -52084,15 +52084,15 @@
         <v>0</v>
       </c>
       <c r="Z253" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA253" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB253" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA253" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB253" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC253" s="128">
@@ -52105,7 +52105,7 @@
         <v>0.42</v>
       </c>
       <c r="AH253" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI253" s="116"/>
@@ -52121,11 +52121,11 @@
         <v>0</v>
       </c>
       <c r="AM253" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="127" t="s">
         <v>309</v>
       </c>
@@ -52186,7 +52186,7 @@
         <v>0</v>
       </c>
       <c r="W254" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X254" s="116"/>
@@ -52195,15 +52195,15 @@
         <v>0</v>
       </c>
       <c r="Z254" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA254" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB254" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA254" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB254" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC254" s="128">
@@ -52216,7 +52216,7 @@
         <v>0.42</v>
       </c>
       <c r="AH254" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI254" s="116"/>
@@ -52232,11 +52232,11 @@
         <v>0</v>
       </c>
       <c r="AM254" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="127" t="s">
         <v>309</v>
       </c>
@@ -52297,7 +52297,7 @@
         <v>227.30774647876399</v>
       </c>
       <c r="W255" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X255" s="116"/>
@@ -52306,15 +52306,15 @@
         <v>0</v>
       </c>
       <c r="Z255" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA255" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB255" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA255" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB255" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC255" s="128">
@@ -52327,7 +52327,7 @@
         <v>0.42</v>
       </c>
       <c r="AH255" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI255" s="116"/>
@@ -52343,11 +52343,11 @@
         <v>0</v>
       </c>
       <c r="AM255" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="127" t="s">
         <v>309</v>
       </c>
@@ -52408,7 +52408,7 @@
         <v>152.264929577999</v>
       </c>
       <c r="W256" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X256" s="116"/>
@@ -52417,15 +52417,15 @@
         <v>0</v>
       </c>
       <c r="Z256" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA256" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB256" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA256" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB256" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC256" s="128">
@@ -52438,7 +52438,7 @@
         <v>0.42</v>
       </c>
       <c r="AH256" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI256" s="116"/>
@@ -52454,11 +52454,11 @@
         <v>0</v>
       </c>
       <c r="AM256" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="127" t="s">
         <v>309</v>
       </c>
@@ -52519,7 +52519,7 @@
         <v>-30329.470000000056</v>
       </c>
       <c r="W257" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X257" s="116"/>
@@ -52528,15 +52528,15 @@
         <v>0</v>
       </c>
       <c r="Z257" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA257" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB257" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA257" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB257" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC257" s="128">
@@ -52549,7 +52549,7 @@
         <v>0.42</v>
       </c>
       <c r="AH257" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI257" s="116"/>
@@ -52565,11 +52565,11 @@
         <v>0</v>
       </c>
       <c r="AM257" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="127" t="s">
         <v>309</v>
       </c>
@@ -52630,7 +52630,7 @@
         <v>425.555211267598</v>
       </c>
       <c r="W258" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X258" s="116"/>
@@ -52639,15 +52639,15 @@
         <v>0</v>
       </c>
       <c r="Z258" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA258" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB258" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA258" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB258" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC258" s="128">
@@ -52660,7 +52660,7 @@
         <v>0.42</v>
       </c>
       <c r="AH258" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI258" s="116"/>
@@ -52676,11 +52676,11 @@
         <v>0</v>
       </c>
       <c r="AM258" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="127" t="s">
         <v>309</v>
       </c>
@@ -52741,7 +52741,7 @@
         <v>1402.38690140774</v>
       </c>
       <c r="W259" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X259" s="116"/>
@@ -52750,15 +52750,15 @@
         <v>0</v>
       </c>
       <c r="Z259" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA259" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB259" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA259" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB259" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC259" s="128">
@@ -52771,7 +52771,7 @@
         <v>0.42</v>
       </c>
       <c r="AH259" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI259" s="116"/>
@@ -52787,11 +52787,11 @@
         <v>0</v>
       </c>
       <c r="AM259" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="127" t="s">
         <v>309</v>
       </c>
@@ -52852,7 +52852,7 @@
         <v>12961.68</v>
       </c>
       <c r="W260" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X260" s="116"/>
@@ -52861,15 +52861,15 @@
         <v>0</v>
       </c>
       <c r="Z260" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA260" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB260" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA260" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB260" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC260" s="128">
@@ -52882,7 +52882,7 @@
         <v>0.42</v>
       </c>
       <c r="AH260" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI260" s="116"/>
@@ -52898,11 +52898,11 @@
         <v>0</v>
       </c>
       <c r="AM260" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="127" t="s">
         <v>309</v>
       </c>
@@ -52963,7 +52963,7 @@
         <v>143.460985915328</v>
       </c>
       <c r="W261" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X261" s="116"/>
@@ -52972,15 +52972,15 @@
         <v>0</v>
       </c>
       <c r="Z261" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA261" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB261" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA261" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB261" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC261" s="128">
@@ -52993,7 +52993,7 @@
         <v>0.42</v>
       </c>
       <c r="AH261" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI261" s="116"/>
@@ -53009,11 +53009,11 @@
         <v>0</v>
       </c>
       <c r="AM261" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="127" t="s">
         <v>309</v>
       </c>
@@ -53074,7 +53074,7 @@
         <v>42851.614929578005</v>
       </c>
       <c r="W262" s="125">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>63270.522875000002</v>
       </c>
       <c r="X262" s="125"/>
@@ -53083,15 +53083,15 @@
         <v>0</v>
       </c>
       <c r="Z262" s="66">
+        <f t="shared" si="59"/>
+        <v>63270.522875000002</v>
+      </c>
+      <c r="AA262" s="116">
+        <f t="shared" si="57"/>
+        <v>8020.2071249999935</v>
+      </c>
+      <c r="AB262" s="125">
         <f t="shared" si="60"/>
-        <v>63270.522875000002</v>
-      </c>
-      <c r="AA262" s="116">
-        <f t="shared" si="58"/>
-        <v>8020.2071249999935</v>
-      </c>
-      <c r="AB262" s="125">
-        <f t="shared" si="61"/>
         <v>71290.73</v>
       </c>
       <c r="AC262" s="128">
@@ -53104,7 +53104,7 @@
         <v>0.42</v>
       </c>
       <c r="AH262" s="125">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>71290.908450704228</v>
       </c>
       <c r="AI262" s="125"/>
@@ -53120,7 +53120,7 @@
         <v>29942.36</v>
       </c>
       <c r="AM262" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>63270.681250000001</v>
       </c>
       <c r="AN262" s="115">
@@ -53128,7 +53128,7 @@
         <v>0.15837499999906868</v>
       </c>
     </row>
-    <row r="263" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="127" t="s">
         <v>309</v>
       </c>
@@ -53189,7 +53189,7 @@
         <v>29897.39</v>
       </c>
       <c r="W263" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X263" s="116"/>
@@ -53198,15 +53198,15 @@
         <v>0</v>
       </c>
       <c r="Z263" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA263" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB263" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA263" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB263" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC263" s="128">
@@ -53219,7 +53219,7 @@
         <v>0.42</v>
       </c>
       <c r="AH263" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI263" s="116"/>
@@ -53235,11 +53235,11 @@
         <v>0</v>
       </c>
       <c r="AM263" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="127" t="s">
         <v>309</v>
       </c>
@@ -53300,7 +53300,7 @@
         <v>20014.111126760599</v>
       </c>
       <c r="W264" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X264" s="116"/>
@@ -53309,15 +53309,15 @@
         <v>0</v>
       </c>
       <c r="Z264" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA264" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB264" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA264" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB264" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC264" s="128">
@@ -53330,7 +53330,7 @@
         <v>0.42</v>
       </c>
       <c r="AH264" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI264" s="116"/>
@@ -53346,11 +53346,11 @@
         <v>0</v>
       </c>
       <c r="AM264" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="127" t="s">
         <v>309</v>
       </c>
@@ -53411,7 +53411,7 @@
         <v>322.47394365991897</v>
       </c>
       <c r="W265" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X265" s="116"/>
@@ -53420,15 +53420,15 @@
         <v>0</v>
       </c>
       <c r="Z265" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA265" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB265" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA265" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB265" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC265" s="128">
@@ -53441,7 +53441,7 @@
         <v>0.42</v>
       </c>
       <c r="AH265" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI265" s="116"/>
@@ -53457,11 +53457,11 @@
         <v>0</v>
       </c>
       <c r="AM265" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="127" t="s">
         <v>309</v>
       </c>
@@ -53522,7 +53522,7 @@
         <v>196.54507042269699</v>
       </c>
       <c r="W266" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X266" s="116"/>
@@ -53531,15 +53531,15 @@
         <v>0</v>
       </c>
       <c r="Z266" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA266" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB266" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA266" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB266" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC266" s="128">
@@ -53552,7 +53552,7 @@
         <v>0.42</v>
       </c>
       <c r="AH266" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI266" s="116"/>
@@ -53568,11 +53568,11 @@
         <v>0</v>
       </c>
       <c r="AM266" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="127" t="s">
         <v>309</v>
       </c>
@@ -53633,7 +53633,7 @@
         <v>1513.0032394366101</v>
       </c>
       <c r="W267" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X267" s="116"/>
@@ -53642,15 +53642,15 @@
         <v>0</v>
       </c>
       <c r="Z267" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA267" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB267" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA267" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB267" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC267" s="128">
@@ -53663,7 +53663,7 @@
         <v>0.42</v>
       </c>
       <c r="AH267" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI267" s="116"/>
@@ -53679,11 +53679,11 @@
         <v>0</v>
       </c>
       <c r="AM267" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="127" t="s">
         <v>309</v>
       </c>
@@ -53744,7 +53744,7 @@
         <v>6504.6216901406997</v>
       </c>
       <c r="W268" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X268" s="116"/>
@@ -53753,15 +53753,15 @@
         <v>0</v>
       </c>
       <c r="Z268" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA268" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB268" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA268" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB268" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC268" s="128">
@@ -53774,7 +53774,7 @@
         <v>0</v>
       </c>
       <c r="AH268" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI268" s="116"/>
@@ -53790,11 +53790,11 @@
         <v>0</v>
       </c>
       <c r="AM268" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="127" t="s">
         <v>309</v>
       </c>
@@ -53855,7 +53855,7 @@
         <v>44820.261970721403</v>
       </c>
       <c r="W269" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X269" s="116"/>
@@ -53864,15 +53864,15 @@
         <v>0</v>
       </c>
       <c r="Z269" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA269" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB269" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA269" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB269" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC269" s="128">
@@ -53885,7 +53885,7 @@
         <v>0.42</v>
       </c>
       <c r="AH269" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI269" s="116"/>
@@ -53901,11 +53901,11 @@
         <v>0</v>
       </c>
       <c r="AM269" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="127" t="s">
         <v>309</v>
       </c>
@@ -53966,7 +53966,7 @@
         <v>132154.611549297</v>
       </c>
       <c r="W270" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X270" s="116"/>
@@ -53975,15 +53975,15 @@
         <v>0</v>
       </c>
       <c r="Z270" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA270" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB270" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA270" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB270" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC270" s="128">
@@ -53996,7 +53996,7 @@
         <v>0.42</v>
       </c>
       <c r="AH270" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI270" s="116"/>
@@ -54012,11 +54012,11 @@
         <v>0</v>
       </c>
       <c r="AM270" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="127" t="s">
         <v>309</v>
       </c>
@@ -54077,7 +54077,7 @@
         <v>14157.309295774696</v>
       </c>
       <c r="W271" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X271" s="116"/>
@@ -54086,15 +54086,15 @@
         <v>0</v>
       </c>
       <c r="Z271" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA271" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB271" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA271" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB271" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC271" s="128">
@@ -54107,7 +54107,7 @@
         <v>0.42</v>
       </c>
       <c r="AH271" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI271" s="116"/>
@@ -54123,11 +54123,11 @@
         <v>0</v>
       </c>
       <c r="AM271" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="127" t="s">
         <v>309</v>
       </c>
@@ -54188,7 +54188,7 @@
         <v>480.55873239384499</v>
       </c>
       <c r="W272" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X272" s="116"/>
@@ -54197,15 +54197,15 @@
         <v>0</v>
       </c>
       <c r="Z272" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA272" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB272" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA272" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB272" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC272" s="128">
@@ -54218,7 +54218,7 @@
         <v>0.42</v>
       </c>
       <c r="AH272" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI272" s="116"/>
@@ -54234,11 +54234,11 @@
         <v>0</v>
       </c>
       <c r="AM272" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="127" t="s">
         <v>309</v>
       </c>
@@ -54299,7 +54299,7 @@
         <v>88.72</v>
       </c>
       <c r="W273" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X273" s="116"/>
@@ -54308,15 +54308,15 @@
         <v>0</v>
       </c>
       <c r="Z273" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA273" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB273" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA273" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB273" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC273" s="128">
@@ -54329,7 +54329,7 @@
         <v>0.42</v>
       </c>
       <c r="AH273" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI273" s="116"/>
@@ -54345,11 +54345,11 @@
         <v>0</v>
       </c>
       <c r="AM273" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="127" t="s">
         <v>309</v>
       </c>
@@ -54410,7 +54410,7 @@
         <v>147.29985915508601</v>
       </c>
       <c r="W274" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X274" s="116"/>
@@ -54419,15 +54419,15 @@
         <v>0</v>
       </c>
       <c r="Z274" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA274" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB274" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA274" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB274" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC274" s="128">
@@ -54440,7 +54440,7 @@
         <v>0.42</v>
       </c>
       <c r="AH274" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI274" s="116"/>
@@ -54456,11 +54456,11 @@
         <v>0</v>
       </c>
       <c r="AM274" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="127" t="s">
         <v>309</v>
       </c>
@@ -54521,7 +54521,7 @@
         <v>4215.2245070423196</v>
       </c>
       <c r="W275" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X275" s="116"/>
@@ -54530,15 +54530,15 @@
         <v>0</v>
       </c>
       <c r="Z275" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA275" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB275" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA275" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB275" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC275" s="128">
@@ -54551,7 +54551,7 @@
         <v>0.42</v>
       </c>
       <c r="AH275" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI275" s="116"/>
@@ -54567,11 +54567,11 @@
         <v>0</v>
       </c>
       <c r="AM275" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="127" t="s">
         <v>309</v>
       </c>
@@ -54632,7 +54632,7 @@
         <v>127.3395774647</v>
       </c>
       <c r="W276" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X276" s="116"/>
@@ -54641,15 +54641,15 @@
         <v>0</v>
       </c>
       <c r="Z276" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA276" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB276" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA276" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB276" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC276" s="128">
@@ -54662,7 +54662,7 @@
         <v>0.42</v>
       </c>
       <c r="AH276" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI276" s="116"/>
@@ -54678,11 +54678,11 @@
         <v>0</v>
       </c>
       <c r="AM276" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="127" t="s">
         <v>309</v>
       </c>
@@ -54743,7 +54743,7 @@
         <v>172.66352112698951</v>
       </c>
       <c r="W277" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X277" s="116"/>
@@ -54752,15 +54752,15 @@
         <v>0</v>
       </c>
       <c r="Z277" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA277" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB277" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA277" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB277" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC277" s="128">
@@ -54773,7 +54773,7 @@
         <v>0.42</v>
       </c>
       <c r="AH277" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI277" s="116"/>
@@ -54789,11 +54789,11 @@
         <v>0</v>
       </c>
       <c r="AM277" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="127" t="s">
         <v>309</v>
       </c>
@@ -54854,7 +54854,7 @@
         <v>11055.15</v>
       </c>
       <c r="W278" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X278" s="116"/>
@@ -54863,15 +54863,15 @@
         <v>0</v>
       </c>
       <c r="Z278" s="66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AA278" s="116">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB278" s="116">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AA278" s="116">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB278" s="116">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC278" s="128">
@@ -54884,7 +54884,7 @@
         <v>0.42</v>
       </c>
       <c r="AH278" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI278" s="116"/>
@@ -54900,11 +54900,11 @@
         <v>0</v>
       </c>
       <c r="AM278" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="127" t="s">
         <v>309</v>
       </c>
@@ -54965,7 +54965,7 @@
         <v>151918.79</v>
       </c>
       <c r="W279" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>7506.4659414225971</v>
       </c>
       <c r="X279" s="116"/>
@@ -54978,11 +54978,11 @@
         <v>7506.4518828451901</v>
       </c>
       <c r="AA279" s="116">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>362.15405857740461</v>
       </c>
       <c r="AB279" s="116">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>7868.6200000000017</v>
       </c>
       <c r="AC279" s="128">
@@ -54995,7 +54995,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AH279" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>7868.605263157895</v>
       </c>
       <c r="AI279" s="116"/>
@@ -55011,7 +55011,7 @@
         <v>1101.5899999999992</v>
       </c>
       <c r="AM279" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>7506.4518828451901</v>
       </c>
       <c r="AN279" s="115">
@@ -55019,7 +55019,7 @@
         <v>-1.4058577407013217E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="127" t="s">
         <v>309</v>
       </c>
@@ -55080,7 +55080,7 @@
         <v>205.52</v>
       </c>
       <c r="W280" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X280" s="116"/>
@@ -55093,11 +55093,11 @@
         <v>0</v>
       </c>
       <c r="AA280" s="116">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AB280" s="116">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AC280" s="128">
@@ -55110,7 +55110,7 @@
         <v>0.26</v>
       </c>
       <c r="AH280" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI280" s="116"/>
@@ -55126,11 +55126,11 @@
         <v>0</v>
       </c>
       <c r="AM280" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="127" t="s">
         <v>309</v>
       </c>
@@ -55191,7 +55191,7 @@
         <v>15503.97</v>
       </c>
       <c r="W281" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X281" s="116"/>
@@ -55204,11 +55204,11 @@
         <v>0</v>
       </c>
       <c r="AA281" s="116">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AB281" s="116">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AC281" s="128">
@@ -55221,7 +55221,7 @@
         <v>0.36</v>
       </c>
       <c r="AH281" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI281" s="116"/>
@@ -55237,11 +55237,11 @@
         <v>0</v>
       </c>
       <c r="AM281" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="127" t="s">
         <v>309</v>
       </c>
@@ -55302,7 +55302,7 @@
         <v>2302.4499999960517</v>
       </c>
       <c r="W282" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>10936.706165413532</v>
       </c>
       <c r="X282" s="116"/>
@@ -55315,11 +55315,11 @@
         <v>10936.984962406015</v>
       </c>
       <c r="AA282" s="116">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>82.853834586467201</v>
       </c>
       <c r="AB282" s="116">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>11019.56</v>
       </c>
       <c r="AC282" s="128">
@@ -55332,7 +55332,7 @@
         <v>0.32</v>
       </c>
       <c r="AH282" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>11019.840909090908</v>
       </c>
       <c r="AI282" s="116">
@@ -55350,7 +55350,7 @@
         <v>7766.3300000060099</v>
       </c>
       <c r="AM282" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>10936.984962406015</v>
       </c>
       <c r="AN282" s="115">
@@ -55358,7 +55358,7 @@
         <v>0.27879699248296674</v>
       </c>
     </row>
-    <row r="283" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="127" t="s">
         <v>309</v>
       </c>
@@ -55419,7 +55419,7 @@
         <v>5696.55</v>
       </c>
       <c r="W283" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X283" s="116"/>
@@ -55432,11 +55432,11 @@
         <v>0</v>
       </c>
       <c r="AA283" s="116">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AB283" s="116">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AC283" s="128">
@@ -55449,7 +55449,7 @@
         <v>0</v>
       </c>
       <c r="AH283" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI283" s="116"/>
@@ -55465,11 +55465,11 @@
         <v>0</v>
       </c>
       <c r="AM283" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="127" t="s">
         <v>309</v>
       </c>
@@ -55530,7 +55530,7 @@
         <v>6379.42</v>
       </c>
       <c r="W284" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X284" s="116"/>
@@ -55543,11 +55543,11 @@
         <v>0</v>
       </c>
       <c r="AA284" s="116">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AB284" s="116">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AC284" s="128">
@@ -55560,7 +55560,7 @@
         <v>0.11</v>
       </c>
       <c r="AH284" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI284" s="116"/>
@@ -55576,11 +55576,11 @@
         <v>0</v>
       </c>
       <c r="AM284" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="127" t="s">
         <v>309</v>
       </c>
@@ -55641,7 +55641,7 @@
         <v>16513.649999999998</v>
       </c>
       <c r="W285" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>29.950000000000003</v>
       </c>
       <c r="X285" s="116"/>
@@ -55654,11 +55654,11 @@
         <v>21.091549295774652</v>
       </c>
       <c r="AA285" s="116">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AB285" s="116">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>29.950000000000003</v>
       </c>
       <c r="AC285" s="128">
@@ -55671,7 +55671,7 @@
         <v>0.42</v>
       </c>
       <c r="AH285" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>21.091549295774652</v>
       </c>
       <c r="AI285" s="116"/>
@@ -55687,7 +55687,7 @@
         <v>0</v>
       </c>
       <c r="AM285" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>21.091549295774652</v>
       </c>
       <c r="AN285" s="115">
@@ -55695,7 +55695,7 @@
         <v>-8.8584507042253513</v>
       </c>
     </row>
-    <row r="286" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="127" t="s">
         <v>309</v>
       </c>
@@ -55756,7 +55756,7 @@
         <v>-1.02</v>
       </c>
       <c r="W286" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X286" s="116"/>
@@ -55769,11 +55769,11 @@
         <v>0</v>
       </c>
       <c r="AA286" s="116">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AB286" s="116">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AC286" s="128">
@@ -55786,7 +55786,7 @@
         <v>0.42</v>
       </c>
       <c r="AH286" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AI286" s="116"/>
@@ -55802,11 +55802,11 @@
         <v>0</v>
       </c>
       <c r="AM286" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="127" t="s">
         <v>309</v>
       </c>
@@ -55867,7 +55867,7 @@
         <v>-25.54</v>
       </c>
       <c r="W287" s="116">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>25.54</v>
       </c>
       <c r="X287" s="116"/>
@@ -55880,11 +55880,11 @@
         <v>70.569999999999993</v>
       </c>
       <c r="AA287" s="116">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AB287" s="116">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>25.54</v>
       </c>
       <c r="AC287" s="128">
@@ -55897,7 +55897,7 @@
         <v>0</v>
       </c>
       <c r="AH287" s="116">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>70.569999999999993</v>
       </c>
       <c r="AI287" s="116">
@@ -55915,7 +55915,7 @@
         <v>45.029999999999994</v>
       </c>
       <c r="AM287" s="131">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>70.569999999999993</v>
       </c>
       <c r="AN287" s="115">
@@ -55923,7 +55923,7 @@
         <v>45.029999999999994</v>
       </c>
     </row>
-    <row r="288" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="127" t="s">
         <v>309</v>
       </c>
@@ -55999,7 +55999,7 @@
         <v>6794871.7949056607</v>
       </c>
       <c r="AA288" s="116">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>-10256.410000000149</v>
       </c>
       <c r="AB288" s="125">
@@ -56029,7 +56029,7 @@
       <c r="AL288" s="118"/>
       <c r="AM288" s="118"/>
     </row>
-    <row r="289" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="127" t="s">
         <v>309</v>
       </c>
@@ -56103,7 +56103,7 @@
         <v>0</v>
       </c>
       <c r="AA289" s="116">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>74371.509999999995</v>
       </c>
       <c r="AB289" s="125">
@@ -56133,7 +56133,7 @@
       <c r="AL289" s="118"/>
       <c r="AM289" s="118"/>
     </row>
-    <row r="290" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="127" t="s">
         <v>309</v>
       </c>
@@ -56206,7 +56206,7 @@
         <v>95400</v>
       </c>
       <c r="AA290" s="116">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AB290" s="125">
@@ -56236,7 +56236,7 @@
       <c r="AL290" s="118"/>
       <c r="AM290" s="118"/>
     </row>
-    <row r="291" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="127" t="s">
         <v>309</v>
       </c>
@@ -56316,7 +56316,7 @@
         <v>14909400</v>
       </c>
       <c r="AA291" s="140">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>150600</v>
       </c>
       <c r="AB291" s="139">
@@ -56344,7 +56344,7 @@
       <c r="AL291" s="136"/>
       <c r="AM291" s="136"/>
     </row>
-    <row r="292" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="127" t="s">
         <v>309</v>
       </c>
@@ -56444,7 +56444,7 @@
       <c r="AL292" s="118"/>
       <c r="AM292" s="118"/>
     </row>
-    <row r="293" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="127" t="s">
         <v>309</v>
       </c>
@@ -56555,7 +56555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="127" t="s">
         <v>309</v>
       </c>
@@ -56666,7 +56666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="127" t="s">
         <v>309</v>
       </c>
@@ -56777,7 +56777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="127" t="s">
         <v>309</v>
       </c>
@@ -56888,7 +56888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="127" t="s">
         <v>309</v>
       </c>
@@ -56999,7 +56999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="127" t="s">
         <v>332</v>
       </c>
@@ -57235,7 +57235,7 @@
         <v>-5161.2870409455445</v>
       </c>
     </row>
-    <row r="300" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="127" t="s">
         <v>332</v>
       </c>
@@ -57416,8 +57416,7 @@
         <v>-9.6406438387930393E-11</v>
       </c>
       <c r="W301" s="116">
-        <f t="shared" si="93"/>
-        <v>16133.519999999997</v>
+        <v>0</v>
       </c>
       <c r="X301" s="116"/>
       <c r="Y301" s="66">
@@ -57426,15 +57425,14 @@
       </c>
       <c r="Z301" s="66">
         <f t="shared" si="64"/>
-        <v>13118.129032258064</v>
+        <v>0</v>
       </c>
       <c r="AA301" s="125">
         <f t="shared" si="96"/>
-        <v>1.8189894035458565E-12</v>
+        <v>16133.519999999999</v>
       </c>
       <c r="AB301" s="116">
-        <f t="shared" si="88"/>
-        <v>16133.519999999999</v>
+        <v>0</v>
       </c>
       <c r="AC301" s="128">
         <v>0.05</v>
@@ -57464,15 +57462,14 @@
         <v>95867.040000000008</v>
       </c>
       <c r="AM301" s="116">
-        <f t="shared" si="97"/>
-        <v>13118.129032258064</v>
+        <v>0</v>
       </c>
       <c r="AN301" s="115">
         <f t="shared" si="95"/>
-        <v>-3015.3909677419324</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="127" t="s">
         <v>332</v>
       </c>
@@ -57587,7 +57584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="127" t="s">
         <v>332</v>
       </c>
@@ -57699,7 +57696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="127" t="s">
         <v>332</v>
       </c>
@@ -57815,7 +57812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="127" t="s">
         <v>332</v>
       </c>
@@ -57927,7 +57924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="127" t="s">
         <v>332</v>
       </c>
@@ -58039,7 +58036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="127" t="s">
         <v>332</v>
       </c>
@@ -58267,7 +58264,7 @@
         <v>1.1340000000054715</v>
       </c>
     </row>
-    <row r="309" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="127" t="s">
         <v>332</v>
       </c>
@@ -58379,7 +58376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="127" t="s">
         <v>332</v>
       </c>
@@ -58491,7 +58488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="127" t="s">
         <v>332</v>
       </c>
@@ -61739,7 +61736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="127" t="s">
         <v>332</v>
       </c>
@@ -61855,7 +61852,7 @@
         <v>2.2426778241424472E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="127" t="s">
         <v>332</v>
       </c>
@@ -62079,7 +62076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="127" t="s">
         <v>332</v>
       </c>
@@ -62195,7 +62192,7 @@
         <v>5285.372932336295</v>
       </c>
     </row>
-    <row r="344" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="127" t="s">
         <v>332</v>
       </c>
@@ -62307,7 +62304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="127" t="s">
         <v>332</v>
       </c>
@@ -62419,7 +62416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="127" t="s">
         <v>332</v>
       </c>
@@ -62535,7 +62532,7 @@
         <v>-8.3792957746478862</v>
       </c>
     </row>
-    <row r="347" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="127" t="s">
         <v>332</v>
       </c>
@@ -63207,7 +63204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="127" t="s">
         <v>332</v>
       </c>
@@ -63309,7 +63306,7 @@
       <c r="AL353" s="125"/>
       <c r="AM353" s="125"/>
     </row>
-    <row r="354" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="127" t="s">
         <v>332</v>
       </c>
@@ -63413,7 +63410,7 @@
       <c r="AL354" s="116"/>
       <c r="AM354" s="116"/>
     </row>
-    <row r="355" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="127" t="s">
         <v>332</v>
       </c>
@@ -63517,7 +63514,7 @@
       <c r="AL355" s="116"/>
       <c r="AM355" s="116"/>
     </row>
-    <row r="356" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="127" t="s">
         <v>332</v>
       </c>
@@ -63619,7 +63616,7 @@
       <c r="AL356" s="118"/>
       <c r="AM356" s="118"/>
     </row>
-    <row r="357" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="127" t="s">
         <v>332</v>
       </c>
@@ -63727,7 +63724,7 @@
       <c r="AL357" s="118"/>
       <c r="AM357" s="118"/>
     </row>
-    <row r="358" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="127" t="s">
         <v>332</v>
       </c>
@@ -63829,7 +63826,7 @@
       <c r="AL358" s="125"/>
       <c r="AM358" s="125"/>
     </row>
-    <row r="359" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="127" t="s">
         <v>332</v>
       </c>
@@ -64003,7 +64000,7 @@
       <c r="AL360" s="118"/>
       <c r="AM360" s="118"/>
     </row>
-    <row r="361" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="127" t="s">
         <v>332</v>
       </c>
@@ -64089,7 +64086,7 @@
       <c r="AL361" s="118"/>
       <c r="AM361" s="118"/>
     </row>
-    <row r="362" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="127" t="s">
         <v>332</v>
       </c>
@@ -64175,7 +64172,7 @@
       <c r="AL362" s="118"/>
       <c r="AM362" s="118"/>
     </row>
-    <row r="363" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="127" t="s">
         <v>332</v>
       </c>
@@ -64261,7 +64258,7 @@
       <c r="AL363" s="118"/>
       <c r="AM363" s="118"/>
     </row>
-    <row r="364" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="127" t="s">
         <v>332</v>
       </c>
@@ -64369,7 +64366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="142" t="s">
         <v>368</v>
       </c>
@@ -64488,7 +64485,7 @@
         <v>1839.9866504857782</v>
       </c>
     </row>
-    <row r="366" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="142" t="s">
         <v>368</v>
       </c>
@@ -64607,7 +64604,7 @@
         <v>216.70015477703419</v>
       </c>
     </row>
-    <row r="367" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="142" t="s">
         <v>368</v>
       </c>
@@ -64726,7 +64723,7 @@
         <v>21638.24398480371</v>
       </c>
     </row>
-    <row r="368" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="142" t="s">
         <v>368</v>
       </c>
@@ -64845,7 +64842,7 @@
         <v>161041.03813141963</v>
       </c>
     </row>
-    <row r="369" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="142" t="s">
         <v>368</v>
       </c>
@@ -64964,7 +64961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="142" t="s">
         <v>368</v>
       </c>
@@ -65082,7 +65079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="142" t="s">
         <v>368</v>
       </c>
@@ -65196,7 +65193,7 @@
       </c>
       <c r="AN371" s="89"/>
     </row>
-    <row r="372" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="142" t="s">
         <v>368</v>
       </c>
@@ -65313,7 +65310,7 @@
         <v>-75041.33009708731</v>
       </c>
     </row>
-    <row r="373" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="142" t="s">
         <v>368</v>
       </c>
@@ -65427,7 +65424,7 @@
       </c>
       <c r="AN373" s="89"/>
     </row>
-    <row r="374" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="142" t="s">
         <v>368</v>
       </c>
@@ -65541,7 +65538,7 @@
       </c>
       <c r="AN374" s="89"/>
     </row>
-    <row r="375" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="142" t="s">
         <v>368</v>
       </c>
@@ -65658,7 +65655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="142" t="s">
         <v>368</v>
       </c>
@@ -65772,7 +65769,7 @@
       </c>
       <c r="AN376" s="89"/>
     </row>
-    <row r="377" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="142" t="s">
         <v>368</v>
       </c>
@@ -65886,7 +65883,7 @@
       </c>
       <c r="AN377" s="89"/>
     </row>
-    <row r="378" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="142" t="s">
         <v>368</v>
       </c>
@@ -66000,7 +65997,7 @@
       </c>
       <c r="AN378" s="89"/>
     </row>
-    <row r="379" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="142" t="s">
         <v>368</v>
       </c>
@@ -66117,7 +66114,7 @@
         <v>0.4382500000001528</v>
       </c>
     </row>
-    <row r="380" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="142" t="s">
         <v>368</v>
       </c>
@@ -66234,7 +66231,7 @@
         <v>2.2727272727269821E-3</v>
       </c>
     </row>
-    <row r="381" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="142" t="s">
         <v>368</v>
       </c>
@@ -66348,7 +66345,7 @@
       </c>
       <c r="AN381" s="89"/>
     </row>
-    <row r="382" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="142" t="s">
         <v>368</v>
       </c>
@@ -66462,7 +66459,7 @@
       </c>
       <c r="AN382" s="89"/>
     </row>
-    <row r="383" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="142" t="s">
         <v>368</v>
       </c>
@@ -66576,7 +66573,7 @@
       </c>
       <c r="AN383" s="89"/>
     </row>
-    <row r="384" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="142" t="s">
         <v>368</v>
       </c>
@@ -66690,7 +66687,7 @@
       </c>
       <c r="AN384" s="89"/>
     </row>
-    <row r="385" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="142" t="s">
         <v>368</v>
       </c>
@@ -66804,7 +66801,7 @@
       </c>
       <c r="AN385" s="89"/>
     </row>
-    <row r="386" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="142" t="s">
         <v>368</v>
       </c>
@@ -66918,7 +66915,7 @@
       </c>
       <c r="AN386" s="89"/>
     </row>
-    <row r="387" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="142" t="s">
         <v>368</v>
       </c>
@@ -67032,7 +67029,7 @@
       </c>
       <c r="AN387" s="89"/>
     </row>
-    <row r="388" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="142" t="s">
         <v>368</v>
       </c>
@@ -67146,7 +67143,7 @@
       </c>
       <c r="AN388" s="89"/>
     </row>
-    <row r="389" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="142" t="s">
         <v>368</v>
       </c>
@@ -67260,7 +67257,7 @@
       </c>
       <c r="AN389" s="89"/>
     </row>
-    <row r="390" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="142" t="s">
         <v>368</v>
       </c>
@@ -67374,7 +67371,7 @@
       </c>
       <c r="AN390" s="89"/>
     </row>
-    <row r="391" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="142" t="s">
         <v>368</v>
       </c>
@@ -67488,7 +67485,7 @@
       </c>
       <c r="AN391" s="89"/>
     </row>
-    <row r="392" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="142" t="s">
         <v>368</v>
       </c>
@@ -67602,7 +67599,7 @@
       </c>
       <c r="AN392" s="89"/>
     </row>
-    <row r="393" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="142" t="s">
         <v>368</v>
       </c>
@@ -67716,7 +67713,7 @@
       </c>
       <c r="AN393" s="89"/>
     </row>
-    <row r="394" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="142" t="s">
         <v>368</v>
       </c>
@@ -67830,7 +67827,7 @@
       </c>
       <c r="AN394" s="89"/>
     </row>
-    <row r="395" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="142" t="s">
         <v>368</v>
       </c>
@@ -67944,7 +67941,7 @@
       </c>
       <c r="AN395" s="89"/>
     </row>
-    <row r="396" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="142" t="s">
         <v>368</v>
       </c>
@@ -68058,7 +68055,7 @@
       </c>
       <c r="AN396" s="89"/>
     </row>
-    <row r="397" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="142" t="s">
         <v>368</v>
       </c>
@@ -68172,7 +68169,7 @@
       </c>
       <c r="AN397" s="89"/>
     </row>
-    <row r="398" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="142" t="s">
         <v>368</v>
       </c>
@@ -68286,7 +68283,7 @@
       </c>
       <c r="AN398" s="89"/>
     </row>
-    <row r="399" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="142" t="s">
         <v>368</v>
       </c>
@@ -68400,7 +68397,7 @@
       </c>
       <c r="AN399" s="89"/>
     </row>
-    <row r="400" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="142" t="s">
         <v>368</v>
       </c>
@@ -68514,7 +68511,7 @@
       </c>
       <c r="AN400" s="89"/>
     </row>
-    <row r="401" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="142" t="s">
         <v>368</v>
       </c>
@@ -68628,7 +68625,7 @@
       </c>
       <c r="AN401" s="89"/>
     </row>
-    <row r="402" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="142" t="s">
         <v>368</v>
       </c>
@@ -68742,7 +68739,7 @@
       </c>
       <c r="AN402" s="89"/>
     </row>
-    <row r="403" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="142" t="s">
         <v>368</v>
       </c>
@@ -68856,7 +68853,7 @@
       </c>
       <c r="AN403" s="89"/>
     </row>
-    <row r="404" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="142" t="s">
         <v>368</v>
       </c>
@@ -68970,7 +68967,7 @@
       </c>
       <c r="AN404" s="89"/>
     </row>
-    <row r="405" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="142" t="s">
         <v>368</v>
       </c>
@@ -69084,7 +69081,7 @@
       </c>
       <c r="AN405" s="89"/>
     </row>
-    <row r="406" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="142" t="s">
         <v>368</v>
       </c>
@@ -69198,7 +69195,7 @@
       </c>
       <c r="AN406" s="89"/>
     </row>
-    <row r="407" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="142" t="s">
         <v>368</v>
       </c>
@@ -69312,7 +69309,7 @@
       </c>
       <c r="AN407" s="89"/>
     </row>
-    <row r="408" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="142" t="s">
         <v>368</v>
       </c>
@@ -69426,7 +69423,7 @@
       </c>
       <c r="AN408" s="89"/>
     </row>
-    <row r="409" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="142" t="s">
         <v>368</v>
       </c>
@@ -69540,7 +69537,7 @@
       </c>
       <c r="AN409" s="89"/>
     </row>
-    <row r="410" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="142" t="s">
         <v>368</v>
       </c>
@@ -69654,7 +69651,7 @@
       </c>
       <c r="AN410" s="89"/>
     </row>
-    <row r="411" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="142" t="s">
         <v>368</v>
       </c>
@@ -69771,7 +69768,7 @@
         <v>11715.499414225944</v>
       </c>
     </row>
-    <row r="412" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="142" t="s">
         <v>368</v>
       </c>
@@ -69885,7 +69882,7 @@
       </c>
       <c r="AN412" s="89"/>
     </row>
-    <row r="413" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="142" t="s">
         <v>368</v>
       </c>
@@ -69999,7 +69996,7 @@
       </c>
       <c r="AN413" s="89"/>
     </row>
-    <row r="414" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="142" t="s">
         <v>368</v>
       </c>
@@ -70116,7 +70113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="142" t="s">
         <v>368</v>
       </c>
@@ -70230,7 +70227,7 @@
       </c>
       <c r="AN415" s="89"/>
     </row>
-    <row r="416" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="142" t="s">
         <v>368</v>
       </c>
@@ -70347,7 +70344,7 @@
         <v>-13.0525352112676</v>
       </c>
     </row>
-    <row r="417" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="142" t="s">
         <v>368</v>
       </c>
@@ -70461,7 +70458,7 @@
       </c>
       <c r="AN417" s="89"/>
     </row>
-    <row r="418" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="142" t="s">
         <v>368</v>
       </c>
@@ -70575,7 +70572,7 @@
       </c>
       <c r="AN418" s="89"/>
     </row>
-    <row r="419" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="142" t="s">
         <v>368</v>
       </c>
@@ -70689,7 +70686,7 @@
       </c>
       <c r="AN419" s="89"/>
     </row>
-    <row r="420" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="142" t="s">
         <v>368</v>
       </c>
@@ -70803,7 +70800,7 @@
       </c>
       <c r="AN420" s="89"/>
     </row>
-    <row r="421" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="142" t="s">
         <v>368</v>
       </c>
@@ -70917,7 +70914,7 @@
       </c>
       <c r="AN421" s="89"/>
     </row>
-    <row r="422" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="142" t="s">
         <v>368</v>
       </c>
@@ -71031,7 +71028,7 @@
       </c>
       <c r="AN422" s="89"/>
     </row>
-    <row r="423" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="142" t="s">
         <v>368</v>
       </c>
@@ -71143,7 +71140,7 @@
       </c>
       <c r="AN423" s="89"/>
     </row>
-    <row r="424" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="142" t="s">
         <v>368</v>
       </c>
@@ -71260,7 +71257,7 @@
         <v>3.9775886524822699</v>
       </c>
     </row>
-    <row r="425" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="142" t="s">
         <v>368</v>
       </c>
@@ -71356,7 +71353,7 @@
       <c r="AM425" s="118"/>
       <c r="AN425" s="89"/>
     </row>
-    <row r="426" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="142" t="s">
         <v>368</v>
       </c>
@@ -71454,7 +71451,7 @@
       <c r="AM426" s="118"/>
       <c r="AN426" s="89"/>
     </row>
-    <row r="427" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="142" t="s">
         <v>368</v>
       </c>
@@ -71550,7 +71547,7 @@
       <c r="AM427" s="118"/>
       <c r="AN427" s="89"/>
     </row>
-    <row r="428" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="142" t="s">
         <v>368</v>
       </c>
@@ -71649,7 +71646,7 @@
       <c r="AM428" s="132"/>
       <c r="AN428" s="89"/>
     </row>
-    <row r="429" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="142" t="s">
         <v>373</v>
       </c>
@@ -71701,7 +71698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="142" t="s">
         <v>379</v>
       </c>
@@ -71753,7 +71750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="142" t="s">
         <v>380</v>
       </c>
@@ -71805,7 +71802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="142" t="s">
         <v>381</v>
       </c>
@@ -71857,7 +71854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="142" t="s">
         <v>382</v>
       </c>
@@ -71909,7 +71906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="142" t="s">
         <v>383</v>
       </c>
@@ -71961,7 +71958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="142" t="s">
         <v>384</v>
       </c>
@@ -72014,7 +72011,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN428"/>
+  <autoFilter ref="A1:AN435">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2020年6月"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="北京百度网讯科技有限公司-2020"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="信息流"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="R126">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
@@ -72061,37 +72074,37 @@
   </sheetPr>
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="5.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25.90625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.08984375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.36328125" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="10" customWidth="1"/>
     <col min="14" max="14" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="15.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="15.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.36328125" style="10" customWidth="1"/>
     <col min="21" max="21" width="8" style="10" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
@@ -72156,7 +72169,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>35</v>
       </c>
@@ -72221,7 +72234,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>35</v>
       </c>
@@ -72284,7 +72297,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>35</v>
       </c>
@@ -72347,7 +72360,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>35</v>
       </c>
@@ -72412,7 +72425,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>158</v>
       </c>
@@ -72477,7 +72490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>161</v>
       </c>
@@ -72542,7 +72555,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>164</v>
       </c>
@@ -72607,7 +72620,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>168</v>
       </c>
@@ -72672,7 +72685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>168</v>
       </c>
@@ -72737,7 +72750,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>177</v>
       </c>
@@ -72794,7 +72807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>181</v>
       </c>
@@ -72853,7 +72866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>188</v>
       </c>
@@ -72912,7 +72925,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>193</v>
       </c>
@@ -72971,7 +72984,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>35</v>
       </c>
@@ -73038,7 +73051,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>35</v>
       </c>
@@ -73101,7 +73114,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>161</v>
       </c>
@@ -73166,7 +73179,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>35</v>
       </c>
@@ -73231,7 +73244,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>168</v>
       </c>
@@ -73296,7 +73309,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>168</v>
       </c>
@@ -73361,7 +73374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>193</v>
       </c>
@@ -73424,7 +73437,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>252</v>
       </c>
@@ -73489,7 +73502,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>208</v>
       </c>
@@ -73558,7 +73571,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>211</v>
       </c>
@@ -73623,7 +73636,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>262</v>
       </c>
@@ -73680,7 +73693,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>252</v>
       </c>
@@ -73744,7 +73757,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>275</v>
       </c>
@@ -73788,27 +73801,27 @@
       </c>
       <c r="O27" s="31">
         <f>SUMIFS(客户表!Z:Z,客户表!J:J,A27,客户表!A:A,E27,客户表!N:N,F27)</f>
-        <v>1072232.8549613373</v>
+        <v>1260000.0001226277</v>
       </c>
       <c r="P27" s="37"/>
       <c r="Q27" s="33">
         <f t="shared" si="1"/>
-        <v>34975.709869186197</v>
+        <v>212114.5260590828</v>
       </c>
       <c r="R27" s="40">
         <f t="shared" si="2"/>
-        <v>34975.709869186197</v>
+        <v>212114.5260590828</v>
       </c>
       <c r="S27" s="34">
         <f t="shared" si="3"/>
-        <v>3.2619509565809147E-2</v>
+        <v>0.1683448619352691</v>
       </c>
       <c r="T27" s="42"/>
       <c r="U27" s="22" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>252</v>
       </c>
@@ -73875,7 +73888,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>279</v>
       </c>
@@ -73940,7 +73953,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>281</v>
       </c>
@@ -73997,7 +74010,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>214</v>
       </c>
@@ -74062,7 +74075,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>214</v>
       </c>
@@ -74107,27 +74120,27 @@
       </c>
       <c r="O32" s="31">
         <f>SUMIFS(客户表!Z:Z,客户表!J:J,A32,客户表!A:A,E32,客户表!N:N,F32)</f>
-        <v>278349.34545564535</v>
+        <v>1671788.522875</v>
       </c>
       <c r="P32" s="37"/>
       <c r="Q32" s="33">
         <f t="shared" si="1"/>
-        <v>20337.772599665441</v>
+        <v>1334903.0343160378</v>
       </c>
       <c r="R32" s="40">
         <f t="shared" si="2"/>
-        <v>20337.772599665441</v>
+        <v>1334903.0343160378</v>
       </c>
       <c r="S32" s="34">
         <f t="shared" si="3"/>
-        <v>7.3065638312795098E-2</v>
+        <v>0.79848797623062084</v>
       </c>
       <c r="T32" s="22"/>
       <c r="U32" s="22" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>312</v>
       </c>
@@ -74187,7 +74200,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>214</v>
       </c>
@@ -74254,7 +74267,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>246</v>
       </c>
@@ -74319,7 +74332,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>214</v>
       </c>
@@ -74381,7 +74394,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>214</v>
       </c>
@@ -74401,7 +74414,8 @@
         <v>83</v>
       </c>
       <c r="G37" s="51">
-        <v>108497.63</v>
+        <f>108497.63-16133.52</f>
+        <v>92364.11</v>
       </c>
       <c r="H37" s="37">
         <v>108497.63</v>
@@ -74421,20 +74435,20 @@
       </c>
       <c r="O37" s="31">
         <f>SUMIFS(客户表!Z:Z,客户表!J:J,A37,客户表!A:A,E37,客户表!N:N,F37)</f>
-        <v>315260.88514148135</v>
+        <v>302142.75610922329</v>
       </c>
       <c r="P37" s="22"/>
       <c r="Q37" s="33">
         <f>(O37-G37+J37)/1.06</f>
-        <v>200177.48739762389</v>
+        <v>203022.19585775782</v>
       </c>
       <c r="R37" s="40">
         <f t="shared" si="2"/>
-        <v>200177.48739762389</v>
+        <v>203022.19585775782</v>
       </c>
       <c r="S37" s="34">
         <f t="shared" si="3"/>
-        <v>0.63495821027016763</v>
+        <v>0.67194129845153783</v>
       </c>
       <c r="T37" s="22"/>
       <c r="U37" s="22" t="s">
@@ -74508,7 +74522,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>214</v>
       </c>
@@ -74574,7 +74588,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>246</v>
       </c>
@@ -74639,7 +74653,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>350</v>
       </c>
@@ -74704,7 +74718,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>352</v>
       </c>
@@ -74769,7 +74783,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>357</v>
       </c>
@@ -74836,7 +74850,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>357</v>
       </c>
@@ -75230,28 +75244,29 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H56" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U49"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2020年1-7月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-7月金源消耗表（财务运营共享版）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="-110" windowWidth="19430" windowHeight="10430" tabRatio="792" activeTab="1"/>
+    <workbookView xWindow="19095" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="792"/>
   </bookViews>
   <sheets>
     <sheet name="客户表" sheetId="1" r:id="rId1"/>
@@ -27580,53 +27580,53 @@
   </sheetPr>
   <dimension ref="A1:AN435"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1:AB1048576"/>
+      <selection pane="bottomLeft" activeCell="AC441" sqref="AC441"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="148" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="59" customWidth="1"/>
     <col min="4" max="4" width="7" style="59" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" style="59" customWidth="1"/>
-    <col min="6" max="6" width="22.36328125" style="59" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" style="59" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="59" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="59" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="59" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="59" customWidth="1"/>
-    <col min="9" max="9" width="7.36328125" style="59" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.90625" style="59" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="59" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="59" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="148" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="59" customWidth="1"/>
+    <col min="12" max="12" width="18.625" style="59" customWidth="1"/>
     <col min="13" max="13" width="6" style="59" customWidth="1"/>
-    <col min="14" max="14" width="6.90625" style="59" customWidth="1"/>
+    <col min="14" max="14" width="6.875" style="59" customWidth="1"/>
     <col min="15" max="17" width="9" style="59" customWidth="1"/>
-    <col min="18" max="18" width="6.90625" style="59" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="59" customWidth="1"/>
-    <col min="20" max="20" width="14.453125" style="59" customWidth="1"/>
-    <col min="21" max="21" width="12.36328125" style="59" customWidth="1"/>
-    <col min="22" max="22" width="16.453125" style="59" customWidth="1"/>
+    <col min="18" max="18" width="6.875" style="59" customWidth="1"/>
+    <col min="19" max="19" width="13.5" style="59" customWidth="1"/>
+    <col min="20" max="20" width="14.5" style="59" customWidth="1"/>
+    <col min="21" max="21" width="12.375" style="59" customWidth="1"/>
+    <col min="22" max="22" width="16.5" style="59" customWidth="1"/>
     <col min="23" max="23" width="13" style="59" customWidth="1"/>
-    <col min="24" max="24" width="11.36328125" style="59" customWidth="1"/>
-    <col min="25" max="25" width="11.36328125" style="59" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.36328125" style="59" customWidth="1"/>
+    <col min="24" max="24" width="11.375" style="59" customWidth="1"/>
+    <col min="25" max="25" width="11.375" style="59" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.375" style="59" customWidth="1"/>
     <col min="27" max="28" width="13" style="59" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.453125" style="59" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5" style="59" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13" style="59" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.36328125" style="59" customWidth="1"/>
-    <col min="32" max="32" width="8.08984375" style="59" customWidth="1"/>
-    <col min="33" max="33" width="9.453125" style="59" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.08984375" style="59" customWidth="1"/>
-    <col min="35" max="35" width="14.453125" style="59" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" style="59" customWidth="1"/>
-    <col min="37" max="37" width="14.453125" style="59" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.08984375" style="59" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.453125" style="59" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.36328125" style="59" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.375" style="59" customWidth="1"/>
+    <col min="32" max="32" width="8.125" style="59" customWidth="1"/>
+    <col min="33" max="33" width="9.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.125" style="59" customWidth="1"/>
+    <col min="35" max="35" width="14.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5" style="59" customWidth="1"/>
+    <col min="37" max="37" width="14.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.125" style="59" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.375" style="59" bestFit="1" customWidth="1"/>
     <col min="41" max="16384" width="9" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -27748,7 +27748,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="61" t="s">
         <v>373</v>
       </c>
@@ -27841,7 +27841,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="61" t="s">
         <v>373</v>
       </c>
@@ -27931,7 +27931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="61" t="s">
         <v>373</v>
       </c>
@@ -28026,7 +28026,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="61" t="s">
         <v>373</v>
       </c>
@@ -28117,7 +28117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="61" t="s">
         <v>373</v>
       </c>
@@ -28208,7 +28208,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="61" t="s">
         <v>373</v>
       </c>
@@ -28299,7 +28299,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="61" t="s">
         <v>373</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="61" t="s">
         <v>373</v>
       </c>
@@ -28485,7 +28485,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="61" t="s">
         <v>373</v>
       </c>
@@ -28574,7 +28574,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="61" t="s">
         <v>373</v>
       </c>
@@ -28665,7 +28665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="61" t="s">
         <v>373</v>
       </c>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="61" t="s">
         <v>373</v>
       </c>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="61" t="s">
         <v>373</v>
       </c>
@@ -28937,7 +28937,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="61" t="s">
         <v>373</v>
       </c>
@@ -29028,7 +29028,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="16" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="61" t="s">
         <v>373</v>
       </c>
@@ -29119,7 +29119,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="61" t="s">
         <v>373</v>
       </c>
@@ -29210,7 +29210,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="61" t="s">
         <v>373</v>
       </c>
@@ -29301,7 +29301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="61" t="s">
         <v>373</v>
       </c>
@@ -29392,7 +29392,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="20" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="61" t="s">
         <v>373</v>
       </c>
@@ -29483,7 +29483,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="21" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="61" t="s">
         <v>373</v>
       </c>
@@ -29574,7 +29574,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="61" t="s">
         <v>373</v>
       </c>
@@ -29665,7 +29665,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="23" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="61" t="s">
         <v>373</v>
       </c>
@@ -29756,7 +29756,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="61" t="s">
         <v>373</v>
       </c>
@@ -29847,7 +29847,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="61" t="s">
         <v>373</v>
       </c>
@@ -29938,7 +29938,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="26" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="61" t="s">
         <v>373</v>
       </c>
@@ -30029,7 +30029,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="61" t="s">
         <v>373</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="28" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="61" t="s">
         <v>373</v>
       </c>
@@ -30211,7 +30211,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="61" t="s">
         <v>373</v>
       </c>
@@ -30302,7 +30302,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="61" t="s">
         <v>373</v>
       </c>
@@ -30393,7 +30393,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="61" t="s">
         <v>373</v>
       </c>
@@ -30484,7 +30484,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="61" t="s">
         <v>373</v>
       </c>
@@ -30575,7 +30575,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="61" t="s">
         <v>373</v>
       </c>
@@ -30666,7 +30666,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="34" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="61" t="s">
         <v>373</v>
       </c>
@@ -30757,7 +30757,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="35" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="61" t="s">
         <v>373</v>
       </c>
@@ -30848,7 +30848,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="36" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="61" t="s">
         <v>373</v>
       </c>
@@ -30939,7 +30939,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="37" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="61" t="s">
         <v>373</v>
       </c>
@@ -31030,7 +31030,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="38" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="61" t="s">
         <v>373</v>
       </c>
@@ -31121,7 +31121,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="39" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="61" t="s">
         <v>373</v>
       </c>
@@ -31212,7 +31212,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="40" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="61" t="s">
         <v>373</v>
       </c>
@@ -31303,7 +31303,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="41" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="61" t="s">
         <v>373</v>
       </c>
@@ -31394,7 +31394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="61" t="s">
         <v>373</v>
       </c>
@@ -31485,7 +31485,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="43" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="61" t="s">
         <v>373</v>
       </c>
@@ -31576,7 +31576,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="61" t="s">
         <v>373</v>
       </c>
@@ -31667,7 +31667,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="45" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="61" t="s">
         <v>373</v>
       </c>
@@ -31758,7 +31758,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="61" t="s">
         <v>373</v>
       </c>
@@ -31849,7 +31849,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="47" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="61" t="s">
         <v>373</v>
       </c>
@@ -31940,7 +31940,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="48" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="61" t="s">
         <v>373</v>
       </c>
@@ -32031,7 +32031,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="49" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="61" t="s">
         <v>373</v>
       </c>
@@ -32122,7 +32122,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="61" t="s">
         <v>373</v>
       </c>
@@ -32213,7 +32213,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="51" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="61" t="s">
         <v>373</v>
       </c>
@@ -32304,7 +32304,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="52" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="61" t="s">
         <v>373</v>
       </c>
@@ -32395,7 +32395,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="53" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="61" t="s">
         <v>373</v>
       </c>
@@ -32486,7 +32486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="61" t="s">
         <v>373</v>
       </c>
@@ -32577,7 +32577,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="55" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="61" t="s">
         <v>373</v>
       </c>
@@ -32668,7 +32668,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="56" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="61" t="s">
         <v>373</v>
       </c>
@@ -32759,7 +32759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="61" t="s">
         <v>373</v>
       </c>
@@ -32853,7 +32853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="61" t="s">
         <v>373</v>
       </c>
@@ -32945,7 +32945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="61" t="s">
         <v>373</v>
       </c>
@@ -33036,7 +33036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="61" t="s">
         <v>373</v>
       </c>
@@ -33130,7 +33130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="61" t="s">
         <v>373</v>
       </c>
@@ -33221,7 +33221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="61" t="s">
         <v>373</v>
       </c>
@@ -33312,7 +33312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="61" t="s">
         <v>373</v>
       </c>
@@ -33662,7 +33662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="61" t="s">
         <v>373</v>
       </c>
@@ -33751,7 +33751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="61" t="s">
         <v>373</v>
       </c>
@@ -33840,7 +33840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="61" t="s">
         <v>373</v>
       </c>
@@ -33929,7 +33929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="61" t="s">
         <v>373</v>
       </c>
@@ -34018,7 +34018,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="61" t="s">
         <v>374</v>
       </c>
@@ -34111,7 +34111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="61" t="s">
         <v>374</v>
       </c>
@@ -34201,7 +34201,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="73" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="61" t="s">
         <v>374</v>
       </c>
@@ -34294,7 +34294,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="74" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="61" t="s">
         <v>374</v>
       </c>
@@ -34389,7 +34389,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="75" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="61" t="s">
         <v>374</v>
       </c>
@@ -34480,7 +34480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="61" t="s">
         <v>374</v>
       </c>
@@ -34571,7 +34571,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="61" t="s">
         <v>374</v>
       </c>
@@ -34662,7 +34662,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="61" t="s">
         <v>374</v>
       </c>
@@ -34753,7 +34753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="61" t="s">
         <v>374</v>
       </c>
@@ -34844,7 +34844,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="80" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="61" t="s">
         <v>374</v>
       </c>
@@ -34935,7 +34935,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="61" t="s">
         <v>374</v>
       </c>
@@ -35026,7 +35026,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="61" t="s">
         <v>374</v>
       </c>
@@ -35119,7 +35119,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="83" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="61" t="s">
         <v>374</v>
       </c>
@@ -35210,7 +35210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="61" t="s">
         <v>374</v>
       </c>
@@ -35301,7 +35301,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="85" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="61" t="s">
         <v>374</v>
       </c>
@@ -35392,7 +35392,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="86" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="61" t="s">
         <v>374</v>
       </c>
@@ -35483,7 +35483,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="61" t="s">
         <v>374</v>
       </c>
@@ -35574,7 +35574,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="88" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="61" t="s">
         <v>374</v>
       </c>
@@ -35665,7 +35665,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="89" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="61" t="s">
         <v>374</v>
       </c>
@@ -35756,7 +35756,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="90" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="61" t="s">
         <v>374</v>
       </c>
@@ -35847,7 +35847,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="91" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="61" t="s">
         <v>374</v>
       </c>
@@ -35938,7 +35938,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="61" t="s">
         <v>374</v>
       </c>
@@ -36029,7 +36029,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="93" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="61" t="s">
         <v>374</v>
       </c>
@@ -36120,7 +36120,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="61" t="s">
         <v>374</v>
       </c>
@@ -36211,7 +36211,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="61" t="s">
         <v>374</v>
       </c>
@@ -36302,7 +36302,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="96" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="61" t="s">
         <v>374</v>
       </c>
@@ -36393,7 +36393,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="97" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="61" t="s">
         <v>374</v>
       </c>
@@ -36484,7 +36484,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="61" t="s">
         <v>374</v>
       </c>
@@ -36575,7 +36575,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="99" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="61" t="s">
         <v>374</v>
       </c>
@@ -36666,7 +36666,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="100" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="61" t="s">
         <v>374</v>
       </c>
@@ -36757,7 +36757,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="101" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="61" t="s">
         <v>374</v>
       </c>
@@ -36848,7 +36848,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="102" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="61" t="s">
         <v>374</v>
       </c>
@@ -36939,7 +36939,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="103" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="61" t="s">
         <v>374</v>
       </c>
@@ -37030,7 +37030,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="104" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="61" t="s">
         <v>374</v>
       </c>
@@ -37121,7 +37121,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="105" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="61" t="s">
         <v>374</v>
       </c>
@@ -37212,7 +37212,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="106" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="61" t="s">
         <v>374</v>
       </c>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="61" t="s">
         <v>374</v>
       </c>
@@ -37394,7 +37394,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="108" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="61" t="s">
         <v>374</v>
       </c>
@@ -37485,7 +37485,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="109" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="61" t="s">
         <v>374</v>
       </c>
@@ -37576,7 +37576,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="110" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="61" t="s">
         <v>374</v>
       </c>
@@ -37667,7 +37667,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="61" t="s">
         <v>374</v>
       </c>
@@ -37758,7 +37758,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="112" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="61" t="s">
         <v>374</v>
       </c>
@@ -37849,7 +37849,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="113" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="61" t="s">
         <v>374</v>
       </c>
@@ -37940,7 +37940,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="114" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="61" t="s">
         <v>374</v>
       </c>
@@ -38031,7 +38031,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="115" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="61" t="s">
         <v>374</v>
       </c>
@@ -38122,7 +38122,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="116" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="61" t="s">
         <v>374</v>
       </c>
@@ -38213,7 +38213,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="117" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="61" t="s">
         <v>374</v>
       </c>
@@ -38304,7 +38304,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="118" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="61" t="s">
         <v>374</v>
       </c>
@@ -38395,7 +38395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="61" t="s">
         <v>374</v>
       </c>
@@ -38486,7 +38486,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="120" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="61" t="s">
         <v>374</v>
       </c>
@@ -38577,7 +38577,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="121" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="61" t="s">
         <v>374</v>
       </c>
@@ -38668,7 +38668,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="122" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="61" t="s">
         <v>374</v>
       </c>
@@ -38764,7 +38764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="61" t="s">
         <v>374</v>
       </c>
@@ -38857,7 +38857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="61" t="s">
         <v>374</v>
       </c>
@@ -38950,7 +38950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="61" t="s">
         <v>374</v>
       </c>
@@ -39041,7 +39041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="61" t="s">
         <v>374</v>
       </c>
@@ -39134,7 +39134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="61" t="s">
         <v>374</v>
       </c>
@@ -39227,7 +39227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="61" t="s">
         <v>374</v>
       </c>
@@ -39320,7 +39320,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="94" t="s">
         <v>375</v>
       </c>
@@ -39413,7 +39413,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="94" t="s">
         <v>375</v>
       </c>
@@ -39510,7 +39510,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="94" t="s">
         <v>375</v>
       </c>
@@ -39603,7 +39603,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="94" t="s">
         <v>375</v>
       </c>
@@ -39693,7 +39693,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="133" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="94" t="s">
         <v>375</v>
       </c>
@@ -39784,7 +39784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="94" t="s">
         <v>375</v>
       </c>
@@ -39875,7 +39875,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="94" t="s">
         <v>375</v>
       </c>
@@ -39966,7 +39966,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="94" t="s">
         <v>375</v>
       </c>
@@ -40057,7 +40057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="94" t="s">
         <v>375</v>
       </c>
@@ -40148,7 +40148,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="138" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="94" t="s">
         <v>375</v>
       </c>
@@ -40239,7 +40239,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="139" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="94" t="s">
         <v>375</v>
       </c>
@@ -40330,7 +40330,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="140" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="94" t="s">
         <v>375</v>
       </c>
@@ -40421,7 +40421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="94" t="s">
         <v>375</v>
       </c>
@@ -40512,7 +40512,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="142" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="94" t="s">
         <v>375</v>
       </c>
@@ -40603,7 +40603,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="143" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="94" t="s">
         <v>375</v>
       </c>
@@ -40694,7 +40694,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="94" t="s">
         <v>375</v>
       </c>
@@ -40785,7 +40785,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="145" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="94" t="s">
         <v>375</v>
       </c>
@@ -40876,7 +40876,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="146" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="94" t="s">
         <v>375</v>
       </c>
@@ -40967,7 +40967,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="147" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="94" t="s">
         <v>375</v>
       </c>
@@ -41058,7 +41058,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="148" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="94" t="s">
         <v>375</v>
       </c>
@@ -41149,7 +41149,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="94" t="s">
         <v>375</v>
       </c>
@@ -41240,7 +41240,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="150" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="94" t="s">
         <v>375</v>
       </c>
@@ -41331,7 +41331,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="94" t="s">
         <v>375</v>
       </c>
@@ -41422,7 +41422,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="94" t="s">
         <v>375</v>
       </c>
@@ -41513,7 +41513,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="153" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="94" t="s">
         <v>375</v>
       </c>
@@ -41604,7 +41604,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="154" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="94" t="s">
         <v>375</v>
       </c>
@@ -41695,7 +41695,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="155" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="94" t="s">
         <v>375</v>
       </c>
@@ -41786,7 +41786,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="156" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="94" t="s">
         <v>375</v>
       </c>
@@ -41877,7 +41877,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="157" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="94" t="s">
         <v>375</v>
       </c>
@@ -41968,7 +41968,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="158" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="94" t="s">
         <v>375</v>
       </c>
@@ -42059,7 +42059,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="159" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="94" t="s">
         <v>375</v>
       </c>
@@ -42150,7 +42150,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="160" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="94" t="s">
         <v>375</v>
       </c>
@@ -42241,7 +42241,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="161" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="94" t="s">
         <v>375</v>
       </c>
@@ -42332,7 +42332,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="162" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="94" t="s">
         <v>375</v>
       </c>
@@ -42423,7 +42423,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="163" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="94" t="s">
         <v>375</v>
       </c>
@@ -42514,7 +42514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="94" t="s">
         <v>375</v>
       </c>
@@ -42605,7 +42605,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="165" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" s="94" t="s">
         <v>375</v>
       </c>
@@ -42696,7 +42696,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="166" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="94" t="s">
         <v>375</v>
       </c>
@@ -42787,7 +42787,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="167" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="94" t="s">
         <v>375</v>
       </c>
@@ -42878,7 +42878,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="94" t="s">
         <v>375</v>
       </c>
@@ -42969,7 +42969,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="169" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="94" t="s">
         <v>375</v>
       </c>
@@ -43060,7 +43060,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="170" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="94" t="s">
         <v>375</v>
       </c>
@@ -43151,7 +43151,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="171" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="94" t="s">
         <v>375</v>
       </c>
@@ -43242,7 +43242,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="172" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" s="94" t="s">
         <v>375</v>
       </c>
@@ -43333,7 +43333,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="173" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" s="94" t="s">
         <v>375</v>
       </c>
@@ -43424,7 +43424,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="174" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="94" t="s">
         <v>375</v>
       </c>
@@ -43515,7 +43515,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="175" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="94" t="s">
         <v>375</v>
       </c>
@@ -43606,7 +43606,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="176" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="94" t="s">
         <v>375</v>
       </c>
@@ -43697,7 +43697,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="177" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="94" t="s">
         <v>375</v>
       </c>
@@ -43789,7 +43789,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="178" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" s="94" t="s">
         <v>375</v>
       </c>
@@ -43882,7 +43882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" s="94" t="s">
         <v>375</v>
       </c>
@@ -43975,7 +43975,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" s="94" t="s">
         <v>375</v>
       </c>
@@ -48696,7 +48696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A223" s="149" t="s">
         <v>376</v>
       </c>
@@ -50326,7 +50326,7 @@
       <c r="AL237" s="116"/>
       <c r="AM237" s="116"/>
     </row>
-    <row r="238" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A238" s="127" t="s">
         <v>309</v>
       </c>
@@ -50789,7 +50789,7 @@
         <v>0</v>
       </c>
       <c r="AM241" s="131">
-        <f t="shared" ref="AM238:AM287" si="62">IF(O241="折扣",AK241*P241,IF(O241="返现",AK241/(1+AG241),AK241/(1+P241+AG241)))</f>
+        <f t="shared" ref="AM241:AM287" si="62">IF(O241="折扣",AK241*P241,IF(O241="返现",AK241/(1+AG241),AK241/(1+P241+AG241)))</f>
         <v>0</v>
       </c>
     </row>
@@ -57117,7 +57117,7 @@
         <v>-1844.7506067961167</v>
       </c>
     </row>
-    <row r="299" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="127" t="s">
         <v>332</v>
       </c>
@@ -58148,7 +58148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="127" t="s">
         <v>332</v>
       </c>
@@ -58600,7 +58600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="127" t="s">
         <v>332</v>
       </c>
@@ -58712,7 +58712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="127" t="s">
         <v>332</v>
       </c>
@@ -58824,7 +58824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="127" t="s">
         <v>332</v>
       </c>
@@ -58936,7 +58936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="127" t="s">
         <v>332</v>
       </c>
@@ -59048,7 +59048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="127" t="s">
         <v>332</v>
       </c>
@@ -59160,7 +59160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="127" t="s">
         <v>332</v>
       </c>
@@ -59272,7 +59272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="127" t="s">
         <v>332</v>
       </c>
@@ -59384,7 +59384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="127" t="s">
         <v>332</v>
       </c>
@@ -59496,7 +59496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="127" t="s">
         <v>332</v>
       </c>
@@ -59608,7 +59608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="127" t="s">
         <v>332</v>
       </c>
@@ -59720,7 +59720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="127" t="s">
         <v>332</v>
       </c>
@@ -59832,7 +59832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="127" t="s">
         <v>332</v>
       </c>
@@ -59944,7 +59944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="127" t="s">
         <v>332</v>
       </c>
@@ -60056,7 +60056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="127" t="s">
         <v>332</v>
       </c>
@@ -60168,7 +60168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="127" t="s">
         <v>332</v>
       </c>
@@ -60280,7 +60280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="127" t="s">
         <v>332</v>
       </c>
@@ -60392,7 +60392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="127" t="s">
         <v>332</v>
       </c>
@@ -60504,7 +60504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="127" t="s">
         <v>332</v>
       </c>
@@ -60616,7 +60616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="127" t="s">
         <v>332</v>
       </c>
@@ -60728,7 +60728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="127" t="s">
         <v>332</v>
       </c>
@@ -60840,7 +60840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="127" t="s">
         <v>332</v>
       </c>
@@ -60952,7 +60952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="127" t="s">
         <v>332</v>
       </c>
@@ -61064,7 +61064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="127" t="s">
         <v>332</v>
       </c>
@@ -61176,7 +61176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="127" t="s">
         <v>332</v>
       </c>
@@ -61288,7 +61288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="127" t="s">
         <v>332</v>
       </c>
@@ -61400,7 +61400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="127" t="s">
         <v>332</v>
       </c>
@@ -61512,7 +61512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="127" t="s">
         <v>332</v>
       </c>
@@ -61624,7 +61624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="127" t="s">
         <v>332</v>
       </c>
@@ -61964,7 +61964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="127" t="s">
         <v>332</v>
       </c>
@@ -62644,7 +62644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="127" t="s">
         <v>332</v>
       </c>
@@ -62756,7 +62756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="127" t="s">
         <v>332</v>
       </c>
@@ -62868,7 +62868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="127" t="s">
         <v>332</v>
       </c>
@@ -62980,7 +62980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="127" t="s">
         <v>332</v>
       </c>
@@ -63092,7 +63092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="127" t="s">
         <v>332</v>
       </c>
@@ -63914,7 +63914,7 @@
       <c r="AL359" s="118"/>
       <c r="AM359" s="118"/>
     </row>
-    <row r="360" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="127" t="s">
         <v>332</v>
       </c>
@@ -64842,7 +64842,7 @@
         <v>161041.03813141963</v>
       </c>
     </row>
-    <row r="369" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A369" s="142" t="s">
         <v>368</v>
       </c>
@@ -64905,22 +64905,22 @@
         <v>-1.8900000000066939</v>
       </c>
       <c r="W369" s="15">
-        <v>280591.51</v>
+        <v>297427</v>
       </c>
       <c r="X369" s="15">
-        <v>16835.490566037734</v>
+        <v>0</v>
       </c>
       <c r="Y369" s="66">
         <f t="shared" si="99"/>
-        <v>240723.49</v>
+        <v>257558.97999999998</v>
       </c>
       <c r="Z369" s="66">
         <f t="shared" si="100"/>
-        <v>297427.00056603772</v>
+        <v>297427</v>
       </c>
       <c r="AA369" s="15">
         <f t="shared" si="116"/>
-        <v>-240723.49</v>
+        <v>-257558.97999999998</v>
       </c>
       <c r="AB369" s="143">
         <f t="shared" si="110"/>
@@ -64954,7 +64954,7 @@
         <v>95868.931200000006</v>
       </c>
       <c r="AM369" s="15">
-        <v>280591.51</v>
+        <v>297427</v>
       </c>
       <c r="AN369" s="115">
         <f t="shared" si="115"/>
@@ -72012,19 +72012,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN435">
-    <filterColumn colId="0">
+    <filterColumn colId="5">
       <filters>
-        <filter val="2020年6月"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="北京百度网讯科技有限公司-2020"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="信息流"/>
+        <filter val="北京圆木天成科技发展有限公司"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -72074,37 +72064,37 @@
   </sheetPr>
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.90625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="5.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6328125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.08984375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.375" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="10" customWidth="1"/>
     <col min="14" max="14" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="15.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.36328125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.375" style="10" customWidth="1"/>
     <col min="21" max="21" width="8" style="10" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
@@ -72169,7 +72159,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>35</v>
       </c>
@@ -72234,7 +72224,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="35" t="s">
         <v>35</v>
       </c>
@@ -72297,7 +72287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="35" t="s">
         <v>35</v>
       </c>
@@ -72360,7 +72350,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>35</v>
       </c>
@@ -72425,7 +72415,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
         <v>158</v>
       </c>
@@ -72490,7 +72480,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
         <v>161</v>
       </c>
@@ -72555,7 +72545,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="35" t="s">
         <v>164</v>
       </c>
@@ -72620,7 +72610,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="35" t="s">
         <v>168</v>
       </c>
@@ -72685,7 +72675,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="35" t="s">
         <v>168</v>
       </c>
@@ -72750,7 +72740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="35" t="s">
         <v>177</v>
       </c>
@@ -72807,7 +72797,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="35" t="s">
         <v>181</v>
       </c>
@@ -72866,7 +72856,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="35" t="s">
         <v>188</v>
       </c>
@@ -72925,7 +72915,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="35" t="s">
         <v>193</v>
       </c>
@@ -72984,7 +72974,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
         <v>35</v>
       </c>
@@ -73051,7 +73041,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
         <v>35</v>
       </c>
@@ -73114,7 +73104,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
         <v>161</v>
       </c>
@@ -73179,7 +73169,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
         <v>35</v>
       </c>
@@ -73244,7 +73234,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="35" t="s">
         <v>168</v>
       </c>
@@ -73309,7 +73299,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="35" t="s">
         <v>168</v>
       </c>
@@ -73374,7 +73364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="22" t="s">
         <v>193</v>
       </c>
@@ -73437,7 +73427,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="22" t="s">
         <v>252</v>
       </c>
@@ -73502,7 +73492,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="22" t="s">
         <v>208</v>
       </c>
@@ -73571,7 +73561,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="s">
         <v>211</v>
       </c>
@@ -73636,7 +73626,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
         <v>262</v>
       </c>
@@ -73693,7 +73683,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="s">
         <v>252</v>
       </c>
@@ -73757,7 +73747,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
         <v>275</v>
       </c>
@@ -73821,7 +73811,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
         <v>252</v>
       </c>
@@ -73888,7 +73878,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
         <v>279</v>
       </c>
@@ -73953,7 +73943,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
         <v>281</v>
       </c>
@@ -74010,7 +74000,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
         <v>214</v>
       </c>
@@ -74075,7 +74065,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
         <v>214</v>
       </c>
@@ -74140,7 +74130,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
         <v>312</v>
       </c>
@@ -74200,7 +74190,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
         <v>214</v>
       </c>
@@ -74267,7 +74257,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35" s="22" t="s">
         <v>246</v>
       </c>
@@ -74332,7 +74322,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36" s="22" t="s">
         <v>214</v>
       </c>
@@ -74394,7 +74384,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37" s="22" t="s">
         <v>214</v>
       </c>
@@ -74522,7 +74512,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39" s="22" t="s">
         <v>214</v>
       </c>
@@ -74588,7 +74578,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40" s="22" t="s">
         <v>246</v>
       </c>
@@ -74653,7 +74643,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41" s="22" t="s">
         <v>350</v>
       </c>
@@ -74718,7 +74708,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42" s="22" t="s">
         <v>352</v>
       </c>
@@ -74783,7 +74773,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43" s="22" t="s">
         <v>357</v>
       </c>
@@ -74850,7 +74840,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44" s="22" t="s">
         <v>357</v>
       </c>
@@ -75029,20 +75019,20 @@
       </c>
       <c r="O46" s="31">
         <f>SUMIFS(客户表!Z:Z,客户表!J:J,A46,客户表!A:A,E46,客户表!N:N,F46)</f>
-        <v>1060882.7245126395</v>
+        <v>1060882.7239466016</v>
       </c>
       <c r="P46" s="21"/>
       <c r="Q46" s="33">
         <f t="shared" si="1"/>
-        <v>240204.70142701821</v>
+        <v>240204.70089302026</v>
       </c>
       <c r="R46" s="40">
         <f t="shared" si="14"/>
-        <v>240204.70142701821</v>
+        <v>240204.70089302026</v>
       </c>
       <c r="S46" s="53">
         <f t="shared" si="15"/>
-        <v>0.22641965589303589</v>
+        <v>0.22641965551049043</v>
       </c>
       <c r="T46" s="21"/>
       <c r="U46" s="52" t="s">
@@ -75244,25 +75234,25 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="H56" s="12"/>
     </row>
   </sheetData>

--- a/2020年1-7月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-7月金源消耗表（财务运营共享版）.xlsx
@@ -27580,18 +27580,18 @@
   </sheetPr>
   <dimension ref="A1:AN435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC441" sqref="AC441"/>
+      <selection pane="bottomLeft" activeCell="T444" sqref="T444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="148" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="148" customWidth="1"/>
     <col min="2" max="3" width="9" style="59" customWidth="1"/>
     <col min="4" max="4" width="7" style="59" customWidth="1"/>
     <col min="5" max="5" width="17.125" style="59" customWidth="1"/>
-    <col min="6" max="6" width="22.375" style="59" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="59" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="59" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="59" customWidth="1"/>
     <col min="9" max="9" width="7.375" style="59" hidden="1" customWidth="1"/>
@@ -32759,7 +32759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A57" s="61" t="s">
         <v>373</v>
       </c>
@@ -38668,7 +38668,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="122" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A122" s="61" t="s">
         <v>374</v>
       </c>
@@ -43697,7 +43697,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="177" spans="1:40" hidden="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A177" s="94" t="s">
         <v>375</v>
       </c>
@@ -48696,7 +48696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="149" t="s">
         <v>376</v>
       </c>
@@ -49834,7 +49834,7 @@
       <c r="AL232" s="116"/>
       <c r="AM232" s="116"/>
     </row>
-    <row r="233" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A233" s="149" t="s">
         <v>376</v>
       </c>
@@ -50227,7 +50227,7 @@
       <c r="AL236" s="123"/>
       <c r="AM236" s="123"/>
     </row>
-    <row r="237" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A237" s="149" t="s">
         <v>376</v>
       </c>
@@ -50289,8 +50289,7 @@
         <v>24405.212030075189</v>
       </c>
       <c r="X237" s="14">
-        <f>W237*6%</f>
-        <v>1464.3127218045113</v>
+        <v>0</v>
       </c>
       <c r="Y237" s="66">
         <f t="shared" si="45"/>
@@ -50298,7 +50297,7 @@
       </c>
       <c r="Z237" s="66">
         <f t="shared" si="47"/>
-        <v>25869.5247518797</v>
+        <v>24405.212030075189</v>
       </c>
       <c r="AA237" s="113">
         <f t="shared" ref="AA237" si="52">U237-W237</f>
@@ -50326,7 +50325,7 @@
       <c r="AL237" s="116"/>
       <c r="AM237" s="116"/>
     </row>
-    <row r="238" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="127" t="s">
         <v>309</v>
       </c>
@@ -55923,7 +55922,7 @@
         <v>45.029999999999994</v>
       </c>
     </row>
-    <row r="288" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A288" s="127" t="s">
         <v>309</v>
       </c>
@@ -56344,7 +56343,7 @@
       <c r="AL291" s="136"/>
       <c r="AM291" s="136"/>
     </row>
-    <row r="292" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A292" s="127" t="s">
         <v>309</v>
       </c>
@@ -57356,7 +57355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="127" t="s">
         <v>332</v>
       </c>
@@ -63616,7 +63615,7 @@
       <c r="AL356" s="118"/>
       <c r="AM356" s="118"/>
     </row>
-    <row r="357" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A357" s="127" t="s">
         <v>332</v>
       </c>
@@ -64842,7 +64841,7 @@
         <v>161041.03813141963</v>
       </c>
     </row>
-    <row r="369" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="142" t="s">
         <v>368</v>
       </c>
@@ -71353,7 +71352,7 @@
       <c r="AM425" s="118"/>
       <c r="AN425" s="89"/>
     </row>
-    <row r="426" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A426" s="142" t="s">
         <v>368</v>
       </c>
@@ -72014,7 +72013,17 @@
   <autoFilter ref="A1:AN435">
     <filterColumn colId="5">
       <filters>
-        <filter val="北京圆木天成科技发展有限公司"/>
+        <filter val="一汽丰田汽车销售有限公司"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="北京百度网讯科技有限公司-2020"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="品牌专区"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -73858,20 +73867,20 @@
       </c>
       <c r="O28" s="31">
         <f>SUMIFS(客户表!Z:Z,客户表!J:J,A28,客户表!A:A,E28,客户表!N:N,F28)</f>
-        <v>6820741.3193518799</v>
+        <v>6819277.0066300761</v>
       </c>
       <c r="P28" s="37"/>
       <c r="Q28" s="33">
         <f t="shared" si="1"/>
-        <v>3092328.5135395089</v>
+        <v>3090947.0864434675</v>
       </c>
       <c r="R28" s="40">
         <f t="shared" si="2"/>
-        <v>3092328.5135395089</v>
+        <v>3090947.0864434675</v>
       </c>
       <c r="S28" s="34">
         <f t="shared" si="3"/>
-        <v>0.45337132266927077</v>
+        <v>0.45326609894836045</v>
       </c>
       <c r="T28" s="43"/>
       <c r="U28" s="22" t="s">
